--- a/data/hospital/data.xlsx
+++ b/data/hospital/data.xlsx
@@ -4729,7 +4729,7 @@
         <v>134.053266</v>
       </c>
       <c r="D53" t="str">
-        <v>香川県高松市伏石町1316－3</v>
+        <v>香川県高松市伏石町1316−3</v>
       </c>
       <c r="E53" t="str">
         <v>無床診療所</v>
@@ -10886,7 +10886,7 @@
         <v>高松市</v>
       </c>
       <c r="I127" t="str">
-        <v>医療法人社団重陽会きゅうか内科ｸﾘﾆｯｸ</v>
+        <v>医療法人社団重陽会きゅうか内科クリニック</v>
       </c>
       <c r="J127" t="str">
         <v/>
@@ -11867,7 +11867,7 @@
         <v>134.056597</v>
       </c>
       <c r="D139" t="str">
-        <v>香川県高松市楠上町二丁目3－15</v>
+        <v>香川県高松市楠上町二丁目3−15</v>
       </c>
       <c r="E139" t="str">
         <v>無床診療所</v>
@@ -13542,7 +13542,7 @@
         <v>高松市</v>
       </c>
       <c r="I159" t="str">
-        <v>医療法人社団さんあいｸﾘﾆｯｸ</v>
+        <v>医療法人社団さんあいクリニック</v>
       </c>
       <c r="J159" t="str">
         <v/>
@@ -17007,10 +17007,10 @@
         <v>jp.takamatsu.smartcity.medical.Hospital.210</v>
       </c>
       <c r="B201" t="str">
-        <v>34.422115</v>
+        <v>34.42253442016842</v>
       </c>
       <c r="C201" t="str">
-        <v>134.054774</v>
+        <v>134.05422288681268</v>
       </c>
       <c r="D201" t="str">
         <v>香川県高松市男木町134</v>
@@ -21294,7 +21294,7 @@
         <v>内科、整形外科、脳神経外科、リハビリ科</v>
       </c>
       <c r="T252" t="str">
-        <v>西高松脳外科･内科クリニック</v>
+        <v>西高松脳外科・内科クリニック</v>
       </c>
       <c r="U252" t="str">
         <v/>
@@ -50379,7 +50379,7 @@
         <v>134.123111</v>
       </c>
       <c r="D603" t="str">
-        <v>香川県高松市牟礼町牟礼2431－1</v>
+        <v>香川県高松市牟礼町牟礼2431−1</v>
       </c>
       <c r="E603" t="str">
         <v>歯科</v>
@@ -51458,7 +51458,7 @@
         <v>134.04887</v>
       </c>
       <c r="D616" t="str">
-        <v>香川県高松市花ノ宮町一丁目９－２２</v>
+        <v>香川県高松市花ノ宮町一丁目９−２２</v>
       </c>
       <c r="E616" t="str">
         <v>無床診療所</v>

--- a/data/hospital/data.xlsx
+++ b/data/hospital/data.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13695" uniqueCount="5784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13711" uniqueCount="5784">
   <si>
     <t>#property</t>
   </si>
@@ -17602,7 +17602,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -17666,7 +17666,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -18008,9 +18008,9 @@
   </sheetPr>
   <dimension ref="A1:X620"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="E620" sqref="E620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -18019,10 +18019,10 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.59765625" customWidth="1"/>
-    <col min="5" max="5" width="15.8984375" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.8984375" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
-    <col min="8" max="8" width="9.765625E-2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.765625E-2" customWidth="1"/>
     <col min="9" max="9" width="23.296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="30.19921875" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="3" customWidth="1"/>
@@ -63709,6 +63709,12 @@
       <c r="D613" t="s">
         <v>5730</v>
       </c>
+      <c r="E613" t="s">
+        <v>418</v>
+      </c>
+      <c r="F613" t="s">
+        <v>28</v>
+      </c>
       <c r="G613" t="s">
         <v>5778</v>
       </c>
@@ -63750,6 +63756,12 @@
       <c r="D614" t="s">
         <v>5735</v>
       </c>
+      <c r="E614" t="s">
+        <v>418</v>
+      </c>
+      <c r="F614" t="s">
+        <v>28</v>
+      </c>
       <c r="G614" t="s">
         <v>5736</v>
       </c>
@@ -63791,6 +63803,12 @@
       <c r="D615" t="s">
         <v>5735</v>
       </c>
+      <c r="E615" t="s">
+        <v>418</v>
+      </c>
+      <c r="F615" t="s">
+        <v>28</v>
+      </c>
       <c r="G615" t="s">
         <v>5779</v>
       </c>
@@ -63832,6 +63850,12 @@
       <c r="D616" t="s">
         <v>5746</v>
       </c>
+      <c r="E616" t="s">
+        <v>418</v>
+      </c>
+      <c r="F616" t="s">
+        <v>28</v>
+      </c>
       <c r="G616" t="s">
         <v>5780</v>
       </c>
@@ -63870,6 +63894,12 @@
       <c r="D617" t="s">
         <v>5752</v>
       </c>
+      <c r="E617" t="s">
+        <v>418</v>
+      </c>
+      <c r="F617" t="s">
+        <v>28</v>
+      </c>
       <c r="G617" t="s">
         <v>5781</v>
       </c>
@@ -63911,6 +63941,12 @@
       <c r="D618" t="s">
         <v>5759</v>
       </c>
+      <c r="E618" t="s">
+        <v>418</v>
+      </c>
+      <c r="F618" t="s">
+        <v>28</v>
+      </c>
       <c r="G618" t="s">
         <v>5760</v>
       </c>
@@ -63949,6 +63985,12 @@
       <c r="D619" t="s">
         <v>5765</v>
       </c>
+      <c r="E619" t="s">
+        <v>418</v>
+      </c>
+      <c r="F619" t="s">
+        <v>28</v>
+      </c>
       <c r="G619" t="s">
         <v>5782</v>
       </c>
@@ -63989,6 +64031,12 @@
       </c>
       <c r="D620" t="s">
         <v>5771</v>
+      </c>
+      <c r="E620" t="s">
+        <v>418</v>
+      </c>
+      <c r="F620" t="s">
+        <v>28</v>
       </c>
       <c r="G620" t="s">
         <v>5772</v>

--- a/data/hospital/data.xlsx
+++ b/data/hospital/data.xlsx
@@ -17879,8 +17879,8 @@
   <dimension ref="A1:W620"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A566" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q633" sqref="Q633"/>
+      <pane ySplit="1" topLeftCell="A599" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E619" sqref="E619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -62021,7 +62021,7 @@
         <v>5722</v>
       </c>
       <c r="E619" t="s">
-        <v>412</v>
+        <v>3411</v>
       </c>
       <c r="F619" t="s">
         <v>27</v>

--- a/data/hospital/data.xlsx
+++ b/data/hospital/data.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13726" uniqueCount="6190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13727" uniqueCount="6191">
   <si>
     <t>#property</t>
   </si>
@@ -15704,9 +15704,6 @@
   </si>
   <si>
     <t>フジツカミヨシシカイイン</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.578</t>
   </si>
   <si>
     <t>34.34705</t>
@@ -19007,6 +19004,35 @@
   </si>
   <si>
     <t>歯科</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川県高松市丸の内11番15号　松浦ビル5Ｆ</t>
+    <rPh sb="0" eb="3">
+      <t>カガワケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タカマツシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ゴウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>マツウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.578</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -19449,9 +19475,9 @@
   <dimension ref="A1:W625"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A572" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D584" sqref="D584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -20419,7 +20445,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>6070</v>
+        <v>6069</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>180</v>
@@ -20683,7 +20709,7 @@
         <v>36</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>6162</v>
+        <v>6161</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>36</v>
@@ -21331,7 +21357,7 @@
         <v>36</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>6056</v>
+        <v>6055</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>36</v>
@@ -22002,7 +22028,7 @@
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>6071</v>
+        <v>6070</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>495</v>
@@ -22050,7 +22076,7 @@
         <v>36</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>6171</v>
+        <v>6170</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>36</v>
@@ -22503,7 +22529,7 @@
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>6072</v>
+        <v>6071</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>905</v>
@@ -22791,7 +22817,7 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>6073</v>
+        <v>6072</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>1443</v>
@@ -23798,7 +23824,7 @@
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>6074</v>
+        <v>6073</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>2107</v>
@@ -23942,7 +23968,7 @@
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>6075</v>
+        <v>6074</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>2186</v>
@@ -24014,7 +24040,7 @@
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>6076</v>
+        <v>6075</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>2197</v>
@@ -24229,7 +24255,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>6077</v>
+        <v>6076</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>2493</v>
@@ -24873,7 +24899,7 @@
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>6078</v>
+        <v>6077</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>3356</v>
@@ -24986,7 +25012,7 @@
         <v>36</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>6150</v>
+        <v>6149</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>36</v>
@@ -25100,7 +25126,7 @@
         <v>1097</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>6149</v>
+        <v>6148</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>28</v>
@@ -25157,7 +25183,7 @@
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>6079</v>
+        <v>6078</v>
       </c>
       <c r="B80" s="5">
         <v>34.332188000000002</v>
@@ -25166,7 +25192,7 @@
         <v>134.049654</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>6143</v>
+        <v>6142</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>439</v>
@@ -25175,22 +25201,22 @@
         <v>28</v>
       </c>
       <c r="G80" s="2" t="s">
+        <v>6143</v>
+      </c>
+      <c r="I80" s="2" t="s">
         <v>6144</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>6145</v>
       </c>
       <c r="J80" s="6">
         <v>45399</v>
       </c>
       <c r="K80" s="3" t="s">
+        <v>6145</v>
+      </c>
+      <c r="M80" s="2" t="s">
         <v>6146</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="Q80" s="2" t="s">
         <v>6147</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>6148</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>38</v>
@@ -25345,7 +25371,7 @@
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>6080</v>
+        <v>6079</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>472</v>
@@ -25417,7 +25443,7 @@
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>6081</v>
+        <v>6080</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>483</v>
@@ -25751,7 +25777,7 @@
         <v>36</v>
       </c>
       <c r="Q88" s="2" t="s">
-        <v>6141</v>
+        <v>6140</v>
       </c>
       <c r="R88" s="2" t="s">
         <v>36</v>
@@ -25846,7 +25872,7 @@
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>6082</v>
+        <v>6081</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>573</v>
@@ -26420,7 +26446,7 @@
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>6083</v>
+        <v>6082</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>694</v>
@@ -27067,7 +27093,7 @@
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>6084</v>
+        <v>6083</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>792</v>
@@ -27282,7 +27308,7 @@
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>6085</v>
+        <v>6084</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>819</v>
@@ -27999,7 +28025,7 @@
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>6086</v>
+        <v>6085</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>959</v>
@@ -28645,7 +28671,7 @@
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>6087</v>
+        <v>6086</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>1084</v>
@@ -28788,7 +28814,7 @@
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>6088</v>
+        <v>6087</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>1118</v>
@@ -29004,7 +29030,7 @@
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>6089</v>
+        <v>6088</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>1147</v>
@@ -30653,7 +30679,7 @@
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>6090</v>
+        <v>6089</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>1382</v>
@@ -30662,7 +30688,7 @@
         <v>1383</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>6159</v>
+        <v>6158</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>439</v>
@@ -30701,7 +30727,7 @@
         <v>36</v>
       </c>
       <c r="Q157" s="2" t="s">
-        <v>6160</v>
+        <v>6159</v>
       </c>
       <c r="R157" s="2" t="s">
         <v>36</v>
@@ -30724,7 +30750,7 @@
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>6091</v>
+        <v>6090</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>1390</v>
@@ -30868,7 +30894,7 @@
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>6092</v>
+        <v>6091</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>749</v>
@@ -32877,7 +32903,7 @@
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>6093</v>
+        <v>6092</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>1806</v>
@@ -32949,7 +32975,7 @@
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>6094</v>
+        <v>6093</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>1817</v>
@@ -33164,7 +33190,7 @@
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>6095</v>
+        <v>6094</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>1868</v>
@@ -33306,7 +33332,7 @@
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>6096</v>
+        <v>6095</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>1887</v>
@@ -33387,31 +33413,31 @@
         <v>134.056727</v>
       </c>
       <c r="D195" s="2" t="s">
+        <v>6173</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>6174</v>
       </c>
-      <c r="E195" s="2" t="s">
+      <c r="G195" s="2" t="s">
         <v>6175</v>
       </c>
-      <c r="G195" s="2" t="s">
+      <c r="H195" s="2" t="s">
         <v>6176</v>
       </c>
-      <c r="H195" s="2" t="s">
+      <c r="I195" s="2" t="s">
         <v>6177</v>
-      </c>
-      <c r="I195" s="2" t="s">
-        <v>6178</v>
       </c>
       <c r="J195" s="6">
         <v>45604</v>
       </c>
       <c r="K195" s="3" t="s">
+        <v>6178</v>
+      </c>
+      <c r="Q195" s="2" t="s">
+        <v>6180</v>
+      </c>
+      <c r="U195" s="2" t="s">
         <v>6179</v>
-      </c>
-      <c r="Q195" s="2" t="s">
-        <v>6181</v>
-      </c>
-      <c r="U195" s="2" t="s">
-        <v>6180</v>
       </c>
       <c r="V195" s="3">
         <v>372013</v>
@@ -33635,7 +33661,7 @@
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>6097</v>
+        <v>6096</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>1940</v>
@@ -33755,7 +33781,7 @@
         <v>36</v>
       </c>
       <c r="Q200" s="2" t="s">
-        <v>6069</v>
+        <v>6068</v>
       </c>
       <c r="R200" s="2" t="s">
         <v>36</v>
@@ -33850,7 +33876,7 @@
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>6098</v>
+        <v>6097</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>1970</v>
@@ -35071,7 +35097,7 @@
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>6099</v>
+        <v>6098</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>2174</v>
@@ -35645,7 +35671,7 @@
     </row>
     <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>6100</v>
+        <v>6099</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>2282</v>
@@ -36505,7 +36531,7 @@
     </row>
     <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>6187</v>
+        <v>6186</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>2406</v>
@@ -37437,7 +37463,7 @@
     </row>
     <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>6101</v>
+        <v>6100</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>2581</v>
@@ -38371,7 +38397,7 @@
     </row>
     <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>2739</v>
@@ -39017,7 +39043,7 @@
     </row>
     <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>6103</v>
+        <v>6102</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>2840</v>
@@ -39376,7 +39402,7 @@
     </row>
     <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>6104</v>
+        <v>6103</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>2889</v>
@@ -39734,7 +39760,7 @@
     </row>
     <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>2942</v>
@@ -40163,7 +40189,7 @@
     </row>
     <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>6106</v>
+        <v>6105</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>2995</v>
@@ -40449,7 +40475,7 @@
     </row>
     <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>6107</v>
+        <v>6106</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>3037</v>
@@ -40664,7 +40690,7 @@
     </row>
     <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>6108</v>
+        <v>6107</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>3068</v>
@@ -40878,7 +40904,7 @@
     </row>
     <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>6109</v>
+        <v>6108</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>3097</v>
@@ -41093,7 +41119,7 @@
     </row>
     <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>6110</v>
+        <v>6109</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>3127</v>
@@ -41237,7 +41263,7 @@
     </row>
     <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>6111</v>
+        <v>6110</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>3148</v>
@@ -41534,7 +41560,7 @@
         <v>3209</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>6066</v>
+        <v>6065</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>439</v>
@@ -41885,7 +41911,7 @@
     </row>
     <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>6112</v>
+        <v>6111</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>3266</v>
@@ -42029,7 +42055,7 @@
     </row>
     <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>6113</v>
+        <v>6112</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>3286</v>
@@ -43628,7 +43654,7 @@
         <v>3528</v>
       </c>
       <c r="H338" s="2" t="s">
-        <v>6157</v>
+        <v>6156</v>
       </c>
       <c r="I338" s="2" t="s">
         <v>3529</v>
@@ -43772,10 +43798,10 @@
         <v>3549</v>
       </c>
       <c r="H340" s="2" t="s">
-        <v>6158</v>
+        <v>6157</v>
       </c>
       <c r="I340" s="2" t="s">
-        <v>6156</v>
+        <v>6155</v>
       </c>
       <c r="J340" s="6">
         <v>45536</v>
@@ -43823,7 +43849,7 @@
     </row>
     <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>6114</v>
+        <v>6113</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>3554</v>
@@ -43976,7 +44002,7 @@
         <v>3574</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>6058</v>
+        <v>6057</v>
       </c>
       <c r="E343" s="2" t="s">
         <v>439</v>
@@ -44003,7 +44029,7 @@
         <v>3579</v>
       </c>
       <c r="M343" s="2" t="s">
-        <v>6057</v>
+        <v>6056</v>
       </c>
       <c r="N343" s="2" t="s">
         <v>36</v>
@@ -44182,7 +44208,7 @@
     </row>
     <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>6115</v>
+        <v>6114</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>3614</v>
@@ -44335,7 +44361,7 @@
         <v>2088</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
       <c r="E348" s="2" t="s">
         <v>439</v>
@@ -44344,25 +44370,25 @@
         <v>28</v>
       </c>
       <c r="G348" s="2" t="s">
+        <v>5668</v>
+      </c>
+      <c r="H348" s="2" t="s">
         <v>5669</v>
       </c>
-      <c r="H348" s="2" t="s">
+      <c r="I348" s="2" t="s">
         <v>5670</v>
       </c>
-      <c r="I348" s="2" t="s">
+      <c r="J348" s="3" t="s">
         <v>5671</v>
       </c>
-      <c r="J348" s="3" t="s">
+      <c r="K348" s="3" t="s">
         <v>5672</v>
       </c>
-      <c r="K348" s="3" t="s">
+      <c r="L348" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M348" s="2" t="s">
         <v>5673</v>
-      </c>
-      <c r="L348" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M348" s="2" t="s">
-        <v>5674</v>
       </c>
       <c r="N348" s="2" t="s">
         <v>36</v>
@@ -44416,37 +44442,37 @@
         <v>28</v>
       </c>
       <c r="G349" s="2" t="s">
+        <v>5674</v>
+      </c>
+      <c r="H349" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I349" s="2" t="s">
         <v>5675</v>
       </c>
-      <c r="H349" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I349" s="2" t="s">
+      <c r="J349" s="3" t="s">
         <v>5676</v>
       </c>
-      <c r="J349" s="3" t="s">
+      <c r="K349" s="3" t="s">
         <v>5677</v>
       </c>
-      <c r="K349" s="3" t="s">
+      <c r="L349" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M349" s="2" t="s">
         <v>5678</v>
       </c>
-      <c r="L349" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M349" s="2" t="s">
+      <c r="N349" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O349" s="2" t="s">
         <v>5679</v>
       </c>
-      <c r="N349" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O349" s="2" t="s">
+      <c r="P349" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q349" s="2" t="s">
         <v>5680</v>
-      </c>
-      <c r="P349" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q349" s="2" t="s">
-        <v>5681</v>
       </c>
       <c r="R349" s="2" t="s">
         <v>36</v>
@@ -44473,13 +44499,13 @@
         <v>3207</v>
       </c>
       <c r="B350" s="2" t="s">
+        <v>5681</v>
+      </c>
+      <c r="C350" s="2" t="s">
         <v>5682</v>
       </c>
-      <c r="C350" s="2" t="s">
+      <c r="D350" s="2" t="s">
         <v>5683</v>
-      </c>
-      <c r="D350" s="2" t="s">
-        <v>5684</v>
       </c>
       <c r="E350" s="2" t="s">
         <v>439</v>
@@ -44488,37 +44514,37 @@
         <v>28</v>
       </c>
       <c r="G350" s="2" t="s">
+        <v>5684</v>
+      </c>
+      <c r="H350" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I350" s="2" t="s">
         <v>5685</v>
       </c>
-      <c r="H350" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I350" s="2" t="s">
+      <c r="J350" s="3" t="s">
         <v>5686</v>
       </c>
-      <c r="J350" s="3" t="s">
+      <c r="K350" s="3" t="s">
         <v>5687</v>
       </c>
-      <c r="K350" s="3" t="s">
+      <c r="L350" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M350" s="2" t="s">
         <v>5688</v>
       </c>
-      <c r="L350" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M350" s="2" t="s">
+      <c r="N350" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O350" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P350" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q350" s="2" t="s">
         <v>5689</v>
-      </c>
-      <c r="N350" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O350" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P350" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q350" s="2" t="s">
-        <v>5690</v>
       </c>
       <c r="R350" s="2" t="s">
         <v>36</v>
@@ -44545,13 +44571,13 @@
         <v>3216</v>
       </c>
       <c r="B351" s="2" t="s">
+        <v>5696</v>
+      </c>
+      <c r="C351" s="2" t="s">
         <v>5697</v>
       </c>
-      <c r="C351" s="2" t="s">
+      <c r="D351" s="2" t="s">
         <v>5698</v>
-      </c>
-      <c r="D351" s="2" t="s">
-        <v>5699</v>
       </c>
       <c r="E351" s="2" t="s">
         <v>439</v>
@@ -44560,37 +44586,37 @@
         <v>28</v>
       </c>
       <c r="G351" s="2" t="s">
+        <v>5699</v>
+      </c>
+      <c r="H351" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I351" s="2" t="s">
         <v>5700</v>
       </c>
-      <c r="H351" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I351" s="2" t="s">
+      <c r="J351" s="3" t="s">
         <v>5701</v>
       </c>
-      <c r="J351" s="3" t="s">
+      <c r="K351" s="3" t="s">
         <v>5702</v>
       </c>
-      <c r="K351" s="3" t="s">
+      <c r="L351" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M351" s="2" t="s">
         <v>5703</v>
       </c>
-      <c r="L351" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M351" s="2" t="s">
+      <c r="N351" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O351" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P351" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q351" s="2" t="s">
         <v>5704</v>
-      </c>
-      <c r="N351" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O351" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P351" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q351" s="2" t="s">
-        <v>5705</v>
       </c>
       <c r="R351" s="2" t="s">
         <v>36</v>
@@ -44614,16 +44640,16 @@
     </row>
     <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>6116</v>
+        <v>6115</v>
       </c>
       <c r="B352" s="2" t="s">
+        <v>5705</v>
+      </c>
+      <c r="C352" s="2" t="s">
         <v>5706</v>
       </c>
-      <c r="C352" s="2" t="s">
+      <c r="D352" s="2" t="s">
         <v>5707</v>
-      </c>
-      <c r="D352" s="2" t="s">
-        <v>5708</v>
       </c>
       <c r="E352" s="2" t="s">
         <v>439</v>
@@ -44632,26 +44658,26 @@
         <v>28</v>
       </c>
       <c r="G352" s="2" t="s">
+        <v>5708</v>
+      </c>
+      <c r="H352" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I352" s="2" t="s">
         <v>5709</v>
       </c>
-      <c r="H352" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I352" s="2" t="s">
+      <c r="J352" s="3" t="s">
         <v>5710</v>
       </c>
-      <c r="J352" s="3" t="s">
+      <c r="K352" s="3" t="s">
         <v>5711</v>
       </c>
-      <c r="K352" s="3" t="s">
+      <c r="L352" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M352" s="2" t="s">
         <v>5712</v>
       </c>
-      <c r="L352" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M352" s="2" t="s">
-        <v>5713</v>
-      </c>
       <c r="N352" s="2" t="s">
         <v>36</v>
       </c>
@@ -44662,7 +44688,7 @@
         <v>36</v>
       </c>
       <c r="Q352" s="2" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
       <c r="R352" s="2" t="s">
         <v>36</v>
@@ -44689,13 +44715,13 @@
         <v>3225</v>
       </c>
       <c r="B353" s="2" t="s">
+        <v>5713</v>
+      </c>
+      <c r="C353" s="2" t="s">
         <v>5714</v>
       </c>
-      <c r="C353" s="2" t="s">
+      <c r="D353" s="2" t="s">
         <v>5715</v>
-      </c>
-      <c r="D353" s="2" t="s">
-        <v>5716</v>
       </c>
       <c r="E353" s="2" t="s">
         <v>439</v>
@@ -44704,25 +44730,25 @@
         <v>28</v>
       </c>
       <c r="G353" s="2" t="s">
+        <v>5716</v>
+      </c>
+      <c r="H353" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I353" s="2" t="s">
         <v>5717</v>
-      </c>
-      <c r="H353" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I353" s="2" t="s">
-        <v>5718</v>
       </c>
       <c r="J353" s="3" t="s">
         <v>4360</v>
       </c>
       <c r="K353" s="3" t="s">
+        <v>5718</v>
+      </c>
+      <c r="L353" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M353" s="2" t="s">
         <v>5719</v>
-      </c>
-      <c r="L353" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M353" s="2" t="s">
-        <v>5720</v>
       </c>
       <c r="N353" s="2" t="s">
         <v>36</v>
@@ -44761,13 +44787,13 @@
         <v>3236</v>
       </c>
       <c r="B354" s="2" t="s">
+        <v>5728</v>
+      </c>
+      <c r="C354" s="2" t="s">
         <v>5729</v>
       </c>
-      <c r="C354" s="2" t="s">
+      <c r="D354" s="2" t="s">
         <v>5730</v>
-      </c>
-      <c r="D354" s="2" t="s">
-        <v>5731</v>
       </c>
       <c r="E354" s="2" t="s">
         <v>439</v>
@@ -44776,25 +44802,25 @@
         <v>28</v>
       </c>
       <c r="G354" s="2" t="s">
+        <v>5731</v>
+      </c>
+      <c r="H354" s="2" t="s">
         <v>5732</v>
       </c>
-      <c r="H354" s="2" t="s">
+      <c r="I354" s="2" t="s">
         <v>5733</v>
       </c>
-      <c r="I354" s="2" t="s">
+      <c r="J354" s="3" t="s">
         <v>5734</v>
       </c>
-      <c r="J354" s="3" t="s">
+      <c r="K354" s="3" t="s">
         <v>5735</v>
       </c>
-      <c r="K354" s="3" t="s">
+      <c r="L354" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M354" s="2" t="s">
         <v>5736</v>
-      </c>
-      <c r="L354" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M354" s="2" t="s">
-        <v>5737</v>
       </c>
       <c r="N354" s="2" t="s">
         <v>36</v>
@@ -44830,16 +44856,16 @@
     </row>
     <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>6117</v>
+        <v>6116</v>
       </c>
       <c r="B355" s="2" t="s">
+        <v>5737</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>5738</v>
       </c>
-      <c r="C355" s="2" t="s">
+      <c r="D355" s="2" t="s">
         <v>5739</v>
-      </c>
-      <c r="D355" s="2" t="s">
-        <v>5740</v>
       </c>
       <c r="E355" s="2" t="s">
         <v>439</v>
@@ -44848,37 +44874,37 @@
         <v>28</v>
       </c>
       <c r="G355" s="2" t="s">
+        <v>5740</v>
+      </c>
+      <c r="H355" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I355" s="2" t="s">
         <v>5741</v>
-      </c>
-      <c r="H355" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I355" s="2" t="s">
-        <v>5742</v>
       </c>
       <c r="J355" s="3" t="s">
         <v>3620</v>
       </c>
       <c r="K355" s="3" t="s">
+        <v>5742</v>
+      </c>
+      <c r="L355" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M355" s="2" t="s">
         <v>5743</v>
       </c>
-      <c r="L355" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M355" s="2" t="s">
+      <c r="N355" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O355" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P355" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q355" s="2" t="s">
         <v>5744</v>
-      </c>
-      <c r="N355" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O355" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P355" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q355" s="2" t="s">
-        <v>5745</v>
       </c>
       <c r="R355" s="2" t="s">
         <v>36</v>
@@ -44905,13 +44931,13 @@
         <v>3245</v>
       </c>
       <c r="B356" s="2" t="s">
+        <v>5745</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>5746</v>
       </c>
-      <c r="C356" s="2" t="s">
+      <c r="D356" s="2" t="s">
         <v>5747</v>
-      </c>
-      <c r="D356" s="2" t="s">
-        <v>5748</v>
       </c>
       <c r="E356" s="2" t="s">
         <v>439</v>
@@ -44920,26 +44946,26 @@
         <v>28</v>
       </c>
       <c r="G356" s="2" t="s">
+        <v>5748</v>
+      </c>
+      <c r="H356" s="2" t="s">
         <v>5749</v>
       </c>
-      <c r="H356" s="2" t="s">
+      <c r="I356" s="2" t="s">
         <v>5750</v>
-      </c>
-      <c r="I356" s="2" t="s">
-        <v>5751</v>
       </c>
       <c r="J356" s="3" t="s">
         <v>1945</v>
       </c>
       <c r="K356" s="3" t="s">
+        <v>5751</v>
+      </c>
+      <c r="L356" s="3" t="s">
         <v>5752</v>
       </c>
-      <c r="L356" s="3" t="s">
+      <c r="M356" s="2" t="s">
         <v>5753</v>
       </c>
-      <c r="M356" s="2" t="s">
-        <v>5754</v>
-      </c>
       <c r="N356" s="2" t="s">
         <v>36</v>
       </c>
@@ -44950,10 +44976,10 @@
         <v>36</v>
       </c>
       <c r="Q356" s="2" t="s">
-        <v>6164</v>
+        <v>6163</v>
       </c>
       <c r="R356" s="2" t="s">
-        <v>6163</v>
+        <v>6162</v>
       </c>
       <c r="S356" s="3" t="s">
         <v>36</v>
@@ -44977,13 +45003,13 @@
         <v>3254</v>
       </c>
       <c r="B357" s="2" t="s">
+        <v>5754</v>
+      </c>
+      <c r="C357" s="2" t="s">
         <v>5755</v>
       </c>
-      <c r="C357" s="2" t="s">
+      <c r="D357" s="2" t="s">
         <v>5756</v>
-      </c>
-      <c r="D357" s="2" t="s">
-        <v>5757</v>
       </c>
       <c r="E357" s="2" t="s">
         <v>439</v>
@@ -44992,37 +45018,37 @@
         <v>28</v>
       </c>
       <c r="G357" s="2" t="s">
+        <v>5757</v>
+      </c>
+      <c r="H357" s="2" t="s">
         <v>5758</v>
       </c>
-      <c r="H357" s="2" t="s">
+      <c r="I357" s="2" t="s">
         <v>5759</v>
       </c>
-      <c r="I357" s="2" t="s">
+      <c r="J357" s="3" t="s">
         <v>5760</v>
       </c>
-      <c r="J357" s="3" t="s">
+      <c r="K357" s="3" t="s">
         <v>5761</v>
       </c>
-      <c r="K357" s="3" t="s">
+      <c r="L357" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M357" s="2" t="s">
         <v>5762</v>
       </c>
-      <c r="L357" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M357" s="2" t="s">
+      <c r="N357" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O357" s="2" t="s">
         <v>5763</v>
       </c>
-      <c r="N357" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O357" s="2" t="s">
+      <c r="P357" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q357" s="2" t="s">
         <v>5764</v>
-      </c>
-      <c r="P357" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q357" s="2" t="s">
-        <v>5765</v>
       </c>
       <c r="R357" s="2" t="s">
         <v>36</v>
@@ -45049,13 +45075,13 @@
         <v>3265</v>
       </c>
       <c r="B358" s="2" t="s">
+        <v>5765</v>
+      </c>
+      <c r="C358" s="2" t="s">
         <v>5766</v>
       </c>
-      <c r="C358" s="2" t="s">
+      <c r="D358" s="2" t="s">
         <v>5767</v>
-      </c>
-      <c r="D358" s="2" t="s">
-        <v>5768</v>
       </c>
       <c r="E358" s="2" t="s">
         <v>439</v>
@@ -45064,37 +45090,37 @@
         <v>28</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>6172</v>
+        <v>6171</v>
       </c>
       <c r="H358" s="2" t="s">
+        <v>5768</v>
+      </c>
+      <c r="I358" s="2" t="s">
         <v>5769</v>
-      </c>
-      <c r="I358" s="2" t="s">
-        <v>5770</v>
       </c>
       <c r="J358" s="3" t="s">
         <v>1386</v>
       </c>
       <c r="K358" s="3" t="s">
-        <v>6173</v>
+        <v>6172</v>
       </c>
       <c r="L358" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M358" s="2" t="s">
+        <v>5770</v>
+      </c>
+      <c r="N358" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O358" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P358" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q358" s="2" t="s">
         <v>5771</v>
-      </c>
-      <c r="N358" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O358" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P358" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q358" s="2" t="s">
-        <v>5772</v>
       </c>
       <c r="R358" s="2" t="s">
         <v>36</v>
@@ -45117,16 +45143,16 @@
     </row>
     <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>6118</v>
+        <v>6117</v>
       </c>
       <c r="B359" s="2" t="s">
+        <v>5772</v>
+      </c>
+      <c r="C359" s="2" t="s">
         <v>5773</v>
       </c>
-      <c r="C359" s="2" t="s">
+      <c r="D359" s="2" t="s">
         <v>5774</v>
-      </c>
-      <c r="D359" s="2" t="s">
-        <v>5775</v>
       </c>
       <c r="E359" s="2" t="s">
         <v>439</v>
@@ -45135,37 +45161,37 @@
         <v>28</v>
       </c>
       <c r="G359" s="2" t="s">
+        <v>5775</v>
+      </c>
+      <c r="H359" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I359" s="2" t="s">
         <v>5776</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>5777</v>
       </c>
       <c r="J359" s="3" t="s">
         <v>3956</v>
       </c>
       <c r="K359" s="3" t="s">
+        <v>5777</v>
+      </c>
+      <c r="L359" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M359" s="2" t="s">
         <v>5778</v>
       </c>
-      <c r="L359" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M359" s="2" t="s">
+      <c r="N359" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O359" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P359" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q359" s="2" t="s">
         <v>5779</v>
-      </c>
-      <c r="N359" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O359" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P359" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q359" s="2" t="s">
-        <v>5780</v>
       </c>
       <c r="R359" s="2" t="s">
         <v>36</v>
@@ -45191,13 +45217,13 @@
         <v>3274</v>
       </c>
       <c r="B360" s="2" t="s">
+        <v>5780</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>5781</v>
       </c>
-      <c r="C360" s="2" t="s">
+      <c r="D360" s="2" t="s">
         <v>5782</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>5783</v>
       </c>
       <c r="E360" s="2" t="s">
         <v>439</v>
@@ -45206,37 +45232,37 @@
         <v>28</v>
       </c>
       <c r="G360" s="2" t="s">
+        <v>5783</v>
+      </c>
+      <c r="H360" s="2" t="s">
         <v>5784</v>
       </c>
-      <c r="H360" s="2" t="s">
+      <c r="I360" s="2" t="s">
         <v>5785</v>
       </c>
-      <c r="I360" s="2" t="s">
+      <c r="J360" s="3" t="s">
         <v>5786</v>
       </c>
-      <c r="J360" s="3" t="s">
+      <c r="K360" s="3" t="s">
         <v>5787</v>
       </c>
-      <c r="K360" s="3" t="s">
+      <c r="L360" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M360" s="2" t="s">
         <v>5788</v>
       </c>
-      <c r="L360" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M360" s="2" t="s">
+      <c r="N360" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O360" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P360" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q360" s="2" t="s">
         <v>5789</v>
-      </c>
-      <c r="N360" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O360" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P360" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q360" s="2" t="s">
-        <v>5790</v>
       </c>
       <c r="R360" s="2" t="s">
         <v>36</v>
@@ -45262,13 +45288,13 @@
         <v>3285</v>
       </c>
       <c r="B361" s="2" t="s">
+        <v>5790</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>5791</v>
       </c>
-      <c r="C361" s="2" t="s">
+      <c r="D361" s="2" t="s">
         <v>5792</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>5793</v>
       </c>
       <c r="E361" s="2" t="s">
         <v>439</v>
@@ -45277,25 +45303,25 @@
         <v>28</v>
       </c>
       <c r="G361" s="2" t="s">
+        <v>5793</v>
+      </c>
+      <c r="H361" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I361" s="2" t="s">
         <v>5794</v>
       </c>
-      <c r="H361" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I361" s="2" t="s">
+      <c r="J361" s="3" t="s">
         <v>5795</v>
       </c>
-      <c r="J361" s="3" t="s">
+      <c r="K361" s="3" t="s">
         <v>5796</v>
       </c>
-      <c r="K361" s="3" t="s">
+      <c r="L361" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M361" s="2" t="s">
         <v>5797</v>
-      </c>
-      <c r="L361" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M361" s="2" t="s">
-        <v>5798</v>
       </c>
       <c r="N361" s="2" t="s">
         <v>36</v>
@@ -45333,13 +45359,13 @@
         <v>3294</v>
       </c>
       <c r="B362" s="2" t="s">
+        <v>5807</v>
+      </c>
+      <c r="C362" s="2" t="s">
         <v>5808</v>
       </c>
-      <c r="C362" s="2" t="s">
+      <c r="D362" s="2" t="s">
         <v>5809</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>5810</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>439</v>
@@ -45348,7 +45374,7 @@
         <v>28</v>
       </c>
       <c r="G362" s="2" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="H362" s="2" t="s">
         <v>3009</v>
@@ -45360,25 +45386,25 @@
         <v>4116</v>
       </c>
       <c r="K362" s="3" t="s">
+        <v>5811</v>
+      </c>
+      <c r="L362" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M362" s="2" t="s">
         <v>5812</v>
       </c>
-      <c r="L362" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M362" s="2" t="s">
+      <c r="N362" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O362" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P362" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q362" s="2" t="s">
         <v>5813</v>
-      </c>
-      <c r="N362" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O362" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P362" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q362" s="2" t="s">
-        <v>5814</v>
       </c>
       <c r="R362" s="2" t="s">
         <v>36</v>
@@ -45404,10 +45430,10 @@
         <v>3305</v>
       </c>
       <c r="B363" s="2" t="s">
+        <v>5817</v>
+      </c>
+      <c r="C363" s="2" t="s">
         <v>5818</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>5819</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>3566</v>
@@ -45419,37 +45445,37 @@
         <v>28</v>
       </c>
       <c r="G363" s="2" t="s">
+        <v>5819</v>
+      </c>
+      <c r="H363" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I363" s="2" t="s">
         <v>5820</v>
       </c>
-      <c r="H363" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I363" s="2" t="s">
+      <c r="J363" s="3" t="s">
         <v>5821</v>
       </c>
-      <c r="J363" s="3" t="s">
+      <c r="K363" s="3" t="s">
         <v>5822</v>
       </c>
-      <c r="K363" s="3" t="s">
+      <c r="L363" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M363" s="2" t="s">
         <v>5823</v>
       </c>
-      <c r="L363" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M363" s="2" t="s">
+      <c r="N363" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O363" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P363" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q363" s="2" t="s">
         <v>5824</v>
-      </c>
-      <c r="N363" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O363" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P363" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q363" s="2" t="s">
-        <v>5825</v>
       </c>
       <c r="R363" s="2" t="s">
         <v>36</v>
@@ -45475,13 +45501,13 @@
         <v>3316</v>
       </c>
       <c r="B364" s="2" t="s">
+        <v>5825</v>
+      </c>
+      <c r="C364" s="2" t="s">
         <v>5826</v>
       </c>
-      <c r="C364" s="2" t="s">
+      <c r="D364" s="2" t="s">
         <v>5827</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>5828</v>
       </c>
       <c r="E364" s="2" t="s">
         <v>439</v>
@@ -45490,37 +45516,37 @@
         <v>28</v>
       </c>
       <c r="G364" s="2" t="s">
+        <v>5828</v>
+      </c>
+      <c r="H364" s="2" t="s">
         <v>5829</v>
       </c>
-      <c r="H364" s="2" t="s">
+      <c r="I364" s="2" t="s">
         <v>5830</v>
       </c>
-      <c r="I364" s="2" t="s">
+      <c r="J364" s="3" t="s">
         <v>5831</v>
       </c>
-      <c r="J364" s="3" t="s">
+      <c r="K364" s="3" t="s">
         <v>5832</v>
       </c>
-      <c r="K364" s="3" t="s">
+      <c r="L364" s="3" t="s">
         <v>5833</v>
       </c>
-      <c r="L364" s="3" t="s">
+      <c r="M364" s="2" t="s">
         <v>5834</v>
       </c>
-      <c r="M364" s="2" t="s">
+      <c r="N364" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O364" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P364" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q364" s="2" t="s">
         <v>5835</v>
-      </c>
-      <c r="N364" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O364" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P364" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q364" s="2" t="s">
-        <v>5836</v>
       </c>
       <c r="R364" s="2" t="s">
         <v>36</v>
@@ -45546,13 +45572,13 @@
         <v>3328</v>
       </c>
       <c r="B365" s="2" t="s">
+        <v>5836</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>5837</v>
       </c>
-      <c r="C365" s="2" t="s">
+      <c r="D365" s="2" t="s">
         <v>5838</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>5839</v>
       </c>
       <c r="E365" s="2" t="s">
         <v>439</v>
@@ -45561,7 +45587,7 @@
         <v>28</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>5840</v>
+        <v>5839</v>
       </c>
       <c r="H365" s="2" t="s">
         <v>1862</v>
@@ -45570,17 +45596,17 @@
         <v>1863</v>
       </c>
       <c r="J365" s="3" t="s">
+        <v>5840</v>
+      </c>
+      <c r="K365" s="3" t="s">
         <v>5841</v>
       </c>
-      <c r="K365" s="3" t="s">
+      <c r="L365" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M365" s="2" t="s">
         <v>5842</v>
       </c>
-      <c r="L365" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M365" s="2" t="s">
-        <v>5843</v>
-      </c>
       <c r="N365" s="2" t="s">
         <v>36</v>
       </c>
@@ -45591,7 +45617,7 @@
         <v>36</v>
       </c>
       <c r="Q365" s="2" t="s">
-        <v>6138</v>
+        <v>6137</v>
       </c>
       <c r="R365" s="2" t="s">
         <v>36</v>
@@ -45617,13 +45643,13 @@
         <v>3335</v>
       </c>
       <c r="B366" s="2" t="s">
+        <v>5843</v>
+      </c>
+      <c r="C366" s="2" t="s">
         <v>5844</v>
       </c>
-      <c r="C366" s="2" t="s">
+      <c r="D366" s="2" t="s">
         <v>5845</v>
-      </c>
-      <c r="D366" s="2" t="s">
-        <v>5846</v>
       </c>
       <c r="E366" s="2" t="s">
         <v>439</v>
@@ -45632,7 +45658,7 @@
         <v>28</v>
       </c>
       <c r="G366" s="2" t="s">
-        <v>5847</v>
+        <v>5846</v>
       </c>
       <c r="H366" s="2" t="s">
         <v>36</v>
@@ -45641,17 +45667,17 @@
         <v>4115</v>
       </c>
       <c r="J366" s="3" t="s">
+        <v>5847</v>
+      </c>
+      <c r="K366" s="3" t="s">
         <v>5848</v>
       </c>
-      <c r="K366" s="3" t="s">
+      <c r="L366" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M366" s="2" t="s">
         <v>5849</v>
       </c>
-      <c r="L366" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M366" s="2" t="s">
-        <v>5850</v>
-      </c>
       <c r="N366" s="2" t="s">
         <v>36</v>
       </c>
@@ -45662,7 +45688,7 @@
         <v>36</v>
       </c>
       <c r="Q366" s="2" t="s">
-        <v>6152</v>
+        <v>6151</v>
       </c>
       <c r="R366" s="2" t="s">
         <v>36</v>
@@ -45685,16 +45711,16 @@
     </row>
     <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>6119</v>
+        <v>6118</v>
       </c>
       <c r="B367" s="2" t="s">
+        <v>5850</v>
+      </c>
+      <c r="C367" s="2" t="s">
         <v>5851</v>
       </c>
-      <c r="C367" s="2" t="s">
+      <c r="D367" s="2" t="s">
         <v>5852</v>
-      </c>
-      <c r="D367" s="2" t="s">
-        <v>5853</v>
       </c>
       <c r="E367" s="2" t="s">
         <v>439</v>
@@ -45703,37 +45729,37 @@
         <v>28</v>
       </c>
       <c r="G367" s="2" t="s">
+        <v>5853</v>
+      </c>
+      <c r="H367" s="2" t="s">
         <v>5854</v>
       </c>
-      <c r="H367" s="2" t="s">
+      <c r="I367" s="2" t="s">
         <v>5855</v>
-      </c>
-      <c r="I367" s="2" t="s">
-        <v>5856</v>
       </c>
       <c r="J367" s="3" t="s">
         <v>1386</v>
       </c>
       <c r="K367" s="3" t="s">
+        <v>5856</v>
+      </c>
+      <c r="L367" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M367" s="2" t="s">
         <v>5857</v>
       </c>
-      <c r="L367" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M367" s="2" t="s">
+      <c r="N367" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O367" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P367" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q367" s="2" t="s">
         <v>5858</v>
-      </c>
-      <c r="N367" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O367" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P367" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q367" s="2" t="s">
-        <v>5859</v>
       </c>
       <c r="R367" s="2" t="s">
         <v>36</v>
@@ -45759,13 +45785,13 @@
         <v>3345</v>
       </c>
       <c r="B368" s="2" t="s">
+        <v>5859</v>
+      </c>
+      <c r="C368" s="2" t="s">
         <v>5860</v>
       </c>
-      <c r="C368" s="2" t="s">
+      <c r="D368" s="2" t="s">
         <v>5861</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>5862</v>
       </c>
       <c r="E368" s="2" t="s">
         <v>439</v>
@@ -45774,25 +45800,25 @@
         <v>28</v>
       </c>
       <c r="G368" s="2" t="s">
+        <v>5862</v>
+      </c>
+      <c r="H368" s="2" t="s">
         <v>5863</v>
       </c>
-      <c r="H368" s="2" t="s">
-        <v>5864</v>
-      </c>
       <c r="I368" s="2" t="s">
-        <v>5863</v>
+        <v>5862</v>
       </c>
       <c r="J368" s="3" t="s">
         <v>1945</v>
       </c>
       <c r="K368" s="3" t="s">
+        <v>5864</v>
+      </c>
+      <c r="L368" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M368" s="2" t="s">
         <v>5865</v>
-      </c>
-      <c r="L368" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M368" s="2" t="s">
-        <v>5866</v>
       </c>
       <c r="N368" s="2" t="s">
         <v>36</v>
@@ -45830,13 +45856,13 @@
         <v>3355</v>
       </c>
       <c r="B369" s="2" t="s">
+        <v>5866</v>
+      </c>
+      <c r="C369" s="2" t="s">
         <v>5867</v>
       </c>
-      <c r="C369" s="2" t="s">
+      <c r="D369" s="2" t="s">
         <v>5868</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>5869</v>
       </c>
       <c r="E369" s="2" t="s">
         <v>439</v>
@@ -45845,37 +45871,37 @@
         <v>28</v>
       </c>
       <c r="G369" s="2" t="s">
+        <v>5869</v>
+      </c>
+      <c r="H369" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I369" s="2" t="s">
         <v>5870</v>
       </c>
-      <c r="H369" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I369" s="2" t="s">
+      <c r="J369" s="3" t="s">
         <v>5871</v>
       </c>
-      <c r="J369" s="3" t="s">
+      <c r="K369" s="3" t="s">
         <v>5872</v>
       </c>
-      <c r="K369" s="3" t="s">
+      <c r="L369" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M369" s="2" t="s">
         <v>5873</v>
       </c>
-      <c r="L369" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M369" s="2" t="s">
+      <c r="N369" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O369" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P369" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q369" s="2" t="s">
         <v>5874</v>
-      </c>
-      <c r="N369" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O369" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P369" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q369" s="2" t="s">
-        <v>5875</v>
       </c>
       <c r="R369" s="2" t="s">
         <v>36</v>
@@ -45898,16 +45924,16 @@
     </row>
     <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>6161</v>
+        <v>6160</v>
       </c>
       <c r="B370" s="2" t="s">
+        <v>5875</v>
+      </c>
+      <c r="C370" s="2" t="s">
         <v>5876</v>
       </c>
-      <c r="C370" s="2" t="s">
+      <c r="D370" s="2" t="s">
         <v>5877</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>5878</v>
       </c>
       <c r="E370" s="2" t="s">
         <v>439</v>
@@ -45916,37 +45942,37 @@
         <v>28</v>
       </c>
       <c r="G370" s="2" t="s">
+        <v>5878</v>
+      </c>
+      <c r="H370" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I370" s="2" t="s">
         <v>5879</v>
       </c>
-      <c r="H370" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I370" s="2" t="s">
+      <c r="J370" s="3" t="s">
         <v>5880</v>
       </c>
-      <c r="J370" s="3" t="s">
+      <c r="K370" s="3" t="s">
         <v>5881</v>
       </c>
-      <c r="K370" s="3" t="s">
+      <c r="L370" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M370" s="2" t="s">
         <v>5882</v>
       </c>
-      <c r="L370" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M370" s="2" t="s">
+      <c r="N370" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O370" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P370" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q370" s="2" t="s">
         <v>5883</v>
-      </c>
-      <c r="N370" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O370" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P370" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q370" s="2" t="s">
-        <v>5884</v>
       </c>
       <c r="R370" s="2" t="s">
         <v>36</v>
@@ -45972,13 +45998,13 @@
         <v>3376</v>
       </c>
       <c r="B371" s="2" t="s">
+        <v>5884</v>
+      </c>
+      <c r="C371" s="2" t="s">
         <v>5885</v>
       </c>
-      <c r="C371" s="2" t="s">
+      <c r="D371" s="2" t="s">
         <v>5886</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>5887</v>
       </c>
       <c r="E371" s="2" t="s">
         <v>439</v>
@@ -45987,25 +46013,25 @@
         <v>28</v>
       </c>
       <c r="G371" s="2" t="s">
+        <v>5887</v>
+      </c>
+      <c r="H371" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I371" s="2" t="s">
         <v>5888</v>
       </c>
-      <c r="H371" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I371" s="2" t="s">
+      <c r="J371" s="3" t="s">
         <v>5889</v>
       </c>
-      <c r="J371" s="3" t="s">
+      <c r="K371" s="3" t="s">
         <v>5890</v>
       </c>
-      <c r="K371" s="3" t="s">
+      <c r="L371" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M371" s="2" t="s">
         <v>5891</v>
-      </c>
-      <c r="L371" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M371" s="2" t="s">
-        <v>5892</v>
       </c>
       <c r="N371" s="2" t="s">
         <v>36</v>
@@ -46043,13 +46069,13 @@
         <v>3386</v>
       </c>
       <c r="B372" s="2" t="s">
+        <v>5892</v>
+      </c>
+      <c r="C372" s="2" t="s">
         <v>5893</v>
       </c>
-      <c r="C372" s="2" t="s">
+      <c r="D372" s="2" t="s">
         <v>5894</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>5895</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>439</v>
@@ -46058,25 +46084,25 @@
         <v>28</v>
       </c>
       <c r="G372" s="2" t="s">
+        <v>5895</v>
+      </c>
+      <c r="H372" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I372" s="2" t="s">
         <v>5896</v>
       </c>
-      <c r="H372" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I372" s="2" t="s">
+      <c r="J372" s="3" t="s">
         <v>5897</v>
       </c>
-      <c r="J372" s="3" t="s">
+      <c r="K372" s="3" t="s">
         <v>5898</v>
       </c>
-      <c r="K372" s="3" t="s">
+      <c r="L372" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M372" s="2" t="s">
         <v>5899</v>
-      </c>
-      <c r="L372" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M372" s="2" t="s">
-        <v>5900</v>
       </c>
       <c r="N372" s="2" t="s">
         <v>36</v>
@@ -46114,13 +46140,13 @@
         <v>3396</v>
       </c>
       <c r="B373" s="2" t="s">
+        <v>5900</v>
+      </c>
+      <c r="C373" s="2" t="s">
         <v>5901</v>
       </c>
-      <c r="C373" s="2" t="s">
+      <c r="D373" s="2" t="s">
         <v>5902</v>
-      </c>
-      <c r="D373" s="2" t="s">
-        <v>5903</v>
       </c>
       <c r="E373" s="2" t="s">
         <v>439</v>
@@ -46129,37 +46155,37 @@
         <v>28</v>
       </c>
       <c r="G373" s="2" t="s">
+        <v>5903</v>
+      </c>
+      <c r="H373" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I373" s="2" t="s">
         <v>5904</v>
       </c>
-      <c r="H373" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I373" s="2" t="s">
+      <c r="J373" s="3" t="s">
         <v>5905</v>
       </c>
-      <c r="J373" s="3" t="s">
+      <c r="K373" s="3" t="s">
         <v>5906</v>
       </c>
-      <c r="K373" s="3" t="s">
+      <c r="L373" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M373" s="2" t="s">
         <v>5907</v>
       </c>
-      <c r="L373" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M373" s="2" t="s">
+      <c r="N373" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O373" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P373" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q373" s="2" t="s">
         <v>5908</v>
-      </c>
-      <c r="N373" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O373" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P373" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q373" s="2" t="s">
-        <v>5909</v>
       </c>
       <c r="R373" s="2" t="s">
         <v>36</v>
@@ -46185,13 +46211,13 @@
         <v>3405</v>
       </c>
       <c r="B374" s="2" t="s">
+        <v>5909</v>
+      </c>
+      <c r="C374" s="2" t="s">
         <v>5910</v>
       </c>
-      <c r="C374" s="2" t="s">
+      <c r="D374" s="2" t="s">
         <v>5911</v>
-      </c>
-      <c r="D374" s="2" t="s">
-        <v>5912</v>
       </c>
       <c r="E374" s="2" t="s">
         <v>439</v>
@@ -46200,25 +46226,25 @@
         <v>28</v>
       </c>
       <c r="G374" s="2" t="s">
+        <v>5912</v>
+      </c>
+      <c r="H374" s="2" t="s">
         <v>5913</v>
       </c>
-      <c r="H374" s="2" t="s">
+      <c r="I374" s="2" t="s">
         <v>5914</v>
       </c>
-      <c r="I374" s="2" t="s">
+      <c r="J374" s="3" t="s">
         <v>5915</v>
       </c>
-      <c r="J374" s="3" t="s">
+      <c r="K374" s="3" t="s">
         <v>5916</v>
       </c>
-      <c r="K374" s="3" t="s">
+      <c r="L374" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M374" s="2" t="s">
         <v>5917</v>
-      </c>
-      <c r="L374" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M374" s="2" t="s">
-        <v>5918</v>
       </c>
       <c r="N374" s="2" t="s">
         <v>36</v>
@@ -46256,13 +46282,13 @@
         <v>3415</v>
       </c>
       <c r="B375" s="2" t="s">
+        <v>5918</v>
+      </c>
+      <c r="C375" s="2" t="s">
         <v>5919</v>
       </c>
-      <c r="C375" s="2" t="s">
+      <c r="D375" s="2" t="s">
         <v>5920</v>
-      </c>
-      <c r="D375" s="2" t="s">
-        <v>5921</v>
       </c>
       <c r="E375" s="2" t="s">
         <v>439</v>
@@ -46271,25 +46297,25 @@
         <v>28</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>6186</v>
+        <v>6185</v>
       </c>
       <c r="H375" s="2" t="s">
+        <v>5921</v>
+      </c>
+      <c r="I375" s="2" t="s">
         <v>5922</v>
       </c>
-      <c r="I375" s="2" t="s">
+      <c r="J375" s="3" t="s">
         <v>5923</v>
       </c>
-      <c r="J375" s="3" t="s">
+      <c r="K375" s="3" t="s">
         <v>5924</v>
       </c>
-      <c r="K375" s="3" t="s">
-        <v>5925</v>
-      </c>
       <c r="L375" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M375" s="2" t="s">
-        <v>6140</v>
+        <v>6139</v>
       </c>
       <c r="N375" s="2" t="s">
         <v>36</v>
@@ -46301,7 +46327,7 @@
         <v>36</v>
       </c>
       <c r="Q375" s="2" t="s">
-        <v>6151</v>
+        <v>6150</v>
       </c>
       <c r="R375" s="2" t="s">
         <v>36</v>
@@ -46327,13 +46353,13 @@
         <v>3426</v>
       </c>
       <c r="B376" s="2" t="s">
+        <v>5926</v>
+      </c>
+      <c r="C376" s="2" t="s">
         <v>5927</v>
       </c>
-      <c r="C376" s="2" t="s">
+      <c r="D376" s="2" t="s">
         <v>5928</v>
-      </c>
-      <c r="D376" s="2" t="s">
-        <v>5929</v>
       </c>
       <c r="E376" s="2" t="s">
         <v>439</v>
@@ -46348,13 +46374,13 @@
         <v>36</v>
       </c>
       <c r="I376" s="2" t="s">
+        <v>5929</v>
+      </c>
+      <c r="J376" s="3" t="s">
         <v>5930</v>
       </c>
-      <c r="J376" s="3" t="s">
+      <c r="K376" s="3" t="s">
         <v>5931</v>
-      </c>
-      <c r="K376" s="3" t="s">
-        <v>5932</v>
       </c>
       <c r="L376" s="3" t="s">
         <v>36</v>
@@ -46372,7 +46398,7 @@
         <v>36</v>
       </c>
       <c r="Q376" s="2" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
       <c r="R376" s="2" t="s">
         <v>36</v>
@@ -46398,13 +46424,13 @@
         <v>3436</v>
       </c>
       <c r="B377" s="2" t="s">
+        <v>5932</v>
+      </c>
+      <c r="C377" s="2" t="s">
         <v>5933</v>
       </c>
-      <c r="C377" s="2" t="s">
+      <c r="D377" s="2" t="s">
         <v>5934</v>
-      </c>
-      <c r="D377" s="2" t="s">
-        <v>5935</v>
       </c>
       <c r="E377" s="2" t="s">
         <v>439</v>
@@ -46413,25 +46439,25 @@
         <v>28</v>
       </c>
       <c r="G377" s="2" t="s">
+        <v>5935</v>
+      </c>
+      <c r="H377" s="2" t="s">
         <v>5936</v>
       </c>
-      <c r="H377" s="2" t="s">
+      <c r="I377" s="2" t="s">
+        <v>5935</v>
+      </c>
+      <c r="J377" s="3" t="s">
         <v>5937</v>
       </c>
-      <c r="I377" s="2" t="s">
-        <v>5936</v>
-      </c>
-      <c r="J377" s="3" t="s">
+      <c r="K377" s="3" t="s">
         <v>5938</v>
       </c>
-      <c r="K377" s="3" t="s">
+      <c r="L377" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M377" s="2" t="s">
         <v>5939</v>
-      </c>
-      <c r="L377" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M377" s="2" t="s">
-        <v>5940</v>
       </c>
       <c r="N377" s="2" t="s">
         <v>36</v>
@@ -46469,13 +46495,13 @@
         <v>3446</v>
       </c>
       <c r="B378" s="2" t="s">
+        <v>5940</v>
+      </c>
+      <c r="C378" s="2" t="s">
         <v>5941</v>
       </c>
-      <c r="C378" s="2" t="s">
+      <c r="D378" s="2" t="s">
         <v>5942</v>
-      </c>
-      <c r="D378" s="2" t="s">
-        <v>5943</v>
       </c>
       <c r="E378" s="2" t="s">
         <v>439</v>
@@ -46484,25 +46510,25 @@
         <v>28</v>
       </c>
       <c r="G378" s="2" t="s">
+        <v>5943</v>
+      </c>
+      <c r="H378" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I378" s="2" t="s">
         <v>5944</v>
-      </c>
-      <c r="H378" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I378" s="2" t="s">
-        <v>5945</v>
       </c>
       <c r="J378" s="3" t="s">
         <v>1945</v>
       </c>
       <c r="K378" s="3" t="s">
+        <v>5945</v>
+      </c>
+      <c r="L378" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M378" s="2" t="s">
         <v>5946</v>
-      </c>
-      <c r="L378" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M378" s="2" t="s">
-        <v>5947</v>
       </c>
       <c r="N378" s="2" t="s">
         <v>36</v>
@@ -46543,10 +46569,10 @@
         <v>34.345345000000002</v>
       </c>
       <c r="C379" s="2" t="s">
+        <v>5947</v>
+      </c>
+      <c r="D379" s="2" t="s">
         <v>5948</v>
-      </c>
-      <c r="D379" s="2" t="s">
-        <v>5949</v>
       </c>
       <c r="E379" s="2" t="s">
         <v>439</v>
@@ -46555,26 +46581,26 @@
         <v>28</v>
       </c>
       <c r="G379" s="2" t="s">
+        <v>5949</v>
+      </c>
+      <c r="H379" s="2" t="s">
         <v>5950</v>
       </c>
-      <c r="H379" s="2" t="s">
+      <c r="I379" s="2" t="s">
         <v>5951</v>
       </c>
-      <c r="I379" s="2" t="s">
+      <c r="J379" s="3" t="s">
         <v>5952</v>
       </c>
-      <c r="J379" s="3" t="s">
+      <c r="K379" s="3" t="s">
         <v>5953</v>
       </c>
-      <c r="K379" s="3" t="s">
+      <c r="L379" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M379" s="2" t="s">
         <v>5954</v>
       </c>
-      <c r="L379" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M379" s="2" t="s">
-        <v>5955</v>
-      </c>
       <c r="N379" s="2" t="s">
         <v>36</v>
       </c>
@@ -46585,7 +46611,7 @@
         <v>36</v>
       </c>
       <c r="Q379" s="2" t="s">
-        <v>5765</v>
+        <v>5764</v>
       </c>
       <c r="R379" s="2" t="s">
         <v>36</v>
@@ -46611,13 +46637,13 @@
         <v>3466</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>5984</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>5985</v>
       </c>
-      <c r="C380" s="2" t="s">
+      <c r="D380" s="2" t="s">
         <v>5986</v>
-      </c>
-      <c r="D380" s="2" t="s">
-        <v>5987</v>
       </c>
       <c r="E380" s="2" t="s">
         <v>439</v>
@@ -46626,25 +46652,25 @@
         <v>28</v>
       </c>
       <c r="G380" s="2" t="s">
+        <v>5987</v>
+      </c>
+      <c r="H380" s="2" t="s">
         <v>5988</v>
       </c>
-      <c r="H380" s="2" t="s">
+      <c r="I380" s="2" t="s">
+        <v>6154</v>
+      </c>
+      <c r="J380" s="3" t="s">
         <v>5989</v>
       </c>
-      <c r="I380" s="2" t="s">
-        <v>6155</v>
-      </c>
-      <c r="J380" s="3" t="s">
+      <c r="K380" s="3" t="s">
         <v>5990</v>
       </c>
-      <c r="K380" s="3" t="s">
+      <c r="L380" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M380" s="2" t="s">
         <v>5991</v>
-      </c>
-      <c r="L380" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M380" s="2" t="s">
-        <v>5992</v>
       </c>
       <c r="N380" s="2" t="s">
         <v>36</v>
@@ -46682,13 +46708,13 @@
         <v>3476</v>
       </c>
       <c r="B381" s="2" t="s">
+        <v>5992</v>
+      </c>
+      <c r="C381" s="2" t="s">
         <v>5993</v>
       </c>
-      <c r="C381" s="2" t="s">
+      <c r="D381" s="2" t="s">
         <v>5994</v>
-      </c>
-      <c r="D381" s="2" t="s">
-        <v>5995</v>
       </c>
       <c r="E381" s="2" t="s">
         <v>439</v>
@@ -46697,7 +46723,7 @@
         <v>28</v>
       </c>
       <c r="G381" s="2" t="s">
-        <v>5996</v>
+        <v>5995</v>
       </c>
       <c r="H381" s="2" t="s">
         <v>1862</v>
@@ -46706,17 +46732,17 @@
         <v>1863</v>
       </c>
       <c r="J381" s="3" t="s">
+        <v>5996</v>
+      </c>
+      <c r="K381" s="3" t="s">
         <v>5997</v>
       </c>
-      <c r="K381" s="3" t="s">
+      <c r="L381" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M381" s="2" t="s">
         <v>5998</v>
       </c>
-      <c r="L381" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M381" s="2" t="s">
-        <v>5999</v>
-      </c>
       <c r="N381" s="2" t="s">
         <v>36</v>
       </c>
@@ -46727,7 +46753,7 @@
         <v>36</v>
       </c>
       <c r="Q381" s="2" t="s">
-        <v>6139</v>
+        <v>6138</v>
       </c>
       <c r="R381" s="2" t="s">
         <v>36</v>
@@ -46753,13 +46779,13 @@
         <v>3486</v>
       </c>
       <c r="B382" s="2" t="s">
+        <v>5999</v>
+      </c>
+      <c r="C382" s="2" t="s">
         <v>6000</v>
       </c>
-      <c r="C382" s="2" t="s">
+      <c r="D382" s="2" t="s">
         <v>6001</v>
-      </c>
-      <c r="D382" s="2" t="s">
-        <v>6002</v>
       </c>
       <c r="E382" s="2" t="s">
         <v>439</v>
@@ -46768,7 +46794,7 @@
         <v>28</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>6003</v>
+        <v>6002</v>
       </c>
       <c r="H382" s="2" t="s">
         <v>3586</v>
@@ -46777,28 +46803,28 @@
         <v>3587</v>
       </c>
       <c r="J382" s="3" t="s">
+        <v>6003</v>
+      </c>
+      <c r="K382" s="3" t="s">
         <v>6004</v>
       </c>
-      <c r="K382" s="3" t="s">
+      <c r="L382" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M382" s="2" t="s">
         <v>6005</v>
       </c>
-      <c r="L382" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M382" s="2" t="s">
+      <c r="N382" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O382" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P382" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q382" s="2" t="s">
         <v>6006</v>
-      </c>
-      <c r="N382" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O382" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P382" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q382" s="2" t="s">
-        <v>6007</v>
       </c>
       <c r="R382" s="2" t="s">
         <v>36</v>
@@ -46824,13 +46850,13 @@
         <v>3495</v>
       </c>
       <c r="B383" s="2" t="s">
+        <v>6007</v>
+      </c>
+      <c r="C383" s="2" t="s">
         <v>6008</v>
       </c>
-      <c r="C383" s="2" t="s">
+      <c r="D383" s="2" t="s">
         <v>6009</v>
-      </c>
-      <c r="D383" s="2" t="s">
-        <v>6010</v>
       </c>
       <c r="E383" s="2" t="s">
         <v>439</v>
@@ -46839,7 +46865,7 @@
         <v>28</v>
       </c>
       <c r="G383" s="2" t="s">
-        <v>6011</v>
+        <v>6010</v>
       </c>
       <c r="H383" s="2" t="s">
         <v>1280</v>
@@ -46851,14 +46877,14 @@
         <v>2330</v>
       </c>
       <c r="K383" s="3" t="s">
+        <v>6011</v>
+      </c>
+      <c r="L383" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M383" s="2" t="s">
         <v>6012</v>
       </c>
-      <c r="L383" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M383" s="2" t="s">
-        <v>6013</v>
-      </c>
       <c r="N383" s="2" t="s">
         <v>36</v>
       </c>
@@ -46869,7 +46895,7 @@
         <v>36</v>
       </c>
       <c r="Q383" s="2" t="s">
-        <v>6142</v>
+        <v>6141</v>
       </c>
       <c r="R383" s="2" t="s">
         <v>36</v>
@@ -46895,13 +46921,13 @@
         <v>3504</v>
       </c>
       <c r="B384" s="2" t="s">
+        <v>6007</v>
+      </c>
+      <c r="C384" s="2" t="s">
         <v>6008</v>
       </c>
-      <c r="C384" s="2" t="s">
+      <c r="D384" s="2" t="s">
         <v>6009</v>
-      </c>
-      <c r="D384" s="2" t="s">
-        <v>6010</v>
       </c>
       <c r="E384" s="2" t="s">
         <v>439</v>
@@ -46910,25 +46936,25 @@
         <v>28</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>2052</v>
       </c>
       <c r="I384" s="2" t="s">
-        <v>6015</v>
+        <v>6014</v>
       </c>
       <c r="J384" s="3" t="s">
         <v>2330</v>
       </c>
       <c r="K384" s="3" t="s">
+        <v>6015</v>
+      </c>
+      <c r="L384" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M384" s="2" t="s">
         <v>6016</v>
-      </c>
-      <c r="L384" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M384" s="2" t="s">
-        <v>6017</v>
       </c>
       <c r="N384" s="2" t="s">
         <v>36</v>
@@ -46966,13 +46992,13 @@
         <v>3516</v>
       </c>
       <c r="B385" s="2" t="s">
+        <v>6017</v>
+      </c>
+      <c r="C385" s="2" t="s">
         <v>6018</v>
       </c>
-      <c r="C385" s="2" t="s">
+      <c r="D385" s="2" t="s">
         <v>6019</v>
-      </c>
-      <c r="D385" s="2" t="s">
-        <v>6020</v>
       </c>
       <c r="E385" s="2" t="s">
         <v>439</v>
@@ -46981,26 +47007,26 @@
         <v>28</v>
       </c>
       <c r="G385" s="2" t="s">
+        <v>6020</v>
+      </c>
+      <c r="H385" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I385" s="2" t="s">
         <v>6021</v>
       </c>
-      <c r="H385" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I385" s="2" t="s">
+      <c r="J385" s="3" t="s">
         <v>6022</v>
       </c>
-      <c r="J385" s="3" t="s">
+      <c r="K385" s="3" t="s">
         <v>6023</v>
       </c>
-      <c r="K385" s="3" t="s">
+      <c r="L385" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M385" s="2" t="s">
         <v>6024</v>
       </c>
-      <c r="L385" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M385" s="2" t="s">
-        <v>6025</v>
-      </c>
       <c r="N385" s="2" t="s">
         <v>36</v>
       </c>
@@ -47011,7 +47037,7 @@
         <v>36</v>
       </c>
       <c r="Q385" s="7" t="s">
-        <v>6067</v>
+        <v>6066</v>
       </c>
       <c r="R385" s="2" t="s">
         <v>36</v>
@@ -47037,13 +47063,13 @@
         <v>3527</v>
       </c>
       <c r="B386" s="2" t="s">
+        <v>6025</v>
+      </c>
+      <c r="C386" s="2" t="s">
         <v>6026</v>
       </c>
-      <c r="C386" s="2" t="s">
+      <c r="D386" s="2" t="s">
         <v>6027</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>6028</v>
       </c>
       <c r="E386" s="2" t="s">
         <v>439</v>
@@ -47052,25 +47078,25 @@
         <v>28</v>
       </c>
       <c r="G386" s="2" t="s">
+        <v>6028</v>
+      </c>
+      <c r="H386" s="2" t="s">
         <v>6029</v>
       </c>
-      <c r="H386" s="2" t="s">
+      <c r="I386" s="2" t="s">
         <v>6030</v>
-      </c>
-      <c r="I386" s="2" t="s">
-        <v>6031</v>
       </c>
       <c r="J386" s="3" t="s">
         <v>2330</v>
       </c>
       <c r="K386" s="3" t="s">
+        <v>6031</v>
+      </c>
+      <c r="L386" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M386" s="2" t="s">
         <v>6032</v>
-      </c>
-      <c r="L386" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M386" s="2" t="s">
-        <v>6033</v>
       </c>
       <c r="N386" s="2" t="s">
         <v>36</v>
@@ -47108,13 +47134,13 @@
         <v>3533</v>
       </c>
       <c r="B387" s="2" t="s">
+        <v>6033</v>
+      </c>
+      <c r="C387" s="2" t="s">
         <v>6034</v>
       </c>
-      <c r="C387" s="2" t="s">
+      <c r="D387" s="2" t="s">
         <v>6035</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>6036</v>
       </c>
       <c r="E387" s="2" t="s">
         <v>439</v>
@@ -47123,25 +47149,25 @@
         <v>28</v>
       </c>
       <c r="G387" s="2" t="s">
+        <v>6036</v>
+      </c>
+      <c r="H387" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I387" s="2" t="s">
         <v>6037</v>
-      </c>
-      <c r="H387" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I387" s="2" t="s">
-        <v>6038</v>
       </c>
       <c r="J387" s="3" t="s">
         <v>2330</v>
       </c>
       <c r="K387" s="3" t="s">
-        <v>6039</v>
+        <v>6038</v>
       </c>
       <c r="L387" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M387" s="2" t="s">
-        <v>6037</v>
+        <v>6036</v>
       </c>
       <c r="N387" s="2" t="s">
         <v>36</v>
@@ -47179,13 +47205,13 @@
         <v>3545</v>
       </c>
       <c r="B388" s="2" t="s">
+        <v>6046</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>6047</v>
       </c>
-      <c r="C388" s="2" t="s">
+      <c r="D388" s="2" t="s">
         <v>6048</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>6049</v>
       </c>
       <c r="E388" s="2" t="s">
         <v>439</v>
@@ -47194,37 +47220,37 @@
         <v>28</v>
       </c>
       <c r="G388" s="2" t="s">
+        <v>6049</v>
+      </c>
+      <c r="H388" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I388" s="2" t="s">
         <v>6050</v>
       </c>
-      <c r="H388" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I388" s="2" t="s">
+      <c r="J388" s="3" t="s">
         <v>6051</v>
       </c>
-      <c r="J388" s="3" t="s">
+      <c r="K388" s="3" t="s">
         <v>6052</v>
       </c>
-      <c r="K388" s="3" t="s">
+      <c r="L388" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M388" s="2" t="s">
         <v>6053</v>
       </c>
-      <c r="L388" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M388" s="2" t="s">
+      <c r="N388" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O388" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P388" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q388" s="2" t="s">
         <v>6054</v>
-      </c>
-      <c r="N388" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O388" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P388" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q388" s="2" t="s">
-        <v>6055</v>
       </c>
       <c r="R388" s="2" t="s">
         <v>36</v>
@@ -47367,7 +47393,7 @@
         <v>36</v>
       </c>
       <c r="Q390" s="2" t="s">
-        <v>6189</v>
+        <v>6188</v>
       </c>
       <c r="R390" s="2" t="s">
         <v>36</v>
@@ -47821,7 +47847,7 @@
     </row>
     <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>6120</v>
+        <v>6119</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>3718</v>
@@ -48754,7 +48780,7 @@
     </row>
     <row r="410" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>6121</v>
+        <v>6120</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>3838</v>
@@ -49113,7 +49139,7 @@
     </row>
     <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>6122</v>
+        <v>6121</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>3886</v>
@@ -49544,7 +49570,7 @@
     </row>
     <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>6123</v>
+        <v>6122</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>3941</v>
@@ -51382,7 +51408,7 @@
         <v>36</v>
       </c>
       <c r="Q446" s="2" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="R446" s="2" t="s">
         <v>36</v>
@@ -51916,7 +51942,7 @@
         <v>4252</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>6182</v>
+        <v>6181</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>3638</v>
@@ -51955,7 +51981,7 @@
         <v>36</v>
       </c>
       <c r="Q454" s="2" t="s">
-        <v>6183</v>
+        <v>6182</v>
       </c>
       <c r="R454" s="2" t="s">
         <v>36</v>
@@ -51978,7 +52004,7 @@
     </row>
     <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>6124</v>
+        <v>6123</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>4260</v>
@@ -53006,7 +53032,7 @@
         <v>36</v>
       </c>
       <c r="I469" s="2" t="s">
-        <v>6153</v>
+        <v>6152</v>
       </c>
       <c r="J469" s="6">
         <v>45536</v>
@@ -53030,7 +53056,7 @@
         <v>36</v>
       </c>
       <c r="Q469" s="2" t="s">
-        <v>6154</v>
+        <v>6153</v>
       </c>
       <c r="R469" s="2" t="s">
         <v>36</v>
@@ -54640,22 +54666,22 @@
         <v>134.05349200000001</v>
       </c>
       <c r="D492" s="2" t="s">
-        <v>6167</v>
+        <v>6166</v>
       </c>
       <c r="E492" s="2" t="s">
         <v>3638</v>
       </c>
       <c r="G492" s="2" t="s">
+        <v>6167</v>
+      </c>
+      <c r="I492" s="2" t="s">
         <v>6168</v>
-      </c>
-      <c r="I492" s="2" t="s">
-        <v>6169</v>
       </c>
       <c r="J492" s="6">
         <v>45604</v>
       </c>
       <c r="K492" s="3" t="s">
-        <v>6170</v>
+        <v>6169</v>
       </c>
       <c r="Q492" s="2" t="s">
         <v>3826</v>
@@ -54813,7 +54839,7 @@
     </row>
     <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>6125</v>
+        <v>6124</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>4618</v>
@@ -57254,7 +57280,7 @@
     </row>
     <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529" s="2" t="s">
-        <v>6126</v>
+        <v>6125</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>4939</v>
@@ -57325,7 +57351,7 @@
     </row>
     <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530" s="2" t="s">
-        <v>6127</v>
+        <v>6126</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>4949</v>
@@ -57397,7 +57423,7 @@
     </row>
     <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531" s="2" t="s">
-        <v>6128</v>
+        <v>6127</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>4959</v>
@@ -57469,7 +57495,7 @@
     </row>
     <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532" s="2" t="s">
-        <v>6129</v>
+        <v>6128</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>4970</v>
@@ -57754,7 +57780,7 @@
     </row>
     <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
-        <v>6130</v>
+        <v>6129</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>5007</v>
@@ -57945,7 +57971,7 @@
         <v>36</v>
       </c>
       <c r="Q538" s="2" t="s">
-        <v>6184</v>
+        <v>6183</v>
       </c>
       <c r="R538" s="2" t="s">
         <v>36</v>
@@ -59405,13 +59431,13 @@
         <v>5050</v>
       </c>
       <c r="B559" s="2" t="s">
+        <v>5223</v>
+      </c>
+      <c r="C559" s="2" t="s">
         <v>5224</v>
       </c>
-      <c r="C559" s="2" t="s">
+      <c r="D559" s="2" t="s">
         <v>5225</v>
-      </c>
-      <c r="D559" s="2" t="s">
-        <v>5226</v>
       </c>
       <c r="E559" s="2" t="s">
         <v>3638</v>
@@ -59420,25 +59446,25 @@
         <v>28</v>
       </c>
       <c r="G559" s="2" t="s">
+        <v>5226</v>
+      </c>
+      <c r="H559" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I559" s="2" t="s">
         <v>5227</v>
       </c>
-      <c r="H559" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I559" s="2" t="s">
+      <c r="J559" s="3" t="s">
         <v>5228</v>
       </c>
-      <c r="J559" s="3" t="s">
+      <c r="K559" s="3" t="s">
         <v>5229</v>
       </c>
-      <c r="K559" s="3" t="s">
+      <c r="L559" s="3" t="s">
         <v>5230</v>
       </c>
-      <c r="L559" s="3" t="s">
+      <c r="M559" s="2" t="s">
         <v>5231</v>
-      </c>
-      <c r="M559" s="2" t="s">
-        <v>5232</v>
       </c>
       <c r="N559" s="2" t="s">
         <v>36</v>
@@ -59476,13 +59502,13 @@
         <v>5059</v>
       </c>
       <c r="B560" s="2" t="s">
+        <v>5233</v>
+      </c>
+      <c r="C560" s="2" t="s">
         <v>5234</v>
       </c>
-      <c r="C560" s="2" t="s">
+      <c r="D560" s="2" t="s">
         <v>5235</v>
-      </c>
-      <c r="D560" s="2" t="s">
-        <v>5236</v>
       </c>
       <c r="E560" s="2" t="s">
         <v>3638</v>
@@ -59491,25 +59517,25 @@
         <v>28</v>
       </c>
       <c r="G560" s="2" t="s">
+        <v>5236</v>
+      </c>
+      <c r="H560" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I560" s="2" t="s">
         <v>5237</v>
       </c>
-      <c r="H560" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I560" s="2" t="s">
+      <c r="J560" s="3" t="s">
         <v>5238</v>
       </c>
-      <c r="J560" s="3" t="s">
+      <c r="K560" s="3" t="s">
         <v>5239</v>
       </c>
-      <c r="K560" s="3" t="s">
+      <c r="L560" s="3" t="s">
+        <v>5239</v>
+      </c>
+      <c r="M560" s="2" t="s">
         <v>5240</v>
-      </c>
-      <c r="L560" s="3" t="s">
-        <v>5240</v>
-      </c>
-      <c r="M560" s="2" t="s">
-        <v>5241</v>
       </c>
       <c r="N560" s="2" t="s">
         <v>36</v>
@@ -59548,13 +59574,13 @@
         <v>5069</v>
       </c>
       <c r="B561" s="2" t="s">
+        <v>5242</v>
+      </c>
+      <c r="C561" s="2" t="s">
         <v>5243</v>
       </c>
-      <c r="C561" s="2" t="s">
+      <c r="D561" s="2" t="s">
         <v>5244</v>
-      </c>
-      <c r="D561" s="2" t="s">
-        <v>5245</v>
       </c>
       <c r="E561" s="2" t="s">
         <v>3638</v>
@@ -59563,25 +59589,25 @@
         <v>28</v>
       </c>
       <c r="G561" s="2" t="s">
+        <v>5245</v>
+      </c>
+      <c r="H561" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I561" s="2" t="s">
         <v>5246</v>
       </c>
-      <c r="H561" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I561" s="2" t="s">
+      <c r="J561" s="3" t="s">
         <v>5247</v>
       </c>
-      <c r="J561" s="3" t="s">
+      <c r="K561" s="3" t="s">
         <v>5248</v>
       </c>
-      <c r="K561" s="3" t="s">
+      <c r="L561" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M561" s="2" t="s">
         <v>5249</v>
-      </c>
-      <c r="L561" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M561" s="2" t="s">
-        <v>5250</v>
       </c>
       <c r="N561" s="2" t="s">
         <v>36</v>
@@ -59617,16 +59643,16 @@
     </row>
     <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562" s="2" t="s">
-        <v>6131</v>
+        <v>6130</v>
       </c>
       <c r="B562" s="2" t="s">
+        <v>5251</v>
+      </c>
+      <c r="C562" s="2" t="s">
         <v>5252</v>
       </c>
-      <c r="C562" s="2" t="s">
+      <c r="D562" s="2" t="s">
         <v>5253</v>
-      </c>
-      <c r="D562" s="2" t="s">
-        <v>5254</v>
       </c>
       <c r="E562" s="2" t="s">
         <v>3638</v>
@@ -59635,31 +59661,31 @@
         <v>28</v>
       </c>
       <c r="G562" s="2" t="s">
+        <v>5254</v>
+      </c>
+      <c r="H562" s="2" t="s">
         <v>5255</v>
       </c>
-      <c r="H562" s="2" t="s">
+      <c r="I562" s="2" t="s">
         <v>5256</v>
       </c>
-      <c r="I562" s="2" t="s">
+      <c r="J562" s="3" t="s">
         <v>5257</v>
       </c>
-      <c r="J562" s="3" t="s">
+      <c r="K562" s="3" t="s">
         <v>5258</v>
       </c>
-      <c r="K562" s="3" t="s">
+      <c r="L562" s="3" t="s">
         <v>5259</v>
       </c>
-      <c r="L562" s="3" t="s">
+      <c r="M562" s="2" t="s">
         <v>5260</v>
       </c>
-      <c r="M562" s="2" t="s">
+      <c r="N562" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O562" s="2" t="s">
         <v>5261</v>
-      </c>
-      <c r="N562" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O562" s="2" t="s">
-        <v>5262</v>
       </c>
       <c r="P562" s="2" t="s">
         <v>36</v>
@@ -59692,13 +59718,13 @@
         <v>5077</v>
       </c>
       <c r="B563" s="2" t="s">
+        <v>5263</v>
+      </c>
+      <c r="C563" s="2" t="s">
         <v>5264</v>
       </c>
-      <c r="C563" s="2" t="s">
+      <c r="D563" s="2" t="s">
         <v>5265</v>
-      </c>
-      <c r="D563" s="2" t="s">
-        <v>5266</v>
       </c>
       <c r="E563" s="2" t="s">
         <v>3638</v>
@@ -59707,25 +59733,25 @@
         <v>28</v>
       </c>
       <c r="G563" s="2" t="s">
+        <v>5266</v>
+      </c>
+      <c r="H563" s="2" t="s">
         <v>5267</v>
       </c>
-      <c r="H563" s="2" t="s">
+      <c r="I563" s="2" t="s">
         <v>5268</v>
       </c>
-      <c r="I563" s="2" t="s">
+      <c r="J563" s="3" t="s">
         <v>5269</v>
       </c>
-      <c r="J563" s="3" t="s">
+      <c r="K563" s="3" t="s">
         <v>5270</v>
       </c>
-      <c r="K563" s="3" t="s">
+      <c r="L563" s="3" t="s">
         <v>5271</v>
       </c>
-      <c r="L563" s="3" t="s">
+      <c r="M563" s="2" t="s">
         <v>5272</v>
-      </c>
-      <c r="M563" s="2" t="s">
-        <v>5273</v>
       </c>
       <c r="N563" s="2" t="s">
         <v>36</v>
@@ -59764,13 +59790,13 @@
         <v>5087</v>
       </c>
       <c r="B564" s="2" t="s">
+        <v>5274</v>
+      </c>
+      <c r="C564" s="2" t="s">
         <v>5275</v>
       </c>
-      <c r="C564" s="2" t="s">
+      <c r="D564" s="2" t="s">
         <v>5276</v>
-      </c>
-      <c r="D564" s="2" t="s">
-        <v>5277</v>
       </c>
       <c r="E564" s="2" t="s">
         <v>3638</v>
@@ -59779,25 +59805,25 @@
         <v>28</v>
       </c>
       <c r="G564" s="2" t="s">
+        <v>5277</v>
+      </c>
+      <c r="H564" s="2" t="s">
         <v>5278</v>
       </c>
-      <c r="H564" s="2" t="s">
-        <v>5279</v>
-      </c>
       <c r="I564" s="2" t="s">
-        <v>5278</v>
+        <v>5277</v>
       </c>
       <c r="J564" s="3" t="s">
         <v>3956</v>
       </c>
       <c r="K564" s="3" t="s">
+        <v>5279</v>
+      </c>
+      <c r="L564" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M564" s="2" t="s">
         <v>5280</v>
-      </c>
-      <c r="L564" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M564" s="2" t="s">
-        <v>5281</v>
       </c>
       <c r="N564" s="2" t="s">
         <v>36</v>
@@ -59836,13 +59862,13 @@
         <v>5097</v>
       </c>
       <c r="B565" s="2" t="s">
+        <v>5282</v>
+      </c>
+      <c r="C565" s="2" t="s">
         <v>5283</v>
       </c>
-      <c r="C565" s="2" t="s">
+      <c r="D565" s="2" t="s">
         <v>5284</v>
-      </c>
-      <c r="D565" s="2" t="s">
-        <v>5285</v>
       </c>
       <c r="E565" s="2" t="s">
         <v>3638</v>
@@ -59851,25 +59877,25 @@
         <v>28</v>
       </c>
       <c r="G565" s="2" t="s">
+        <v>5285</v>
+      </c>
+      <c r="H565" s="2" t="s">
         <v>5286</v>
       </c>
-      <c r="H565" s="2" t="s">
+      <c r="I565" s="2" t="s">
         <v>5287</v>
-      </c>
-      <c r="I565" s="2" t="s">
-        <v>5288</v>
       </c>
       <c r="J565" s="3" t="s">
         <v>416</v>
       </c>
       <c r="K565" s="3" t="s">
+        <v>5288</v>
+      </c>
+      <c r="L565" s="3" t="s">
         <v>5289</v>
       </c>
-      <c r="L565" s="3" t="s">
+      <c r="M565" s="2" t="s">
         <v>5290</v>
-      </c>
-      <c r="M565" s="2" t="s">
-        <v>5291</v>
       </c>
       <c r="N565" s="2" t="s">
         <v>36</v>
@@ -59908,13 +59934,13 @@
         <v>5107</v>
       </c>
       <c r="B566" s="2" t="s">
+        <v>5292</v>
+      </c>
+      <c r="C566" s="2" t="s">
         <v>5293</v>
       </c>
-      <c r="C566" s="2" t="s">
+      <c r="D566" s="2" t="s">
         <v>5294</v>
-      </c>
-      <c r="D566" s="2" t="s">
-        <v>5295</v>
       </c>
       <c r="E566" s="2" t="s">
         <v>3638</v>
@@ -59923,31 +59949,31 @@
         <v>28</v>
       </c>
       <c r="G566" s="2" t="s">
+        <v>5295</v>
+      </c>
+      <c r="H566" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I566" s="2" t="s">
         <v>5296</v>
-      </c>
-      <c r="H566" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I566" s="2" t="s">
-        <v>5297</v>
       </c>
       <c r="J566" s="3" t="s">
         <v>4032</v>
       </c>
       <c r="K566" s="3" t="s">
+        <v>5297</v>
+      </c>
+      <c r="L566" s="3" t="s">
+        <v>5297</v>
+      </c>
+      <c r="M566" s="2" t="s">
         <v>5298</v>
       </c>
-      <c r="L566" s="3" t="s">
-        <v>5298</v>
-      </c>
-      <c r="M566" s="2" t="s">
+      <c r="N566" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O566" s="2" t="s">
         <v>5299</v>
-      </c>
-      <c r="N566" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O566" s="2" t="s">
-        <v>5300</v>
       </c>
       <c r="P566" s="2" t="s">
         <v>36</v>
@@ -59979,13 +60005,13 @@
         <v>5116</v>
       </c>
       <c r="B567" s="2" t="s">
+        <v>5301</v>
+      </c>
+      <c r="C567" s="2" t="s">
         <v>5302</v>
       </c>
-      <c r="C567" s="2" t="s">
+      <c r="D567" s="2" t="s">
         <v>5303</v>
-      </c>
-      <c r="D567" s="2" t="s">
-        <v>5304</v>
       </c>
       <c r="E567" s="2" t="s">
         <v>3638</v>
@@ -59994,25 +60020,25 @@
         <v>28</v>
       </c>
       <c r="G567" s="2" t="s">
+        <v>5304</v>
+      </c>
+      <c r="H567" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I567" s="2" t="s">
         <v>5305</v>
-      </c>
-      <c r="H567" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I567" s="2" t="s">
-        <v>5306</v>
       </c>
       <c r="J567" s="3" t="s">
         <v>4265</v>
       </c>
       <c r="K567" s="3" t="s">
+        <v>5306</v>
+      </c>
+      <c r="L567" s="3" t="s">
         <v>5307</v>
       </c>
-      <c r="L567" s="3" t="s">
+      <c r="M567" s="2" t="s">
         <v>5308</v>
-      </c>
-      <c r="M567" s="2" t="s">
-        <v>5309</v>
       </c>
       <c r="N567" s="2" t="s">
         <v>36</v>
@@ -60050,13 +60076,13 @@
         <v>5128</v>
       </c>
       <c r="B568" s="2" t="s">
+        <v>5310</v>
+      </c>
+      <c r="C568" s="2" t="s">
         <v>5311</v>
       </c>
-      <c r="C568" s="2" t="s">
+      <c r="D568" s="2" t="s">
         <v>5312</v>
-      </c>
-      <c r="D568" s="2" t="s">
-        <v>5313</v>
       </c>
       <c r="E568" s="2" t="s">
         <v>3638</v>
@@ -60065,25 +60091,25 @@
         <v>28</v>
       </c>
       <c r="G568" s="2" t="s">
+        <v>5313</v>
+      </c>
+      <c r="H568" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I568" s="2" t="s">
         <v>5314</v>
       </c>
-      <c r="H568" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I568" s="2" t="s">
+      <c r="J568" s="3" t="s">
         <v>5315</v>
       </c>
-      <c r="J568" s="3" t="s">
+      <c r="K568" s="3" t="s">
         <v>5316</v>
       </c>
-      <c r="K568" s="3" t="s">
+      <c r="L568" s="3" t="s">
         <v>5317</v>
       </c>
-      <c r="L568" s="3" t="s">
+      <c r="M568" s="2" t="s">
         <v>5318</v>
-      </c>
-      <c r="M568" s="2" t="s">
-        <v>5319</v>
       </c>
       <c r="N568" s="2" t="s">
         <v>36</v>
@@ -60121,13 +60147,13 @@
         <v>5137</v>
       </c>
       <c r="B569" s="2" t="s">
+        <v>5320</v>
+      </c>
+      <c r="C569" s="2" t="s">
         <v>5321</v>
       </c>
-      <c r="C569" s="2" t="s">
+      <c r="D569" s="2" t="s">
         <v>5322</v>
-      </c>
-      <c r="D569" s="2" t="s">
-        <v>5323</v>
       </c>
       <c r="E569" s="2" t="s">
         <v>3638</v>
@@ -60136,25 +60162,25 @@
         <v>28</v>
       </c>
       <c r="G569" s="2" t="s">
+        <v>5323</v>
+      </c>
+      <c r="H569" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I569" s="2" t="s">
         <v>5324</v>
-      </c>
-      <c r="H569" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I569" s="2" t="s">
-        <v>5325</v>
       </c>
       <c r="J569" s="3" t="s">
         <v>1604</v>
       </c>
       <c r="K569" s="3" t="s">
+        <v>5325</v>
+      </c>
+      <c r="L569" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M569" s="2" t="s">
         <v>5326</v>
-      </c>
-      <c r="L569" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M569" s="2" t="s">
-        <v>5327</v>
       </c>
       <c r="N569" s="2" t="s">
         <v>36</v>
@@ -60193,13 +60219,13 @@
         <v>5146</v>
       </c>
       <c r="B570" s="2" t="s">
+        <v>5328</v>
+      </c>
+      <c r="C570" s="2" t="s">
         <v>5329</v>
       </c>
-      <c r="C570" s="2" t="s">
+      <c r="D570" s="2" t="s">
         <v>5330</v>
-      </c>
-      <c r="D570" s="2" t="s">
-        <v>5331</v>
       </c>
       <c r="E570" s="2" t="s">
         <v>3638</v>
@@ -60208,25 +60234,25 @@
         <v>28</v>
       </c>
       <c r="G570" s="2" t="s">
+        <v>5331</v>
+      </c>
+      <c r="H570" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I570" s="2" t="s">
         <v>5332</v>
       </c>
-      <c r="H570" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I570" s="2" t="s">
+      <c r="J570" s="3" t="s">
         <v>5333</v>
       </c>
-      <c r="J570" s="3" t="s">
+      <c r="K570" s="3" t="s">
         <v>5334</v>
       </c>
-      <c r="K570" s="3" t="s">
+      <c r="L570" s="3" t="s">
+        <v>5334</v>
+      </c>
+      <c r="M570" s="2" t="s">
         <v>5335</v>
-      </c>
-      <c r="L570" s="3" t="s">
-        <v>5335</v>
-      </c>
-      <c r="M570" s="2" t="s">
-        <v>5336</v>
       </c>
       <c r="N570" s="2" t="s">
         <v>36</v>
@@ -60265,13 +60291,13 @@
         <v>5155</v>
       </c>
       <c r="B571" s="2" t="s">
+        <v>5337</v>
+      </c>
+      <c r="C571" s="2" t="s">
         <v>5338</v>
       </c>
-      <c r="C571" s="2" t="s">
+      <c r="D571" s="2" t="s">
         <v>5339</v>
-      </c>
-      <c r="D571" s="2" t="s">
-        <v>5340</v>
       </c>
       <c r="E571" s="2" t="s">
         <v>3638</v>
@@ -60280,25 +60306,25 @@
         <v>28</v>
       </c>
       <c r="G571" s="2" t="s">
+        <v>5340</v>
+      </c>
+      <c r="H571" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I571" s="2" t="s">
         <v>5341</v>
-      </c>
-      <c r="H571" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I571" s="2" t="s">
-        <v>5342</v>
       </c>
       <c r="J571" s="3" t="s">
         <v>3421</v>
       </c>
       <c r="K571" s="3" t="s">
+        <v>5342</v>
+      </c>
+      <c r="L571" s="3" t="s">
         <v>5343</v>
       </c>
-      <c r="L571" s="3" t="s">
+      <c r="M571" s="2" t="s">
         <v>5344</v>
-      </c>
-      <c r="M571" s="2" t="s">
-        <v>5345</v>
       </c>
       <c r="N571" s="2" t="s">
         <v>36</v>
@@ -60337,13 +60363,13 @@
         <v>5164</v>
       </c>
       <c r="B572" s="2" t="s">
+        <v>5346</v>
+      </c>
+      <c r="C572" s="2" t="s">
         <v>5347</v>
       </c>
-      <c r="C572" s="2" t="s">
+      <c r="D572" s="2" t="s">
         <v>5348</v>
-      </c>
-      <c r="D572" s="2" t="s">
-        <v>5349</v>
       </c>
       <c r="E572" s="2" t="s">
         <v>3638</v>
@@ -60352,26 +60378,26 @@
         <v>28</v>
       </c>
       <c r="G572" s="2" t="s">
+        <v>5349</v>
+      </c>
+      <c r="H572" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I572" s="2" t="s">
         <v>5350</v>
       </c>
-      <c r="H572" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I572" s="2" t="s">
+      <c r="J572" s="3" t="s">
         <v>5351</v>
       </c>
-      <c r="J572" s="3" t="s">
+      <c r="K572" s="3" t="s">
         <v>5352</v>
       </c>
-      <c r="K572" s="3" t="s">
+      <c r="L572" s="3" t="s">
         <v>5353</v>
       </c>
-      <c r="L572" s="3" t="s">
+      <c r="M572" s="2" t="s">
         <v>5354</v>
       </c>
-      <c r="M572" s="2" t="s">
-        <v>5355</v>
-      </c>
       <c r="N572" s="2" t="s">
         <v>36</v>
       </c>
@@ -60382,7 +60408,7 @@
         <v>36</v>
       </c>
       <c r="Q572" s="2" t="s">
-        <v>6068</v>
+        <v>6067</v>
       </c>
       <c r="R572" s="2" t="s">
         <v>36</v>
@@ -60408,13 +60434,13 @@
         <v>5174</v>
       </c>
       <c r="B573" s="2" t="s">
+        <v>5356</v>
+      </c>
+      <c r="C573" s="2" t="s">
         <v>5357</v>
       </c>
-      <c r="C573" s="2" t="s">
+      <c r="D573" s="2" t="s">
         <v>5358</v>
-      </c>
-      <c r="D573" s="2" t="s">
-        <v>5359</v>
       </c>
       <c r="E573" s="2" t="s">
         <v>3638</v>
@@ -60423,25 +60449,25 @@
         <v>28</v>
       </c>
       <c r="G573" s="2" t="s">
+        <v>5359</v>
+      </c>
+      <c r="H573" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I573" s="2" t="s">
         <v>5360</v>
       </c>
-      <c r="H573" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I573" s="2" t="s">
+      <c r="J573" s="3" t="s">
         <v>5361</v>
       </c>
-      <c r="J573" s="3" t="s">
+      <c r="K573" s="3" t="s">
         <v>5362</v>
       </c>
-      <c r="K573" s="3" t="s">
+      <c r="L573" s="3" t="s">
+        <v>5362</v>
+      </c>
+      <c r="M573" s="2" t="s">
         <v>5363</v>
-      </c>
-      <c r="L573" s="3" t="s">
-        <v>5363</v>
-      </c>
-      <c r="M573" s="2" t="s">
-        <v>5364</v>
       </c>
       <c r="N573" s="2" t="s">
         <v>36</v>
@@ -60476,16 +60502,16 @@
     </row>
     <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574" s="2" t="s">
-        <v>6132</v>
+        <v>6131</v>
       </c>
       <c r="B574" s="2" t="s">
+        <v>5365</v>
+      </c>
+      <c r="C574" s="2" t="s">
         <v>5366</v>
       </c>
-      <c r="C574" s="2" t="s">
+      <c r="D574" s="2" t="s">
         <v>5367</v>
-      </c>
-      <c r="D574" s="2" t="s">
-        <v>5368</v>
       </c>
       <c r="E574" s="2" t="s">
         <v>3638</v>
@@ -60494,31 +60520,31 @@
         <v>28</v>
       </c>
       <c r="G574" s="2" t="s">
+        <v>5368</v>
+      </c>
+      <c r="H574" s="2" t="s">
         <v>5369</v>
       </c>
-      <c r="H574" s="2" t="s">
+      <c r="I574" s="2" t="s">
+        <v>5368</v>
+      </c>
+      <c r="J574" s="3" t="s">
         <v>5370</v>
       </c>
-      <c r="I574" s="2" t="s">
-        <v>5369</v>
-      </c>
-      <c r="J574" s="3" t="s">
+      <c r="K574" s="3" t="s">
         <v>5371</v>
       </c>
-      <c r="K574" s="3" t="s">
+      <c r="L574" s="3" t="s">
         <v>5372</v>
       </c>
-      <c r="L574" s="3" t="s">
+      <c r="M574" s="2" t="s">
         <v>5373</v>
       </c>
-      <c r="M574" s="2" t="s">
+      <c r="N574" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O574" s="2" t="s">
         <v>5374</v>
-      </c>
-      <c r="N574" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O574" s="2" t="s">
-        <v>5375</v>
       </c>
       <c r="P574" s="2" t="s">
         <v>36</v>
@@ -60551,13 +60577,13 @@
         <v>5185</v>
       </c>
       <c r="B575" s="2" t="s">
+        <v>5376</v>
+      </c>
+      <c r="C575" s="2" t="s">
         <v>5377</v>
       </c>
-      <c r="C575" s="2" t="s">
+      <c r="D575" s="2" t="s">
         <v>5378</v>
-      </c>
-      <c r="D575" s="2" t="s">
-        <v>5379</v>
       </c>
       <c r="E575" s="2" t="s">
         <v>3638</v>
@@ -60566,25 +60592,25 @@
         <v>28</v>
       </c>
       <c r="G575" s="2" t="s">
+        <v>5379</v>
+      </c>
+      <c r="H575" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I575" s="2" t="s">
         <v>5380</v>
       </c>
-      <c r="H575" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I575" s="2" t="s">
+      <c r="J575" s="3" t="s">
+        <v>5361</v>
+      </c>
+      <c r="K575" s="3" t="s">
         <v>5381</v>
       </c>
-      <c r="J575" s="3" t="s">
-        <v>5362</v>
-      </c>
-      <c r="K575" s="3" t="s">
+      <c r="L575" s="3" t="s">
         <v>5382</v>
       </c>
-      <c r="L575" s="3" t="s">
+      <c r="M575" s="2" t="s">
         <v>5383</v>
-      </c>
-      <c r="M575" s="2" t="s">
-        <v>5384</v>
       </c>
       <c r="N575" s="2" t="s">
         <v>36</v>
@@ -60623,13 +60649,13 @@
         <v>5195</v>
       </c>
       <c r="B576" s="2" t="s">
+        <v>5385</v>
+      </c>
+      <c r="C576" s="2" t="s">
         <v>5386</v>
       </c>
-      <c r="C576" s="2" t="s">
+      <c r="D576" s="2" t="s">
         <v>5387</v>
-      </c>
-      <c r="D576" s="2" t="s">
-        <v>5388</v>
       </c>
       <c r="E576" s="2" t="s">
         <v>3638</v>
@@ -60638,25 +60664,25 @@
         <v>28</v>
       </c>
       <c r="G576" s="2" t="s">
+        <v>5388</v>
+      </c>
+      <c r="H576" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I576" s="2" t="s">
         <v>5389</v>
       </c>
-      <c r="H576" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I576" s="2" t="s">
+      <c r="J576" s="3" t="s">
         <v>5390</v>
       </c>
-      <c r="J576" s="3" t="s">
+      <c r="K576" s="3" t="s">
         <v>5391</v>
       </c>
-      <c r="K576" s="3" t="s">
+      <c r="L576" s="3" t="s">
         <v>5392</v>
       </c>
-      <c r="L576" s="3" t="s">
+      <c r="M576" s="2" t="s">
         <v>5393</v>
-      </c>
-      <c r="M576" s="2" t="s">
-        <v>5394</v>
       </c>
       <c r="N576" s="2" t="s">
         <v>36</v>
@@ -60695,13 +60721,13 @@
         <v>5205</v>
       </c>
       <c r="B577" s="2" t="s">
+        <v>5395</v>
+      </c>
+      <c r="C577" s="2" t="s">
         <v>5396</v>
       </c>
-      <c r="C577" s="2" t="s">
+      <c r="D577" s="2" t="s">
         <v>5397</v>
-      </c>
-      <c r="D577" s="2" t="s">
-        <v>5398</v>
       </c>
       <c r="E577" s="2" t="s">
         <v>3638</v>
@@ -60710,25 +60736,25 @@
         <v>28</v>
       </c>
       <c r="G577" s="2" t="s">
+        <v>5398</v>
+      </c>
+      <c r="H577" s="2" t="s">
         <v>5399</v>
       </c>
-      <c r="H577" s="2" t="s">
-        <v>5400</v>
-      </c>
       <c r="I577" s="2" t="s">
-        <v>5399</v>
+        <v>5398</v>
       </c>
       <c r="J577" s="3" t="s">
         <v>1698</v>
       </c>
       <c r="K577" s="3" t="s">
+        <v>5400</v>
+      </c>
+      <c r="L577" s="3" t="s">
         <v>5401</v>
       </c>
-      <c r="L577" s="3" t="s">
+      <c r="M577" s="2" t="s">
         <v>5402</v>
-      </c>
-      <c r="M577" s="2" t="s">
-        <v>5403</v>
       </c>
       <c r="N577" s="2" t="s">
         <v>36</v>
@@ -60767,13 +60793,13 @@
         <v>5213</v>
       </c>
       <c r="B578" s="2" t="s">
+        <v>5404</v>
+      </c>
+      <c r="C578" s="2" t="s">
         <v>5405</v>
       </c>
-      <c r="C578" s="2" t="s">
+      <c r="D578" s="2" t="s">
         <v>5406</v>
-      </c>
-      <c r="D578" s="2" t="s">
-        <v>5407</v>
       </c>
       <c r="E578" s="2" t="s">
         <v>3638</v>
@@ -60782,26 +60808,26 @@
         <v>28</v>
       </c>
       <c r="G578" s="2" t="s">
+        <v>5407</v>
+      </c>
+      <c r="H578" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I578" s="2" t="s">
         <v>5408</v>
-      </c>
-      <c r="H578" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I578" s="2" t="s">
-        <v>5409</v>
       </c>
       <c r="J578" s="3" t="s">
         <v>3261</v>
       </c>
       <c r="K578" s="3" t="s">
+        <v>5409</v>
+      </c>
+      <c r="L578" s="3" t="s">
+        <v>5409</v>
+      </c>
+      <c r="M578" s="2" t="s">
         <v>5410</v>
       </c>
-      <c r="L578" s="3" t="s">
-        <v>5410</v>
-      </c>
-      <c r="M578" s="2" t="s">
-        <v>5411</v>
-      </c>
       <c r="N578" s="2" t="s">
         <v>36</v>
       </c>
@@ -60812,7 +60838,7 @@
         <v>36</v>
       </c>
       <c r="Q578" s="2" t="s">
-        <v>6185</v>
+        <v>6184</v>
       </c>
       <c r="R578" s="2" t="s">
         <v>36</v>
@@ -60835,13 +60861,16 @@
     </row>
     <row r="579" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A579" s="2" t="s">
-        <v>5223</v>
+        <v>6190</v>
       </c>
       <c r="B579" s="2" t="s">
+        <v>5412</v>
+      </c>
+      <c r="C579" s="2" t="s">
         <v>5413</v>
       </c>
-      <c r="C579" s="2" t="s">
-        <v>5414</v>
+      <c r="D579" s="2" t="s">
+        <v>6189</v>
       </c>
       <c r="E579" s="2" t="s">
         <v>3638</v>
@@ -60850,31 +60879,31 @@
         <v>28</v>
       </c>
       <c r="G579" s="2" t="s">
+        <v>5414</v>
+      </c>
+      <c r="H579" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I579" s="2" t="s">
         <v>5415</v>
-      </c>
-      <c r="H579" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I579" s="2" t="s">
-        <v>5416</v>
       </c>
       <c r="J579" s="3" t="s">
         <v>2498</v>
       </c>
       <c r="K579" s="3" t="s">
+        <v>5416</v>
+      </c>
+      <c r="L579" s="3" t="s">
         <v>5417</v>
       </c>
-      <c r="L579" s="3" t="s">
+      <c r="M579" s="2" t="s">
         <v>5418</v>
       </c>
-      <c r="M579" s="2" t="s">
+      <c r="N579" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O579" s="2" t="s">
         <v>5419</v>
-      </c>
-      <c r="N579" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O579" s="2" t="s">
-        <v>5420</v>
       </c>
       <c r="P579" s="2" t="s">
         <v>36</v>
@@ -60903,16 +60932,16 @@
     </row>
     <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580" s="2" t="s">
-        <v>5233</v>
+        <v>5232</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>938</v>
       </c>
       <c r="C580" s="2" t="s">
+        <v>5421</v>
+      </c>
+      <c r="D580" s="2" t="s">
         <v>5422</v>
-      </c>
-      <c r="D580" s="2" t="s">
-        <v>5423</v>
       </c>
       <c r="E580" s="2" t="s">
         <v>3638</v>
@@ -60921,25 +60950,25 @@
         <v>28</v>
       </c>
       <c r="G580" s="2" t="s">
+        <v>5423</v>
+      </c>
+      <c r="H580" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I580" s="2" t="s">
         <v>5424</v>
       </c>
-      <c r="H580" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I580" s="2" t="s">
+      <c r="J580" s="3" t="s">
         <v>5425</v>
       </c>
-      <c r="J580" s="3" t="s">
+      <c r="K580" s="3" t="s">
         <v>5426</v>
       </c>
-      <c r="K580" s="3" t="s">
+      <c r="L580" s="3" t="s">
+        <v>5426</v>
+      </c>
+      <c r="M580" s="2" t="s">
         <v>5427</v>
-      </c>
-      <c r="L580" s="3" t="s">
-        <v>5427</v>
-      </c>
-      <c r="M580" s="2" t="s">
-        <v>5428</v>
       </c>
       <c r="N580" s="2" t="s">
         <v>36</v>
@@ -60975,16 +61004,16 @@
     </row>
     <row r="581" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A581" s="2" t="s">
-        <v>5242</v>
+        <v>5241</v>
       </c>
       <c r="B581" s="2" t="s">
+        <v>5429</v>
+      </c>
+      <c r="C581" s="2" t="s">
         <v>5430</v>
       </c>
-      <c r="C581" s="2" t="s">
+      <c r="D581" s="2" t="s">
         <v>5431</v>
-      </c>
-      <c r="D581" s="2" t="s">
-        <v>5432</v>
       </c>
       <c r="E581" s="2" t="s">
         <v>3638</v>
@@ -60993,25 +61022,25 @@
         <v>28</v>
       </c>
       <c r="G581" s="2" t="s">
+        <v>5432</v>
+      </c>
+      <c r="H581" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I581" s="2" t="s">
         <v>5433</v>
       </c>
-      <c r="H581" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I581" s="2" t="s">
+      <c r="J581" s="3" t="s">
         <v>5434</v>
       </c>
-      <c r="J581" s="3" t="s">
+      <c r="K581" s="3" t="s">
         <v>5435</v>
       </c>
-      <c r="K581" s="3" t="s">
+      <c r="L581" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M581" s="2" t="s">
         <v>5436</v>
-      </c>
-      <c r="L581" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M581" s="2" t="s">
-        <v>5437</v>
       </c>
       <c r="N581" s="2" t="s">
         <v>36</v>
@@ -61047,16 +61076,16 @@
     </row>
     <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582" s="2" t="s">
-        <v>5251</v>
+        <v>5250</v>
       </c>
       <c r="B582" s="2" t="s">
+        <v>5438</v>
+      </c>
+      <c r="C582" s="2" t="s">
         <v>5439</v>
       </c>
-      <c r="C582" s="2" t="s">
+      <c r="D582" s="2" t="s">
         <v>5440</v>
-      </c>
-      <c r="D582" s="2" t="s">
-        <v>5441</v>
       </c>
       <c r="E582" s="2" t="s">
         <v>3638</v>
@@ -61065,25 +61094,25 @@
         <v>28</v>
       </c>
       <c r="G582" s="2" t="s">
+        <v>5441</v>
+      </c>
+      <c r="H582" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I582" s="2" t="s">
         <v>5442</v>
       </c>
-      <c r="H582" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I582" s="2" t="s">
+      <c r="J582" s="3" t="s">
+        <v>5315</v>
+      </c>
+      <c r="K582" s="3" t="s">
         <v>5443</v>
       </c>
-      <c r="J582" s="3" t="s">
-        <v>5316</v>
-      </c>
-      <c r="K582" s="3" t="s">
+      <c r="L582" s="3" t="s">
+        <v>5443</v>
+      </c>
+      <c r="M582" s="2" t="s">
         <v>5444</v>
-      </c>
-      <c r="L582" s="3" t="s">
-        <v>5444</v>
-      </c>
-      <c r="M582" s="2" t="s">
-        <v>5445</v>
       </c>
       <c r="N582" s="2" t="s">
         <v>36</v>
@@ -61118,16 +61147,16 @@
     </row>
     <row r="583" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A583" s="2" t="s">
-        <v>5263</v>
+        <v>5262</v>
       </c>
       <c r="B583" s="2" t="s">
+        <v>5446</v>
+      </c>
+      <c r="C583" s="2" t="s">
         <v>5447</v>
       </c>
-      <c r="C583" s="2" t="s">
+      <c r="D583" s="2" t="s">
         <v>5448</v>
-      </c>
-      <c r="D583" s="2" t="s">
-        <v>5449</v>
       </c>
       <c r="E583" s="2" t="s">
         <v>3638</v>
@@ -61136,25 +61165,25 @@
         <v>28</v>
       </c>
       <c r="G583" s="2" t="s">
-        <v>5450</v>
+        <v>5449</v>
       </c>
       <c r="H583" s="2" t="s">
-        <v>6165</v>
+        <v>6164</v>
       </c>
       <c r="I583" s="2" t="s">
-        <v>5450</v>
+        <v>5449</v>
       </c>
       <c r="J583" s="3" t="s">
         <v>688</v>
       </c>
       <c r="K583" s="3" t="s">
+        <v>5450</v>
+      </c>
+      <c r="L583" s="3" t="s">
+        <v>5450</v>
+      </c>
+      <c r="M583" s="2" t="s">
         <v>5451</v>
-      </c>
-      <c r="L583" s="3" t="s">
-        <v>5451</v>
-      </c>
-      <c r="M583" s="2" t="s">
-        <v>5452</v>
       </c>
       <c r="N583" s="2" t="s">
         <v>36</v>
@@ -61189,16 +61218,16 @@
     </row>
     <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584" s="2" t="s">
-        <v>5274</v>
+        <v>5273</v>
       </c>
       <c r="B584" s="2" t="s">
+        <v>5453</v>
+      </c>
+      <c r="C584" s="2" t="s">
         <v>5454</v>
       </c>
-      <c r="C584" s="2" t="s">
+      <c r="D584" s="2" t="s">
         <v>5455</v>
-      </c>
-      <c r="D584" s="2" t="s">
-        <v>5456</v>
       </c>
       <c r="E584" s="2" t="s">
         <v>3638</v>
@@ -61207,25 +61236,25 @@
         <v>28</v>
       </c>
       <c r="G584" s="2" t="s">
+        <v>5456</v>
+      </c>
+      <c r="H584" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I584" s="2" t="s">
         <v>5457</v>
-      </c>
-      <c r="H584" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I584" s="2" t="s">
-        <v>5458</v>
       </c>
       <c r="J584" s="3" t="s">
         <v>4106</v>
       </c>
       <c r="K584" s="3" t="s">
+        <v>5458</v>
+      </c>
+      <c r="L584" s="3" t="s">
         <v>5459</v>
       </c>
-      <c r="L584" s="3" t="s">
+      <c r="M584" s="2" t="s">
         <v>5460</v>
-      </c>
-      <c r="M584" s="2" t="s">
-        <v>5461</v>
       </c>
       <c r="N584" s="2" t="s">
         <v>36</v>
@@ -61261,16 +61290,16 @@
     </row>
     <row r="585" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A585" s="2" t="s">
-        <v>5282</v>
+        <v>5281</v>
       </c>
       <c r="B585" s="2" t="s">
+        <v>5462</v>
+      </c>
+      <c r="C585" s="2" t="s">
         <v>5463</v>
       </c>
-      <c r="C585" s="2" t="s">
+      <c r="D585" s="2" t="s">
         <v>5464</v>
-      </c>
-      <c r="D585" s="2" t="s">
-        <v>5465</v>
       </c>
       <c r="E585" s="2" t="s">
         <v>3638</v>
@@ -61279,25 +61308,25 @@
         <v>28</v>
       </c>
       <c r="G585" s="2" t="s">
+        <v>5465</v>
+      </c>
+      <c r="H585" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I585" s="2" t="s">
         <v>5466</v>
       </c>
-      <c r="H585" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I585" s="2" t="s">
+      <c r="J585" s="3" t="s">
         <v>5467</v>
       </c>
-      <c r="J585" s="3" t="s">
+      <c r="K585" s="3" t="s">
         <v>5468</v>
       </c>
-      <c r="K585" s="3" t="s">
+      <c r="L585" s="3" t="s">
         <v>5469</v>
       </c>
-      <c r="L585" s="3" t="s">
+      <c r="M585" s="2" t="s">
         <v>5470</v>
-      </c>
-      <c r="M585" s="2" t="s">
-        <v>5471</v>
       </c>
       <c r="N585" s="2" t="s">
         <v>36</v>
@@ -61333,16 +61362,16 @@
     </row>
     <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="s">
-        <v>5292</v>
+        <v>5291</v>
       </c>
       <c r="B586" s="2" t="s">
+        <v>5472</v>
+      </c>
+      <c r="C586" s="2" t="s">
         <v>5473</v>
       </c>
-      <c r="C586" s="2" t="s">
+      <c r="D586" s="2" t="s">
         <v>5474</v>
-      </c>
-      <c r="D586" s="2" t="s">
-        <v>5475</v>
       </c>
       <c r="E586" s="2" t="s">
         <v>3638</v>
@@ -61351,25 +61380,25 @@
         <v>28</v>
       </c>
       <c r="G586" s="2" t="s">
+        <v>5475</v>
+      </c>
+      <c r="H586" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I586" s="2" t="s">
         <v>5476</v>
-      </c>
-      <c r="H586" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I586" s="2" t="s">
-        <v>5477</v>
       </c>
       <c r="J586" s="3" t="s">
         <v>4106</v>
       </c>
       <c r="K586" s="3" t="s">
+        <v>5477</v>
+      </c>
+      <c r="L586" s="3" t="s">
+        <v>5477</v>
+      </c>
+      <c r="M586" s="2" t="s">
         <v>5478</v>
-      </c>
-      <c r="L586" s="3" t="s">
-        <v>5478</v>
-      </c>
-      <c r="M586" s="2" t="s">
-        <v>5479</v>
       </c>
       <c r="N586" s="2" t="s">
         <v>36</v>
@@ -61405,16 +61434,16 @@
     </row>
     <row r="587" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A587" s="2" t="s">
-        <v>5301</v>
+        <v>5300</v>
       </c>
       <c r="B587" s="2" t="s">
+        <v>5480</v>
+      </c>
+      <c r="C587" s="2" t="s">
         <v>5481</v>
       </c>
-      <c r="C587" s="2" t="s">
+      <c r="D587" s="2" t="s">
         <v>5482</v>
-      </c>
-      <c r="D587" s="2" t="s">
-        <v>5483</v>
       </c>
       <c r="E587" s="2" t="s">
         <v>3638</v>
@@ -61423,25 +61452,25 @@
         <v>28</v>
       </c>
       <c r="G587" s="2" t="s">
+        <v>5483</v>
+      </c>
+      <c r="H587" s="2" t="s">
         <v>5484</v>
       </c>
-      <c r="H587" s="2" t="s">
+      <c r="I587" s="2" t="s">
+        <v>5483</v>
+      </c>
+      <c r="J587" s="3" t="s">
         <v>5485</v>
       </c>
-      <c r="I587" s="2" t="s">
-        <v>5484</v>
-      </c>
-      <c r="J587" s="3" t="s">
+      <c r="K587" s="3" t="s">
         <v>5486</v>
       </c>
-      <c r="K587" s="3" t="s">
+      <c r="L587" s="3" t="s">
         <v>5487</v>
       </c>
-      <c r="L587" s="3" t="s">
+      <c r="M587" s="2" t="s">
         <v>5488</v>
-      </c>
-      <c r="M587" s="2" t="s">
-        <v>5489</v>
       </c>
       <c r="N587" s="2" t="s">
         <v>36</v>
@@ -61477,16 +61506,16 @@
     </row>
     <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
-        <v>5310</v>
+        <v>5309</v>
       </c>
       <c r="B588" s="2" t="s">
+        <v>5490</v>
+      </c>
+      <c r="C588" s="2" t="s">
         <v>5491</v>
       </c>
-      <c r="C588" s="2" t="s">
+      <c r="D588" s="2" t="s">
         <v>5492</v>
-      </c>
-      <c r="D588" s="2" t="s">
-        <v>5493</v>
       </c>
       <c r="E588" s="2" t="s">
         <v>3638</v>
@@ -61495,25 +61524,25 @@
         <v>28</v>
       </c>
       <c r="G588" s="2" t="s">
+        <v>5493</v>
+      </c>
+      <c r="H588" s="2" t="s">
         <v>5494</v>
       </c>
-      <c r="H588" s="2" t="s">
+      <c r="I588" s="2" t="s">
+        <v>5493</v>
+      </c>
+      <c r="J588" s="3" t="s">
         <v>5495</v>
       </c>
-      <c r="I588" s="2" t="s">
-        <v>5494</v>
-      </c>
-      <c r="J588" s="3" t="s">
+      <c r="K588" s="3" t="s">
         <v>5496</v>
       </c>
-      <c r="K588" s="3" t="s">
+      <c r="L588" s="3" t="s">
         <v>5497</v>
       </c>
-      <c r="L588" s="3" t="s">
+      <c r="M588" s="2" t="s">
         <v>5498</v>
-      </c>
-      <c r="M588" s="2" t="s">
-        <v>5499</v>
       </c>
       <c r="N588" s="2" t="s">
         <v>36</v>
@@ -61549,16 +61578,16 @@
     </row>
     <row r="589" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A589" s="2" t="s">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="B589" s="2" t="s">
+        <v>5500</v>
+      </c>
+      <c r="C589" s="2" t="s">
         <v>5501</v>
       </c>
-      <c r="C589" s="2" t="s">
+      <c r="D589" s="2" t="s">
         <v>5502</v>
-      </c>
-      <c r="D589" s="2" t="s">
-        <v>5503</v>
       </c>
       <c r="E589" s="2" t="s">
         <v>3638</v>
@@ -61567,25 +61596,25 @@
         <v>28</v>
       </c>
       <c r="G589" s="2" t="s">
+        <v>5503</v>
+      </c>
+      <c r="H589" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I589" s="2" t="s">
         <v>5504</v>
       </c>
-      <c r="H589" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I589" s="2" t="s">
+      <c r="J589" s="3" t="s">
         <v>5505</v>
       </c>
-      <c r="J589" s="3" t="s">
+      <c r="K589" s="3" t="s">
         <v>5506</v>
       </c>
-      <c r="K589" s="3" t="s">
+      <c r="L589" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M589" s="2" t="s">
         <v>5507</v>
-      </c>
-      <c r="L589" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M589" s="2" t="s">
-        <v>5508</v>
       </c>
       <c r="N589" s="2" t="s">
         <v>36</v>
@@ -61621,16 +61650,16 @@
     </row>
     <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
-        <v>6133</v>
+        <v>6132</v>
       </c>
       <c r="B590" s="2" t="s">
+        <v>5509</v>
+      </c>
+      <c r="C590" s="2" t="s">
         <v>5510</v>
       </c>
-      <c r="C590" s="2" t="s">
+      <c r="D590" s="2" t="s">
         <v>5511</v>
-      </c>
-      <c r="D590" s="2" t="s">
-        <v>5512</v>
       </c>
       <c r="E590" s="2" t="s">
         <v>3638</v>
@@ -61639,25 +61668,25 @@
         <v>28</v>
       </c>
       <c r="G590" s="2" t="s">
+        <v>5512</v>
+      </c>
+      <c r="H590" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I590" s="2" t="s">
         <v>5513</v>
       </c>
-      <c r="H590" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I590" s="2" t="s">
+      <c r="J590" s="3" t="s">
         <v>5514</v>
       </c>
-      <c r="J590" s="3" t="s">
+      <c r="K590" s="3" t="s">
         <v>5515</v>
       </c>
-      <c r="K590" s="3" t="s">
+      <c r="L590" s="3" t="s">
+        <v>5515</v>
+      </c>
+      <c r="M590" s="2" t="s">
         <v>5516</v>
-      </c>
-      <c r="L590" s="3" t="s">
-        <v>5516</v>
-      </c>
-      <c r="M590" s="2" t="s">
-        <v>5517</v>
       </c>
       <c r="N590" s="2" t="s">
         <v>36</v>
@@ -61693,16 +61722,16 @@
     </row>
     <row r="591" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="B591" s="2" t="s">
+        <v>5520</v>
+      </c>
+      <c r="C591" s="2" t="s">
         <v>5521</v>
       </c>
-      <c r="C591" s="2" t="s">
+      <c r="D591" s="2" t="s">
         <v>5522</v>
-      </c>
-      <c r="D591" s="2" t="s">
-        <v>5523</v>
       </c>
       <c r="E591" s="2" t="s">
         <v>3638</v>
@@ -61711,25 +61740,25 @@
         <v>28</v>
       </c>
       <c r="G591" s="2" t="s">
+        <v>5517</v>
+      </c>
+      <c r="H591" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I591" s="2" t="s">
+        <v>5523</v>
+      </c>
+      <c r="J591" s="3" t="s">
+        <v>5524</v>
+      </c>
+      <c r="K591" s="3" t="s">
+        <v>5525</v>
+      </c>
+      <c r="L591" s="3" t="s">
+        <v>5526</v>
+      </c>
+      <c r="M591" s="2" t="s">
         <v>5518</v>
-      </c>
-      <c r="H591" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I591" s="2" t="s">
-        <v>5524</v>
-      </c>
-      <c r="J591" s="3" t="s">
-        <v>5525</v>
-      </c>
-      <c r="K591" s="3" t="s">
-        <v>5526</v>
-      </c>
-      <c r="L591" s="3" t="s">
-        <v>5527</v>
-      </c>
-      <c r="M591" s="2" t="s">
-        <v>5519</v>
       </c>
       <c r="N591" s="2" t="s">
         <v>36</v>
@@ -61764,16 +61793,16 @@
     </row>
     <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592" s="2" t="s">
-        <v>5337</v>
+        <v>5336</v>
       </c>
       <c r="B592" s="2" t="s">
+        <v>5528</v>
+      </c>
+      <c r="C592" s="2" t="s">
         <v>5529</v>
       </c>
-      <c r="C592" s="2" t="s">
+      <c r="D592" s="2" t="s">
         <v>5530</v>
-      </c>
-      <c r="D592" s="2" t="s">
-        <v>5531</v>
       </c>
       <c r="E592" s="2" t="s">
         <v>3638</v>
@@ -61782,25 +61811,25 @@
         <v>28</v>
       </c>
       <c r="G592" s="2" t="s">
+        <v>5531</v>
+      </c>
+      <c r="H592" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I592" s="2" t="s">
         <v>5532</v>
       </c>
-      <c r="H592" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I592" s="2" t="s">
+      <c r="J592" s="3" t="s">
         <v>5533</v>
       </c>
-      <c r="J592" s="3" t="s">
+      <c r="K592" s="3" t="s">
         <v>5534</v>
       </c>
-      <c r="K592" s="3" t="s">
+      <c r="L592" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M592" s="2" t="s">
         <v>5535</v>
-      </c>
-      <c r="L592" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M592" s="2" t="s">
-        <v>5536</v>
       </c>
       <c r="N592" s="2" t="s">
         <v>36</v>
@@ -61836,16 +61865,16 @@
     </row>
     <row r="593" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A593" s="2" t="s">
-        <v>5346</v>
+        <v>5345</v>
       </c>
       <c r="B593" s="2" t="s">
+        <v>5536</v>
+      </c>
+      <c r="C593" s="2" t="s">
         <v>5537</v>
       </c>
-      <c r="C593" s="2" t="s">
+      <c r="D593" s="2" t="s">
         <v>5538</v>
-      </c>
-      <c r="D593" s="2" t="s">
-        <v>5539</v>
       </c>
       <c r="E593" s="2" t="s">
         <v>3638</v>
@@ -61854,25 +61883,25 @@
         <v>28</v>
       </c>
       <c r="G593" s="2" t="s">
+        <v>5539</v>
+      </c>
+      <c r="H593" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I593" s="2" t="s">
         <v>5540</v>
       </c>
-      <c r="H593" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I593" s="2" t="s">
+      <c r="J593" s="3" t="s">
         <v>5541</v>
       </c>
-      <c r="J593" s="3" t="s">
+      <c r="K593" s="3" t="s">
         <v>5542</v>
       </c>
-      <c r="K593" s="3" t="s">
+      <c r="L593" s="3" t="s">
         <v>5543</v>
       </c>
-      <c r="L593" s="3" t="s">
+      <c r="M593" s="2" t="s">
         <v>5544</v>
-      </c>
-      <c r="M593" s="2" t="s">
-        <v>5545</v>
       </c>
       <c r="N593" s="2" t="s">
         <v>36</v>
@@ -61908,16 +61937,16 @@
     </row>
     <row r="594" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A594" s="2" t="s">
-        <v>5356</v>
+        <v>5355</v>
       </c>
       <c r="B594" s="2" t="s">
+        <v>5545</v>
+      </c>
+      <c r="C594" s="2" t="s">
         <v>5546</v>
       </c>
-      <c r="C594" s="2" t="s">
+      <c r="D594" s="2" t="s">
         <v>5547</v>
-      </c>
-      <c r="D594" s="2" t="s">
-        <v>5548</v>
       </c>
       <c r="E594" s="2" t="s">
         <v>3638</v>
@@ -61926,25 +61955,25 @@
         <v>28</v>
       </c>
       <c r="G594" s="2" t="s">
+        <v>5548</v>
+      </c>
+      <c r="H594" s="2" t="s">
         <v>5549</v>
       </c>
-      <c r="H594" s="2" t="s">
-        <v>5550</v>
-      </c>
       <c r="I594" s="2" t="s">
-        <v>5549</v>
+        <v>5548</v>
       </c>
       <c r="J594" s="3" t="s">
         <v>416</v>
       </c>
       <c r="K594" s="3" t="s">
+        <v>5550</v>
+      </c>
+      <c r="L594" s="3" t="s">
         <v>5551</v>
       </c>
-      <c r="L594" s="3" t="s">
+      <c r="M594" s="2" t="s">
         <v>5552</v>
-      </c>
-      <c r="M594" s="2" t="s">
-        <v>5553</v>
       </c>
       <c r="N594" s="2" t="s">
         <v>36</v>
@@ -61980,16 +62009,16 @@
     </row>
     <row r="595" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A595" s="2" t="s">
-        <v>5365</v>
+        <v>5364</v>
       </c>
       <c r="B595" s="2" t="s">
+        <v>5553</v>
+      </c>
+      <c r="C595" s="2" t="s">
         <v>5554</v>
       </c>
-      <c r="C595" s="2" t="s">
+      <c r="D595" s="2" t="s">
         <v>5555</v>
-      </c>
-      <c r="D595" s="2" t="s">
-        <v>5556</v>
       </c>
       <c r="E595" s="2" t="s">
         <v>3638</v>
@@ -61998,25 +62027,25 @@
         <v>28</v>
       </c>
       <c r="G595" s="2" t="s">
+        <v>5556</v>
+      </c>
+      <c r="H595" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I595" s="2" t="s">
         <v>5557</v>
-      </c>
-      <c r="H595" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I595" s="2" t="s">
-        <v>5558</v>
       </c>
       <c r="J595" s="3" t="s">
         <v>1089</v>
       </c>
       <c r="K595" s="3" t="s">
+        <v>5558</v>
+      </c>
+      <c r="L595" s="3" t="s">
+        <v>5558</v>
+      </c>
+      <c r="M595" s="2" t="s">
         <v>5559</v>
-      </c>
-      <c r="L595" s="3" t="s">
-        <v>5559</v>
-      </c>
-      <c r="M595" s="2" t="s">
-        <v>5560</v>
       </c>
       <c r="N595" s="2" t="s">
         <v>36</v>
@@ -62052,16 +62081,16 @@
     </row>
     <row r="596" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A596" s="2" t="s">
-        <v>5376</v>
+        <v>5375</v>
       </c>
       <c r="B596" s="2" t="s">
+        <v>5560</v>
+      </c>
+      <c r="C596" s="2" t="s">
         <v>5561</v>
       </c>
-      <c r="C596" s="2" t="s">
+      <c r="D596" s="2" t="s">
         <v>5562</v>
-      </c>
-      <c r="D596" s="2" t="s">
-        <v>5563</v>
       </c>
       <c r="E596" s="2" t="s">
         <v>3638</v>
@@ -62070,7 +62099,7 @@
         <v>28</v>
       </c>
       <c r="G596" s="2" t="s">
-        <v>5564</v>
+        <v>5563</v>
       </c>
       <c r="H596" s="2" t="s">
         <v>4411</v>
@@ -62079,16 +62108,16 @@
         <v>4412</v>
       </c>
       <c r="J596" s="3" t="s">
+        <v>5564</v>
+      </c>
+      <c r="K596" s="3" t="s">
         <v>5565</v>
       </c>
-      <c r="K596" s="3" t="s">
+      <c r="L596" s="3" t="s">
         <v>5566</v>
       </c>
-      <c r="L596" s="3" t="s">
+      <c r="M596" s="2" t="s">
         <v>5567</v>
-      </c>
-      <c r="M596" s="2" t="s">
-        <v>5568</v>
       </c>
       <c r="N596" s="2" t="s">
         <v>36</v>
@@ -62124,16 +62153,16 @@
     </row>
     <row r="597" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A597" s="2" t="s">
-        <v>6134</v>
+        <v>6133</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>2900</v>
       </c>
       <c r="C597" s="2" t="s">
+        <v>5568</v>
+      </c>
+      <c r="D597" s="2" t="s">
         <v>5569</v>
-      </c>
-      <c r="D597" s="2" t="s">
-        <v>5570</v>
       </c>
       <c r="E597" s="2" t="s">
         <v>3638</v>
@@ -62142,25 +62171,25 @@
         <v>28</v>
       </c>
       <c r="G597" s="2" t="s">
+        <v>5570</v>
+      </c>
+      <c r="H597" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I597" s="2" t="s">
         <v>5571</v>
       </c>
-      <c r="H597" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I597" s="2" t="s">
+      <c r="J597" s="3" t="s">
         <v>5572</v>
       </c>
-      <c r="J597" s="3" t="s">
+      <c r="K597" s="3" t="s">
         <v>5573</v>
       </c>
-      <c r="K597" s="3" t="s">
+      <c r="L597" s="3" t="s">
         <v>5574</v>
       </c>
-      <c r="L597" s="3" t="s">
+      <c r="M597" s="2" t="s">
         <v>5575</v>
-      </c>
-      <c r="M597" s="2" t="s">
-        <v>5576</v>
       </c>
       <c r="N597" s="2" t="s">
         <v>36</v>
@@ -62196,16 +62225,16 @@
     </row>
     <row r="598" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A598" s="2" t="s">
-        <v>5385</v>
+        <v>5384</v>
       </c>
       <c r="B598" s="2" t="s">
+        <v>5576</v>
+      </c>
+      <c r="C598" s="2" t="s">
         <v>5577</v>
       </c>
-      <c r="C598" s="2" t="s">
+      <c r="D598" s="2" t="s">
         <v>5578</v>
-      </c>
-      <c r="D598" s="2" t="s">
-        <v>5579</v>
       </c>
       <c r="E598" s="2" t="s">
         <v>3638</v>
@@ -62214,25 +62243,25 @@
         <v>28</v>
       </c>
       <c r="G598" s="2" t="s">
+        <v>5579</v>
+      </c>
+      <c r="H598" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I598" s="2" t="s">
         <v>5580</v>
       </c>
-      <c r="H598" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I598" s="2" t="s">
+      <c r="J598" s="3" t="s">
         <v>5581</v>
       </c>
-      <c r="J598" s="3" t="s">
+      <c r="K598" s="3" t="s">
         <v>5582</v>
       </c>
-      <c r="K598" s="3" t="s">
+      <c r="L598" s="3" t="s">
+        <v>5582</v>
+      </c>
+      <c r="M598" s="2" t="s">
         <v>5583</v>
-      </c>
-      <c r="L598" s="3" t="s">
-        <v>5583</v>
-      </c>
-      <c r="M598" s="2" t="s">
-        <v>5584</v>
       </c>
       <c r="N598" s="2" t="s">
         <v>36</v>
@@ -62268,16 +62297,16 @@
     </row>
     <row r="599" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A599" s="2" t="s">
-        <v>5395</v>
+        <v>5394</v>
       </c>
       <c r="B599" s="2" t="s">
+        <v>5584</v>
+      </c>
+      <c r="C599" s="2" t="s">
         <v>5585</v>
       </c>
-      <c r="C599" s="2" t="s">
+      <c r="D599" s="2" t="s">
         <v>5586</v>
-      </c>
-      <c r="D599" s="2" t="s">
-        <v>5587</v>
       </c>
       <c r="E599" s="2" t="s">
         <v>3638</v>
@@ -62286,25 +62315,25 @@
         <v>28</v>
       </c>
       <c r="G599" s="2" t="s">
+        <v>5587</v>
+      </c>
+      <c r="H599" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I599" s="2" t="s">
         <v>5588</v>
       </c>
-      <c r="H599" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I599" s="2" t="s">
+      <c r="J599" s="3" t="s">
         <v>5589</v>
       </c>
-      <c r="J599" s="3" t="s">
+      <c r="K599" s="3" t="s">
         <v>5590</v>
       </c>
-      <c r="K599" s="3" t="s">
+      <c r="L599" s="3" t="s">
+        <v>5590</v>
+      </c>
+      <c r="M599" s="2" t="s">
         <v>5591</v>
-      </c>
-      <c r="L599" s="3" t="s">
-        <v>5591</v>
-      </c>
-      <c r="M599" s="2" t="s">
-        <v>5592</v>
       </c>
       <c r="N599" s="2" t="s">
         <v>36</v>
@@ -62339,16 +62368,16 @@
     </row>
     <row r="600" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A600" s="2" t="s">
-        <v>5404</v>
+        <v>5403</v>
       </c>
       <c r="B600" s="2" t="s">
+        <v>5592</v>
+      </c>
+      <c r="C600" s="2" t="s">
         <v>5593</v>
       </c>
-      <c r="C600" s="2" t="s">
+      <c r="D600" s="2" t="s">
         <v>5594</v>
-      </c>
-      <c r="D600" s="2" t="s">
-        <v>5595</v>
       </c>
       <c r="E600" s="2" t="s">
         <v>3638</v>
@@ -62357,31 +62386,31 @@
         <v>28</v>
       </c>
       <c r="G600" s="2" t="s">
+        <v>5595</v>
+      </c>
+      <c r="H600" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I600" s="2" t="s">
         <v>5596</v>
       </c>
-      <c r="H600" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I600" s="2" t="s">
+      <c r="J600" s="3" t="s">
         <v>5597</v>
       </c>
-      <c r="J600" s="3" t="s">
+      <c r="K600" s="3" t="s">
         <v>5598</v>
       </c>
-      <c r="K600" s="3" t="s">
+      <c r="L600" s="3" t="s">
         <v>5599</v>
       </c>
-      <c r="L600" s="3" t="s">
+      <c r="M600" s="2" t="s">
         <v>5600</v>
       </c>
-      <c r="M600" s="2" t="s">
+      <c r="N600" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O600" s="2" t="s">
         <v>5601</v>
-      </c>
-      <c r="N600" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O600" s="2" t="s">
-        <v>5602</v>
       </c>
       <c r="P600" s="2" t="s">
         <v>36</v>
@@ -62410,16 +62439,16 @@
     </row>
     <row r="601" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A601" s="2" t="s">
-        <v>5412</v>
+        <v>5411</v>
       </c>
       <c r="B601" s="2" t="s">
+        <v>5602</v>
+      </c>
+      <c r="C601" s="2" t="s">
         <v>5603</v>
       </c>
-      <c r="C601" s="2" t="s">
+      <c r="D601" s="2" t="s">
         <v>5604</v>
-      </c>
-      <c r="D601" s="2" t="s">
-        <v>5605</v>
       </c>
       <c r="E601" s="2" t="s">
         <v>3638</v>
@@ -62428,25 +62457,25 @@
         <v>28</v>
       </c>
       <c r="G601" s="2" t="s">
+        <v>5605</v>
+      </c>
+      <c r="H601" s="2" t="s">
         <v>5606</v>
       </c>
-      <c r="H601" s="2" t="s">
+      <c r="I601" s="2" t="s">
+        <v>5605</v>
+      </c>
+      <c r="J601" s="3" t="s">
         <v>5607</v>
       </c>
-      <c r="I601" s="2" t="s">
-        <v>5606</v>
-      </c>
-      <c r="J601" s="3" t="s">
+      <c r="K601" s="3" t="s">
         <v>5608</v>
       </c>
-      <c r="K601" s="3" t="s">
+      <c r="L601" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M601" s="2" t="s">
         <v>5609</v>
-      </c>
-      <c r="L601" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M601" s="2" t="s">
-        <v>5610</v>
       </c>
       <c r="N601" s="2" t="s">
         <v>36</v>
@@ -62481,16 +62510,16 @@
     </row>
     <row r="602" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A602" s="2" t="s">
-        <v>5421</v>
+        <v>5420</v>
       </c>
       <c r="B602" s="2" t="s">
+        <v>5610</v>
+      </c>
+      <c r="C602" s="2" t="s">
         <v>5611</v>
       </c>
-      <c r="C602" s="2" t="s">
+      <c r="D602" s="2" t="s">
         <v>5612</v>
-      </c>
-      <c r="D602" s="2" t="s">
-        <v>5613</v>
       </c>
       <c r="E602" s="2" t="s">
         <v>3638</v>
@@ -62499,25 +62528,25 @@
         <v>28</v>
       </c>
       <c r="G602" s="2" t="s">
+        <v>5613</v>
+      </c>
+      <c r="H602" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I602" s="2" t="s">
         <v>5614</v>
       </c>
-      <c r="H602" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I602" s="2" t="s">
+      <c r="J602" s="3" t="s">
         <v>5615</v>
       </c>
-      <c r="J602" s="3" t="s">
+      <c r="K602" s="3" t="s">
         <v>5616</v>
       </c>
-      <c r="K602" s="3" t="s">
+      <c r="L602" s="3" t="s">
         <v>5617</v>
       </c>
-      <c r="L602" s="3" t="s">
+      <c r="M602" s="2" t="s">
         <v>5618</v>
-      </c>
-      <c r="M602" s="2" t="s">
-        <v>5619</v>
       </c>
       <c r="N602" s="2" t="s">
         <v>36</v>
@@ -62553,16 +62582,16 @@
     </row>
     <row r="603" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A603" s="2" t="s">
-        <v>5429</v>
+        <v>5428</v>
       </c>
       <c r="B603" s="2" t="s">
+        <v>5619</v>
+      </c>
+      <c r="C603" s="2" t="s">
         <v>5620</v>
       </c>
-      <c r="C603" s="2" t="s">
+      <c r="D603" s="2" t="s">
         <v>5621</v>
-      </c>
-      <c r="D603" s="2" t="s">
-        <v>5622</v>
       </c>
       <c r="E603" s="2" t="s">
         <v>3638</v>
@@ -62571,25 +62600,25 @@
         <v>28</v>
       </c>
       <c r="G603" s="2" t="s">
+        <v>5622</v>
+      </c>
+      <c r="H603" s="2" t="s">
         <v>5623</v>
       </c>
-      <c r="H603" s="2" t="s">
+      <c r="I603" s="2" t="s">
         <v>5624</v>
       </c>
-      <c r="I603" s="2" t="s">
+      <c r="J603" s="3" t="s">
         <v>5625</v>
       </c>
-      <c r="J603" s="3" t="s">
+      <c r="K603" s="3" t="s">
         <v>5626</v>
       </c>
-      <c r="K603" s="3" t="s">
+      <c r="L603" s="3" t="s">
         <v>5627</v>
       </c>
-      <c r="L603" s="3" t="s">
+      <c r="M603" s="2" t="s">
         <v>5628</v>
-      </c>
-      <c r="M603" s="2" t="s">
-        <v>5629</v>
       </c>
       <c r="N603" s="2" t="s">
         <v>36</v>
@@ -62625,16 +62654,16 @@
     </row>
     <row r="604" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A604" s="2" t="s">
-        <v>5438</v>
+        <v>5437</v>
       </c>
       <c r="B604" s="2" t="s">
+        <v>5629</v>
+      </c>
+      <c r="C604" s="2" t="s">
         <v>5630</v>
       </c>
-      <c r="C604" s="2" t="s">
+      <c r="D604" s="2" t="s">
         <v>5631</v>
-      </c>
-      <c r="D604" s="2" t="s">
-        <v>5632</v>
       </c>
       <c r="E604" s="2" t="s">
         <v>3638</v>
@@ -62643,25 +62672,25 @@
         <v>28</v>
       </c>
       <c r="G604" s="2" t="s">
+        <v>5632</v>
+      </c>
+      <c r="H604" s="2" t="s">
         <v>5633</v>
       </c>
-      <c r="H604" s="2" t="s">
+      <c r="I604" s="2" t="s">
         <v>5634</v>
-      </c>
-      <c r="I604" s="2" t="s">
-        <v>5635</v>
       </c>
       <c r="J604" s="3" t="s">
         <v>1059</v>
       </c>
       <c r="K604" s="3" t="s">
+        <v>5635</v>
+      </c>
+      <c r="L604" s="3" t="s">
+        <v>5635</v>
+      </c>
+      <c r="M604" s="2" t="s">
         <v>5636</v>
-      </c>
-      <c r="L604" s="3" t="s">
-        <v>5636</v>
-      </c>
-      <c r="M604" s="2" t="s">
-        <v>5637</v>
       </c>
       <c r="N604" s="2" t="s">
         <v>36</v>
@@ -62697,16 +62726,16 @@
     </row>
     <row r="605" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A605" s="2" t="s">
-        <v>5446</v>
+        <v>5445</v>
       </c>
       <c r="B605" s="2" t="s">
+        <v>5637</v>
+      </c>
+      <c r="C605" s="2" t="s">
         <v>5638</v>
       </c>
-      <c r="C605" s="2" t="s">
+      <c r="D605" s="2" t="s">
         <v>5639</v>
-      </c>
-      <c r="D605" s="2" t="s">
-        <v>5640</v>
       </c>
       <c r="E605" s="2" t="s">
         <v>3638</v>
@@ -62715,25 +62744,25 @@
         <v>28</v>
       </c>
       <c r="G605" s="2" t="s">
+        <v>5640</v>
+      </c>
+      <c r="H605" s="2" t="s">
         <v>5641</v>
       </c>
-      <c r="H605" s="2" t="s">
-        <v>5642</v>
-      </c>
       <c r="I605" s="2" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
       <c r="J605" s="3" t="s">
         <v>3371</v>
       </c>
       <c r="K605" s="3" t="s">
+        <v>5642</v>
+      </c>
+      <c r="L605" s="3" t="s">
         <v>5643</v>
       </c>
-      <c r="L605" s="3" t="s">
+      <c r="M605" s="2" t="s">
         <v>5644</v>
-      </c>
-      <c r="M605" s="2" t="s">
-        <v>5645</v>
       </c>
       <c r="N605" s="2" t="s">
         <v>36</v>
@@ -62768,16 +62797,16 @@
     </row>
     <row r="606" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A606" s="2" t="s">
-        <v>5453</v>
+        <v>5452</v>
       </c>
       <c r="B606" s="2" t="s">
+        <v>5645</v>
+      </c>
+      <c r="C606" s="2" t="s">
         <v>5646</v>
       </c>
-      <c r="C606" s="2" t="s">
+      <c r="D606" s="2" t="s">
         <v>5647</v>
-      </c>
-      <c r="D606" s="2" t="s">
-        <v>5648</v>
       </c>
       <c r="E606" s="2" t="s">
         <v>3638</v>
@@ -62786,25 +62815,25 @@
         <v>28</v>
       </c>
       <c r="G606" s="2" t="s">
+        <v>5648</v>
+      </c>
+      <c r="H606" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I606" s="2" t="s">
         <v>5649</v>
       </c>
-      <c r="H606" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I606" s="2" t="s">
+      <c r="J606" s="3" t="s">
         <v>5650</v>
       </c>
-      <c r="J606" s="3" t="s">
+      <c r="K606" s="3" t="s">
         <v>5651</v>
       </c>
-      <c r="K606" s="3" t="s">
-        <v>5652</v>
-      </c>
       <c r="L606" s="3" t="s">
         <v>36</v>
       </c>
       <c r="M606" s="2" t="s">
-        <v>5645</v>
+        <v>5644</v>
       </c>
       <c r="N606" s="2" t="s">
         <v>36</v>
@@ -62839,16 +62868,16 @@
     </row>
     <row r="607" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A607" s="2" t="s">
-        <v>5462</v>
+        <v>5461</v>
       </c>
       <c r="B607" s="2" t="s">
+        <v>5652</v>
+      </c>
+      <c r="C607" s="2" t="s">
         <v>5653</v>
       </c>
-      <c r="C607" s="2" t="s">
+      <c r="D607" s="2" t="s">
         <v>5654</v>
-      </c>
-      <c r="D607" s="2" t="s">
-        <v>5655</v>
       </c>
       <c r="E607" s="2" t="s">
         <v>3638</v>
@@ -62857,7 +62886,7 @@
         <v>28</v>
       </c>
       <c r="G607" s="2" t="s">
-        <v>5656</v>
+        <v>5655</v>
       </c>
       <c r="H607" s="2" t="s">
         <v>898</v>
@@ -62866,16 +62895,16 @@
         <v>899</v>
       </c>
       <c r="J607" s="3" t="s">
+        <v>5656</v>
+      </c>
+      <c r="K607" s="3" t="s">
         <v>5657</v>
       </c>
-      <c r="K607" s="3" t="s">
+      <c r="L607" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M607" s="2" t="s">
         <v>5658</v>
-      </c>
-      <c r="L607" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M607" s="2" t="s">
-        <v>5659</v>
       </c>
       <c r="N607" s="2" t="s">
         <v>36</v>
@@ -62911,16 +62940,16 @@
     </row>
     <row r="608" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A608" s="2" t="s">
-        <v>5472</v>
+        <v>5471</v>
       </c>
       <c r="B608" s="2" t="s">
+        <v>5659</v>
+      </c>
+      <c r="C608" s="2" t="s">
         <v>5660</v>
       </c>
-      <c r="C608" s="2" t="s">
+      <c r="D608" s="2" t="s">
         <v>5661</v>
-      </c>
-      <c r="D608" s="2" t="s">
-        <v>5662</v>
       </c>
       <c r="E608" s="2" t="s">
         <v>3638</v>
@@ -62929,25 +62958,25 @@
         <v>28</v>
       </c>
       <c r="G608" s="2" t="s">
+        <v>5662</v>
+      </c>
+      <c r="H608" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I608" s="2" t="s">
         <v>5663</v>
       </c>
-      <c r="H608" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I608" s="2" t="s">
+      <c r="J608" s="3" t="s">
         <v>5664</v>
       </c>
-      <c r="J608" s="3" t="s">
+      <c r="K608" s="3" t="s">
         <v>5665</v>
       </c>
-      <c r="K608" s="3" t="s">
+      <c r="L608" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M608" s="2" t="s">
         <v>5666</v>
-      </c>
-      <c r="L608" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M608" s="2" t="s">
-        <v>5667</v>
       </c>
       <c r="N608" s="2" t="s">
         <v>36</v>
@@ -62983,16 +63012,16 @@
     </row>
     <row r="609" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
-        <v>5480</v>
+        <v>5479</v>
       </c>
       <c r="B609" s="2" t="s">
+        <v>5690</v>
+      </c>
+      <c r="C609" s="2" t="s">
         <v>5691</v>
       </c>
-      <c r="C609" s="2" t="s">
+      <c r="D609" s="2" t="s">
         <v>5692</v>
-      </c>
-      <c r="D609" s="2" t="s">
-        <v>5693</v>
       </c>
       <c r="E609" s="2" t="s">
         <v>3638</v>
@@ -63001,25 +63030,25 @@
         <v>28</v>
       </c>
       <c r="G609" s="2" t="s">
+        <v>5693</v>
+      </c>
+      <c r="H609" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I609" s="2" t="s">
+        <v>5685</v>
+      </c>
+      <c r="J609" s="3" t="s">
+        <v>5686</v>
+      </c>
+      <c r="K609" s="3" t="s">
         <v>5694</v>
       </c>
-      <c r="H609" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I609" s="2" t="s">
-        <v>5686</v>
-      </c>
-      <c r="J609" s="3" t="s">
-        <v>5687</v>
-      </c>
-      <c r="K609" s="3" t="s">
+      <c r="L609" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M609" s="2" t="s">
         <v>5695</v>
-      </c>
-      <c r="L609" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M609" s="2" t="s">
-        <v>5696</v>
       </c>
       <c r="N609" s="2" t="s">
         <v>36</v>
@@ -63055,16 +63084,16 @@
     </row>
     <row r="610" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A610" s="2" t="s">
-        <v>6135</v>
+        <v>6134</v>
       </c>
       <c r="B610" s="2" t="s">
+        <v>5720</v>
+      </c>
+      <c r="C610" s="2" t="s">
         <v>5721</v>
       </c>
-      <c r="C610" s="2" t="s">
+      <c r="D610" s="2" t="s">
         <v>5722</v>
-      </c>
-      <c r="D610" s="2" t="s">
-        <v>5723</v>
       </c>
       <c r="E610" s="2" t="s">
         <v>3638</v>
@@ -63073,19 +63102,19 @@
         <v>28</v>
       </c>
       <c r="G610" s="2" t="s">
+        <v>5723</v>
+      </c>
+      <c r="H610" s="2" t="s">
         <v>5724</v>
       </c>
-      <c r="H610" s="2" t="s">
+      <c r="I610" s="2" t="s">
         <v>5725</v>
-      </c>
-      <c r="I610" s="2" t="s">
-        <v>5726</v>
       </c>
       <c r="J610" s="3" t="s">
         <v>4360</v>
       </c>
       <c r="K610" s="3" t="s">
-        <v>5727</v>
+        <v>5726</v>
       </c>
       <c r="L610" s="3" t="s">
         <v>36</v>
@@ -63103,7 +63132,7 @@
         <v>36</v>
       </c>
       <c r="Q610" s="2" t="s">
-        <v>5728</v>
+        <v>5727</v>
       </c>
       <c r="R610" s="2" t="s">
         <v>36</v>
@@ -63127,16 +63156,16 @@
     </row>
     <row r="611" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A611" s="2" t="s">
-        <v>5490</v>
+        <v>5489</v>
       </c>
       <c r="B611" s="2" t="s">
+        <v>5798</v>
+      </c>
+      <c r="C611" s="2" t="s">
         <v>5799</v>
       </c>
-      <c r="C611" s="2" t="s">
+      <c r="D611" s="2" t="s">
         <v>5800</v>
-      </c>
-      <c r="D611" s="2" t="s">
-        <v>5801</v>
       </c>
       <c r="E611" s="2" t="s">
         <v>3638</v>
@@ -63145,37 +63174,37 @@
         <v>28</v>
       </c>
       <c r="G611" s="2" t="s">
+        <v>5801</v>
+      </c>
+      <c r="H611" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I611" s="2" t="s">
         <v>5802</v>
       </c>
-      <c r="H611" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I611" s="2" t="s">
+      <c r="J611" s="3" t="s">
         <v>5803</v>
       </c>
-      <c r="J611" s="3" t="s">
+      <c r="K611" s="3" t="s">
         <v>5804</v>
       </c>
-      <c r="K611" s="3" t="s">
+      <c r="L611" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M611" s="2" t="s">
         <v>5805</v>
       </c>
-      <c r="L611" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M611" s="2" t="s">
+      <c r="N611" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O611" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P611" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q611" s="2" t="s">
         <v>5806</v>
-      </c>
-      <c r="N611" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="O611" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P611" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q611" s="2" t="s">
-        <v>5807</v>
       </c>
       <c r="R611" s="2" t="s">
         <v>36</v>
@@ -63198,16 +63227,16 @@
     </row>
     <row r="612" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="s">
-        <v>5500</v>
+        <v>5499</v>
       </c>
       <c r="B612" s="2" t="s">
+        <v>5814</v>
+      </c>
+      <c r="C612" s="2" t="s">
         <v>5815</v>
       </c>
-      <c r="C612" s="2" t="s">
+      <c r="D612" s="2" t="s">
         <v>5816</v>
-      </c>
-      <c r="D612" s="2" t="s">
-        <v>5817</v>
       </c>
       <c r="E612" s="2" t="s">
         <v>3638</v>
@@ -63269,16 +63298,16 @@
     </row>
     <row r="613" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A613" s="2" t="s">
-        <v>5509</v>
+        <v>5508</v>
       </c>
       <c r="B613" s="2" t="s">
+        <v>5955</v>
+      </c>
+      <c r="C613" s="2" t="s">
         <v>5956</v>
       </c>
-      <c r="C613" s="2" t="s">
+      <c r="D613" s="2" t="s">
         <v>5957</v>
-      </c>
-      <c r="D613" s="2" t="s">
-        <v>5958</v>
       </c>
       <c r="E613" s="2" t="s">
         <v>3638</v>
@@ -63287,25 +63316,25 @@
         <v>28</v>
       </c>
       <c r="G613" s="2" t="s">
+        <v>5958</v>
+      </c>
+      <c r="H613" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I613" s="2" t="s">
         <v>5959</v>
       </c>
-      <c r="H613" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I613" s="2" t="s">
+      <c r="J613" s="3" t="s">
         <v>5960</v>
       </c>
-      <c r="J613" s="3" t="s">
+      <c r="K613" s="3" t="s">
         <v>5961</v>
       </c>
-      <c r="K613" s="3" t="s">
+      <c r="L613" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M613" s="2" t="s">
         <v>5962</v>
-      </c>
-      <c r="L613" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M613" s="2" t="s">
-        <v>5963</v>
       </c>
       <c r="N613" s="2" t="s">
         <v>36</v>
@@ -63340,16 +63369,16 @@
     </row>
     <row r="614" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A614" s="2" t="s">
-        <v>6136</v>
+        <v>6135</v>
       </c>
       <c r="B614" s="2" t="s">
+        <v>5963</v>
+      </c>
+      <c r="C614" s="2" t="s">
         <v>5964</v>
       </c>
-      <c r="C614" s="2" t="s">
+      <c r="D614" s="2" t="s">
         <v>5965</v>
-      </c>
-      <c r="D614" s="2" t="s">
-        <v>5966</v>
       </c>
       <c r="E614" s="2" t="s">
         <v>3638</v>
@@ -63358,25 +63387,25 @@
         <v>28</v>
       </c>
       <c r="G614" s="2" t="s">
+        <v>5966</v>
+      </c>
+      <c r="H614" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I614" s="2" t="s">
         <v>5967</v>
       </c>
-      <c r="H614" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I614" s="2" t="s">
+      <c r="J614" s="3" t="s">
         <v>5968</v>
       </c>
-      <c r="J614" s="3" t="s">
+      <c r="K614" s="3" t="s">
         <v>5969</v>
       </c>
-      <c r="K614" s="3" t="s">
+      <c r="L614" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M614" s="2" t="s">
         <v>5970</v>
-      </c>
-      <c r="L614" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M614" s="2" t="s">
-        <v>5971</v>
       </c>
       <c r="N614" s="2" t="s">
         <v>36</v>
@@ -63411,16 +63440,16 @@
     </row>
     <row r="615" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A615" s="2" t="s">
-        <v>6137</v>
+        <v>6136</v>
       </c>
       <c r="B615" s="5">
         <v>34.328848999999998</v>
       </c>
       <c r="C615" s="2" t="s">
+        <v>5971</v>
+      </c>
+      <c r="D615" s="2" t="s">
         <v>5972</v>
-      </c>
-      <c r="D615" s="2" t="s">
-        <v>5973</v>
       </c>
       <c r="E615" s="2" t="s">
         <v>3638</v>
@@ -63429,25 +63458,25 @@
         <v>28</v>
       </c>
       <c r="G615" s="2" t="s">
+        <v>5973</v>
+      </c>
+      <c r="H615" s="2" t="s">
+        <v>5950</v>
+      </c>
+      <c r="I615" s="2" t="s">
         <v>5974</v>
       </c>
-      <c r="H615" s="2" t="s">
-        <v>5951</v>
-      </c>
-      <c r="I615" s="2" t="s">
+      <c r="J615" s="3" t="s">
+        <v>5952</v>
+      </c>
+      <c r="K615" s="3" t="s">
         <v>5975</v>
       </c>
-      <c r="J615" s="3" t="s">
-        <v>5953</v>
-      </c>
-      <c r="K615" s="3" t="s">
+      <c r="L615" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M615" s="2" t="s">
         <v>5976</v>
-      </c>
-      <c r="L615" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M615" s="2" t="s">
-        <v>5977</v>
       </c>
       <c r="N615" s="2" t="s">
         <v>36</v>
@@ -63482,16 +63511,16 @@
     </row>
     <row r="616" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A616" s="2" t="s">
-        <v>5520</v>
+        <v>5519</v>
       </c>
       <c r="B616" s="2" t="s">
+        <v>5977</v>
+      </c>
+      <c r="C616" s="2" t="s">
         <v>5978</v>
       </c>
-      <c r="C616" s="2" t="s">
+      <c r="D616" s="2" t="s">
         <v>5979</v>
-      </c>
-      <c r="D616" s="2" t="s">
-        <v>5980</v>
       </c>
       <c r="E616" s="2" t="s">
         <v>3638</v>
@@ -63500,25 +63529,25 @@
         <v>28</v>
       </c>
       <c r="G616" s="2" t="s">
+        <v>5980</v>
+      </c>
+      <c r="H616" s="2" t="s">
         <v>5981</v>
       </c>
-      <c r="H616" s="2" t="s">
-        <v>5982</v>
-      </c>
       <c r="I616" s="2" t="s">
-        <v>5952</v>
+        <v>5951</v>
       </c>
       <c r="J616" s="3" t="s">
         <v>4788</v>
       </c>
       <c r="K616" s="3" t="s">
+        <v>5982</v>
+      </c>
+      <c r="L616" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M616" s="2" t="s">
         <v>5983</v>
-      </c>
-      <c r="L616" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M616" s="2" t="s">
-        <v>5984</v>
       </c>
       <c r="N616" s="2" t="s">
         <v>36</v>
@@ -63553,16 +63582,16 @@
     </row>
     <row r="617" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A617" s="2" t="s">
-        <v>5528</v>
+        <v>5527</v>
       </c>
       <c r="B617" s="2" t="s">
+        <v>6039</v>
+      </c>
+      <c r="C617" s="2" t="s">
         <v>6040</v>
       </c>
-      <c r="C617" s="2" t="s">
+      <c r="D617" s="2" t="s">
         <v>6041</v>
-      </c>
-      <c r="D617" s="2" t="s">
-        <v>6042</v>
       </c>
       <c r="E617" s="2" t="s">
         <v>3638</v>
@@ -63571,7 +63600,7 @@
         <v>28</v>
       </c>
       <c r="G617" s="2" t="s">
-        <v>6043</v>
+        <v>6042</v>
       </c>
       <c r="H617" s="2" t="s">
         <v>4794</v>
@@ -63580,16 +63609,16 @@
         <v>4795</v>
       </c>
       <c r="J617" s="3" t="s">
+        <v>6043</v>
+      </c>
+      <c r="K617" s="3" t="s">
         <v>6044</v>
       </c>
-      <c r="K617" s="3" t="s">
+      <c r="L617" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M617" s="2" t="s">
         <v>6045</v>
-      </c>
-      <c r="L617" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="M617" s="2" t="s">
-        <v>6046</v>
       </c>
       <c r="N617" s="2" t="s">
         <v>36</v>
@@ -63624,7 +63653,7 @@
     </row>
     <row r="618" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A618" s="2" t="s">
-        <v>6188</v>
+        <v>6187</v>
       </c>
       <c r="B618" s="5">
         <v>34.341999000000001</v>
@@ -63633,7 +63662,7 @@
         <v>134.066835</v>
       </c>
       <c r="D618" s="2" t="s">
-        <v>6061</v>
+        <v>6060</v>
       </c>
       <c r="E618" s="2" t="s">
         <v>3638</v>
@@ -63642,25 +63671,25 @@
         <v>28</v>
       </c>
       <c r="G618" s="2" t="s">
-        <v>6060</v>
+        <v>6059</v>
       </c>
       <c r="H618" s="2" t="s">
-        <v>6062</v>
+        <v>6061</v>
       </c>
       <c r="I618" s="2" t="s">
-        <v>6059</v>
+        <v>6058</v>
       </c>
       <c r="J618" s="8">
         <v>35065</v>
       </c>
       <c r="K618" s="3" t="s">
+        <v>6062</v>
+      </c>
+      <c r="L618" s="3" t="s">
         <v>6063</v>
       </c>
-      <c r="L618" s="3" t="s">
+      <c r="M618" s="2" t="s">
         <v>6064</v>
-      </c>
-      <c r="M618" s="2" t="s">
-        <v>6065</v>
       </c>
       <c r="Q618" s="2" t="s">
         <v>3676</v>

--- a/data/hospital/data.xlsx
+++ b/data/hospital/data.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$620</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13746" uniqueCount="6203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13750" uniqueCount="6203">
   <si>
     <t>#property</t>
   </si>
@@ -19638,10 +19637,10 @@
   </sheetPr>
   <dimension ref="A1:W627"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A611" sqref="A611"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -19651,17 +19650,17 @@
     <col min="3" max="3" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.8984375" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.3984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="2" customWidth="1"/>
     <col min="7" max="7" width="50.69921875" style="2" customWidth="1"/>
     <col min="8" max="8" width="31" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.3984375" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.8984375" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="53.796875" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="12.19921875" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="33.8984375" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="12.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="53.796875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.19921875" style="2" customWidth="1"/>
+    <col min="15" max="15" width="33.8984375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="12.19921875" style="2" customWidth="1"/>
     <col min="17" max="17" width="61.796875" style="2" customWidth="1"/>
     <col min="18" max="18" width="5.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="14.09765625" style="3" bestFit="1" customWidth="1"/>
@@ -33582,6 +33581,9 @@
       <c r="E195" s="2" t="s">
         <v>6172</v>
       </c>
+      <c r="F195" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G195" s="2" t="s">
         <v>6173</v>
       </c>
@@ -39866,6 +39868,9 @@
       <c r="E283" s="2" t="s">
         <v>439</v>
       </c>
+      <c r="F283" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G283" s="2" t="s">
         <v>6190</v>
       </c>
@@ -41126,6 +41131,9 @@
       <c r="E301" s="2" t="s">
         <v>439</v>
       </c>
+      <c r="F301" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="G301" s="2" t="s">
         <v>6197</v>
       </c>
@@ -54916,6 +54924,9 @@
       </c>
       <c r="E494" s="2" t="s">
         <v>3637</v>
+      </c>
+      <c r="F494" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="G494" s="2" t="s">
         <v>6165</v>

--- a/data/hospital/data.xlsx
+++ b/data/hospital/data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\52845\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFDCCB0-7904-4E8C-B65A-30BA8EC337CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$627</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -15909,7 +15908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -15950,12 +15949,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -16296,11 +16295,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P627"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="J451" sqref="J451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
@@ -16398,7 +16397,7 @@
       <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -16448,7 +16447,7 @@
       <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -16498,7 +16497,7 @@
       <c r="I4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="4" t="s">
         <v>48</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -16548,7 +16547,7 @@
       <c r="I5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="4" t="s">
         <v>59</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -16598,7 +16597,7 @@
       <c r="I6" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="4" t="s">
         <v>70</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -16648,7 +16647,7 @@
       <c r="I7" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="4" t="s">
         <v>81</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -16698,7 +16697,7 @@
       <c r="I8" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="4" t="s">
         <v>92</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -16748,7 +16747,7 @@
       <c r="I9" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -16798,7 +16797,7 @@
       <c r="I10" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="4" t="s">
         <v>114</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -16848,7 +16847,7 @@
       <c r="I11" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="4" t="s">
         <v>125</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -16898,7 +16897,7 @@
       <c r="I12" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="4" t="s">
         <v>136</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -16948,7 +16947,7 @@
       <c r="I13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="4" t="s">
         <v>147</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -16998,7 +16997,7 @@
       <c r="I14" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="4" t="s">
         <v>157</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -17048,7 +17047,7 @@
       <c r="I15" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="4" t="s">
         <v>168</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -17098,7 +17097,7 @@
       <c r="I16" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="4" t="s">
         <v>168</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -17148,7 +17147,7 @@
       <c r="I17" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="4" t="s">
         <v>188</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -17198,7 +17197,7 @@
       <c r="I18" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="4" t="s">
         <v>199</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -17248,7 +17247,7 @@
       <c r="I19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="4" t="s">
         <v>210</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -17298,7 +17297,7 @@
       <c r="I20" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="4" t="s">
         <v>210</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -17348,7 +17347,7 @@
       <c r="I21" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="4" t="s">
         <v>231</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -17398,7 +17397,7 @@
       <c r="I22" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="4" t="s">
         <v>147</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -17448,7 +17447,7 @@
       <c r="I23" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="4" t="s">
         <v>251</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -17498,7 +17497,7 @@
       <c r="I24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="4" t="s">
         <v>261</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -17548,7 +17547,7 @@
       <c r="I25" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="4" t="s">
         <v>271</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -17598,7 +17597,7 @@
       <c r="I26" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="4" t="s">
         <v>282</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -17648,7 +17647,7 @@
       <c r="I27" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="4" t="s">
         <v>293</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -17698,7 +17697,7 @@
       <c r="I28" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="4" t="s">
         <v>304</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -17748,7 +17747,7 @@
       <c r="I29" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="4" t="s">
         <v>315</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -17798,7 +17797,7 @@
       <c r="I30" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="4" t="s">
         <v>324</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -17848,7 +17847,7 @@
       <c r="I31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="4" t="s">
         <v>333</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -17898,7 +17897,7 @@
       <c r="I32" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="4" t="s">
         <v>344</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -17948,7 +17947,7 @@
       <c r="I33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="4" t="s">
         <v>353</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -17998,7 +17997,7 @@
       <c r="I34" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="4" t="s">
         <v>364</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -18048,7 +18047,7 @@
       <c r="I35" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="4" t="s">
         <v>374</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -18098,7 +18097,7 @@
       <c r="I36" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="4" t="s">
         <v>384</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -18148,7 +18147,7 @@
       <c r="I37" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="4" t="s">
         <v>395</v>
       </c>
       <c r="K37" s="1" t="s">
@@ -18198,7 +18197,7 @@
       <c r="I38" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="4" t="s">
         <v>405</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -18248,7 +18247,7 @@
       <c r="I39" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="4" t="s">
         <v>415</v>
       </c>
       <c r="K39" s="1" t="s">
@@ -18298,7 +18297,7 @@
       <c r="I40" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="4" t="s">
         <v>425</v>
       </c>
       <c r="K40" s="1" t="s">
@@ -18348,7 +18347,7 @@
       <c r="I41" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="4" t="s">
         <v>435</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -18398,7 +18397,7 @@
       <c r="I42" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="4" t="s">
         <v>444</v>
       </c>
       <c r="K42" s="1" t="s">
@@ -18448,7 +18447,7 @@
       <c r="I43" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="4" t="s">
         <v>425</v>
       </c>
       <c r="K43" s="1" t="s">
@@ -18498,7 +18497,7 @@
       <c r="I44" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="4" t="s">
         <v>461</v>
       </c>
       <c r="K44" s="1" t="s">
@@ -18548,7 +18547,7 @@
       <c r="I45" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="4" t="s">
         <v>470</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -18598,7 +18597,7 @@
       <c r="I46" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="4" t="s">
         <v>480</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -18648,7 +18647,7 @@
       <c r="I47" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="J47" s="4" t="s">
         <v>489</v>
       </c>
       <c r="K47" s="1" t="s">
@@ -18698,7 +18697,7 @@
       <c r="I48" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="4" t="s">
         <v>499</v>
       </c>
       <c r="K48" s="1" t="s">
@@ -18748,7 +18747,7 @@
       <c r="I49" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="4" t="s">
         <v>509</v>
       </c>
       <c r="K49" s="1" t="s">
@@ -18798,7 +18797,7 @@
       <c r="I50" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="J50" s="4" t="s">
         <v>517</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -18848,7 +18847,7 @@
       <c r="I51" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="J51" s="4" t="s">
         <v>526</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -18898,7 +18897,7 @@
       <c r="I52" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="J52" s="4" t="s">
         <v>534</v>
       </c>
       <c r="K52" s="1" t="s">
@@ -18948,7 +18947,7 @@
       <c r="I53" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="4" t="s">
         <v>543</v>
       </c>
       <c r="K53" s="1" t="s">
@@ -18998,7 +18997,7 @@
       <c r="I54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="J54" s="4" t="s">
         <v>551</v>
       </c>
       <c r="K54" s="1" t="s">
@@ -19048,7 +19047,7 @@
       <c r="I55" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J55" s="1" t="s">
+      <c r="J55" s="4" t="s">
         <v>125</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -19098,7 +19097,7 @@
       <c r="I56" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="J56" s="1" t="s">
+      <c r="J56" s="4" t="s">
         <v>571</v>
       </c>
       <c r="K56" s="1" t="s">
@@ -19148,7 +19147,7 @@
       <c r="I57" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="J57" s="4" t="s">
         <v>581</v>
       </c>
       <c r="K57" s="1" t="s">
@@ -19198,7 +19197,7 @@
       <c r="I58" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="J58" s="1" t="s">
+      <c r="J58" s="4" t="s">
         <v>199</v>
       </c>
       <c r="K58" s="1" t="s">
@@ -19248,7 +19247,7 @@
       <c r="I59" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="J59" s="4" t="s">
         <v>598</v>
       </c>
       <c r="K59" s="1" t="s">
@@ -19298,7 +19297,7 @@
       <c r="I60" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="J60" s="1" t="s">
+      <c r="J60" s="4" t="s">
         <v>607</v>
       </c>
       <c r="K60" s="1" t="s">
@@ -19348,7 +19347,7 @@
       <c r="I61" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="J61" s="1" t="s">
+      <c r="J61" s="4" t="s">
         <v>618</v>
       </c>
       <c r="K61" s="1" t="s">
@@ -19398,7 +19397,7 @@
       <c r="I62" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="J62" s="4" t="s">
         <v>628</v>
       </c>
       <c r="K62" s="1" t="s">
@@ -19448,7 +19447,7 @@
       <c r="I63" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="J63" s="4" t="s">
         <v>638</v>
       </c>
       <c r="K63" s="1" t="s">
@@ -19498,7 +19497,7 @@
       <c r="I64" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="J64" s="4" t="s">
         <v>647</v>
       </c>
       <c r="K64" s="1" t="s">
@@ -19548,7 +19547,7 @@
       <c r="I65" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="J65" s="1" t="s">
+      <c r="J65" s="4" t="s">
         <v>656</v>
       </c>
       <c r="K65" s="1" t="s">
@@ -19598,7 +19597,7 @@
       <c r="I66" s="1" t="s">
         <v>665</v>
       </c>
-      <c r="J66" s="1" t="s">
+      <c r="J66" s="4" t="s">
         <v>666</v>
       </c>
       <c r="K66" s="1" t="s">
@@ -19648,7 +19647,7 @@
       <c r="I67" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="J67" s="1" t="s">
+      <c r="J67" s="4" t="s">
         <v>675</v>
       </c>
       <c r="K67" s="1" t="s">
@@ -19698,7 +19697,7 @@
       <c r="I68" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="J68" s="1" t="s">
+      <c r="J68" s="4" t="s">
         <v>684</v>
       </c>
       <c r="K68" s="1" t="s">
@@ -19748,7 +19747,7 @@
       <c r="I69" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="J69" s="1" t="s">
+      <c r="J69" s="4" t="s">
         <v>693</v>
       </c>
       <c r="K69" s="1" t="s">
@@ -19798,7 +19797,7 @@
       <c r="I70" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="J70" s="1" t="s">
+      <c r="J70" s="4" t="s">
         <v>666</v>
       </c>
       <c r="K70" s="1" t="s">
@@ -19848,7 +19847,7 @@
       <c r="I71" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="J71" s="1" t="s">
+      <c r="J71" s="4" t="s">
         <v>711</v>
       </c>
       <c r="K71" s="1" t="s">
@@ -19898,7 +19897,7 @@
       <c r="I72" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="J72" s="4" t="s">
         <v>720</v>
       </c>
       <c r="K72" s="1" t="s">
@@ -19948,7 +19947,7 @@
       <c r="I73" s="1" t="s">
         <v>729</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="J73" s="4" t="s">
         <v>730</v>
       </c>
       <c r="K73" s="1" t="s">
@@ -19998,7 +19997,7 @@
       <c r="I74" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="J74" s="1" t="s">
+      <c r="J74" s="4" t="s">
         <v>739</v>
       </c>
       <c r="K74" s="1" t="s">
@@ -20048,7 +20047,7 @@
       <c r="I75" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="J75" s="4" t="s">
         <v>749</v>
       </c>
       <c r="K75" s="1" t="s">
@@ -20098,7 +20097,7 @@
       <c r="I76" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="J76" s="1" t="s">
+      <c r="J76" s="4" t="s">
         <v>675</v>
       </c>
       <c r="K76" s="1" t="s">
@@ -20148,7 +20147,7 @@
       <c r="I77" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="J77" s="1" t="s">
+      <c r="J77" s="4" t="s">
         <v>767</v>
       </c>
       <c r="K77" s="1" t="s">
@@ -20198,7 +20197,7 @@
       <c r="I78" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="J78" s="4" t="s">
         <v>777</v>
       </c>
       <c r="K78" s="1" t="s">
@@ -20248,7 +20247,7 @@
       <c r="I79" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="J79" s="1" t="s">
+      <c r="J79" s="4" t="s">
         <v>231</v>
       </c>
       <c r="K79" s="1" t="s">
@@ -20298,7 +20297,7 @@
       <c r="I80" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="J80" s="4" t="s">
         <v>70</v>
       </c>
       <c r="K80" s="1" t="s">
@@ -20348,7 +20347,7 @@
       <c r="I81" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="J81" s="4" t="s">
         <v>803</v>
       </c>
       <c r="K81" s="1" t="s">
@@ -20398,7 +20397,7 @@
       <c r="I82" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="J82" s="4" t="s">
         <v>812</v>
       </c>
       <c r="K82" s="1" t="s">
@@ -20448,7 +20447,7 @@
       <c r="I83" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="J83" s="1" t="s">
+      <c r="J83" s="4" t="s">
         <v>822</v>
       </c>
       <c r="K83" s="1" t="s">
@@ -20498,7 +20497,7 @@
       <c r="I84" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="J84" s="1" t="s">
+      <c r="J84" s="4" t="s">
         <v>831</v>
       </c>
       <c r="K84" s="1" t="s">
@@ -20548,7 +20547,7 @@
       <c r="I85" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="J85" s="4" t="s">
         <v>841</v>
       </c>
       <c r="K85" s="1" t="s">
@@ -20598,7 +20597,7 @@
       <c r="I86" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="J86" s="4" t="s">
         <v>850</v>
       </c>
       <c r="K86" s="1" t="s">
@@ -20648,7 +20647,7 @@
       <c r="I87" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="J87" s="4" t="s">
         <v>859</v>
       </c>
       <c r="K87" s="1" t="s">
@@ -20698,7 +20697,7 @@
       <c r="I88" s="1" t="s">
         <v>868</v>
       </c>
-      <c r="J88" s="1" t="s">
+      <c r="J88" s="4" t="s">
         <v>869</v>
       </c>
       <c r="K88" s="1" t="s">
@@ -20748,7 +20747,7 @@
       <c r="I89" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="J89" s="1" t="s">
+      <c r="J89" s="4" t="s">
         <v>879</v>
       </c>
       <c r="K89" s="1" t="s">
@@ -20798,7 +20797,7 @@
       <c r="I90" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="J90" s="1" t="s">
+      <c r="J90" s="4" t="s">
         <v>888</v>
       </c>
       <c r="K90" s="1" t="s">
@@ -20848,7 +20847,7 @@
       <c r="I91" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="J91" s="4" t="s">
         <v>897</v>
       </c>
       <c r="K91" s="1" t="s">
@@ -20898,7 +20897,7 @@
       <c r="I92" s="1" t="s">
         <v>906</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="J92" s="4" t="s">
         <v>907</v>
       </c>
       <c r="K92" s="1" t="s">
@@ -20948,7 +20947,7 @@
       <c r="I93" s="1" t="s">
         <v>915</v>
       </c>
-      <c r="J93" s="1" t="s">
+      <c r="J93" s="4" t="s">
         <v>916</v>
       </c>
       <c r="K93" s="1" t="s">
@@ -20998,7 +20997,7 @@
       <c r="I94" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="4" t="s">
         <v>924</v>
       </c>
       <c r="K94" s="1" t="s">
@@ -21048,7 +21047,7 @@
       <c r="I95" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="J95" s="4" t="s">
         <v>933</v>
       </c>
       <c r="K95" s="1" t="s">
@@ -21098,7 +21097,7 @@
       <c r="I96" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="J96" s="1" t="s">
+      <c r="J96" s="4" t="s">
         <v>199</v>
       </c>
       <c r="K96" s="1" t="s">
@@ -21148,7 +21147,7 @@
       <c r="I97" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="J97" s="1" t="s">
+      <c r="J97" s="4" t="s">
         <v>949</v>
       </c>
       <c r="K97" s="1" t="s">
@@ -21198,7 +21197,7 @@
       <c r="I98" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="J98" s="1" t="s">
+      <c r="J98" s="4" t="s">
         <v>958</v>
       </c>
       <c r="K98" s="1" t="s">
@@ -21248,7 +21247,7 @@
       <c r="I99" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="J99" s="1" t="s">
+      <c r="J99" s="4" t="s">
         <v>968</v>
       </c>
       <c r="K99" s="1" t="s">
@@ -21298,7 +21297,7 @@
       <c r="I100" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="J100" s="1" t="s">
+      <c r="J100" s="4" t="s">
         <v>977</v>
       </c>
       <c r="K100" s="1" t="s">
@@ -21348,7 +21347,7 @@
       <c r="I101" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="J101" s="1" t="s">
+      <c r="J101" s="4" t="s">
         <v>986</v>
       </c>
       <c r="K101" s="1" t="s">
@@ -21398,7 +21397,7 @@
       <c r="I102" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="J102" s="1" t="s">
+      <c r="J102" s="4" t="s">
         <v>995</v>
       </c>
       <c r="K102" s="1" t="s">
@@ -21448,7 +21447,7 @@
       <c r="I103" s="1" t="s">
         <v>1002</v>
       </c>
-      <c r="J103" s="1" t="s">
+      <c r="J103" s="4" t="s">
         <v>415</v>
       </c>
       <c r="K103" s="1" t="s">
@@ -21498,7 +21497,7 @@
       <c r="I104" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="J104" s="1" t="s">
+      <c r="J104" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K104" s="1" t="s">
@@ -21548,7 +21547,7 @@
       <c r="I105" s="1" t="s">
         <v>1021</v>
       </c>
-      <c r="J105" s="1" t="s">
+      <c r="J105" s="4" t="s">
         <v>1022</v>
       </c>
       <c r="K105" s="1" t="s">
@@ -21598,7 +21597,7 @@
       <c r="I106" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="4" t="s">
         <v>1031</v>
       </c>
       <c r="K106" s="1" t="s">
@@ -21648,7 +21647,7 @@
       <c r="I107" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="J107" s="1" t="s">
+      <c r="J107" s="4" t="s">
         <v>1040</v>
       </c>
       <c r="K107" s="1" t="s">
@@ -21698,7 +21697,7 @@
       <c r="I108" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J108" s="1" t="s">
+      <c r="J108" s="4" t="s">
         <v>1048</v>
       </c>
       <c r="K108" s="1" t="s">
@@ -21748,7 +21747,7 @@
       <c r="I109" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="J109" s="1" t="s">
+      <c r="J109" s="4" t="s">
         <v>1057</v>
       </c>
       <c r="K109" s="1" t="s">
@@ -21798,7 +21797,7 @@
       <c r="I110" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="J110" s="1" t="s">
+      <c r="J110" s="4" t="s">
         <v>1065</v>
       </c>
       <c r="K110" s="1" t="s">
@@ -21848,7 +21847,7 @@
       <c r="I111" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="J111" s="1" t="s">
+      <c r="J111" s="4" t="s">
         <v>1074</v>
       </c>
       <c r="K111" s="1" t="s">
@@ -21898,7 +21897,7 @@
       <c r="I112" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="J112" s="1" t="s">
+      <c r="J112" s="4" t="s">
         <v>1083</v>
       </c>
       <c r="K112" s="1" t="s">
@@ -21948,7 +21947,7 @@
       <c r="I113" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="J113" s="1" t="s">
+      <c r="J113" s="4" t="s">
         <v>1089</v>
       </c>
       <c r="K113" s="1" t="s">
@@ -21998,7 +21997,7 @@
       <c r="I114" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="J114" s="1" t="s">
+      <c r="J114" s="4" t="s">
         <v>499</v>
       </c>
       <c r="K114" s="1" t="s">
@@ -22048,7 +22047,7 @@
       <c r="I115" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="J115" s="1" t="s">
+      <c r="J115" s="4" t="s">
         <v>1105</v>
       </c>
       <c r="K115" s="1" t="s">
@@ -22098,7 +22097,7 @@
       <c r="I116" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="J116" s="1" t="s">
+      <c r="J116" s="4" t="s">
         <v>1113</v>
       </c>
       <c r="K116" s="1" t="s">
@@ -22148,7 +22147,7 @@
       <c r="I117" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="J117" s="1" t="s">
+      <c r="J117" s="4" t="s">
         <v>1123</v>
       </c>
       <c r="K117" s="1" t="s">
@@ -22198,7 +22197,7 @@
       <c r="I118" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="J118" s="1" t="s">
+      <c r="J118" s="4" t="s">
         <v>1132</v>
       </c>
       <c r="K118" s="1" t="s">
@@ -22248,7 +22247,7 @@
       <c r="I119" s="1" t="s">
         <v>1139</v>
       </c>
-      <c r="J119" s="1" t="s">
+      <c r="J119" s="4" t="s">
         <v>1141</v>
       </c>
       <c r="K119" s="1" t="s">
@@ -22298,7 +22297,7 @@
       <c r="I120" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="J120" s="1" t="s">
+      <c r="J120" s="4" t="s">
         <v>315</v>
       </c>
       <c r="K120" s="1" t="s">
@@ -22348,7 +22347,7 @@
       <c r="I121" s="1" t="s">
         <v>1156</v>
       </c>
-      <c r="J121" s="1" t="s">
+      <c r="J121" s="4" t="s">
         <v>1157</v>
       </c>
       <c r="K121" s="1" t="s">
@@ -22398,7 +22397,7 @@
       <c r="I122" s="1" t="s">
         <v>1166</v>
       </c>
-      <c r="J122" s="1" t="s">
+      <c r="J122" s="4" t="s">
         <v>1167</v>
       </c>
       <c r="K122" s="1" t="s">
@@ -22448,7 +22447,7 @@
       <c r="I123" s="1" t="s">
         <v>1175</v>
       </c>
-      <c r="J123" s="1" t="s">
+      <c r="J123" s="4" t="s">
         <v>1176</v>
       </c>
       <c r="K123" s="1" t="s">
@@ -22498,7 +22497,7 @@
       <c r="I124" s="1" t="s">
         <v>1183</v>
       </c>
-      <c r="J124" s="1" t="s">
+      <c r="J124" s="4" t="s">
         <v>1185</v>
       </c>
       <c r="K124" s="1" t="s">
@@ -22548,7 +22547,7 @@
       <c r="I125" s="1" t="s">
         <v>1193</v>
       </c>
-      <c r="J125" s="1" t="s">
+      <c r="J125" s="4" t="s">
         <v>1194</v>
       </c>
       <c r="K125" s="1" t="s">
@@ -22598,7 +22597,7 @@
       <c r="I126" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="J126" s="4" t="s">
         <v>1204</v>
       </c>
       <c r="K126" s="1" t="s">
@@ -22648,7 +22647,7 @@
       <c r="I127" s="1" t="s">
         <v>1213</v>
       </c>
-      <c r="J127" s="1" t="s">
+      <c r="J127" s="4" t="s">
         <v>739</v>
       </c>
       <c r="K127" s="1" t="s">
@@ -22698,7 +22697,7 @@
       <c r="I128" s="1" t="s">
         <v>1221</v>
       </c>
-      <c r="J128" s="1" t="s">
+      <c r="J128" s="4" t="s">
         <v>1222</v>
       </c>
       <c r="K128" s="1" t="s">
@@ -22748,7 +22747,7 @@
       <c r="I129" s="1" t="s">
         <v>1229</v>
       </c>
-      <c r="J129" s="1" t="s">
+      <c r="J129" s="4" t="s">
         <v>995</v>
       </c>
       <c r="K129" s="1" t="s">
@@ -22798,7 +22797,7 @@
       <c r="I130" s="1" t="s">
         <v>1238</v>
       </c>
-      <c r="J130" s="1" t="s">
+      <c r="J130" s="4" t="s">
         <v>1239</v>
       </c>
       <c r="K130" s="1" t="s">
@@ -22848,7 +22847,7 @@
       <c r="I131" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="J131" s="1" t="s">
+      <c r="J131" s="4" t="s">
         <v>666</v>
       </c>
       <c r="K131" s="1" t="s">
@@ -22898,7 +22897,7 @@
       <c r="I132" s="1" t="s">
         <v>1254</v>
       </c>
-      <c r="J132" s="1" t="s">
+      <c r="J132" s="4" t="s">
         <v>1255</v>
       </c>
       <c r="K132" s="1" t="s">
@@ -22948,7 +22947,7 @@
       <c r="I133" s="1" t="s">
         <v>1262</v>
       </c>
-      <c r="J133" s="1" t="s">
+      <c r="J133" s="4" t="s">
         <v>1263</v>
       </c>
       <c r="K133" s="1" t="s">
@@ -22998,7 +22997,7 @@
       <c r="I134" s="1" t="s">
         <v>1269</v>
       </c>
-      <c r="J134" s="1" t="s">
+      <c r="J134" s="4" t="s">
         <v>1271</v>
       </c>
       <c r="K134" s="1" t="s">
@@ -23048,7 +23047,7 @@
       <c r="I135" s="1" t="s">
         <v>1279</v>
       </c>
-      <c r="J135" s="1" t="s">
+      <c r="J135" s="4" t="s">
         <v>1280</v>
       </c>
       <c r="K135" s="1" t="s">
@@ -23098,7 +23097,7 @@
       <c r="I136" s="1" t="s">
         <v>1287</v>
       </c>
-      <c r="J136" s="1" t="s">
+      <c r="J136" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K136" s="1" t="s">
@@ -23148,7 +23147,7 @@
       <c r="I137" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="J137" s="1" t="s">
+      <c r="J137" s="4" t="s">
         <v>1297</v>
       </c>
       <c r="K137" s="1" t="s">
@@ -23198,7 +23197,7 @@
       <c r="I138" s="1" t="s">
         <v>1304</v>
       </c>
-      <c r="J138" s="1" t="s">
+      <c r="J138" s="4" t="s">
         <v>1306</v>
       </c>
       <c r="K138" s="1" t="s">
@@ -23248,7 +23247,7 @@
       <c r="I139" s="1" t="s">
         <v>1312</v>
       </c>
-      <c r="J139" s="1" t="s">
+      <c r="J139" s="4" t="s">
         <v>1314</v>
       </c>
       <c r="K139" s="1" t="s">
@@ -23298,7 +23297,7 @@
       <c r="I140" s="1" t="s">
         <v>1320</v>
       </c>
-      <c r="J140" s="1" t="s">
+      <c r="J140" s="4" t="s">
         <v>1322</v>
       </c>
       <c r="K140" s="1" t="s">
@@ -23348,7 +23347,7 @@
       <c r="I141" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="J141" s="1" t="s">
+      <c r="J141" s="4" t="s">
         <v>1331</v>
       </c>
       <c r="K141" s="1" t="s">
@@ -23398,7 +23397,7 @@
       <c r="I142" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="J142" s="1" t="s">
+      <c r="J142" s="4" t="s">
         <v>1340</v>
       </c>
       <c r="K142" s="1" t="s">
@@ -23448,7 +23447,7 @@
       <c r="I143" s="1" t="s">
         <v>1349</v>
       </c>
-      <c r="J143" s="1" t="s">
+      <c r="J143" s="4" t="s">
         <v>1350</v>
       </c>
       <c r="K143" s="1" t="s">
@@ -23498,7 +23497,7 @@
       <c r="I144" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="J144" s="1" t="s">
+      <c r="J144" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K144" s="1" t="s">
@@ -23548,7 +23547,7 @@
       <c r="I145" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="J145" s="1" t="s">
+      <c r="J145" s="4" t="s">
         <v>470</v>
       </c>
       <c r="K145" s="1" t="s">
@@ -23598,7 +23597,7 @@
       <c r="I146" s="1" t="s">
         <v>1373</v>
       </c>
-      <c r="J146" s="1" t="s">
+      <c r="J146" s="4" t="s">
         <v>1089</v>
       </c>
       <c r="K146" s="1" t="s">
@@ -23648,7 +23647,7 @@
       <c r="I147" s="1" t="s">
         <v>1381</v>
       </c>
-      <c r="J147" s="1" t="s">
+      <c r="J147" s="4" t="s">
         <v>1382</v>
       </c>
       <c r="K147" s="1" t="s">
@@ -23698,7 +23697,7 @@
       <c r="I148" s="1" t="s">
         <v>1388</v>
       </c>
-      <c r="J148" s="1" t="s">
+      <c r="J148" s="4" t="s">
         <v>1390</v>
       </c>
       <c r="K148" s="1" t="s">
@@ -23748,7 +23747,7 @@
       <c r="I149" s="1" t="s">
         <v>1397</v>
       </c>
-      <c r="J149" s="1" t="s">
+      <c r="J149" s="4" t="s">
         <v>1398</v>
       </c>
       <c r="K149" s="1" t="s">
@@ -23798,7 +23797,7 @@
       <c r="I150" s="1" t="s">
         <v>1406</v>
       </c>
-      <c r="J150" s="1" t="s">
+      <c r="J150" s="4" t="s">
         <v>888</v>
       </c>
       <c r="K150" s="1" t="s">
@@ -23848,7 +23847,7 @@
       <c r="I151" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="J151" s="1" t="s">
+      <c r="J151" s="4" t="s">
         <v>1415</v>
       </c>
       <c r="K151" s="1" t="s">
@@ -23898,7 +23897,7 @@
       <c r="I152" s="1" t="s">
         <v>1421</v>
       </c>
-      <c r="J152" s="1" t="s">
+      <c r="J152" s="4" t="s">
         <v>315</v>
       </c>
       <c r="K152" s="1" t="s">
@@ -23948,7 +23947,7 @@
       <c r="I153" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="J153" s="1" t="s">
+      <c r="J153" s="4" t="s">
         <v>1430</v>
       </c>
       <c r="K153" s="1" t="s">
@@ -23998,7 +23997,7 @@
       <c r="I154" s="1" t="s">
         <v>1435</v>
       </c>
-      <c r="J154" s="1" t="s">
+      <c r="J154" s="4" t="s">
         <v>1436</v>
       </c>
       <c r="K154" s="1" t="s">
@@ -24048,7 +24047,7 @@
       <c r="I155" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="J155" s="1" t="s">
+      <c r="J155" s="4" t="s">
         <v>1444</v>
       </c>
       <c r="K155" s="1" t="s">
@@ -24098,7 +24097,7 @@
       <c r="I156" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="J156" s="1" t="s">
+      <c r="J156" s="4" t="s">
         <v>1452</v>
       </c>
       <c r="K156" s="1" t="s">
@@ -24148,7 +24147,7 @@
       <c r="I157" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="J157" s="1" t="s">
+      <c r="J157" s="4" t="s">
         <v>1462</v>
       </c>
       <c r="K157" s="1" t="s">
@@ -24198,7 +24197,7 @@
       <c r="I158" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="J158" s="1" t="s">
+      <c r="J158" s="4" t="s">
         <v>1472</v>
       </c>
       <c r="K158" s="1" t="s">
@@ -24248,7 +24247,7 @@
       <c r="I159" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="J159" s="1" t="s">
+      <c r="J159" s="4" t="s">
         <v>1482</v>
       </c>
       <c r="K159" s="1" t="s">
@@ -24298,7 +24297,7 @@
       <c r="I160" s="1" t="s">
         <v>1489</v>
       </c>
-      <c r="J160" s="1" t="s">
+      <c r="J160" s="4" t="s">
         <v>822</v>
       </c>
       <c r="K160" s="1" t="s">
@@ -24348,7 +24347,7 @@
       <c r="I161" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="J161" s="1" t="s">
+      <c r="J161" s="4" t="s">
         <v>1499</v>
       </c>
       <c r="K161" s="1" t="s">
@@ -24398,7 +24397,7 @@
       <c r="I162" s="1" t="s">
         <v>1508</v>
       </c>
-      <c r="J162" s="1" t="s">
+      <c r="J162" s="4" t="s">
         <v>1509</v>
       </c>
       <c r="K162" s="1" t="s">
@@ -24448,7 +24447,7 @@
       <c r="I163" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="J163" s="1" t="s">
+      <c r="J163" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="K163" s="1" t="s">
@@ -24498,7 +24497,7 @@
       <c r="I164" s="1" t="s">
         <v>1524</v>
       </c>
-      <c r="J164" s="1" t="s">
+      <c r="J164" s="4" t="s">
         <v>1526</v>
       </c>
       <c r="K164" s="1" t="s">
@@ -24548,7 +24547,7 @@
       <c r="I165" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="J165" s="1" t="s">
+      <c r="J165" s="4" t="s">
         <v>1534</v>
       </c>
       <c r="K165" s="1" t="s">
@@ -24598,7 +24597,7 @@
       <c r="I166" s="1" t="s">
         <v>1541</v>
       </c>
-      <c r="J166" s="1" t="s">
+      <c r="J166" s="4" t="s">
         <v>777</v>
       </c>
       <c r="K166" s="1" t="s">
@@ -24648,7 +24647,7 @@
       <c r="I167" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="J167" s="1" t="s">
+      <c r="J167" s="4" t="s">
         <v>1551</v>
       </c>
       <c r="K167" s="1" t="s">
@@ -24698,7 +24697,7 @@
       <c r="I168" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="J168" s="1" t="s">
+      <c r="J168" s="4" t="s">
         <v>1561</v>
       </c>
       <c r="K168" s="1" t="s">
@@ -24748,7 +24747,7 @@
       <c r="I169" s="1" t="s">
         <v>1568</v>
       </c>
-      <c r="J169" s="1" t="s">
+      <c r="J169" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K169" s="1" t="s">
@@ -24798,7 +24797,7 @@
       <c r="I170" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="J170" s="1" t="s">
+      <c r="J170" s="4" t="s">
         <v>1576</v>
       </c>
       <c r="K170" s="1" t="s">
@@ -24848,7 +24847,7 @@
       <c r="I171" s="1" t="s">
         <v>1585</v>
       </c>
-      <c r="J171" s="1" t="s">
+      <c r="J171" s="4" t="s">
         <v>1586</v>
       </c>
       <c r="K171" s="1" t="s">
@@ -24898,7 +24897,7 @@
       <c r="I172" s="1" t="s">
         <v>1595</v>
       </c>
-      <c r="J172" s="1" t="s">
+      <c r="J172" s="4" t="s">
         <v>364</v>
       </c>
       <c r="K172" s="1" t="s">
@@ -24948,7 +24947,7 @@
       <c r="I173" s="1" t="s">
         <v>1602</v>
       </c>
-      <c r="J173" s="1" t="s">
+      <c r="J173" s="4" t="s">
         <v>1603</v>
       </c>
       <c r="K173" s="1" t="s">
@@ -24998,7 +24997,7 @@
       <c r="I174" s="1" t="s">
         <v>1610</v>
       </c>
-      <c r="J174" s="1" t="s">
+      <c r="J174" s="4" t="s">
         <v>1611</v>
       </c>
       <c r="K174" s="1" t="s">
@@ -25048,7 +25047,7 @@
       <c r="I175" s="1" t="s">
         <v>1619</v>
       </c>
-      <c r="J175" s="1" t="s">
+      <c r="J175" s="4" t="s">
         <v>1472</v>
       </c>
       <c r="K175" s="1" t="s">
@@ -25098,7 +25097,7 @@
       <c r="I176" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="J176" s="1" t="s">
+      <c r="J176" s="4" t="s">
         <v>1628</v>
       </c>
       <c r="K176" s="1" t="s">
@@ -25148,7 +25147,7 @@
       <c r="I177" s="1" t="s">
         <v>1636</v>
       </c>
-      <c r="J177" s="1" t="s">
+      <c r="J177" s="4" t="s">
         <v>1637</v>
       </c>
       <c r="K177" s="1" t="s">
@@ -25198,7 +25197,7 @@
       <c r="I178" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="J178" s="1" t="s">
+      <c r="J178" s="4" t="s">
         <v>1646</v>
       </c>
       <c r="K178" s="1" t="s">
@@ -25248,7 +25247,7 @@
       <c r="I179" s="1" t="s">
         <v>1651</v>
       </c>
-      <c r="J179" s="1" t="s">
+      <c r="J179" s="4" t="s">
         <v>1194</v>
       </c>
       <c r="K179" s="1" t="s">
@@ -25298,7 +25297,7 @@
       <c r="I180" s="1" t="s">
         <v>1659</v>
       </c>
-      <c r="J180" s="1" t="s">
+      <c r="J180" s="4" t="s">
         <v>1660</v>
       </c>
       <c r="K180" s="1" t="s">
@@ -25348,7 +25347,7 @@
       <c r="I181" s="1" t="s">
         <v>1668</v>
       </c>
-      <c r="J181" s="1" t="s">
+      <c r="J181" s="4" t="s">
         <v>1669</v>
       </c>
       <c r="K181" s="1" t="s">
@@ -25398,7 +25397,7 @@
       <c r="I182" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="J182" s="1" t="s">
+      <c r="J182" s="4" t="s">
         <v>1679</v>
       </c>
       <c r="K182" s="1" t="s">
@@ -25448,7 +25447,7 @@
       <c r="I183" s="1" t="s">
         <v>1686</v>
       </c>
-      <c r="J183" s="1" t="s">
+      <c r="J183" s="4" t="s">
         <v>1687</v>
       </c>
       <c r="K183" s="1" t="s">
@@ -25498,7 +25497,7 @@
       <c r="I184" s="1" t="s">
         <v>1695</v>
       </c>
-      <c r="J184" s="1" t="s">
+      <c r="J184" s="4" t="s">
         <v>1696</v>
       </c>
       <c r="K184" s="1" t="s">
@@ -25548,7 +25547,7 @@
       <c r="I185" s="1" t="s">
         <v>1705</v>
       </c>
-      <c r="J185" s="1" t="s">
+      <c r="J185" s="4" t="s">
         <v>656</v>
       </c>
       <c r="K185" s="1" t="s">
@@ -25598,7 +25597,7 @@
       <c r="I186" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="J186" s="1" t="s">
+      <c r="J186" s="4" t="s">
         <v>344</v>
       </c>
       <c r="K186" s="1" t="s">
@@ -25648,7 +25647,7 @@
       <c r="I187" s="1" t="s">
         <v>1721</v>
       </c>
-      <c r="J187" s="1" t="s">
+      <c r="J187" s="4" t="s">
         <v>1722</v>
       </c>
       <c r="K187" s="1" t="s">
@@ -25698,7 +25697,7 @@
       <c r="I188" s="1" t="s">
         <v>1731</v>
       </c>
-      <c r="J188" s="1" t="s">
+      <c r="J188" s="4" t="s">
         <v>1732</v>
       </c>
       <c r="K188" s="1" t="s">
@@ -25748,7 +25747,7 @@
       <c r="I189" s="1" t="s">
         <v>1740</v>
       </c>
-      <c r="J189" s="1" t="s">
+      <c r="J189" s="4" t="s">
         <v>1741</v>
       </c>
       <c r="K189" s="1" t="s">
@@ -25798,7 +25797,7 @@
       <c r="I190" s="1" t="s">
         <v>1749</v>
       </c>
-      <c r="J190" s="1" t="s">
+      <c r="J190" s="4" t="s">
         <v>1750</v>
       </c>
       <c r="K190" s="1" t="s">
@@ -25848,7 +25847,7 @@
       <c r="I191" s="1" t="s">
         <v>5222</v>
       </c>
-      <c r="J191" s="2" t="s">
+      <c r="J191" s="4" t="s">
         <v>1756</v>
       </c>
       <c r="K191" s="1" t="s">
@@ -25898,7 +25897,7 @@
       <c r="I192" s="1" t="s">
         <v>1764</v>
       </c>
-      <c r="J192" s="1" t="s">
+      <c r="J192" s="4" t="s">
         <v>675</v>
       </c>
       <c r="K192" s="1" t="s">
@@ -25948,7 +25947,7 @@
       <c r="I193" s="1" t="s">
         <v>1772</v>
       </c>
-      <c r="J193" s="1" t="s">
+      <c r="J193" s="4" t="s">
         <v>1773</v>
       </c>
       <c r="K193" s="1" t="s">
@@ -25998,7 +25997,7 @@
       <c r="I194" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="J194" s="1" t="s">
+      <c r="J194" s="4" t="s">
         <v>1781</v>
       </c>
       <c r="K194" s="1" t="s">
@@ -26048,7 +26047,7 @@
       <c r="I195" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="J195" s="1" t="s">
+      <c r="J195" s="4" t="s">
         <v>1789</v>
       </c>
       <c r="K195" s="1" t="s">
@@ -26098,7 +26097,7 @@
       <c r="I196" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="J196" s="1" t="s">
+      <c r="J196" s="4" t="s">
         <v>1798</v>
       </c>
       <c r="K196" s="1" t="s">
@@ -26148,7 +26147,7 @@
       <c r="I197" s="1" t="s">
         <v>1806</v>
       </c>
-      <c r="J197" s="1" t="s">
+      <c r="J197" s="4" t="s">
         <v>1807</v>
       </c>
       <c r="K197" s="1" t="s">
@@ -26198,7 +26197,7 @@
       <c r="I198" s="1" t="s">
         <v>1815</v>
       </c>
-      <c r="J198" s="1" t="s">
+      <c r="J198" s="4" t="s">
         <v>1816</v>
       </c>
       <c r="K198" s="1" t="s">
@@ -26248,7 +26247,7 @@
       <c r="I199" s="1" t="s">
         <v>1823</v>
       </c>
-      <c r="J199" s="1" t="s">
+      <c r="J199" s="4" t="s">
         <v>1825</v>
       </c>
       <c r="K199" s="1" t="s">
@@ -26298,7 +26297,7 @@
       <c r="I200" s="1" t="s">
         <v>1831</v>
       </c>
-      <c r="J200" s="1" t="s">
+      <c r="J200" s="4" t="s">
         <v>1833</v>
       </c>
       <c r="K200" s="1" t="s">
@@ -26348,7 +26347,7 @@
       <c r="I201" s="1" t="s">
         <v>1841</v>
       </c>
-      <c r="J201" s="1" t="s">
+      <c r="J201" s="4" t="s">
         <v>1842</v>
       </c>
       <c r="K201" s="1" t="s">
@@ -26398,7 +26397,7 @@
       <c r="I202" s="1" t="s">
         <v>1848</v>
       </c>
-      <c r="J202" s="1" t="s">
+      <c r="J202" s="4" t="s">
         <v>1850</v>
       </c>
       <c r="K202" s="1" t="s">
@@ -26448,7 +26447,7 @@
       <c r="I203" s="1" t="s">
         <v>1857</v>
       </c>
-      <c r="J203" s="1" t="s">
+      <c r="J203" s="4" t="s">
         <v>1858</v>
       </c>
       <c r="K203" s="1" t="s">
@@ -26498,7 +26497,7 @@
       <c r="I204" s="1" t="s">
         <v>1864</v>
       </c>
-      <c r="J204" s="1" t="s">
+      <c r="J204" s="4" t="s">
         <v>1866</v>
       </c>
       <c r="K204" s="1" t="s">
@@ -26548,7 +26547,7 @@
       <c r="I205" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="J205" s="1" t="s">
+      <c r="J205" s="4" t="s">
         <v>1874</v>
       </c>
       <c r="K205" s="1" t="s">
@@ -26598,7 +26597,7 @@
       <c r="I206" s="1" t="s">
         <v>1880</v>
       </c>
-      <c r="J206" s="1" t="s">
+      <c r="J206" s="4" t="s">
         <v>1882</v>
       </c>
       <c r="K206" s="1" t="s">
@@ -26648,7 +26647,7 @@
       <c r="I207" s="1" t="s">
         <v>1890</v>
       </c>
-      <c r="J207" s="1" t="s">
+      <c r="J207" s="4" t="s">
         <v>1891</v>
       </c>
       <c r="K207" s="1" t="s">
@@ -26698,7 +26697,7 @@
       <c r="I208" s="1" t="s">
         <v>1899</v>
       </c>
-      <c r="J208" s="1" t="s">
+      <c r="J208" s="4" t="s">
         <v>1781</v>
       </c>
       <c r="K208" s="1" t="s">
@@ -26748,7 +26747,7 @@
       <c r="I209" s="1" t="s">
         <v>1906</v>
       </c>
-      <c r="J209" s="1" t="s">
+      <c r="J209" s="4" t="s">
         <v>1850</v>
       </c>
       <c r="K209" s="1" t="s">
@@ -26798,7 +26797,7 @@
       <c r="I210" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="J210" s="1" t="s">
+      <c r="J210" s="4" t="s">
         <v>1858</v>
       </c>
       <c r="K210" s="1" t="s">
@@ -26848,7 +26847,7 @@
       <c r="I211" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J211" s="1" t="s">
+      <c r="J211" s="4" t="s">
         <v>1923</v>
       </c>
       <c r="K211" s="1" t="s">
@@ -26898,7 +26897,7 @@
       <c r="I212" s="1" t="s">
         <v>1930</v>
       </c>
-      <c r="J212" s="1" t="s">
+      <c r="J212" s="4" t="s">
         <v>1931</v>
       </c>
       <c r="K212" s="1" t="s">
@@ -26948,7 +26947,7 @@
       <c r="I213" s="1" t="s">
         <v>1940</v>
       </c>
-      <c r="J213" s="1" t="s">
+      <c r="J213" s="4" t="s">
         <v>1941</v>
       </c>
       <c r="K213" s="1" t="s">
@@ -26998,7 +26997,7 @@
       <c r="I214" s="1" t="s">
         <v>1948</v>
       </c>
-      <c r="J214" s="1" t="s">
+      <c r="J214" s="4" t="s">
         <v>251</v>
       </c>
       <c r="K214" s="1" t="s">
@@ -27048,7 +27047,7 @@
       <c r="I215" s="1" t="s">
         <v>1958</v>
       </c>
-      <c r="J215" s="1" t="s">
+      <c r="J215" s="4" t="s">
         <v>1959</v>
       </c>
       <c r="K215" s="1" t="s">
@@ -27098,7 +27097,7 @@
       <c r="I216" s="1" t="s">
         <v>1965</v>
       </c>
-      <c r="J216" s="1" t="s">
+      <c r="J216" s="4" t="s">
         <v>1967</v>
       </c>
       <c r="K216" s="1" t="s">
@@ -27148,7 +27147,7 @@
       <c r="I217" s="1" t="s">
         <v>1974</v>
       </c>
-      <c r="J217" s="1" t="s">
+      <c r="J217" s="4" t="s">
         <v>168</v>
       </c>
       <c r="K217" s="1" t="s">
@@ -27198,7 +27197,7 @@
       <c r="I218" s="1" t="s">
         <v>1982</v>
       </c>
-      <c r="J218" s="1" t="s">
+      <c r="J218" s="4" t="s">
         <v>1983</v>
       </c>
       <c r="K218" s="1" t="s">
@@ -27248,7 +27247,7 @@
       <c r="I219" s="1" t="s">
         <v>1992</v>
       </c>
-      <c r="J219" s="1" t="s">
+      <c r="J219" s="4" t="s">
         <v>1993</v>
       </c>
       <c r="K219" s="1" t="s">
@@ -27298,7 +27297,7 @@
       <c r="I220" s="1" t="s">
         <v>2000</v>
       </c>
-      <c r="J220" s="1" t="s">
+      <c r="J220" s="4" t="s">
         <v>2002</v>
       </c>
       <c r="K220" s="1" t="s">
@@ -27348,7 +27347,7 @@
       <c r="I221" s="1" t="s">
         <v>2008</v>
       </c>
-      <c r="J221" s="1" t="s">
+      <c r="J221" s="4" t="s">
         <v>2010</v>
       </c>
       <c r="K221" s="1" t="s">
@@ -27398,7 +27397,7 @@
       <c r="I222" s="1" t="s">
         <v>2016</v>
       </c>
-      <c r="J222" s="1" t="s">
+      <c r="J222" s="4" t="s">
         <v>1482</v>
       </c>
       <c r="K222" s="1" t="s">
@@ -27448,7 +27447,7 @@
       <c r="I223" s="1" t="s">
         <v>2024</v>
       </c>
-      <c r="J223" s="1" t="s">
+      <c r="J223" s="4" t="s">
         <v>2025</v>
       </c>
       <c r="K223" s="1" t="s">
@@ -27498,7 +27497,7 @@
       <c r="I224" s="1" t="s">
         <v>2032</v>
       </c>
-      <c r="J224" s="1" t="s">
+      <c r="J224" s="4" t="s">
         <v>2034</v>
       </c>
       <c r="K224" s="1" t="s">
@@ -27548,7 +27547,7 @@
       <c r="I225" s="1" t="s">
         <v>2041</v>
       </c>
-      <c r="J225" s="1" t="s">
+      <c r="J225" s="4" t="s">
         <v>2042</v>
       </c>
       <c r="K225" s="1" t="s">
@@ -27598,7 +27597,7 @@
       <c r="I226" s="1" t="s">
         <v>2049</v>
       </c>
-      <c r="J226" s="1" t="s">
+      <c r="J226" s="4" t="s">
         <v>1314</v>
       </c>
       <c r="K226" s="1" t="s">
@@ -27648,7 +27647,7 @@
       <c r="I227" s="1" t="s">
         <v>2059</v>
       </c>
-      <c r="J227" s="1" t="s">
+      <c r="J227" s="4" t="s">
         <v>2060</v>
       </c>
       <c r="K227" s="1" t="s">
@@ -27698,7 +27697,7 @@
       <c r="I228" s="1" t="s">
         <v>2069</v>
       </c>
-      <c r="J228" s="1" t="s">
+      <c r="J228" s="4" t="s">
         <v>2070</v>
       </c>
       <c r="K228" s="1" t="s">
@@ -27748,7 +27747,7 @@
       <c r="I229" s="1" t="s">
         <v>2078</v>
       </c>
-      <c r="J229" s="1" t="s">
+      <c r="J229" s="4" t="s">
         <v>739</v>
       </c>
       <c r="K229" s="1" t="s">
@@ -27798,7 +27797,7 @@
       <c r="I230" s="1" t="s">
         <v>2086</v>
       </c>
-      <c r="J230" s="1" t="s">
+      <c r="J230" s="4" t="s">
         <v>1013</v>
       </c>
       <c r="K230" s="1" t="s">
@@ -27848,7 +27847,7 @@
       <c r="I231" s="1" t="s">
         <v>2092</v>
       </c>
-      <c r="J231" s="1" t="s">
+      <c r="J231" s="4" t="s">
         <v>2094</v>
       </c>
       <c r="K231" s="1" t="s">
@@ -27898,7 +27897,7 @@
       <c r="I232" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J232" s="1" t="s">
+      <c r="J232" s="4" t="s">
         <v>2102</v>
       </c>
       <c r="K232" s="1" t="s">
@@ -27948,7 +27947,7 @@
       <c r="I233" s="1" t="s">
         <v>2111</v>
       </c>
-      <c r="J233" s="1" t="s">
+      <c r="J233" s="4" t="s">
         <v>1222</v>
       </c>
       <c r="K233" s="1" t="s">
@@ -27998,7 +27997,7 @@
       <c r="I234" s="1" t="s">
         <v>2119</v>
       </c>
-      <c r="J234" s="1" t="s">
+      <c r="J234" s="4" t="s">
         <v>499</v>
       </c>
       <c r="K234" s="1" t="s">
@@ -28048,7 +28047,7 @@
       <c r="I235" s="1" t="s">
         <v>2128</v>
       </c>
-      <c r="J235" s="1" t="s">
+      <c r="J235" s="4" t="s">
         <v>2129</v>
       </c>
       <c r="K235" s="1" t="s">
@@ -28098,7 +28097,7 @@
       <c r="I236" s="1" t="s">
         <v>2128</v>
       </c>
-      <c r="J236" s="1" t="s">
+      <c r="J236" s="4" t="s">
         <v>656</v>
       </c>
       <c r="K236" s="1" t="s">
@@ -28148,7 +28147,7 @@
       <c r="I237" s="1" t="s">
         <v>2146</v>
       </c>
-      <c r="J237" s="1" t="s">
+      <c r="J237" s="4" t="s">
         <v>344</v>
       </c>
       <c r="K237" s="1" t="s">
@@ -28198,7 +28197,7 @@
       <c r="I238" s="1" t="s">
         <v>2155</v>
       </c>
-      <c r="J238" s="1" t="s">
+      <c r="J238" s="4" t="s">
         <v>2156</v>
       </c>
       <c r="K238" s="1" t="s">
@@ -28248,7 +28247,7 @@
       <c r="I239" s="1" t="s">
         <v>2164</v>
       </c>
-      <c r="J239" s="1" t="s">
+      <c r="J239" s="4" t="s">
         <v>1586</v>
       </c>
       <c r="K239" s="1" t="s">
@@ -28298,7 +28297,7 @@
       <c r="I240" s="1" t="s">
         <v>2172</v>
       </c>
-      <c r="J240" s="1" t="s">
+      <c r="J240" s="4" t="s">
         <v>2173</v>
       </c>
       <c r="K240" s="1" t="s">
@@ -28348,7 +28347,7 @@
       <c r="I241" s="1" t="s">
         <v>2181</v>
       </c>
-      <c r="J241" s="1" t="s">
+      <c r="J241" s="4" t="s">
         <v>2182</v>
       </c>
       <c r="K241" s="1" t="s">
@@ -28398,7 +28397,7 @@
       <c r="I242" s="1" t="s">
         <v>2190</v>
       </c>
-      <c r="J242" s="1" t="s">
+      <c r="J242" s="4" t="s">
         <v>2191</v>
       </c>
       <c r="K242" s="1" t="s">
@@ -28448,7 +28447,7 @@
       <c r="I243" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J243" s="1" t="s">
+      <c r="J243" s="4" t="s">
         <v>2199</v>
       </c>
       <c r="K243" s="1" t="s">
@@ -28498,7 +28497,7 @@
       <c r="I244" s="1" t="s">
         <v>2206</v>
       </c>
-      <c r="J244" s="1" t="s">
+      <c r="J244" s="4" t="s">
         <v>1526</v>
       </c>
       <c r="K244" s="1" t="s">
@@ -28548,7 +28547,7 @@
       <c r="I245" s="1" t="s">
         <v>2213</v>
       </c>
-      <c r="J245" s="1" t="s">
+      <c r="J245" s="4" t="s">
         <v>2214</v>
       </c>
       <c r="K245" s="1" t="s">
@@ -28598,7 +28597,7 @@
       <c r="I246" s="1" t="s">
         <v>2223</v>
       </c>
-      <c r="J246" s="1" t="s">
+      <c r="J246" s="4" t="s">
         <v>2224</v>
       </c>
       <c r="K246" s="1" t="s">
@@ -28648,7 +28647,7 @@
       <c r="I247" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="J247" s="1" t="s">
+      <c r="J247" s="4" t="s">
         <v>1472</v>
       </c>
       <c r="K247" s="1" t="s">
@@ -28698,7 +28697,7 @@
       <c r="I248" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="J248" s="1" t="s">
+      <c r="J248" s="4" t="s">
         <v>2241</v>
       </c>
       <c r="K248" s="1" t="s">
@@ -28748,7 +28747,7 @@
       <c r="I249" s="1" t="s">
         <v>2249</v>
       </c>
-      <c r="J249" s="1" t="s">
+      <c r="J249" s="4" t="s">
         <v>1858</v>
       </c>
       <c r="K249" s="1" t="s">
@@ -28798,7 +28797,7 @@
       <c r="I250" s="1" t="s">
         <v>2257</v>
       </c>
-      <c r="J250" s="1" t="s">
+      <c r="J250" s="4" t="s">
         <v>2258</v>
       </c>
       <c r="K250" s="1" t="s">
@@ -28848,7 +28847,7 @@
       <c r="I251" s="1" t="s">
         <v>2264</v>
       </c>
-      <c r="J251" s="1" t="s">
+      <c r="J251" s="4" t="s">
         <v>2266</v>
       </c>
       <c r="K251" s="1" t="s">
@@ -28898,7 +28897,7 @@
       <c r="I252" s="1" t="s">
         <v>2275</v>
       </c>
-      <c r="J252" s="1" t="s">
+      <c r="J252" s="4" t="s">
         <v>1204</v>
       </c>
       <c r="K252" s="1" t="s">
@@ -28948,7 +28947,7 @@
       <c r="I253" s="1" t="s">
         <v>2283</v>
       </c>
-      <c r="J253" s="1" t="s">
+      <c r="J253" s="4" t="s">
         <v>2284</v>
       </c>
       <c r="K253" s="1" t="s">
@@ -28998,7 +28997,7 @@
       <c r="I254" s="1" t="s">
         <v>2292</v>
       </c>
-      <c r="J254" s="1" t="s">
+      <c r="J254" s="4" t="s">
         <v>2293</v>
       </c>
       <c r="K254" s="1" t="s">
@@ -29048,7 +29047,7 @@
       <c r="I255" s="1" t="s">
         <v>2302</v>
       </c>
-      <c r="J255" s="1" t="s">
+      <c r="J255" s="4" t="s">
         <v>1798</v>
       </c>
       <c r="K255" s="1" t="s">
@@ -29098,7 +29097,7 @@
       <c r="I256" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="J256" s="1" t="s">
+      <c r="J256" s="4" t="s">
         <v>2311</v>
       </c>
       <c r="K256" s="1" t="s">
@@ -29148,7 +29147,7 @@
       <c r="I257" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="J257" s="1" t="s">
+      <c r="J257" s="4" t="s">
         <v>1850</v>
       </c>
       <c r="K257" s="1" t="s">
@@ -29198,7 +29197,7 @@
       <c r="I258" s="1" t="s">
         <v>2326</v>
       </c>
-      <c r="J258" s="1" t="s">
+      <c r="J258" s="4" t="s">
         <v>2327</v>
       </c>
       <c r="K258" s="1" t="s">
@@ -29248,7 +29247,7 @@
       <c r="I259" s="1" t="s">
         <v>2335</v>
       </c>
-      <c r="J259" s="1" t="s">
+      <c r="J259" s="4" t="s">
         <v>1858</v>
       </c>
       <c r="K259" s="1" t="s">
@@ -29298,7 +29297,7 @@
       <c r="I260" s="1" t="s">
         <v>2342</v>
       </c>
-      <c r="J260" s="1" t="s">
+      <c r="J260" s="4" t="s">
         <v>2343</v>
       </c>
       <c r="K260" s="1" t="s">
@@ -29348,7 +29347,7 @@
       <c r="I261" s="1" t="s">
         <v>2351</v>
       </c>
-      <c r="J261" s="1" t="s">
+      <c r="J261" s="4" t="s">
         <v>2352</v>
       </c>
       <c r="K261" s="1" t="s">
@@ -29398,7 +29397,7 @@
       <c r="I262" s="1" t="s">
         <v>2358</v>
       </c>
-      <c r="J262" s="1" t="s">
+      <c r="J262" s="4" t="s">
         <v>2360</v>
       </c>
       <c r="K262" s="1" t="s">
@@ -29448,7 +29447,7 @@
       <c r="I263" s="1" t="s">
         <v>2368</v>
       </c>
-      <c r="J263" s="1" t="s">
+      <c r="J263" s="4" t="s">
         <v>2369</v>
       </c>
       <c r="K263" s="1" t="s">
@@ -29498,7 +29497,7 @@
       <c r="I264" s="1" t="s">
         <v>2376</v>
       </c>
-      <c r="J264" s="1" t="s">
+      <c r="J264" s="4" t="s">
         <v>2377</v>
       </c>
       <c r="K264" s="1" t="s">
@@ -29548,7 +29547,7 @@
       <c r="I265" s="1" t="s">
         <v>2385</v>
       </c>
-      <c r="J265" s="1" t="s">
+      <c r="J265" s="4" t="s">
         <v>470</v>
       </c>
       <c r="K265" s="1" t="s">
@@ -29598,7 +29597,7 @@
       <c r="I266" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="J266" s="1" t="s">
+      <c r="J266" s="4" t="s">
         <v>2394</v>
       </c>
       <c r="K266" s="1" t="s">
@@ -29648,7 +29647,7 @@
       <c r="I267" s="1" t="s">
         <v>2402</v>
       </c>
-      <c r="J267" s="1" t="s">
+      <c r="J267" s="4" t="s">
         <v>1798</v>
       </c>
       <c r="K267" s="1" t="s">
@@ -29698,7 +29697,7 @@
       <c r="I268" s="1" t="s">
         <v>2410</v>
       </c>
-      <c r="J268" s="1" t="s">
+      <c r="J268" s="4" t="s">
         <v>2411</v>
       </c>
       <c r="K268" s="1" t="s">
@@ -29748,7 +29747,7 @@
       <c r="I269" s="1" t="s">
         <v>2128</v>
       </c>
-      <c r="J269" s="1" t="s">
+      <c r="J269" s="4" t="s">
         <v>1499</v>
       </c>
       <c r="K269" s="1" t="s">
@@ -29798,7 +29797,7 @@
       <c r="I270" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="J270" s="1" t="s">
+      <c r="J270" s="4" t="s">
         <v>2424</v>
       </c>
       <c r="K270" s="1" t="s">
@@ -29848,7 +29847,7 @@
       <c r="I271" s="1" t="s">
         <v>2430</v>
       </c>
-      <c r="J271" s="1" t="s">
+      <c r="J271" s="4" t="s">
         <v>2431</v>
       </c>
       <c r="K271" s="1" t="s">
@@ -29898,7 +29897,7 @@
       <c r="I272" s="1" t="s">
         <v>2438</v>
       </c>
-      <c r="J272" s="1" t="s">
+      <c r="J272" s="4" t="s">
         <v>2439</v>
       </c>
       <c r="K272" s="1" t="s">
@@ -29948,7 +29947,7 @@
       <c r="I273" s="1" t="s">
         <v>2447</v>
       </c>
-      <c r="J273" s="1" t="s">
+      <c r="J273" s="4" t="s">
         <v>2448</v>
       </c>
       <c r="K273" s="1" t="s">
@@ -29998,7 +29997,7 @@
       <c r="I274" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="J274" s="1" t="s">
+      <c r="J274" s="4" t="s">
         <v>2456</v>
       </c>
       <c r="K274" s="1" t="s">
@@ -30048,7 +30047,7 @@
       <c r="I275" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="J275" s="1" t="s">
+      <c r="J275" s="4" t="s">
         <v>1882</v>
       </c>
       <c r="K275" s="1" t="s">
@@ -30098,7 +30097,7 @@
       <c r="I276" s="1" t="s">
         <v>2470</v>
       </c>
-      <c r="J276" s="1" t="s">
+      <c r="J276" s="4" t="s">
         <v>2472</v>
       </c>
       <c r="K276" s="1" t="s">
@@ -30148,7 +30147,7 @@
       <c r="I277" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="J277" s="1" t="s">
+      <c r="J277" s="4" t="s">
         <v>2481</v>
       </c>
       <c r="K277" s="1" t="s">
@@ -30198,7 +30197,7 @@
       <c r="I278" s="1" t="s">
         <v>2487</v>
       </c>
-      <c r="J278" s="1" t="s">
+      <c r="J278" s="4" t="s">
         <v>2489</v>
       </c>
       <c r="K278" s="1" t="s">
@@ -30248,7 +30247,7 @@
       <c r="I279" s="1" t="s">
         <v>2496</v>
       </c>
-      <c r="J279" s="1" t="s">
+      <c r="J279" s="4" t="s">
         <v>2498</v>
       </c>
       <c r="K279" s="1" t="s">
@@ -30298,7 +30297,7 @@
       <c r="I280" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="J280" s="1" t="s">
+      <c r="J280" s="4" t="s">
         <v>2506</v>
       </c>
       <c r="K280" s="1" t="s">
@@ -30348,7 +30347,7 @@
       <c r="I281" s="1" t="s">
         <v>2513</v>
       </c>
-      <c r="J281" s="1" t="s">
+      <c r="J281" s="4" t="s">
         <v>2515</v>
       </c>
       <c r="K281" s="1" t="s">
@@ -30398,7 +30397,7 @@
       <c r="I282" s="1" t="s">
         <v>1713</v>
       </c>
-      <c r="J282" s="1" t="s">
+      <c r="J282" s="4" t="s">
         <v>1882</v>
       </c>
       <c r="K282" s="1" t="s">
@@ -30448,7 +30447,7 @@
       <c r="I283" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="J283" s="1" t="s">
+      <c r="J283" s="4" t="s">
         <v>2529</v>
       </c>
       <c r="K283" s="1" t="s">
@@ -30498,7 +30497,7 @@
       <c r="I284" s="1" t="s">
         <v>2536</v>
       </c>
-      <c r="J284" s="1" t="s">
+      <c r="J284" s="4" t="s">
         <v>2537</v>
       </c>
       <c r="K284" s="1" t="s">
@@ -30548,7 +30547,7 @@
       <c r="I285" s="1" t="s">
         <v>2543</v>
       </c>
-      <c r="J285" s="1" t="s">
+      <c r="J285" s="4" t="s">
         <v>2545</v>
       </c>
       <c r="K285" s="1" t="s">
@@ -30598,7 +30597,7 @@
       <c r="I286" s="1" t="s">
         <v>2552</v>
       </c>
-      <c r="J286" s="1" t="s">
+      <c r="J286" s="4" t="s">
         <v>210</v>
       </c>
       <c r="K286" s="1" t="s">
@@ -30648,7 +30647,7 @@
       <c r="I287" s="1" t="s">
         <v>2559</v>
       </c>
-      <c r="J287" s="1" t="s">
+      <c r="J287" s="4" t="s">
         <v>2545</v>
       </c>
       <c r="K287" s="1" t="s">
@@ -30698,7 +30697,7 @@
       <c r="I288" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="J288" s="1" t="s">
+      <c r="J288" s="4" t="s">
         <v>2489</v>
       </c>
       <c r="K288" s="1" t="s">
@@ -30748,7 +30747,7 @@
       <c r="I289" s="1" t="s">
         <v>2573</v>
       </c>
-      <c r="J289" s="1" t="s">
+      <c r="J289" s="4" t="s">
         <v>2394</v>
       </c>
       <c r="K289" s="1" t="s">
@@ -30798,7 +30797,7 @@
       <c r="I290" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="J290" s="1" t="s">
+      <c r="J290" s="4" t="s">
         <v>2582</v>
       </c>
       <c r="K290" s="1" t="s">
@@ -30848,7 +30847,7 @@
       <c r="I291" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="J291" s="1" t="s">
+      <c r="J291" s="4" t="s">
         <v>2591</v>
       </c>
       <c r="K291" s="1" t="s">
@@ -30898,7 +30897,7 @@
       <c r="I292" s="1" t="s">
         <v>2598</v>
       </c>
-      <c r="J292" s="1" t="s">
+      <c r="J292" s="4" t="s">
         <v>2600</v>
       </c>
       <c r="K292" s="1" t="s">
@@ -30948,7 +30947,7 @@
       <c r="I293" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="J293" s="1" t="s">
+      <c r="J293" s="4" t="s">
         <v>618</v>
       </c>
       <c r="K293" s="1" t="s">
@@ -30998,7 +30997,7 @@
       <c r="I294" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="J294" s="1" t="s">
+      <c r="J294" s="4" t="s">
         <v>2616</v>
       </c>
       <c r="K294" s="1" t="s">
@@ -31048,7 +31047,7 @@
       <c r="I295" s="1" t="s">
         <v>2622</v>
       </c>
-      <c r="J295" s="1" t="s">
+      <c r="J295" s="4" t="s">
         <v>1390</v>
       </c>
       <c r="K295" s="1" t="s">
@@ -31098,7 +31097,7 @@
       <c r="I296" s="1" t="s">
         <v>2630</v>
       </c>
-      <c r="J296" s="1" t="s">
+      <c r="J296" s="4" t="s">
         <v>2631</v>
       </c>
       <c r="K296" s="1" t="s">
@@ -31148,7 +31147,7 @@
       <c r="I297" s="1" t="s">
         <v>2638</v>
       </c>
-      <c r="J297" s="1" t="s">
+      <c r="J297" s="4" t="s">
         <v>2640</v>
       </c>
       <c r="K297" s="1" t="s">
@@ -31198,7 +31197,7 @@
       <c r="I298" s="1" t="s">
         <v>2647</v>
       </c>
-      <c r="J298" s="1" t="s">
+      <c r="J298" s="4" t="s">
         <v>1526</v>
       </c>
       <c r="K298" s="1" t="s">
@@ -31248,7 +31247,7 @@
       <c r="I299" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="J299" s="1" t="s">
+      <c r="J299" s="4" t="s">
         <v>2656</v>
       </c>
       <c r="K299" s="1" t="s">
@@ -31298,7 +31297,7 @@
       <c r="I300" s="1" t="s">
         <v>2566</v>
       </c>
-      <c r="J300" s="1" t="s">
+      <c r="J300" s="4" t="s">
         <v>1858</v>
       </c>
       <c r="K300" s="1" t="s">
@@ -31348,7 +31347,7 @@
       <c r="I301" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J301" s="1" t="s">
+      <c r="J301" s="4" t="s">
         <v>2668</v>
       </c>
       <c r="K301" s="1" t="s">
@@ -31398,7 +31397,7 @@
       <c r="I302" s="1" t="s">
         <v>2675</v>
       </c>
-      <c r="J302" s="1" t="s">
+      <c r="J302" s="4" t="s">
         <v>2439</v>
       </c>
       <c r="K302" s="1" t="s">
@@ -31448,7 +31447,7 @@
       <c r="I303" s="1" t="s">
         <v>2682</v>
       </c>
-      <c r="J303" s="1" t="s">
+      <c r="J303" s="4" t="s">
         <v>2683</v>
       </c>
       <c r="K303" s="1" t="s">
@@ -31498,7 +31497,7 @@
       <c r="I304" s="1" t="s">
         <v>2691</v>
       </c>
-      <c r="J304" s="1" t="s">
+      <c r="J304" s="4" t="s">
         <v>2692</v>
       </c>
       <c r="K304" s="1" t="s">
@@ -31548,7 +31547,7 @@
       <c r="I305" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="J305" s="1" t="s">
+      <c r="J305" s="4" t="s">
         <v>2700</v>
       </c>
       <c r="K305" s="1" t="s">
@@ -31598,7 +31597,7 @@
       <c r="I306" s="1" t="s">
         <v>2707</v>
       </c>
-      <c r="J306" s="1" t="s">
+      <c r="J306" s="4" t="s">
         <v>581</v>
       </c>
       <c r="K306" s="1" t="s">
@@ -31648,7 +31647,7 @@
       <c r="I307" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="J307" s="1" t="s">
+      <c r="J307" s="4" t="s">
         <v>1959</v>
       </c>
       <c r="K307" s="1" t="s">
@@ -31698,7 +31697,7 @@
       <c r="I308" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="J308" s="1" t="s">
+      <c r="J308" s="4" t="s">
         <v>675</v>
       </c>
       <c r="K308" s="1" t="s">
@@ -31748,7 +31747,7 @@
       <c r="I309" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="J309" s="1" t="s">
+      <c r="J309" s="4" t="s">
         <v>949</v>
       </c>
       <c r="K309" s="1" t="s">
@@ -31798,7 +31797,7 @@
       <c r="I310" s="1" t="s">
         <v>2738</v>
       </c>
-      <c r="J310" s="1" t="s">
+      <c r="J310" s="4" t="s">
         <v>2740</v>
       </c>
       <c r="K310" s="1" t="s">
@@ -31848,7 +31847,7 @@
       <c r="I311" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="J311" s="1" t="s">
+      <c r="J311" s="4" t="s">
         <v>647</v>
       </c>
       <c r="K311" s="1" t="s">
@@ -31898,7 +31897,7 @@
       <c r="I312" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="J312" s="1" t="s">
+      <c r="J312" s="4" t="s">
         <v>2755</v>
       </c>
       <c r="K312" s="1" t="s">
@@ -31948,7 +31947,7 @@
       <c r="I313" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="J313" s="1" t="s">
+      <c r="J313" s="4" t="s">
         <v>995</v>
       </c>
       <c r="K313" s="1" t="s">
@@ -31998,7 +31997,7 @@
       <c r="I314" s="1" t="s">
         <v>2770</v>
       </c>
-      <c r="J314" s="1" t="s">
+      <c r="J314" s="4" t="s">
         <v>1322</v>
       </c>
       <c r="K314" s="1" t="s">
@@ -32048,7 +32047,7 @@
       <c r="I315" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="J315" s="1" t="s">
+      <c r="J315" s="4" t="s">
         <v>2779</v>
       </c>
       <c r="K315" s="1" t="s">
@@ -32098,7 +32097,7 @@
       <c r="I316" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="J316" s="1" t="s">
+      <c r="J316" s="4" t="s">
         <v>2788</v>
       </c>
       <c r="K316" s="1" t="s">
@@ -32148,7 +32147,7 @@
       <c r="I317" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="J317" s="1" t="s">
+      <c r="J317" s="4" t="s">
         <v>2788</v>
       </c>
       <c r="K317" s="1" t="s">
@@ -32198,7 +32197,7 @@
       <c r="I318" s="1" t="s">
         <v>2798</v>
       </c>
-      <c r="J318" s="1" t="s">
+      <c r="J318" s="4" t="s">
         <v>2788</v>
       </c>
       <c r="K318" s="1" t="s">
@@ -32248,7 +32247,7 @@
       <c r="I319" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="J319" s="1" t="s">
+      <c r="J319" s="4" t="s">
         <v>489</v>
       </c>
       <c r="K319" s="1" t="s">
@@ -32298,7 +32297,7 @@
       <c r="I320" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="J320" s="1" t="s">
+      <c r="J320" s="4" t="s">
         <v>2814</v>
       </c>
       <c r="K320" s="1" t="s">
@@ -32348,7 +32347,7 @@
       <c r="I321" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="J321" s="1" t="s">
+      <c r="J321" s="4" t="s">
         <v>2823</v>
       </c>
       <c r="K321" s="1" t="s">
@@ -32398,7 +32397,7 @@
       <c r="I322" s="1" t="s">
         <v>2831</v>
       </c>
-      <c r="J322" s="1" t="s">
+      <c r="J322" s="4" t="s">
         <v>2832</v>
       </c>
       <c r="K322" s="1" t="s">
@@ -32448,7 +32447,7 @@
       <c r="I323" s="1" t="s">
         <v>2841</v>
       </c>
-      <c r="J323" s="1" t="s">
+      <c r="J323" s="4" t="s">
         <v>2842</v>
       </c>
       <c r="K323" s="1" t="s">
@@ -32498,7 +32497,7 @@
       <c r="I324" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="J324" s="1" t="s">
+      <c r="J324" s="4" t="s">
         <v>2849</v>
       </c>
       <c r="K324" s="1" t="s">
@@ -32548,7 +32547,7 @@
       <c r="I325" s="1" t="s">
         <v>2858</v>
       </c>
-      <c r="J325" s="1" t="s">
+      <c r="J325" s="4" t="s">
         <v>1415</v>
       </c>
       <c r="K325" s="1" t="s">
@@ -32598,7 +32597,7 @@
       <c r="I326" s="1" t="s">
         <v>2864</v>
       </c>
-      <c r="J326" s="1" t="s">
+      <c r="J326" s="4" t="s">
         <v>251</v>
       </c>
       <c r="K326" s="1" t="s">
@@ -32648,7 +32647,7 @@
       <c r="I327" s="1" t="s">
         <v>2872</v>
       </c>
-      <c r="J327" s="1" t="s">
+      <c r="J327" s="4" t="s">
         <v>2873</v>
       </c>
       <c r="K327" s="1" t="s">
@@ -32698,7 +32697,7 @@
       <c r="I328" s="1" t="s">
         <v>2882</v>
       </c>
-      <c r="J328" s="1" t="s">
+      <c r="J328" s="4" t="s">
         <v>2883</v>
       </c>
       <c r="K328" s="1" t="s">
@@ -32748,7 +32747,7 @@
       <c r="I329" s="1" t="s">
         <v>2890</v>
       </c>
-      <c r="J329" s="1" t="s">
+      <c r="J329" s="4" t="s">
         <v>125</v>
       </c>
       <c r="K329" s="1" t="s">
@@ -32798,7 +32797,7 @@
       <c r="I330" s="1" t="s">
         <v>2894</v>
       </c>
-      <c r="J330" s="1" t="s">
+      <c r="J330" s="4" t="s">
         <v>2896</v>
       </c>
       <c r="K330" s="1" t="s">
@@ -32848,7 +32847,7 @@
       <c r="I331" s="1" t="s">
         <v>2903</v>
       </c>
-      <c r="J331" s="1" t="s">
+      <c r="J331" s="4" t="s">
         <v>2904</v>
       </c>
       <c r="K331" s="1" t="s">
@@ -32898,7 +32897,7 @@
       <c r="I332" s="1" t="s">
         <v>2911</v>
       </c>
-      <c r="J332" s="1" t="s">
+      <c r="J332" s="4" t="s">
         <v>2912</v>
       </c>
       <c r="K332" s="1" t="s">
@@ -32948,7 +32947,7 @@
       <c r="I333" s="1" t="s">
         <v>2920</v>
       </c>
-      <c r="J333" s="1" t="s">
+      <c r="J333" s="4" t="s">
         <v>2156</v>
       </c>
       <c r="K333" s="1" t="s">
@@ -32998,7 +32997,7 @@
       <c r="I334" s="1" t="s">
         <v>2926</v>
       </c>
-      <c r="J334" s="1" t="s">
+      <c r="J334" s="4" t="s">
         <v>2842</v>
       </c>
       <c r="K334" s="1" t="s">
@@ -33048,7 +33047,7 @@
       <c r="I335" s="1" t="s">
         <v>2934</v>
       </c>
-      <c r="J335" s="1" t="s">
+      <c r="J335" s="4" t="s">
         <v>2935</v>
       </c>
       <c r="K335" s="1" t="s">
@@ -33098,7 +33097,7 @@
       <c r="I336" s="1" t="s">
         <v>2942</v>
       </c>
-      <c r="J336" s="1" t="s">
+      <c r="J336" s="4" t="s">
         <v>897</v>
       </c>
       <c r="K336" s="1" t="s">
@@ -33148,7 +33147,7 @@
       <c r="I337" s="1" t="s">
         <v>2950</v>
       </c>
-      <c r="J337" s="1" t="s">
+      <c r="J337" s="4" t="s">
         <v>1586</v>
       </c>
       <c r="K337" s="1" t="s">
@@ -33198,7 +33197,7 @@
       <c r="I338" s="1" t="s">
         <v>2957</v>
       </c>
-      <c r="J338" s="1" t="s">
+      <c r="J338" s="4" t="s">
         <v>2958</v>
       </c>
       <c r="K338" s="1" t="s">
@@ -33248,7 +33247,7 @@
       <c r="I339" s="1" t="s">
         <v>2966</v>
       </c>
-      <c r="J339" s="1" t="s">
+      <c r="J339" s="4" t="s">
         <v>2967</v>
       </c>
       <c r="K339" s="1" t="s">
@@ -33298,7 +33297,7 @@
       <c r="I340" s="1" t="s">
         <v>2973</v>
       </c>
-      <c r="J340" s="1" t="s">
+      <c r="J340" s="4" t="s">
         <v>1297</v>
       </c>
       <c r="K340" s="1" t="s">
@@ -33348,7 +33347,7 @@
       <c r="I341" s="1" t="s">
         <v>2981</v>
       </c>
-      <c r="J341" s="1" t="s">
+      <c r="J341" s="4" t="s">
         <v>415</v>
       </c>
       <c r="K341" s="1" t="s">
@@ -33398,7 +33397,7 @@
       <c r="I342" s="1" t="s">
         <v>2988</v>
       </c>
-      <c r="J342" s="1" t="s">
+      <c r="J342" s="4" t="s">
         <v>2989</v>
       </c>
       <c r="K342" s="1" t="s">
@@ -33448,7 +33447,7 @@
       <c r="I343" s="1" t="s">
         <v>2995</v>
       </c>
-      <c r="J343" s="1" t="s">
+      <c r="J343" s="4" t="s">
         <v>2997</v>
       </c>
       <c r="K343" s="1" t="s">
@@ -33498,7 +33497,7 @@
       <c r="I344" s="1" t="s">
         <v>3005</v>
       </c>
-      <c r="J344" s="1" t="s">
+      <c r="J344" s="4" t="s">
         <v>3006</v>
       </c>
       <c r="K344" s="1" t="s">
@@ -33548,7 +33547,7 @@
       <c r="I345" s="1" t="s">
         <v>3015</v>
       </c>
-      <c r="J345" s="1" t="s">
+      <c r="J345" s="4" t="s">
         <v>3016</v>
       </c>
       <c r="K345" s="1" t="s">
@@ -33598,7 +33597,7 @@
       <c r="I346" s="1" t="s">
         <v>3025</v>
       </c>
-      <c r="J346" s="1" t="s">
+      <c r="J346" s="4" t="s">
         <v>3026</v>
       </c>
       <c r="K346" s="1" t="s">
@@ -33648,7 +33647,7 @@
       <c r="I347" s="1" t="s">
         <v>3033</v>
       </c>
-      <c r="J347" s="1" t="s">
+      <c r="J347" s="4" t="s">
         <v>3034</v>
       </c>
       <c r="K347" s="1" t="s">
@@ -33698,7 +33697,7 @@
       <c r="I348" s="1" t="s">
         <v>3040</v>
       </c>
-      <c r="J348" s="1" t="s">
+      <c r="J348" s="4" t="s">
         <v>647</v>
       </c>
       <c r="K348" s="1" t="s">
@@ -33748,7 +33747,7 @@
       <c r="I349" s="1" t="s">
         <v>3049</v>
       </c>
-      <c r="J349" s="1" t="s">
+      <c r="J349" s="4" t="s">
         <v>3050</v>
       </c>
       <c r="K349" s="1" t="s">
@@ -33798,7 +33797,7 @@
       <c r="I350" s="1" t="s">
         <v>3057</v>
       </c>
-      <c r="J350" s="1" t="s">
+      <c r="J350" s="4" t="s">
         <v>2788</v>
       </c>
       <c r="K350" s="1" t="s">
@@ -33848,7 +33847,7 @@
       <c r="I351" s="1" t="s">
         <v>3062</v>
       </c>
-      <c r="J351" s="1" t="s">
+      <c r="J351" s="4" t="s">
         <v>1204</v>
       </c>
       <c r="K351" s="1" t="s">
@@ -33898,7 +33897,7 @@
       <c r="I352" s="1" t="s">
         <v>3069</v>
       </c>
-      <c r="J352" s="1" t="s">
+      <c r="J352" s="4" t="s">
         <v>415</v>
       </c>
       <c r="K352" s="1" t="s">
@@ -33948,7 +33947,7 @@
       <c r="I353" s="1" t="s">
         <v>3077</v>
       </c>
-      <c r="J353" s="1" t="s">
+      <c r="J353" s="4" t="s">
         <v>3078</v>
       </c>
       <c r="K353" s="1" t="s">
@@ -33998,7 +33997,7 @@
       <c r="I354" s="1" t="s">
         <v>3086</v>
       </c>
-      <c r="J354" s="1" t="s">
+      <c r="J354" s="4" t="s">
         <v>3087</v>
       </c>
       <c r="K354" s="1" t="s">
@@ -34048,7 +34047,7 @@
       <c r="I355" s="1" t="s">
         <v>3095</v>
       </c>
-      <c r="J355" s="1" t="s">
+      <c r="J355" s="4" t="s">
         <v>1526</v>
       </c>
       <c r="K355" s="1" t="s">
@@ -34098,7 +34097,7 @@
       <c r="I356" s="1" t="s">
         <v>3103</v>
       </c>
-      <c r="J356" s="1" t="s">
+      <c r="J356" s="4" t="s">
         <v>3105</v>
       </c>
       <c r="K356" s="1" t="s">
@@ -34148,7 +34147,7 @@
       <c r="I357" s="1" t="s">
         <v>3113</v>
       </c>
-      <c r="J357" s="1" t="s">
+      <c r="J357" s="4" t="s">
         <v>3114</v>
       </c>
       <c r="K357" s="1" t="s">
@@ -34198,7 +34197,7 @@
       <c r="I358" s="1" t="s">
         <v>3121</v>
       </c>
-      <c r="J358" s="1" t="s">
+      <c r="J358" s="4" t="s">
         <v>3122</v>
       </c>
       <c r="K358" s="1" t="s">
@@ -34248,7 +34247,7 @@
       <c r="I359" s="1" t="s">
         <v>3129</v>
       </c>
-      <c r="J359" s="1" t="s">
+      <c r="J359" s="4" t="s">
         <v>3130</v>
       </c>
       <c r="K359" s="1" t="s">
@@ -34298,7 +34297,7 @@
       <c r="I360" s="1" t="s">
         <v>3138</v>
       </c>
-      <c r="J360" s="1" t="s">
+      <c r="J360" s="4" t="s">
         <v>3139</v>
       </c>
       <c r="K360" s="1" t="s">
@@ -34348,7 +34347,7 @@
       <c r="I361" s="1" t="s">
         <v>3146</v>
       </c>
-      <c r="J361" s="1" t="s">
+      <c r="J361" s="4" t="s">
         <v>3147</v>
       </c>
       <c r="K361" s="1" t="s">
@@ -34398,7 +34397,7 @@
       <c r="I362" s="1" t="s">
         <v>3155</v>
       </c>
-      <c r="J362" s="1" t="s">
+      <c r="J362" s="4" t="s">
         <v>3156</v>
       </c>
       <c r="K362" s="1" t="s">
@@ -34448,7 +34447,7 @@
       <c r="I363" s="1" t="s">
         <v>3163</v>
       </c>
-      <c r="J363" s="1" t="s">
+      <c r="J363" s="4" t="s">
         <v>3165</v>
       </c>
       <c r="K363" s="1" t="s">
@@ -34498,7 +34497,7 @@
       <c r="I364" s="1" t="s">
         <v>3173</v>
       </c>
-      <c r="J364" s="1" t="s">
+      <c r="J364" s="4" t="s">
         <v>3174</v>
       </c>
       <c r="K364" s="1" t="s">
@@ -34548,7 +34547,7 @@
       <c r="I365" s="1" t="s">
         <v>3181</v>
       </c>
-      <c r="J365" s="1" t="s">
+      <c r="J365" s="4" t="s">
         <v>3182</v>
       </c>
       <c r="K365" s="1" t="s">
@@ -34598,7 +34597,7 @@
       <c r="I366" s="1" t="s">
         <v>3188</v>
       </c>
-      <c r="J366" s="1" t="s">
+      <c r="J366" s="4" t="s">
         <v>1340</v>
       </c>
       <c r="K366" s="1" t="s">
@@ -34648,7 +34647,7 @@
       <c r="I367" s="1" t="s">
         <v>3195</v>
       </c>
-      <c r="J367" s="1" t="s">
+      <c r="J367" s="4" t="s">
         <v>739</v>
       </c>
       <c r="K367" s="1" t="s">
@@ -34698,7 +34697,7 @@
       <c r="I368" s="1" t="s">
         <v>3205</v>
       </c>
-      <c r="J368" s="1" t="s">
+      <c r="J368" s="4" t="s">
         <v>2094</v>
       </c>
       <c r="K368" s="1" t="s">
@@ -34748,7 +34747,7 @@
       <c r="I369" s="1" t="s">
         <v>3211</v>
       </c>
-      <c r="J369" s="1" t="s">
+      <c r="J369" s="4" t="s">
         <v>3212</v>
       </c>
       <c r="K369" s="1" t="s">
@@ -34798,7 +34797,7 @@
       <c r="I370" s="1" t="s">
         <v>3220</v>
       </c>
-      <c r="J370" s="1" t="s">
+      <c r="J370" s="4" t="s">
         <v>3221</v>
       </c>
       <c r="K370" s="1" t="s">
@@ -34848,7 +34847,7 @@
       <c r="I371" s="1" t="s">
         <v>3229</v>
       </c>
-      <c r="J371" s="1" t="s">
+      <c r="J371" s="4" t="s">
         <v>2582</v>
       </c>
       <c r="K371" s="1" t="s">
@@ -34898,7 +34897,7 @@
       <c r="I372" s="1" t="s">
         <v>3235</v>
       </c>
-      <c r="J372" s="1" t="s">
+      <c r="J372" s="4" t="s">
         <v>3236</v>
       </c>
       <c r="K372" s="1" t="s">
@@ -34948,7 +34947,7 @@
       <c r="I373" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="J373" s="1" t="s">
+      <c r="J373" s="4" t="s">
         <v>3243</v>
       </c>
       <c r="K373" s="1" t="s">
@@ -34998,7 +34997,7 @@
       <c r="I374" s="1" t="s">
         <v>3250</v>
       </c>
-      <c r="J374" s="1" t="s">
+      <c r="J374" s="4" t="s">
         <v>3251</v>
       </c>
       <c r="K374" s="1" t="s">
@@ -35048,7 +35047,7 @@
       <c r="I375" s="1" t="s">
         <v>3259</v>
       </c>
-      <c r="J375" s="1" t="s">
+      <c r="J375" s="4" t="s">
         <v>3260</v>
       </c>
       <c r="K375" s="1" t="s">
@@ -35098,7 +35097,7 @@
       <c r="I376" s="1" t="s">
         <v>3266</v>
       </c>
-      <c r="J376" s="1" t="s">
+      <c r="J376" s="4" t="s">
         <v>3267</v>
       </c>
       <c r="K376" s="1" t="s">
@@ -35148,7 +35147,7 @@
       <c r="I377" s="1" t="s">
         <v>3274</v>
       </c>
-      <c r="J377" s="1" t="s">
+      <c r="J377" s="4" t="s">
         <v>3275</v>
       </c>
       <c r="K377" s="1" t="s">
@@ -35198,7 +35197,7 @@
       <c r="I378" s="1" t="s">
         <v>3282</v>
       </c>
-      <c r="J378" s="1" t="s">
+      <c r="J378" s="4" t="s">
         <v>3283</v>
       </c>
       <c r="K378" s="1" t="s">
@@ -35248,7 +35247,7 @@
       <c r="I379" s="1" t="s">
         <v>3290</v>
       </c>
-      <c r="J379" s="1" t="s">
+      <c r="J379" s="4" t="s">
         <v>3291</v>
       </c>
       <c r="K379" s="1" t="s">
@@ -35298,7 +35297,7 @@
       <c r="I380" s="1" t="s">
         <v>3300</v>
       </c>
-      <c r="J380" s="1" t="s">
+      <c r="J380" s="4" t="s">
         <v>3301</v>
       </c>
       <c r="K380" s="1" t="s">
@@ -35348,7 +35347,7 @@
       <c r="I381" s="1" t="s">
         <v>3309</v>
       </c>
-      <c r="J381" s="1" t="s">
+      <c r="J381" s="4" t="s">
         <v>1040</v>
       </c>
       <c r="K381" s="1" t="s">
@@ -35398,7 +35397,7 @@
       <c r="I382" s="1" t="s">
         <v>3317</v>
       </c>
-      <c r="J382" s="1" t="s">
+      <c r="J382" s="4" t="s">
         <v>3318</v>
       </c>
       <c r="K382" s="1" t="s">
@@ -35448,7 +35447,7 @@
       <c r="I383" s="1" t="s">
         <v>3326</v>
       </c>
-      <c r="J383" s="1" t="s">
+      <c r="J383" s="4" t="s">
         <v>3327</v>
       </c>
       <c r="K383" s="1" t="s">
@@ -35498,7 +35497,7 @@
       <c r="I384" s="1" t="s">
         <v>3336</v>
       </c>
-      <c r="J384" s="1" t="s">
+      <c r="J384" s="4" t="s">
         <v>3337</v>
       </c>
       <c r="K384" s="1" t="s">
@@ -35548,7 +35547,7 @@
       <c r="I385" s="1" t="s">
         <v>3345</v>
       </c>
-      <c r="J385" s="1" t="s">
+      <c r="J385" s="4" t="s">
         <v>3346</v>
       </c>
       <c r="K385" s="1" t="s">
@@ -35598,7 +35597,7 @@
       <c r="I386" s="1" t="s">
         <v>3354</v>
       </c>
-      <c r="J386" s="1" t="s">
+      <c r="J386" s="4" t="s">
         <v>3355</v>
       </c>
       <c r="K386" s="1" t="s">
@@ -35648,7 +35647,7 @@
       <c r="I387" s="1" t="s">
         <v>3362</v>
       </c>
-      <c r="J387" s="1" t="s">
+      <c r="J387" s="4" t="s">
         <v>3364</v>
       </c>
       <c r="K387" s="1" t="s">
@@ -35698,7 +35697,7 @@
       <c r="I388" s="1" t="s">
         <v>3371</v>
       </c>
-      <c r="J388" s="1" t="s">
+      <c r="J388" s="4" t="s">
         <v>3373</v>
       </c>
       <c r="K388" s="1" t="s">
@@ -35748,7 +35747,7 @@
       <c r="I389" s="1" t="s">
         <v>3382</v>
       </c>
-      <c r="J389" s="1" t="s">
+      <c r="J389" s="4" t="s">
         <v>3383</v>
       </c>
       <c r="K389" s="1" t="s">
@@ -35798,7 +35797,7 @@
       <c r="I390" s="1" t="s">
         <v>3391</v>
       </c>
-      <c r="J390" s="1" t="s">
+      <c r="J390" s="4" t="s">
         <v>3392</v>
       </c>
       <c r="K390" s="1" t="s">
@@ -35848,7 +35847,7 @@
       <c r="I391" s="1" t="s">
         <v>3399</v>
       </c>
-      <c r="J391" s="1" t="s">
+      <c r="J391" s="4" t="s">
         <v>3400</v>
       </c>
       <c r="K391" s="1" t="s">
@@ -35898,7 +35897,7 @@
       <c r="I392" s="1" t="s">
         <v>3408</v>
       </c>
-      <c r="J392" s="1" t="s">
+      <c r="J392" s="4" t="s">
         <v>3409</v>
       </c>
       <c r="K392" s="1" t="s">
@@ -35948,7 +35947,7 @@
       <c r="I393" s="1" t="s">
         <v>3417</v>
       </c>
-      <c r="J393" s="1" t="s">
+      <c r="J393" s="4" t="s">
         <v>3418</v>
       </c>
       <c r="K393" s="1" t="s">
@@ -35998,7 +35997,7 @@
       <c r="I394" s="1" t="s">
         <v>3425</v>
       </c>
-      <c r="J394" s="1" t="s">
+      <c r="J394" s="4" t="s">
         <v>304</v>
       </c>
       <c r="K394" s="1" t="s">
@@ -36048,7 +36047,7 @@
       <c r="I395" s="1" t="s">
         <v>3433</v>
       </c>
-      <c r="J395" s="1" t="s">
+      <c r="J395" s="4" t="s">
         <v>3434</v>
       </c>
       <c r="K395" s="1" t="s">
@@ -36098,7 +36097,7 @@
       <c r="I396" s="1" t="s">
         <v>3440</v>
       </c>
-      <c r="J396" s="1" t="s">
+      <c r="J396" s="4" t="s">
         <v>425</v>
       </c>
       <c r="K396" s="1" t="s">
@@ -36148,7 +36147,7 @@
       <c r="I397" s="1" t="s">
         <v>3448</v>
       </c>
-      <c r="J397" s="1" t="s">
+      <c r="J397" s="4" t="s">
         <v>3449</v>
       </c>
       <c r="K397" s="1" t="s">
@@ -36198,7 +36197,7 @@
       <c r="I398" s="1" t="s">
         <v>3457</v>
       </c>
-      <c r="J398" s="1" t="s">
+      <c r="J398" s="4" t="s">
         <v>3458</v>
       </c>
       <c r="K398" s="1" t="s">
@@ -36248,7 +36247,7 @@
       <c r="I399" s="1" t="s">
         <v>3465</v>
       </c>
-      <c r="J399" s="1" t="s">
+      <c r="J399" s="4" t="s">
         <v>3466</v>
       </c>
       <c r="K399" s="1" t="s">
@@ -36298,7 +36297,7 @@
       <c r="I400" s="1" t="s">
         <v>3473</v>
       </c>
-      <c r="J400" s="1" t="s">
+      <c r="J400" s="4" t="s">
         <v>3474</v>
       </c>
       <c r="K400" s="1" t="s">
@@ -36348,7 +36347,7 @@
       <c r="I401" s="1" t="s">
         <v>3481</v>
       </c>
-      <c r="J401" s="1" t="s">
+      <c r="J401" s="4" t="s">
         <v>3482</v>
       </c>
       <c r="K401" s="1" t="s">
@@ -36398,7 +36397,7 @@
       <c r="I402" s="1" t="s">
         <v>3489</v>
       </c>
-      <c r="J402" s="1" t="s">
+      <c r="J402" s="4" t="s">
         <v>3490</v>
       </c>
       <c r="K402" s="1" t="s">
@@ -36448,7 +36447,7 @@
       <c r="I403" s="1" t="s">
         <v>3497</v>
       </c>
-      <c r="J403" s="1" t="s">
+      <c r="J403" s="4" t="s">
         <v>3498</v>
       </c>
       <c r="K403" s="1" t="s">
@@ -36498,7 +36497,7 @@
       <c r="I404" s="1" t="s">
         <v>3506</v>
       </c>
-      <c r="J404" s="1" t="s">
+      <c r="J404" s="4" t="s">
         <v>3507</v>
       </c>
       <c r="K404" s="1" t="s">
@@ -36548,7 +36547,7 @@
       <c r="I405" s="1" t="s">
         <v>3514</v>
       </c>
-      <c r="J405" s="1" t="s">
+      <c r="J405" s="4" t="s">
         <v>3165</v>
       </c>
       <c r="K405" s="1" t="s">
@@ -36598,7 +36597,7 @@
       <c r="I406" s="1" t="s">
         <v>3521</v>
       </c>
-      <c r="J406" s="1" t="s">
+      <c r="J406" s="4" t="s">
         <v>3522</v>
       </c>
       <c r="K406" s="1" t="s">
@@ -36648,7 +36647,7 @@
       <c r="I407" s="1" t="s">
         <v>3529</v>
       </c>
-      <c r="J407" s="1" t="s">
+      <c r="J407" s="4" t="s">
         <v>3530</v>
       </c>
       <c r="K407" s="1" t="s">
@@ -36698,7 +36697,7 @@
       <c r="I408" s="1" t="s">
         <v>3537</v>
       </c>
-      <c r="J408" s="1" t="s">
+      <c r="J408" s="4" t="s">
         <v>3538</v>
       </c>
       <c r="K408" s="1" t="s">
@@ -36748,7 +36747,7 @@
       <c r="I409" s="1" t="s">
         <v>3545</v>
       </c>
-      <c r="J409" s="1" t="s">
+      <c r="J409" s="4" t="s">
         <v>3546</v>
       </c>
       <c r="K409" s="1" t="s">
@@ -36798,7 +36797,7 @@
       <c r="I410" s="1" t="s">
         <v>3553</v>
       </c>
-      <c r="J410" s="1" t="s">
+      <c r="J410" s="4" t="s">
         <v>3554</v>
       </c>
       <c r="K410" s="1" t="s">
@@ -36848,7 +36847,7 @@
       <c r="I411" s="1" t="s">
         <v>3562</v>
       </c>
-      <c r="J411" s="1" t="s">
+      <c r="J411" s="4" t="s">
         <v>777</v>
       </c>
       <c r="K411" s="1" t="s">
@@ -36898,7 +36897,7 @@
       <c r="I412" s="1" t="s">
         <v>3569</v>
       </c>
-      <c r="J412" s="1" t="s">
+      <c r="J412" s="4" t="s">
         <v>3570</v>
       </c>
       <c r="K412" s="1" t="s">
@@ -36948,7 +36947,7 @@
       <c r="I413" s="1" t="s">
         <v>3577</v>
       </c>
-      <c r="J413" s="1" t="s">
+      <c r="J413" s="4" t="s">
         <v>3578</v>
       </c>
       <c r="K413" s="1" t="s">
@@ -36998,7 +36997,7 @@
       <c r="I414" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="J414" s="1" t="s">
+      <c r="J414" s="4" t="s">
         <v>1781</v>
       </c>
       <c r="K414" s="1" t="s">
@@ -37048,7 +37047,7 @@
       <c r="I415" s="1" t="s">
         <v>3592</v>
       </c>
-      <c r="J415" s="1" t="s">
+      <c r="J415" s="4" t="s">
         <v>3182</v>
       </c>
       <c r="K415" s="1" t="s">
@@ -37098,7 +37097,7 @@
       <c r="I416" s="1" t="s">
         <v>3600</v>
       </c>
-      <c r="J416" s="1" t="s">
+      <c r="J416" s="4" t="s">
         <v>2896</v>
       </c>
       <c r="K416" s="1" t="s">
@@ -37148,7 +37147,7 @@
       <c r="I417" s="1" t="s">
         <v>3606</v>
       </c>
-      <c r="J417" s="1" t="s">
+      <c r="J417" s="4" t="s">
         <v>470</v>
       </c>
       <c r="K417" s="1" t="s">
@@ -37198,7 +37197,7 @@
       <c r="I418" s="1" t="s">
         <v>3614</v>
       </c>
-      <c r="J418" s="1" t="s">
+      <c r="J418" s="4" t="s">
         <v>3615</v>
       </c>
       <c r="K418" s="1" t="s">
@@ -37248,7 +37247,7 @@
       <c r="I419" s="1" t="s">
         <v>3622</v>
       </c>
-      <c r="J419" s="1" t="s">
+      <c r="J419" s="4" t="s">
         <v>2912</v>
       </c>
       <c r="K419" s="1" t="s">
@@ -37298,7 +37297,7 @@
       <c r="I420" s="1" t="s">
         <v>3629</v>
       </c>
-      <c r="J420" s="1" t="s">
+      <c r="J420" s="4" t="s">
         <v>3236</v>
       </c>
       <c r="K420" s="1" t="s">
@@ -37348,7 +37347,7 @@
       <c r="I421" s="1" t="s">
         <v>3637</v>
       </c>
-      <c r="J421" s="1" t="s">
+      <c r="J421" s="4" t="s">
         <v>3638</v>
       </c>
       <c r="K421" s="1" t="s">
@@ -37398,7 +37397,7 @@
       <c r="I422" s="1" t="s">
         <v>3646</v>
       </c>
-      <c r="J422" s="1" t="s">
+      <c r="J422" s="4" t="s">
         <v>3647</v>
       </c>
       <c r="K422" s="1" t="s">
@@ -37448,7 +37447,7 @@
       <c r="I423" s="1" t="s">
         <v>3654</v>
       </c>
-      <c r="J423" s="1" t="s">
+      <c r="J423" s="4" t="s">
         <v>3655</v>
       </c>
       <c r="K423" s="1" t="s">
@@ -37498,7 +37497,7 @@
       <c r="I424" s="1" t="s">
         <v>3661</v>
       </c>
-      <c r="J424" s="1" t="s">
+      <c r="J424" s="4" t="s">
         <v>879</v>
       </c>
       <c r="K424" s="1" t="s">
@@ -37548,7 +37547,7 @@
       <c r="I425" s="1" t="s">
         <v>3667</v>
       </c>
-      <c r="J425" s="1" t="s">
+      <c r="J425" s="4" t="s">
         <v>2832</v>
       </c>
       <c r="K425" s="1" t="s">
@@ -37598,7 +37597,7 @@
       <c r="I426" s="1" t="s">
         <v>3675</v>
       </c>
-      <c r="J426" s="1" t="s">
+      <c r="J426" s="4" t="s">
         <v>3251</v>
       </c>
       <c r="K426" s="1" t="s">
@@ -37648,7 +37647,7 @@
       <c r="I427" s="1" t="s">
         <v>3682</v>
       </c>
-      <c r="J427" s="1" t="s">
+      <c r="J427" s="4" t="s">
         <v>3683</v>
       </c>
       <c r="K427" s="1" t="s">
@@ -37698,7 +37697,7 @@
       <c r="I428" s="1" t="s">
         <v>3691</v>
       </c>
-      <c r="J428" s="1" t="s">
+      <c r="J428" s="4" t="s">
         <v>3692</v>
       </c>
       <c r="K428" s="1" t="s">
@@ -37748,7 +37747,7 @@
       <c r="I429" s="1" t="s">
         <v>3699</v>
       </c>
-      <c r="J429" s="1" t="s">
+      <c r="J429" s="4" t="s">
         <v>3700</v>
       </c>
       <c r="K429" s="1" t="s">
@@ -37798,7 +37797,7 @@
       <c r="I430" s="1" t="s">
         <v>3707</v>
       </c>
-      <c r="J430" s="1" t="s">
+      <c r="J430" s="4" t="s">
         <v>3708</v>
       </c>
       <c r="K430" s="1" t="s">
@@ -37848,7 +37847,7 @@
       <c r="I431" s="1" t="s">
         <v>3716</v>
       </c>
-      <c r="J431" s="1" t="s">
+      <c r="J431" s="4" t="s">
         <v>3717</v>
       </c>
       <c r="K431" s="1" t="s">
@@ -37898,7 +37897,7 @@
       <c r="I432" s="1" t="s">
         <v>3723</v>
       </c>
-      <c r="J432" s="1" t="s">
+      <c r="J432" s="4" t="s">
         <v>3724</v>
       </c>
       <c r="K432" s="1" t="s">
@@ -37948,7 +37947,7 @@
       <c r="I433" s="1" t="s">
         <v>3732</v>
       </c>
-      <c r="J433" s="1" t="s">
+      <c r="J433" s="4" t="s">
         <v>1472</v>
       </c>
       <c r="K433" s="1" t="s">
@@ -37998,7 +37997,7 @@
       <c r="I434" s="1" t="s">
         <v>3740</v>
       </c>
-      <c r="J434" s="1" t="s">
+      <c r="J434" s="4" t="s">
         <v>3741</v>
       </c>
       <c r="K434" s="1" t="s">
@@ -38048,7 +38047,7 @@
       <c r="I435" s="1" t="s">
         <v>3748</v>
       </c>
-      <c r="J435" s="1" t="s">
+      <c r="J435" s="4" t="s">
         <v>3749</v>
       </c>
       <c r="K435" s="1" t="s">
@@ -38098,7 +38097,7 @@
       <c r="I436" s="1" t="s">
         <v>3755</v>
       </c>
-      <c r="J436" s="1" t="s">
+      <c r="J436" s="4" t="s">
         <v>3757</v>
       </c>
       <c r="K436" s="1" t="s">
@@ -38148,7 +38147,7 @@
       <c r="I437" s="1" t="s">
         <v>3765</v>
       </c>
-      <c r="J437" s="1" t="s">
+      <c r="J437" s="4" t="s">
         <v>3766</v>
       </c>
       <c r="K437" s="1" t="s">
@@ -38198,7 +38197,7 @@
       <c r="I438" s="1" t="s">
         <v>3773</v>
       </c>
-      <c r="J438" s="1" t="s">
+      <c r="J438" s="4" t="s">
         <v>3774</v>
       </c>
       <c r="K438" s="1" t="s">
@@ -38248,7 +38247,7 @@
       <c r="I439" s="1" t="s">
         <v>3781</v>
       </c>
-      <c r="J439" s="1" t="s">
+      <c r="J439" s="4" t="s">
         <v>3782</v>
       </c>
       <c r="K439" s="1" t="s">
@@ -38298,7 +38297,7 @@
       <c r="I440" s="1" t="s">
         <v>3789</v>
       </c>
-      <c r="J440" s="1" t="s">
+      <c r="J440" s="4" t="s">
         <v>3790</v>
       </c>
       <c r="K440" s="1" t="s">
@@ -38348,7 +38347,7 @@
       <c r="I441" s="1" t="s">
         <v>3798</v>
       </c>
-      <c r="J441" s="1" t="s">
+      <c r="J441" s="4" t="s">
         <v>3799</v>
       </c>
       <c r="K441" s="1" t="s">
@@ -38398,7 +38397,7 @@
       <c r="I442" s="1" t="s">
         <v>3806</v>
       </c>
-      <c r="J442" s="1" t="s">
+      <c r="J442" s="4" t="s">
         <v>2369</v>
       </c>
       <c r="K442" s="1" t="s">
@@ -38448,7 +38447,7 @@
       <c r="I443" s="1" t="s">
         <v>3813</v>
       </c>
-      <c r="J443" s="1" t="s">
+      <c r="J443" s="4" t="s">
         <v>3814</v>
       </c>
       <c r="K443" s="1" t="s">
@@ -38498,7 +38497,7 @@
       <c r="I444" s="1" t="s">
         <v>3820</v>
       </c>
-      <c r="J444" s="1" t="s">
+      <c r="J444" s="4" t="s">
         <v>777</v>
       </c>
       <c r="K444" s="1" t="s">
@@ -38548,7 +38547,7 @@
       <c r="I445" s="1" t="s">
         <v>3828</v>
       </c>
-      <c r="J445" s="1" t="s">
+      <c r="J445" s="4" t="s">
         <v>1866</v>
       </c>
       <c r="K445" s="1" t="s">
@@ -38598,7 +38597,7 @@
       <c r="I446" s="1" t="s">
         <v>3834</v>
       </c>
-      <c r="J446" s="1" t="s">
+      <c r="J446" s="4" t="s">
         <v>3836</v>
       </c>
       <c r="K446" s="1" t="s">
@@ -38648,7 +38647,7 @@
       <c r="I447" s="1" t="s">
         <v>3843</v>
       </c>
-      <c r="J447" s="1" t="s">
+      <c r="J447" s="4" t="s">
         <v>3844</v>
       </c>
       <c r="K447" s="1" t="s">
@@ -38698,7 +38697,7 @@
       <c r="I448" s="1" t="s">
         <v>3851</v>
       </c>
-      <c r="J448" s="1" t="s">
+      <c r="J448" s="4" t="s">
         <v>3852</v>
       </c>
       <c r="K448" s="1" t="s">
@@ -38748,7 +38747,7 @@
       <c r="I449" s="1" t="s">
         <v>3859</v>
       </c>
-      <c r="J449" s="1" t="s">
+      <c r="J449" s="4" t="s">
         <v>3860</v>
       </c>
       <c r="K449" s="1" t="s">
@@ -38798,7 +38797,7 @@
       <c r="I450" s="1" t="s">
         <v>3867</v>
       </c>
-      <c r="J450" s="1" t="s">
+      <c r="J450" s="4" t="s">
         <v>3868</v>
       </c>
       <c r="K450" s="1" t="s">
@@ -38898,7 +38897,7 @@
       <c r="I452" s="1" t="s">
         <v>3882</v>
       </c>
-      <c r="J452" s="1" t="s">
+      <c r="J452" s="4" t="s">
         <v>3883</v>
       </c>
       <c r="K452" s="1" t="s">
@@ -38948,7 +38947,7 @@
       <c r="I453" s="1" t="s">
         <v>3890</v>
       </c>
-      <c r="J453" s="1" t="s">
+      <c r="J453" s="4" t="s">
         <v>3891</v>
       </c>
       <c r="K453" s="1" t="s">
@@ -38998,7 +38997,7 @@
       <c r="I454" s="1" t="s">
         <v>3898</v>
       </c>
-      <c r="J454" s="1" t="s">
+      <c r="J454" s="4" t="s">
         <v>3899</v>
       </c>
       <c r="K454" s="1" t="s">
@@ -39048,7 +39047,7 @@
       <c r="I455" s="1" t="s">
         <v>3906</v>
       </c>
-      <c r="J455" s="1" t="s">
+      <c r="J455" s="4" t="s">
         <v>3907</v>
       </c>
       <c r="K455" s="1" t="s">
@@ -39098,7 +39097,7 @@
       <c r="I456" s="1" t="s">
         <v>3914</v>
       </c>
-      <c r="J456" s="1" t="s">
+      <c r="J456" s="4" t="s">
         <v>3915</v>
       </c>
       <c r="K456" s="1" t="s">
@@ -39148,7 +39147,7 @@
       <c r="I457" s="1" t="s">
         <v>3923</v>
       </c>
-      <c r="J457" s="1" t="s">
+      <c r="J457" s="4" t="s">
         <v>859</v>
       </c>
       <c r="K457" s="1" t="s">
@@ -39198,7 +39197,7 @@
       <c r="I458" s="1" t="s">
         <v>3930</v>
       </c>
-      <c r="J458" s="1" t="s">
+      <c r="J458" s="4" t="s">
         <v>3931</v>
       </c>
       <c r="K458" s="1" t="s">
@@ -39248,7 +39247,7 @@
       <c r="I459" s="1" t="s">
         <v>3937</v>
       </c>
-      <c r="J459" s="1" t="s">
+      <c r="J459" s="4" t="s">
         <v>1825</v>
       </c>
       <c r="K459" s="1" t="s">
@@ -39298,7 +39297,7 @@
       <c r="I460" s="1" t="s">
         <v>3946</v>
       </c>
-      <c r="J460" s="1" t="s">
+      <c r="J460" s="4" t="s">
         <v>3947</v>
       </c>
       <c r="K460" s="1" t="s">
@@ -39348,7 +39347,7 @@
       <c r="I461" s="1" t="s">
         <v>3954</v>
       </c>
-      <c r="J461" s="1" t="s">
+      <c r="J461" s="4" t="s">
         <v>3955</v>
       </c>
       <c r="K461" s="1" t="s">
@@ -39448,7 +39447,7 @@
       <c r="I463" s="1" t="s">
         <v>3967</v>
       </c>
-      <c r="J463" s="1" t="s">
+      <c r="J463" s="4" t="s">
         <v>2173</v>
       </c>
       <c r="K463" s="1" t="s">
@@ -39498,7 +39497,7 @@
       <c r="I464" s="1" t="s">
         <v>3975</v>
       </c>
-      <c r="J464" s="1" t="s">
+      <c r="J464" s="4" t="s">
         <v>3976</v>
       </c>
       <c r="K464" s="1" t="s">
@@ -39548,7 +39547,7 @@
       <c r="I465" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="J465" s="1" t="s">
+      <c r="J465" s="4" t="s">
         <v>2849</v>
       </c>
       <c r="K465" s="1" t="s">
@@ -39598,7 +39597,7 @@
       <c r="I466" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="J466" s="1" t="s">
+      <c r="J466" s="4" t="s">
         <v>2849</v>
       </c>
       <c r="K466" s="1" t="s">
@@ -39648,7 +39647,7 @@
       <c r="I467" s="1" t="s">
         <v>3992</v>
       </c>
-      <c r="J467" s="1" t="s">
+      <c r="J467" s="4" t="s">
         <v>3993</v>
       </c>
       <c r="K467" s="1" t="s">
@@ -39698,7 +39697,7 @@
       <c r="I468" s="1" t="s">
         <v>3999</v>
       </c>
-      <c r="J468" s="1" t="s">
+      <c r="J468" s="4" t="s">
         <v>3708</v>
       </c>
       <c r="K468" s="1" t="s">
@@ -39748,7 +39747,7 @@
       <c r="I469" s="1" t="s">
         <v>4007</v>
       </c>
-      <c r="J469" s="1" t="s">
+      <c r="J469" s="4" t="s">
         <v>4008</v>
       </c>
       <c r="K469" s="1" t="s">
@@ -39798,7 +39797,7 @@
       <c r="I470" s="1" t="s">
         <v>4015</v>
       </c>
-      <c r="J470" s="1" t="s">
+      <c r="J470" s="4" t="s">
         <v>666</v>
       </c>
       <c r="K470" s="1" t="s">
@@ -39848,7 +39847,7 @@
       <c r="I471" s="1" t="s">
         <v>4022</v>
       </c>
-      <c r="J471" s="1" t="s">
+      <c r="J471" s="4" t="s">
         <v>4023</v>
       </c>
       <c r="K471" s="1" t="s">
@@ -39898,7 +39897,7 @@
       <c r="I472" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="J472" s="1" t="s">
+      <c r="J472" s="4" t="s">
         <v>4030</v>
       </c>
       <c r="K472" s="1" t="s">
@@ -39948,7 +39947,7 @@
       <c r="I473" s="1" t="s">
         <v>4037</v>
       </c>
-      <c r="J473" s="1" t="s">
+      <c r="J473" s="4" t="s">
         <v>4038</v>
       </c>
       <c r="K473" s="1" t="s">
@@ -39998,7 +39997,7 @@
       <c r="I474" s="1" t="s">
         <v>4045</v>
       </c>
-      <c r="J474" s="1" t="s">
+      <c r="J474" s="4" t="s">
         <v>4046</v>
       </c>
       <c r="K474" s="1" t="s">
@@ -40048,7 +40047,7 @@
       <c r="I475" s="1" t="s">
         <v>4052</v>
       </c>
-      <c r="J475" s="1" t="s">
+      <c r="J475" s="4" t="s">
         <v>4054</v>
       </c>
       <c r="K475" s="1" t="s">
@@ -40098,7 +40097,7 @@
       <c r="I476" s="1" t="s">
         <v>4060</v>
       </c>
-      <c r="J476" s="1" t="s">
+      <c r="J476" s="4" t="s">
         <v>1866</v>
       </c>
       <c r="K476" s="1" t="s">
@@ -40148,7 +40147,7 @@
       <c r="I477" s="1" t="s">
         <v>4068</v>
       </c>
-      <c r="J477" s="1" t="s">
+      <c r="J477" s="4" t="s">
         <v>4069</v>
       </c>
       <c r="K477" s="1" t="s">
@@ -40198,7 +40197,7 @@
       <c r="I478" s="1" t="s">
         <v>4074</v>
       </c>
-      <c r="J478" s="1" t="s">
+      <c r="J478" s="4" t="s">
         <v>4075</v>
       </c>
       <c r="K478" s="1" t="s">
@@ -40248,7 +40247,7 @@
       <c r="I479" s="1" t="s">
         <v>4083</v>
       </c>
-      <c r="J479" s="1" t="s">
+      <c r="J479" s="4" t="s">
         <v>3026</v>
       </c>
       <c r="K479" s="1" t="s">
@@ -40298,7 +40297,7 @@
       <c r="I480" s="1" t="s">
         <v>4091</v>
       </c>
-      <c r="J480" s="1" t="s">
+      <c r="J480" s="4" t="s">
         <v>4092</v>
       </c>
       <c r="K480" s="1" t="s">
@@ -40348,7 +40347,7 @@
       <c r="I481" s="1" t="s">
         <v>4099</v>
       </c>
-      <c r="J481" s="1" t="s">
+      <c r="J481" s="4" t="s">
         <v>4100</v>
       </c>
       <c r="K481" s="1" t="s">
@@ -40398,7 +40397,7 @@
       <c r="I482" s="1" t="s">
         <v>4107</v>
       </c>
-      <c r="J482" s="1" t="s">
+      <c r="J482" s="4" t="s">
         <v>4108</v>
       </c>
       <c r="K482" s="1" t="s">
@@ -40448,7 +40447,7 @@
       <c r="I483" s="1" t="s">
         <v>4091</v>
       </c>
-      <c r="J483" s="1" t="s">
+      <c r="J483" s="4" t="s">
         <v>4115</v>
       </c>
       <c r="K483" s="1" t="s">
@@ -40498,7 +40497,7 @@
       <c r="I484" s="1" t="s">
         <v>4083</v>
       </c>
-      <c r="J484" s="1" t="s">
+      <c r="J484" s="4" t="s">
         <v>4122</v>
       </c>
       <c r="K484" s="1" t="s">
@@ -40548,7 +40547,7 @@
       <c r="I485" s="1" t="s">
         <v>4130</v>
       </c>
-      <c r="J485" s="1" t="s">
+      <c r="J485" s="4" t="s">
         <v>1089</v>
       </c>
       <c r="K485" s="1" t="s">
@@ -40598,7 +40597,7 @@
       <c r="I486" s="1" t="s">
         <v>4136</v>
       </c>
-      <c r="J486" s="1" t="s">
+      <c r="J486" s="4" t="s">
         <v>4138</v>
       </c>
       <c r="K486" s="1" t="s">
@@ -40648,7 +40647,7 @@
       <c r="I487" s="1" t="s">
         <v>4145</v>
       </c>
-      <c r="J487" s="1" t="s">
+      <c r="J487" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="K487" s="1" t="s">
@@ -40698,7 +40697,7 @@
       <c r="I488" s="1" t="s">
         <v>4153</v>
       </c>
-      <c r="J488" s="1" t="s">
+      <c r="J488" s="4" t="s">
         <v>3251</v>
       </c>
       <c r="K488" s="1" t="s">
@@ -40748,7 +40747,7 @@
       <c r="I489" s="1" t="s">
         <v>4161</v>
       </c>
-      <c r="J489" s="1" t="s">
+      <c r="J489" s="4" t="s">
         <v>1415</v>
       </c>
       <c r="K489" s="1" t="s">
@@ -40798,7 +40797,7 @@
       <c r="I490" s="1" t="s">
         <v>4168</v>
       </c>
-      <c r="J490" s="1" t="s">
+      <c r="J490" s="4" t="s">
         <v>4169</v>
       </c>
       <c r="K490" s="1" t="s">
@@ -40848,7 +40847,7 @@
       <c r="I491" s="1" t="s">
         <v>4175</v>
       </c>
-      <c r="J491" s="1" t="s">
+      <c r="J491" s="4" t="s">
         <v>4177</v>
       </c>
       <c r="K491" s="1" t="s">
@@ -40898,7 +40897,7 @@
       <c r="I492" s="1" t="s">
         <v>4184</v>
       </c>
-      <c r="J492" s="1" t="s">
+      <c r="J492" s="4" t="s">
         <v>3243</v>
       </c>
       <c r="K492" s="1" t="s">
@@ -40948,7 +40947,7 @@
       <c r="I493" s="1" t="s">
         <v>4192</v>
       </c>
-      <c r="J493" s="1" t="s">
+      <c r="J493" s="4" t="s">
         <v>4193</v>
       </c>
       <c r="K493" s="1" t="s">
@@ -40998,7 +40997,7 @@
       <c r="I494" s="1" t="s">
         <v>4200</v>
       </c>
-      <c r="J494" s="1" t="s">
+      <c r="J494" s="4" t="s">
         <v>4201</v>
       </c>
       <c r="K494" s="1" t="s">
@@ -41048,7 +41047,7 @@
       <c r="I495" s="1" t="s">
         <v>4208</v>
       </c>
-      <c r="J495" s="1" t="s">
+      <c r="J495" s="4" t="s">
         <v>4209</v>
       </c>
       <c r="K495" s="1" t="s">
@@ -41098,7 +41097,7 @@
       <c r="I496" s="1" t="s">
         <v>4216</v>
       </c>
-      <c r="J496" s="1" t="s">
+      <c r="J496" s="4" t="s">
         <v>3156</v>
       </c>
       <c r="K496" s="1" t="s">
@@ -41148,7 +41147,7 @@
       <c r="I497" s="1" t="s">
         <v>4223</v>
       </c>
-      <c r="J497" s="1" t="s">
+      <c r="J497" s="4" t="s">
         <v>4224</v>
       </c>
       <c r="K497" s="1" t="s">
@@ -41198,7 +41197,7 @@
       <c r="I498" s="1" t="s">
         <v>4231</v>
       </c>
-      <c r="J498" s="1" t="s">
+      <c r="J498" s="4" t="s">
         <v>4232</v>
       </c>
       <c r="K498" s="1" t="s">
@@ -41248,7 +41247,7 @@
       <c r="I499" s="1" t="s">
         <v>4239</v>
       </c>
-      <c r="J499" s="1" t="s">
+      <c r="J499" s="4" t="s">
         <v>4240</v>
       </c>
       <c r="K499" s="1" t="s">
@@ -41298,7 +41297,7 @@
       <c r="I500" s="1" t="s">
         <v>4246</v>
       </c>
-      <c r="J500" s="1" t="s">
+      <c r="J500" s="4" t="s">
         <v>4247</v>
       </c>
       <c r="K500" s="1" t="s">
@@ -41348,7 +41347,7 @@
       <c r="I501" s="1" t="s">
         <v>4254</v>
       </c>
-      <c r="J501" s="1" t="s">
+      <c r="J501" s="4" t="s">
         <v>4255</v>
       </c>
       <c r="K501" s="1" t="s">
@@ -41398,7 +41397,7 @@
       <c r="I502" s="1" t="s">
         <v>4263</v>
       </c>
-      <c r="J502" s="1" t="s">
+      <c r="J502" s="4" t="s">
         <v>4264</v>
       </c>
       <c r="K502" s="1" t="s">
@@ -41448,7 +41447,7 @@
       <c r="I503" s="1" t="s">
         <v>4272</v>
       </c>
-      <c r="J503" s="1" t="s">
+      <c r="J503" s="4" t="s">
         <v>2498</v>
       </c>
       <c r="K503" s="1" t="s">
@@ -41498,7 +41497,7 @@
       <c r="I504" s="1" t="s">
         <v>4278</v>
       </c>
-      <c r="J504" s="1" t="s">
+      <c r="J504" s="4" t="s">
         <v>231</v>
       </c>
       <c r="K504" s="1" t="s">
@@ -41548,7 +41547,7 @@
       <c r="I505" s="1" t="s">
         <v>4286</v>
       </c>
-      <c r="J505" s="1" t="s">
+      <c r="J505" s="4" t="s">
         <v>4287</v>
       </c>
       <c r="K505" s="1" t="s">
@@ -41598,7 +41597,7 @@
       <c r="I506" s="1" t="s">
         <v>4294</v>
       </c>
-      <c r="J506" s="1" t="s">
+      <c r="J506" s="4" t="s">
         <v>4295</v>
       </c>
       <c r="K506" s="1" t="s">
@@ -41648,7 +41647,7 @@
       <c r="I507" s="1" t="s">
         <v>4263</v>
       </c>
-      <c r="J507" s="1" t="s">
+      <c r="J507" s="4" t="s">
         <v>4300</v>
       </c>
       <c r="K507" s="1" t="s">
@@ -41698,7 +41697,7 @@
       <c r="I508" s="1" t="s">
         <v>4307</v>
       </c>
-      <c r="J508" s="1" t="s">
+      <c r="J508" s="4" t="s">
         <v>4308</v>
       </c>
       <c r="K508" s="1" t="s">
@@ -41748,7 +41747,7 @@
       <c r="I509" s="1" t="s">
         <v>4315</v>
       </c>
-      <c r="J509" s="1" t="s">
+      <c r="J509" s="4" t="s">
         <v>4316</v>
       </c>
       <c r="K509" s="1" t="s">
@@ -41798,7 +41797,7 @@
       <c r="I510" s="1" t="s">
         <v>4323</v>
       </c>
-      <c r="J510" s="1" t="s">
+      <c r="J510" s="4" t="s">
         <v>4324</v>
       </c>
       <c r="K510" s="1" t="s">
@@ -41848,7 +41847,7 @@
       <c r="I511" s="1" t="s">
         <v>4331</v>
       </c>
-      <c r="J511" s="1" t="s">
+      <c r="J511" s="4" t="s">
         <v>4332</v>
       </c>
       <c r="K511" s="1" t="s">
@@ -41898,7 +41897,7 @@
       <c r="I512" s="1" t="s">
         <v>4263</v>
       </c>
-      <c r="J512" s="1" t="s">
+      <c r="J512" s="4" t="s">
         <v>4340</v>
       </c>
       <c r="K512" s="1" t="s">
@@ -41948,7 +41947,7 @@
       <c r="I513" s="1" t="s">
         <v>4346</v>
       </c>
-      <c r="J513" s="1" t="s">
+      <c r="J513" s="4" t="s">
         <v>4348</v>
       </c>
       <c r="K513" s="1" t="s">
@@ -41998,7 +41997,7 @@
       <c r="I514" s="1" t="s">
         <v>4356</v>
       </c>
-      <c r="J514" s="1" t="s">
+      <c r="J514" s="4" t="s">
         <v>4357</v>
       </c>
       <c r="K514" s="1" t="s">
@@ -42048,7 +42047,7 @@
       <c r="I515" s="1" t="s">
         <v>4362</v>
       </c>
-      <c r="J515" s="1" t="s">
+      <c r="J515" s="4" t="s">
         <v>4363</v>
       </c>
       <c r="K515" s="1" t="s">
@@ -42098,7 +42097,7 @@
       <c r="I516" s="1" t="s">
         <v>4371</v>
       </c>
-      <c r="J516" s="1" t="s">
+      <c r="J516" s="4" t="s">
         <v>1517</v>
       </c>
       <c r="K516" s="1" t="s">
@@ -42148,7 +42147,7 @@
       <c r="I517" s="1" t="s">
         <v>4375</v>
       </c>
-      <c r="J517" s="1" t="s">
+      <c r="J517" s="4" t="s">
         <v>4376</v>
       </c>
       <c r="K517" s="1" t="s">
@@ -42198,7 +42197,7 @@
       <c r="I518" s="1" t="s">
         <v>4384</v>
       </c>
-      <c r="J518" s="1" t="s">
+      <c r="J518" s="4" t="s">
         <v>4385</v>
       </c>
       <c r="K518" s="1" t="s">
@@ -42248,7 +42247,7 @@
       <c r="I519" s="1" t="s">
         <v>4392</v>
       </c>
-      <c r="J519" s="1" t="s">
+      <c r="J519" s="4" t="s">
         <v>4393</v>
       </c>
       <c r="K519" s="1" t="s">
@@ -42298,7 +42297,7 @@
       <c r="I520" s="1" t="s">
         <v>4400</v>
       </c>
-      <c r="J520" s="1" t="s">
+      <c r="J520" s="4" t="s">
         <v>4401</v>
       </c>
       <c r="K520" s="1" t="s">
@@ -42348,7 +42347,7 @@
       <c r="I521" s="1" t="s">
         <v>4409</v>
       </c>
-      <c r="J521" s="1" t="s">
+      <c r="J521" s="4" t="s">
         <v>1526</v>
       </c>
       <c r="K521" s="1" t="s">
@@ -42398,7 +42397,7 @@
       <c r="I522" s="1" t="s">
         <v>4416</v>
       </c>
-      <c r="J522" s="1" t="s">
+      <c r="J522" s="4" t="s">
         <v>2656</v>
       </c>
       <c r="K522" s="1" t="s">
@@ -42448,7 +42447,7 @@
       <c r="I523" s="1" t="s">
         <v>4263</v>
       </c>
-      <c r="J523" s="1" t="s">
+      <c r="J523" s="4" t="s">
         <v>4423</v>
       </c>
       <c r="K523" s="1" t="s">
@@ -42498,7 +42497,7 @@
       <c r="I524" s="1" t="s">
         <v>4430</v>
       </c>
-      <c r="J524" s="1" t="s">
+      <c r="J524" s="4" t="s">
         <v>4431</v>
       </c>
       <c r="K524" s="1" t="s">
@@ -42548,7 +42547,7 @@
       <c r="I525" s="1" t="s">
         <v>4438</v>
       </c>
-      <c r="J525" s="1" t="s">
+      <c r="J525" s="4" t="s">
         <v>4439</v>
       </c>
       <c r="K525" s="1" t="s">
@@ -42598,7 +42597,7 @@
       <c r="I526" s="1" t="s">
         <v>4446</v>
       </c>
-      <c r="J526" s="1" t="s">
+      <c r="J526" s="4" t="s">
         <v>4447</v>
       </c>
       <c r="K526" s="1" t="s">
@@ -42648,7 +42647,7 @@
       <c r="I527" s="1" t="s">
         <v>4454</v>
       </c>
-      <c r="J527" s="1" t="s">
+      <c r="J527" s="4" t="s">
         <v>4455</v>
       </c>
       <c r="K527" s="1" t="s">
@@ -42698,7 +42697,7 @@
       <c r="I528" s="1" t="s">
         <v>4462</v>
       </c>
-      <c r="J528" s="1" t="s">
+      <c r="J528" s="4" t="s">
         <v>4463</v>
       </c>
       <c r="K528" s="1" t="s">
@@ -42748,7 +42747,7 @@
       <c r="I529" s="1" t="s">
         <v>4469</v>
       </c>
-      <c r="J529" s="1" t="s">
+      <c r="J529" s="4" t="s">
         <v>4471</v>
       </c>
       <c r="K529" s="1" t="s">
@@ -42798,7 +42797,7 @@
       <c r="I530" s="1" t="s">
         <v>4478</v>
       </c>
-      <c r="J530" s="1" t="s">
+      <c r="J530" s="4" t="s">
         <v>103</v>
       </c>
       <c r="K530" s="1" t="s">
@@ -42848,7 +42847,7 @@
       <c r="I531" s="1" t="s">
         <v>4485</v>
       </c>
-      <c r="J531" s="1" t="s">
+      <c r="J531" s="4" t="s">
         <v>4486</v>
       </c>
       <c r="K531" s="1" t="s">
@@ -42898,7 +42897,7 @@
       <c r="I532" s="1" t="s">
         <v>4494</v>
       </c>
-      <c r="J532" s="1" t="s">
+      <c r="J532" s="4" t="s">
         <v>4495</v>
       </c>
       <c r="K532" s="1" t="s">
@@ -42948,7 +42947,7 @@
       <c r="I533" s="1" t="s">
         <v>4501</v>
       </c>
-      <c r="J533" s="1" t="s">
+      <c r="J533" s="4" t="s">
         <v>395</v>
       </c>
       <c r="K533" s="1" t="s">
@@ -42998,7 +42997,7 @@
       <c r="I534" s="1" t="s">
         <v>4509</v>
       </c>
-      <c r="J534" s="1" t="s">
+      <c r="J534" s="4" t="s">
         <v>4510</v>
       </c>
       <c r="K534" s="1" t="s">
@@ -43048,7 +43047,7 @@
       <c r="I535" s="1" t="s">
         <v>4517</v>
       </c>
-      <c r="J535" s="1" t="s">
+      <c r="J535" s="4" t="s">
         <v>4518</v>
       </c>
       <c r="K535" s="1" t="s">
@@ -43098,7 +43097,7 @@
       <c r="I536" s="1" t="s">
         <v>4525</v>
       </c>
-      <c r="J536" s="1" t="s">
+      <c r="J536" s="4" t="s">
         <v>4526</v>
       </c>
       <c r="K536" s="1" t="s">
@@ -43148,7 +43147,7 @@
       <c r="I537" s="1" t="s">
         <v>4533</v>
       </c>
-      <c r="J537" s="1" t="s">
+      <c r="J537" s="4" t="s">
         <v>4534</v>
       </c>
       <c r="K537" s="1" t="s">
@@ -43198,7 +43197,7 @@
       <c r="I538" s="1" t="s">
         <v>4541</v>
       </c>
-      <c r="J538" s="1" t="s">
+      <c r="J538" s="4" t="s">
         <v>4542</v>
       </c>
       <c r="K538" s="1" t="s">
@@ -43248,7 +43247,7 @@
       <c r="I539" s="1" t="s">
         <v>4549</v>
       </c>
-      <c r="J539" s="1" t="s">
+      <c r="J539" s="4" t="s">
         <v>4550</v>
       </c>
       <c r="K539" s="1" t="s">
@@ -43298,7 +43297,7 @@
       <c r="I540" s="1" t="s">
         <v>4557</v>
       </c>
-      <c r="J540" s="1" t="s">
+      <c r="J540" s="4" t="s">
         <v>4558</v>
       </c>
       <c r="K540" s="1" t="s">
@@ -43348,7 +43347,7 @@
       <c r="I541" s="1" t="s">
         <v>4565</v>
       </c>
-      <c r="J541" s="1" t="s">
+      <c r="J541" s="4" t="s">
         <v>2814</v>
       </c>
       <c r="K541" s="1" t="s">
@@ -43398,7 +43397,7 @@
       <c r="I542" s="1" t="s">
         <v>4572</v>
       </c>
-      <c r="J542" s="1" t="s">
+      <c r="J542" s="4" t="s">
         <v>4138</v>
       </c>
       <c r="K542" s="1" t="s">
@@ -43448,7 +43447,7 @@
       <c r="I543" s="1" t="s">
         <v>4580</v>
       </c>
-      <c r="J543" s="1" t="s">
+      <c r="J543" s="4" t="s">
         <v>3947</v>
       </c>
       <c r="K543" s="1" t="s">
@@ -43498,7 +43497,7 @@
       <c r="I544" s="1" t="s">
         <v>4586</v>
       </c>
-      <c r="J544" s="1" t="s">
+      <c r="J544" s="4" t="s">
         <v>2935</v>
       </c>
       <c r="K544" s="1" t="s">
@@ -43548,7 +43547,7 @@
       <c r="I545" s="1" t="s">
         <v>4594</v>
       </c>
-      <c r="J545" s="1" t="s">
+      <c r="J545" s="4" t="s">
         <v>4595</v>
       </c>
       <c r="K545" s="1" t="s">
@@ -43598,7 +43597,7 @@
       <c r="I546" s="1" t="s">
         <v>4602</v>
       </c>
-      <c r="J546" s="1" t="s">
+      <c r="J546" s="4" t="s">
         <v>3383</v>
       </c>
       <c r="K546" s="1" t="s">
@@ -43648,7 +43647,7 @@
       <c r="I547" s="1" t="s">
         <v>4609</v>
       </c>
-      <c r="J547" s="1" t="s">
+      <c r="J547" s="4" t="s">
         <v>4610</v>
       </c>
       <c r="K547" s="1" t="s">
@@ -43698,7 +43697,7 @@
       <c r="I548" s="1" t="s">
         <v>4617</v>
       </c>
-      <c r="J548" s="1" t="s">
+      <c r="J548" s="4" t="s">
         <v>4618</v>
       </c>
       <c r="K548" s="1" t="s">
@@ -43748,7 +43747,7 @@
       <c r="I549" s="1" t="s">
         <v>4625</v>
       </c>
-      <c r="J549" s="1" t="s">
+      <c r="J549" s="4" t="s">
         <v>4626</v>
       </c>
       <c r="K549" s="1" t="s">
@@ -43798,7 +43797,7 @@
       <c r="I550" s="1" t="s">
         <v>4633</v>
       </c>
-      <c r="J550" s="1" t="s">
+      <c r="J550" s="4" t="s">
         <v>4634</v>
       </c>
       <c r="K550" s="1" t="s">
@@ -43848,7 +43847,7 @@
       <c r="I551" s="1" t="s">
         <v>4641</v>
       </c>
-      <c r="J551" s="1" t="s">
+      <c r="J551" s="4" t="s">
         <v>4642</v>
       </c>
       <c r="K551" s="1" t="s">
@@ -43898,7 +43897,7 @@
       <c r="I552" s="1" t="s">
         <v>4649</v>
       </c>
-      <c r="J552" s="1" t="s">
+      <c r="J552" s="4" t="s">
         <v>4650</v>
       </c>
       <c r="K552" s="1" t="s">
@@ -43948,7 +43947,7 @@
       <c r="I553" s="1" t="s">
         <v>4657</v>
       </c>
-      <c r="J553" s="1" t="s">
+      <c r="J553" s="4" t="s">
         <v>4658</v>
       </c>
       <c r="K553" s="1" t="s">
@@ -43998,7 +43997,7 @@
       <c r="I554" s="1" t="s">
         <v>4665</v>
       </c>
-      <c r="J554" s="1" t="s">
+      <c r="J554" s="4" t="s">
         <v>3016</v>
       </c>
       <c r="K554" s="1" t="s">
@@ -44048,7 +44047,7 @@
       <c r="I555" s="1" t="s">
         <v>4672</v>
       </c>
-      <c r="J555" s="1" t="s">
+      <c r="J555" s="4" t="s">
         <v>4673</v>
       </c>
       <c r="K555" s="1" t="s">
@@ -44098,7 +44097,7 @@
       <c r="I556" s="1" t="s">
         <v>4680</v>
       </c>
-      <c r="J556" s="1" t="s">
+      <c r="J556" s="4" t="s">
         <v>4681</v>
       </c>
       <c r="K556" s="1" t="s">
@@ -44148,7 +44147,7 @@
       <c r="I557" s="1" t="s">
         <v>4688</v>
       </c>
-      <c r="J557" s="1" t="s">
+      <c r="J557" s="4" t="s">
         <v>3814</v>
       </c>
       <c r="K557" s="1" t="s">
@@ -44198,7 +44197,7 @@
       <c r="I558" s="1" t="s">
         <v>4695</v>
       </c>
-      <c r="J558" s="1" t="s">
+      <c r="J558" s="4" t="s">
         <v>231</v>
       </c>
       <c r="K558" s="1" t="s">
@@ -44248,7 +44247,7 @@
       <c r="I559" s="1" t="s">
         <v>4703</v>
       </c>
-      <c r="J559" s="1" t="s">
+      <c r="J559" s="4" t="s">
         <v>4704</v>
       </c>
       <c r="K559" s="1" t="s">
@@ -44298,7 +44297,7 @@
       <c r="I560" s="1" t="s">
         <v>4711</v>
       </c>
-      <c r="J560" s="1" t="s">
+      <c r="J560" s="4" t="s">
         <v>4712</v>
       </c>
       <c r="K560" s="1" t="s">
@@ -44348,7 +44347,7 @@
       <c r="I561" s="1" t="s">
         <v>4719</v>
       </c>
-      <c r="J561" s="1" t="s">
+      <c r="J561" s="4" t="s">
         <v>4720</v>
       </c>
       <c r="K561" s="1" t="s">
@@ -44398,7 +44397,7 @@
       <c r="I562" s="1" t="s">
         <v>4727</v>
       </c>
-      <c r="J562" s="1" t="s">
+      <c r="J562" s="4" t="s">
         <v>4728</v>
       </c>
       <c r="K562" s="1" t="s">
@@ -44448,7 +44447,7 @@
       <c r="I563" s="1" t="s">
         <v>4735</v>
       </c>
-      <c r="J563" s="1" t="s">
+      <c r="J563" s="4" t="s">
         <v>4736</v>
       </c>
       <c r="K563" s="1" t="s">
@@ -44498,7 +44497,7 @@
       <c r="I564" s="1" t="s">
         <v>4743</v>
       </c>
-      <c r="J564" s="1" t="s">
+      <c r="J564" s="4" t="s">
         <v>4340</v>
       </c>
       <c r="K564" s="1" t="s">
@@ -44548,7 +44547,7 @@
       <c r="I565" s="1" t="s">
         <v>4750</v>
       </c>
-      <c r="J565" s="1" t="s">
+      <c r="J565" s="4" t="s">
         <v>4751</v>
       </c>
       <c r="K565" s="1" t="s">
@@ -44598,7 +44597,7 @@
       <c r="I566" s="1" t="s">
         <v>4759</v>
       </c>
-      <c r="J566" s="1" t="s">
+      <c r="J566" s="4" t="s">
         <v>4760</v>
       </c>
       <c r="K566" s="1" t="s">
@@ -44648,7 +44647,7 @@
       <c r="I567" s="1" t="s">
         <v>4768</v>
       </c>
-      <c r="J567" s="1" t="s">
+      <c r="J567" s="4" t="s">
         <v>2102</v>
       </c>
       <c r="K567" s="1" t="s">
@@ -44698,7 +44697,7 @@
       <c r="I568" s="1" t="s">
         <v>4774</v>
       </c>
-      <c r="J568" s="1" t="s">
+      <c r="J568" s="4" t="s">
         <v>4776</v>
       </c>
       <c r="K568" s="1" t="s">
@@ -44748,7 +44747,7 @@
       <c r="I569" s="1" t="s">
         <v>4783</v>
       </c>
-      <c r="J569" s="1" t="s">
+      <c r="J569" s="4" t="s">
         <v>4784</v>
       </c>
       <c r="K569" s="1" t="s">
@@ -44798,7 +44797,7 @@
       <c r="I570" s="1" t="s">
         <v>4792</v>
       </c>
-      <c r="J570" s="1" t="s">
+      <c r="J570" s="4" t="s">
         <v>344</v>
       </c>
       <c r="K570" s="1" t="s">
@@ -44848,7 +44847,7 @@
       <c r="I571" s="1" t="s">
         <v>4799</v>
       </c>
-      <c r="J571" s="1" t="s">
+      <c r="J571" s="4" t="s">
         <v>4800</v>
       </c>
       <c r="K571" s="1" t="s">
@@ -44898,7 +44897,7 @@
       <c r="I572" s="1" t="s">
         <v>3077</v>
       </c>
-      <c r="J572" s="1" t="s">
+      <c r="J572" s="4" t="s">
         <v>3078</v>
       </c>
       <c r="K572" s="1" t="s">
@@ -44948,7 +44947,7 @@
       <c r="I573" s="1" t="s">
         <v>4813</v>
       </c>
-      <c r="J573" s="1" t="s">
+      <c r="J573" s="4" t="s">
         <v>4814</v>
       </c>
       <c r="K573" s="1" t="s">
@@ -44998,7 +44997,7 @@
       <c r="I574" s="1" t="s">
         <v>4820</v>
       </c>
-      <c r="J574" s="1" t="s">
+      <c r="J574" s="4" t="s">
         <v>3251</v>
       </c>
       <c r="K574" s="1" t="s">
@@ -45048,7 +45047,7 @@
       <c r="I575" s="1" t="s">
         <v>4829</v>
       </c>
-      <c r="J575" s="1" t="s">
+      <c r="J575" s="4" t="s">
         <v>2173</v>
       </c>
       <c r="K575" s="1" t="s">
@@ -45098,7 +45097,7 @@
       <c r="I576" s="1" t="s">
         <v>4837</v>
       </c>
-      <c r="J576" s="1" t="s">
+      <c r="J576" s="4" t="s">
         <v>4838</v>
       </c>
       <c r="K576" s="1" t="s">
@@ -45148,7 +45147,7 @@
       <c r="I577" s="1" t="s">
         <v>4846</v>
       </c>
-      <c r="J577" s="1" t="s">
+      <c r="J577" s="4" t="s">
         <v>4847</v>
       </c>
       <c r="K577" s="1" t="s">
@@ -45198,7 +45197,7 @@
       <c r="I578" s="1" t="s">
         <v>2655</v>
       </c>
-      <c r="J578" s="1" t="s">
+      <c r="J578" s="4" t="s">
         <v>3724</v>
       </c>
       <c r="K578" s="1" t="s">
@@ -45248,7 +45247,7 @@
       <c r="I579" s="1" t="s">
         <v>4861</v>
       </c>
-      <c r="J579" s="1" t="s">
+      <c r="J579" s="4" t="s">
         <v>4862</v>
       </c>
       <c r="K579" s="1" t="s">
@@ -45298,7 +45297,7 @@
       <c r="I580" s="1" t="s">
         <v>4869</v>
       </c>
-      <c r="J580" s="1" t="s">
+      <c r="J580" s="4" t="s">
         <v>4870</v>
       </c>
       <c r="K580" s="1" t="s">
@@ -45348,7 +45347,7 @@
       <c r="I581" s="1" t="s">
         <v>4877</v>
       </c>
-      <c r="J581" s="1" t="s">
+      <c r="J581" s="4" t="s">
         <v>3790</v>
       </c>
       <c r="K581" s="1" t="s">
@@ -45398,7 +45397,7 @@
       <c r="I582" s="1" t="s">
         <v>4884</v>
       </c>
-      <c r="J582" s="1" t="s">
+      <c r="J582" s="4" t="s">
         <v>3147</v>
       </c>
       <c r="K582" s="1" t="s">
@@ -45448,7 +45447,7 @@
       <c r="I583" s="1" t="s">
         <v>4891</v>
       </c>
-      <c r="J583" s="1" t="s">
+      <c r="J583" s="4" t="s">
         <v>4892</v>
       </c>
       <c r="K583" s="1" t="s">
@@ -45498,7 +45497,7 @@
       <c r="I584" s="1" t="s">
         <v>4899</v>
       </c>
-      <c r="J584" s="1" t="s">
+      <c r="J584" s="4" t="s">
         <v>4900</v>
       </c>
       <c r="K584" s="1" t="s">
@@ -45548,7 +45547,7 @@
       <c r="I585" s="1" t="s">
         <v>4907</v>
       </c>
-      <c r="J585" s="1" t="s">
+      <c r="J585" s="4" t="s">
         <v>647</v>
       </c>
       <c r="K585" s="1" t="s">
@@ -45598,7 +45597,7 @@
       <c r="I586" s="1" t="s">
         <v>4913</v>
       </c>
-      <c r="J586" s="1" t="s">
+      <c r="J586" s="4" t="s">
         <v>526</v>
       </c>
       <c r="K586" s="1" t="s">
@@ -45648,7 +45647,7 @@
       <c r="I587" s="1" t="s">
         <v>4920</v>
       </c>
-      <c r="J587" s="1" t="s">
+      <c r="J587" s="4" t="s">
         <v>4922</v>
       </c>
       <c r="K587" s="1" t="s">
@@ -45698,7 +45697,7 @@
       <c r="I588" s="1" t="s">
         <v>4929</v>
       </c>
-      <c r="J588" s="1" t="s">
+      <c r="J588" s="4" t="s">
         <v>4930</v>
       </c>
       <c r="K588" s="1" t="s">
@@ -45748,7 +45747,7 @@
       <c r="I589" s="1" t="s">
         <v>4937</v>
       </c>
-      <c r="J589" s="1" t="s">
+      <c r="J589" s="4" t="s">
         <v>1280</v>
       </c>
       <c r="K589" s="1" t="s">
@@ -45798,7 +45797,7 @@
       <c r="I590" s="1" t="s">
         <v>4944</v>
       </c>
-      <c r="J590" s="1" t="s">
+      <c r="J590" s="4" t="s">
         <v>3026</v>
       </c>
       <c r="K590" s="1" t="s">
@@ -45848,7 +45847,7 @@
       <c r="I591" s="1" t="s">
         <v>4951</v>
       </c>
-      <c r="J591" s="1" t="s">
+      <c r="J591" s="4" t="s">
         <v>4952</v>
       </c>
       <c r="K591" s="1" t="s">
@@ -45898,7 +45897,7 @@
       <c r="I592" s="1" t="s">
         <v>4959</v>
       </c>
-      <c r="J592" s="1" t="s">
+      <c r="J592" s="4" t="s">
         <v>4642</v>
       </c>
       <c r="K592" s="1" t="s">
@@ -45948,7 +45947,7 @@
       <c r="I593" s="1" t="s">
         <v>4966</v>
       </c>
-      <c r="J593" s="1" t="s">
+      <c r="J593" s="4" t="s">
         <v>3790</v>
       </c>
       <c r="K593" s="1" t="s">
@@ -45998,7 +45997,7 @@
       <c r="I594" s="1" t="s">
         <v>4973</v>
       </c>
-      <c r="J594" s="1" t="s">
+      <c r="J594" s="4" t="s">
         <v>4930</v>
       </c>
       <c r="K594" s="1" t="s">
@@ -46048,7 +46047,7 @@
       <c r="I595" s="1" t="s">
         <v>4979</v>
       </c>
-      <c r="J595" s="1" t="s">
+      <c r="J595" s="4" t="s">
         <v>4981</v>
       </c>
       <c r="K595" s="1" t="s">
@@ -46098,7 +46097,7 @@
       <c r="I596" s="1" t="s">
         <v>4987</v>
       </c>
-      <c r="J596" s="1" t="s">
+      <c r="J596" s="4" t="s">
         <v>4989</v>
       </c>
       <c r="K596" s="1" t="s">
@@ -46148,7 +46147,7 @@
       <c r="I597" s="1" t="s">
         <v>4995</v>
       </c>
-      <c r="J597" s="1" t="s">
+      <c r="J597" s="4" t="s">
         <v>995</v>
       </c>
       <c r="K597" s="1" t="s">
@@ -46198,7 +46197,7 @@
       <c r="I598" s="1" t="s">
         <v>5003</v>
       </c>
-      <c r="J598" s="1" t="s">
+      <c r="J598" s="4" t="s">
         <v>5004</v>
       </c>
       <c r="K598" s="1" t="s">
@@ -46248,7 +46247,7 @@
       <c r="I599" s="1" t="s">
         <v>5010</v>
       </c>
-      <c r="J599" s="1" t="s">
+      <c r="J599" s="4" t="s">
         <v>5011</v>
       </c>
       <c r="K599" s="1" t="s">
@@ -46298,7 +46297,7 @@
       <c r="I600" s="1" t="s">
         <v>5018</v>
       </c>
-      <c r="J600" s="1" t="s">
+      <c r="J600" s="4" t="s">
         <v>5019</v>
       </c>
       <c r="K600" s="1" t="s">
@@ -46348,7 +46347,7 @@
       <c r="I601" s="1" t="s">
         <v>5026</v>
       </c>
-      <c r="J601" s="1" t="s">
+      <c r="J601" s="4" t="s">
         <v>5027</v>
       </c>
       <c r="K601" s="1" t="s">
@@ -46398,7 +46397,7 @@
       <c r="I602" s="1" t="s">
         <v>5034</v>
       </c>
-      <c r="J602" s="1" t="s">
+      <c r="J602" s="4" t="s">
         <v>1669</v>
       </c>
       <c r="K602" s="1" t="s">
@@ -46448,7 +46447,7 @@
       <c r="I603" s="1" t="s">
         <v>5041</v>
       </c>
-      <c r="J603" s="1" t="s">
+      <c r="J603" s="4" t="s">
         <v>5042</v>
       </c>
       <c r="K603" s="1" t="s">
@@ -46498,7 +46497,7 @@
       <c r="I604" s="1" t="s">
         <v>5048</v>
       </c>
-      <c r="J604" s="1" t="s">
+      <c r="J604" s="4" t="s">
         <v>344</v>
       </c>
       <c r="K604" s="1" t="s">
@@ -46548,7 +46547,7 @@
       <c r="I605" s="1" t="s">
         <v>5056</v>
       </c>
-      <c r="J605" s="1" t="s">
+      <c r="J605" s="4" t="s">
         <v>5057</v>
       </c>
       <c r="K605" s="1" t="s">
@@ -46598,7 +46597,7 @@
       <c r="I606" s="1" t="s">
         <v>5063</v>
       </c>
-      <c r="J606" s="1" t="s">
+      <c r="J606" s="4" t="s">
         <v>1825</v>
       </c>
       <c r="K606" s="1" t="s">
@@ -46648,7 +46647,7 @@
       <c r="I607" s="1" t="s">
         <v>5071</v>
       </c>
-      <c r="J607" s="1" t="s">
+      <c r="J607" s="4" t="s">
         <v>5072</v>
       </c>
       <c r="K607" s="1" t="s">
@@ -46698,7 +46697,7 @@
       <c r="I608" s="1" t="s">
         <v>5079</v>
       </c>
-      <c r="J608" s="1" t="s">
+      <c r="J608" s="4" t="s">
         <v>5080</v>
       </c>
       <c r="K608" s="1" t="s">
@@ -46748,7 +46747,7 @@
       <c r="I609" s="1" t="s">
         <v>5087</v>
       </c>
-      <c r="J609" s="1" t="s">
+      <c r="J609" s="4" t="s">
         <v>5088</v>
       </c>
       <c r="K609" s="1" t="s">
@@ -46798,7 +46797,7 @@
       <c r="I610" s="1" t="s">
         <v>5094</v>
       </c>
-      <c r="J610" s="1" t="s">
+      <c r="J610" s="4" t="s">
         <v>5095</v>
       </c>
       <c r="K610" s="1" t="s">
@@ -46848,7 +46847,7 @@
       <c r="I611" s="1" t="s">
         <v>5101</v>
       </c>
-      <c r="J611" s="1" t="s">
+      <c r="J611" s="4" t="s">
         <v>3105</v>
       </c>
       <c r="K611" s="1" t="s">
@@ -46898,7 +46897,7 @@
       <c r="I612" s="1" t="s">
         <v>5109</v>
       </c>
-      <c r="J612" s="1" t="s">
+      <c r="J612" s="4" t="s">
         <v>5110</v>
       </c>
       <c r="K612" s="1" t="s">
@@ -46948,7 +46947,7 @@
       <c r="I613" s="1" t="s">
         <v>5118</v>
       </c>
-      <c r="J613" s="1" t="s">
+      <c r="J613" s="4" t="s">
         <v>5119</v>
       </c>
       <c r="K613" s="1" t="s">
@@ -46998,7 +46997,7 @@
       <c r="I614" s="1" t="s">
         <v>5126</v>
       </c>
-      <c r="J614" s="1" t="s">
+      <c r="J614" s="4" t="s">
         <v>5127</v>
       </c>
       <c r="K614" s="1" t="s">
@@ -47048,7 +47047,7 @@
       <c r="I615" s="1" t="s">
         <v>4091</v>
       </c>
-      <c r="J615" s="1" t="s">
+      <c r="J615" s="4" t="s">
         <v>5134</v>
       </c>
       <c r="K615" s="1" t="s">
@@ -47098,7 +47097,7 @@
       <c r="I616" s="1" t="s">
         <v>5142</v>
       </c>
-      <c r="J616" s="1" t="s">
+      <c r="J616" s="4" t="s">
         <v>470</v>
       </c>
       <c r="K616" s="1" t="s">
@@ -47148,7 +47147,7 @@
       <c r="I617" s="1" t="s">
         <v>5149</v>
       </c>
-      <c r="J617" s="1" t="s">
+      <c r="J617" s="4" t="s">
         <v>5150</v>
       </c>
       <c r="K617" s="1" t="s">
@@ -47198,7 +47197,7 @@
       <c r="I618" s="1" t="s">
         <v>5156</v>
       </c>
-      <c r="J618" s="1" t="s">
+      <c r="J618" s="4" t="s">
         <v>5158</v>
       </c>
       <c r="K618" s="1" t="s">
@@ -47248,7 +47247,7 @@
       <c r="I619" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="J619" s="1" t="s">
+      <c r="J619" s="4" t="s">
         <v>5165</v>
       </c>
       <c r="K619" s="1" t="s">
@@ -47298,7 +47297,7 @@
       <c r="I620" s="1" t="s">
         <v>5171</v>
       </c>
-      <c r="J620" s="1" t="s">
+      <c r="J620" s="4" t="s">
         <v>5172</v>
       </c>
       <c r="K620" s="1" t="s">
@@ -47324,10 +47323,10 @@
       <c r="A621" s="1" t="s">
         <v>5186</v>
       </c>
-      <c r="B621" s="4" t="s">
+      <c r="B621" s="2" t="s">
         <v>5174</v>
       </c>
-      <c r="C621" s="4" t="s">
+      <c r="C621" s="2" t="s">
         <v>5175</v>
       </c>
       <c r="D621" s="1" t="s">
@@ -47348,7 +47347,7 @@
       <c r="I621" s="1" t="s">
         <v>5178</v>
       </c>
-      <c r="J621" s="2" t="s">
+      <c r="J621" s="4" t="s">
         <v>5179</v>
       </c>
       <c r="K621" s="1" t="s">
@@ -47360,7 +47359,7 @@
       <c r="O621" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P621" s="4" t="s">
+      <c r="P621" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -47368,10 +47367,10 @@
       <c r="A622" s="1" t="s">
         <v>5188</v>
       </c>
-      <c r="B622" s="4">
+      <c r="B622" s="2">
         <v>34.30292</v>
       </c>
-      <c r="C622" s="4">
+      <c r="C622" s="2">
         <v>134.03288000000001</v>
       </c>
       <c r="D622" s="1" t="s">
@@ -47404,7 +47403,7 @@
       <c r="O622" s="1" t="s">
         <v>5195</v>
       </c>
-      <c r="P622" s="4">
+      <c r="P622" s="2">
         <v>372013</v>
       </c>
     </row>
@@ -47412,10 +47411,10 @@
       <c r="A623" s="1" t="s">
         <v>5196</v>
       </c>
-      <c r="B623" s="4">
+      <c r="B623" s="2">
         <v>34.335209999999996</v>
       </c>
-      <c r="C623" s="4">
+      <c r="C623" s="2">
         <v>134.05367000000001</v>
       </c>
       <c r="D623" s="1" t="s">
@@ -47448,7 +47447,7 @@
       <c r="O623" s="1" t="s">
         <v>5195</v>
       </c>
-      <c r="P623" s="4">
+      <c r="P623" s="2">
         <v>372013</v>
       </c>
     </row>
@@ -47456,8 +47455,8 @@
       <c r="A624" s="1" t="s">
         <v>5197</v>
       </c>
-      <c r="B624" s="4"/>
-      <c r="C624" s="4"/>
+      <c r="B624" s="2"/>
+      <c r="C624" s="2"/>
       <c r="D624" s="1" t="s">
         <v>5220</v>
       </c>
@@ -47485,7 +47484,7 @@
       <c r="O624" s="1" t="s">
         <v>5195</v>
       </c>
-      <c r="P624" s="4">
+      <c r="P624" s="2">
         <v>372013</v>
       </c>
     </row>
@@ -47493,10 +47492,10 @@
       <c r="A625" s="1" t="s">
         <v>5198</v>
       </c>
-      <c r="B625" s="4">
+      <c r="B625" s="2">
         <v>34.284599999999998</v>
       </c>
-      <c r="C625" s="4">
+      <c r="C625" s="2">
         <v>134.01158000000001</v>
       </c>
       <c r="D625" s="1" t="s">
@@ -47526,7 +47525,7 @@
       <c r="O625" s="1" t="s">
         <v>5195</v>
       </c>
-      <c r="P625" s="4">
+      <c r="P625" s="2">
         <v>372013</v>
       </c>
     </row>
@@ -47534,10 +47533,10 @@
       <c r="A626" s="1" t="s">
         <v>5199</v>
       </c>
-      <c r="B626" s="4">
+      <c r="B626" s="2">
         <v>34.34104</v>
       </c>
-      <c r="C626" s="4">
+      <c r="C626" s="2">
         <v>134.11265</v>
       </c>
       <c r="D626" s="1" t="s">
@@ -47567,7 +47566,7 @@
       <c r="O626" s="1" t="s">
         <v>5195</v>
       </c>
-      <c r="P626" s="4">
+      <c r="P626" s="2">
         <v>372013</v>
       </c>
     </row>
@@ -47575,10 +47574,10 @@
       <c r="A627" s="1" t="s">
         <v>5216</v>
       </c>
-      <c r="B627" s="4">
+      <c r="B627" s="2">
         <v>34.328180000000003</v>
       </c>
-      <c r="C627" s="4">
+      <c r="C627" s="2">
         <v>134.04601</v>
       </c>
       <c r="D627" s="1" t="s">
@@ -47611,12 +47610,11 @@
       <c r="O627" s="1" t="s">
         <v>5195</v>
       </c>
-      <c r="P627" s="4">
+      <c r="P627" s="2">
         <v>372013</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P627" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="1.4960629921259843" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" scale="50" fitToWidth="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/data/hospital/data.xlsx
+++ b/data/hospital/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P627"/>
+  <dimension ref="A1:P630"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1343,7 +1343,7 @@
         <v/>
       </c>
       <c r="N19" t="str">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="O19" t="str">
         <v>香川県</v>
@@ -3187,7 +3187,7 @@
         <v>087-861-3730</v>
       </c>
       <c r="L56" t="str">
-        <v>内科、呼吸器内科、消化器内科、循環器内科、</v>
+        <v>内科、呼吸器内科、消化器内科、循環器内科、肝臓内科、外科</v>
       </c>
       <c r="M56" t="str">
         <v/>
@@ -7275,7 +7275,7 @@
         <v>医療法人社団かとう皮フ科クリニック</v>
       </c>
       <c r="H138" t="str">
-        <v>理事長　加藤　昭二</v>
+        <v>理事長　和泉　麻衣子</v>
       </c>
       <c r="I138" t="str">
         <v>医療法人社団かとう皮フ科クリニック</v>
@@ -7972,16 +7972,16 @@
         <v>高松市</v>
       </c>
       <c r="G152" t="str">
-        <v>医療法人社団木村医院</v>
+        <v>木村医院</v>
       </c>
       <c r="H152" t="str">
-        <v>理事長　木村　正司</v>
+        <v>理事長　木村　公一</v>
       </c>
       <c r="I152" t="str">
-        <v>医療法人社団木村医院</v>
+        <v>医療法人社団慈風会</v>
       </c>
       <c r="J152" t="str">
-        <v>1994/4/1</v>
+        <v>2025/4/1</v>
       </c>
       <c r="K152" t="str">
         <v>087-847-6002</v>
@@ -11987,7 +11987,7 @@
         <v>087-839-2299</v>
       </c>
       <c r="L232" t="str">
-        <v>内科、小児科、眼科、耳鼻咽喉科</v>
+        <v>内科、小児科</v>
       </c>
       <c r="M232" t="str">
         <v/>
@@ -20137,7 +20137,7 @@
         <v>087-865-8200</v>
       </c>
       <c r="L395" t="str">
-        <v>歯科、小児歯科</v>
+        <v>歯科</v>
       </c>
       <c r="M395" t="str">
         <v/>
@@ -31752,9 +31752,135 @@
         <v>372013</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" t="str">
+        <v>jp.takamatsu.smartcity.medical.Hospital.627</v>
+      </c>
+      <c r="B628" t="str">
+        <v>34.35435</v>
+      </c>
+      <c r="C628" t="str">
+        <v>134.00468</v>
+      </c>
+      <c r="D628" t="str">
+        <v>高松市香西本町１－１</v>
+      </c>
+      <c r="E628" t="str">
+        <v>無床診療所</v>
+      </c>
+      <c r="F628" t="str">
+        <v>高松市</v>
+      </c>
+      <c r="G628" t="str">
+        <v>（公財）香川県総合検診協会かがわ健診プラザ</v>
+      </c>
+      <c r="H628" t="str">
+        <v>代表理事　久米川　啓</v>
+      </c>
+      <c r="I628" t="str">
+        <v>公益財団法人香川県総合健診協会</v>
+      </c>
+      <c r="J628" t="str">
+        <v>2025/4/1</v>
+      </c>
+      <c r="K628" t="str">
+        <v>087-897-4280</v>
+      </c>
+      <c r="L628" t="str">
+        <v>内科</v>
+      </c>
+      <c r="O628" t="str">
+        <v>香川県</v>
+      </c>
+      <c r="P628" t="str">
+        <v>372013</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="str">
+        <v>jp.takamatsu.smartcity.medical.Hospital.628</v>
+      </c>
+      <c r="B629" t="str">
+        <v>34.30726</v>
+      </c>
+      <c r="C629" t="str">
+        <v>134.09113</v>
+      </c>
+      <c r="D629" t="str">
+        <v>高松市東山崎町６７５</v>
+      </c>
+      <c r="E629" t="str">
+        <v>無床診療所</v>
+      </c>
+      <c r="F629" t="str">
+        <v>高松市</v>
+      </c>
+      <c r="G629" t="str">
+        <v>いしばし整形外科クニリック</v>
+      </c>
+      <c r="I629" t="str">
+        <v>石橋　　洋一</v>
+      </c>
+      <c r="J629" t="str">
+        <v>2025/4/7</v>
+      </c>
+      <c r="K629" t="str">
+        <v>087-847-1484</v>
+      </c>
+      <c r="L629" t="str">
+        <v>整形外科、リハビリテーション科</v>
+      </c>
+      <c r="O629" t="str">
+        <v>香川県</v>
+      </c>
+      <c r="P629" t="str">
+        <v>372013</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="str">
+        <v>jp.takamatsu.smartcity.medical.Hospital.629</v>
+      </c>
+      <c r="B630" t="str">
+        <v>34.30899</v>
+      </c>
+      <c r="C630" t="str">
+        <v>133.99066</v>
+      </c>
+      <c r="D630" t="str">
+        <v>高松市御厩町３７２</v>
+      </c>
+      <c r="E630" t="str">
+        <v>無床診療所</v>
+      </c>
+      <c r="F630" t="str">
+        <v>高松市</v>
+      </c>
+      <c r="G630" t="str">
+        <v>高松救急クリニック</v>
+      </c>
+      <c r="I630" t="str">
+        <v>切詰　和孝</v>
+      </c>
+      <c r="J630" t="str">
+        <v>2025/5/1</v>
+      </c>
+      <c r="K630" t="str">
+        <v>087-816-2702</v>
+      </c>
+      <c r="L630" t="str">
+        <v>内科、外科、救急科</v>
+      </c>
+      <c r="O630" t="str">
+        <v>香川県</v>
+      </c>
+      <c r="P630" t="str">
+        <v>372013</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P627"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P630"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/hospital/data.xlsx
+++ b/data/hospital/data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\52845\Documents\Downloads\オープンデータ10月アップ未\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B087AD41-29C3-4B12-A870-95BA4A54CE66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -210,7 +211,7 @@
     <t>内科、消化器内科、循環器内科、糖尿病内科、腎臓内科、人工透析内科、内視鏡内科、小児科、外科、整形外科、消化器外科、内視鏡外科、皮膚科、泌尿器科、眼科、リハビリ科、放射線科、麻酔科</t>
   </si>
   <si>
-    <t>198</t>
+    <t>187</t>
   </si>
   <si>
     <t>jp.takamatsu.smartcity.medical.Hospital.5</t>
@@ -1068,7 +1069,7 @@
     <t>内科、呼吸器内科、消化器内科、循環器内科、糖尿病内科、透析科、小児アレルギー科、小児科、外科、整形外科、形成外科、脳神経外科、消化器外科、乳腺外科、皮膚科、泌尿器科、肛門外科、産婦人科、眼科、耳鼻咽喉科、リハビリ科、放射線科、麻酔科、歯科、分娩実施、透析実施</t>
   </si>
   <si>
-    <t>279</t>
+    <t>250</t>
   </si>
   <si>
     <t>jp.takamatsu.smartcity.medical.Hospital.32</t>
@@ -2001,7 +2002,7 @@
     <t>087-831-7062</t>
   </si>
   <si>
-    <t>産婦人科、肛門外科</t>
+    <t>産婦人科、肛門外科、心臓血管外科</t>
   </si>
   <si>
     <t>2</t>
@@ -6408,7 +6409,7 @@
     <t>087-811-5588</t>
   </si>
   <si>
-    <t>内科、脳神経外科、整形外科、リハビリ科、放射線科、麻酔科</t>
+    <t>内科、脳神経外科、整形外科、リハビリ科、放射線科、消化器内科</t>
   </si>
   <si>
     <t>jp.takamatsu.smartcity.medical.Hospital.235</t>
@@ -6423,16 +6424,16 @@
     <t>香川県高松市福岡町四丁目２８番３０号</t>
   </si>
   <si>
-    <t>高松内視鏡診断クリニック</t>
+    <t>西高松在宅クリニック</t>
   </si>
   <si>
     <t>理事長　松本　義人</t>
   </si>
   <si>
-    <t>087-821-8877</t>
-  </si>
-  <si>
-    <t>内科、消化器内科、循環器内科、脳神経外科、放射線科</t>
+    <t>2016/09/01</t>
+  </si>
+  <si>
+    <t>087-897-3434</t>
   </si>
   <si>
     <t>jp.takamatsu.smartcity.medical.Hospital.236</t>
@@ -8544,460 +8545,460 @@
     <t>087-886-0824</t>
   </si>
   <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.327</t>
+  </si>
+  <si>
+    <t>34.324034</t>
+  </si>
+  <si>
+    <t>134.079616</t>
+  </si>
+  <si>
+    <t>香川県高松市木太町３６０２番地１</t>
+  </si>
+  <si>
+    <t>医療法人社団光樹会水谷内科クリニック</t>
+  </si>
+  <si>
+    <t>理事長　コルビン真梨子</t>
+  </si>
+  <si>
+    <t>医療法人社団光樹会</t>
+  </si>
+  <si>
+    <t>2001/7/1</t>
+  </si>
+  <si>
+    <t>087-835-5037</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.328</t>
+  </si>
+  <si>
+    <t>34.326577</t>
+  </si>
+  <si>
+    <t>134.046233</t>
+  </si>
+  <si>
+    <t>香川県高松市花ノ宮町一丁目１２番３６号</t>
+  </si>
+  <si>
+    <t>医療法人社団宮本耳鼻咽喉科医院</t>
+  </si>
+  <si>
+    <t>理事長　宮本　永祥</t>
+  </si>
+  <si>
+    <t>087-834-0666</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.329</t>
+  </si>
+  <si>
+    <t>医療法人社団みやもとレディースクリニック</t>
+  </si>
+  <si>
+    <t>理事長　宮本　誠一郎</t>
+  </si>
+  <si>
+    <t>2013/4/1</t>
+  </si>
+  <si>
+    <t>087-806-1177</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.330</t>
+  </si>
+  <si>
+    <t>34.295053</t>
+  </si>
+  <si>
+    <t>134.05255</t>
+  </si>
+  <si>
+    <t>香川県高松市多肥上町１１１１番地１　多肥メディカル・イーア３Ｆ</t>
+  </si>
+  <si>
+    <t>みぞて眼科クリニック</t>
+  </si>
+  <si>
+    <t>溝手　雅宣</t>
+  </si>
+  <si>
+    <t>2016/5/20</t>
+  </si>
+  <si>
+    <t>087-806-1103</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.331</t>
+  </si>
+  <si>
+    <t>34.277813</t>
+  </si>
+  <si>
+    <t>134.068952</t>
+  </si>
+  <si>
+    <t>香川県高松市三谷町１１６１番地１</t>
+  </si>
+  <si>
+    <t>水尾医院</t>
+  </si>
+  <si>
+    <t>水尾　純</t>
+  </si>
+  <si>
+    <t>2016/4/21</t>
+  </si>
+  <si>
+    <t>087-899-8620</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.332</t>
+  </si>
+  <si>
+    <t>34.292493</t>
+  </si>
+  <si>
+    <t>134.074574</t>
+  </si>
+  <si>
+    <t>香川県高松市林町４７８番地１</t>
+  </si>
+  <si>
+    <t>みやべ耳鼻咽喉科クリニック</t>
+  </si>
+  <si>
+    <t>理事長　宮部　和德</t>
+  </si>
+  <si>
+    <t>医療法人社団M.J.C.晃成会</t>
+  </si>
+  <si>
+    <t>087-889-1133</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.333</t>
+  </si>
+  <si>
+    <t>34.322917</t>
+  </si>
+  <si>
+    <t>134.028797</t>
+  </si>
+  <si>
+    <t>香川県高松市西春日町１１１１番地１　峰山くらし広場１階</t>
+  </si>
+  <si>
+    <t>医療法人ブルームみねやまクリニック</t>
+  </si>
+  <si>
+    <t>理事長　藤澤　成人</t>
+  </si>
+  <si>
+    <t>087-865-3387</t>
+  </si>
+  <si>
+    <t>内科、耳鼻咽喉科、皮膚科</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.334</t>
+  </si>
+  <si>
+    <t>香川県高松市多肥上町１１１１番地１　多肥メディカルビル・イーア２階</t>
+  </si>
+  <si>
+    <t>医療法人社団光心会みつ内科・ハートクリニック</t>
+  </si>
+  <si>
+    <t>理事長　藤村　光則</t>
+  </si>
+  <si>
+    <t>医療法人社団光心会</t>
+  </si>
+  <si>
+    <t>2022/7/1</t>
+  </si>
+  <si>
+    <t>087-888-3810</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.335</t>
+  </si>
+  <si>
+    <t>34.346861</t>
+  </si>
+  <si>
+    <t>134.052608</t>
+  </si>
+  <si>
+    <t>香川県高松市内町３番２号</t>
+  </si>
+  <si>
+    <t>みき内科外科医院</t>
+  </si>
+  <si>
+    <t>三木　明寛</t>
+  </si>
+  <si>
+    <t>087-823-1127</t>
+  </si>
+  <si>
+    <t>内科、外科、肛門外科、耳鼻咽喉科</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.336</t>
+  </si>
+  <si>
+    <t>34.351377</t>
+  </si>
+  <si>
+    <t>134.039878</t>
+  </si>
+  <si>
+    <t>香川県高松市浜ノ町６０番６５号</t>
+  </si>
+  <si>
+    <t>むらせ内科クリニック</t>
+  </si>
+  <si>
+    <t>村瀨　知也</t>
+  </si>
+  <si>
+    <t>087-813-7333</t>
+  </si>
+  <si>
+    <t>内科、放射線科</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.337</t>
+  </si>
+  <si>
+    <t>34.348449</t>
+  </si>
+  <si>
+    <t>134.064046</t>
+  </si>
+  <si>
+    <t>むらかわクリニック</t>
+  </si>
+  <si>
+    <t>村川　直道</t>
+  </si>
+  <si>
+    <t>2024/4/26</t>
+  </si>
+  <si>
+    <t>087-823-2525</t>
+  </si>
+  <si>
+    <t>児童精神科、小児科、リハビリテーション科</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.338</t>
+  </si>
+  <si>
+    <t>34.341284</t>
+  </si>
+  <si>
+    <t>134.048846</t>
+  </si>
+  <si>
+    <t>香川県高松市番町三丁目３番１７号　プレシャス番町ビル４Ｆ</t>
+  </si>
+  <si>
+    <t>メディカルカウンセリングルームたなかクリニック</t>
+  </si>
+  <si>
+    <t>田中　和孝</t>
+  </si>
+  <si>
+    <t>2023/3/1</t>
+  </si>
+  <si>
+    <t>087-812-5556</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.339</t>
+  </si>
+  <si>
+    <t>34.338438</t>
+  </si>
+  <si>
+    <t>134.045319</t>
+  </si>
+  <si>
+    <t>香川県高松市天神前８番１４号</t>
+  </si>
+  <si>
+    <t>医療法人社団森岡皮膚科医院</t>
+  </si>
+  <si>
+    <t>理事長　森岡　眞治</t>
+  </si>
+  <si>
+    <t>087-834-1011</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.340</t>
+  </si>
+  <si>
+    <t>34.339925</t>
+  </si>
+  <si>
+    <t>134.05217</t>
+  </si>
+  <si>
+    <t>香川県高松市瓦町二丁目６番地１</t>
+  </si>
+  <si>
+    <t>森下内科医院</t>
+  </si>
+  <si>
+    <t>森下　直也</t>
+  </si>
+  <si>
+    <t>087-831-5557</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.341</t>
+  </si>
+  <si>
+    <t>34.311298</t>
+  </si>
+  <si>
+    <t>134.061665</t>
+  </si>
+  <si>
+    <t>香川県高松市松縄町１１４０番地９</t>
+  </si>
+  <si>
+    <t>もりした眼科クリニック</t>
+  </si>
+  <si>
+    <t>森下　真実</t>
+  </si>
+  <si>
+    <t>2018/4/24</t>
+  </si>
+  <si>
+    <t>087-865-6633</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.342</t>
+  </si>
+  <si>
+    <t>34.316</t>
+  </si>
+  <si>
+    <t>134.04707</t>
+  </si>
+  <si>
+    <t>香川県高松市三条町３２１番地２</t>
+  </si>
+  <si>
+    <t>医療法人社団安原クリニック</t>
+  </si>
+  <si>
+    <t>理事長　松本　由佳</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>087-866-1111</t>
+  </si>
+  <si>
+    <t>産科、婦人科、糖尿病内科、代謝内科、腎臓内科、美容外科</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.343</t>
+  </si>
+  <si>
+    <t>34.314165</t>
+  </si>
+  <si>
+    <t>133.999881</t>
+  </si>
+  <si>
+    <t>香川県高松市飯田町１７番地５</t>
+  </si>
+  <si>
+    <t>矢野皮膚科クリニック</t>
+  </si>
+  <si>
+    <t>矢野　充範</t>
+  </si>
+  <si>
+    <t>1990/3/12</t>
+  </si>
+  <si>
+    <t>087-881-5885</t>
+  </si>
+  <si>
+    <t>アレルギー科、美容外科、皮膚科、美容皮膚科、泌尿器科</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.344</t>
+  </si>
+  <si>
+    <t>34.283403</t>
+  </si>
+  <si>
+    <t>134.026052</t>
+  </si>
+  <si>
+    <t>香川県高松市一宮町４０３番地１</t>
+  </si>
+  <si>
+    <t>医療法人社団清瞳会山内クリニック</t>
+  </si>
+  <si>
+    <t>理事長　山内　紀子</t>
+  </si>
+  <si>
+    <t>医療法人社団清瞳会</t>
+  </si>
+  <si>
+    <t>1993/5/1</t>
+  </si>
+  <si>
+    <t>087-886-7082</t>
+  </si>
+  <si>
+    <t>内科、消化器科、循環器科、胃腸科、放射線科</t>
+  </si>
+  <si>
+    <t>jp.takamatsu.smartcity.medical.Hospital.345</t>
+  </si>
+  <si>
+    <t>34.34033</t>
+  </si>
+  <si>
+    <t>134.10754</t>
+  </si>
+  <si>
+    <t>香川県高松市高松町２５５２番地２</t>
+  </si>
+  <si>
+    <t>医療法人社団英新会屋島みちクリニック</t>
+  </si>
+  <si>
+    <t>理事長　細江　浩文</t>
+  </si>
+  <si>
+    <t>医療法人社団英新会</t>
+  </si>
+  <si>
+    <t>2005/10/1</t>
+  </si>
+  <si>
+    <t>087-844-3933</t>
+  </si>
+  <si>
     <t>心療内科、精神科、神経内科</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.327</t>
-  </si>
-  <si>
-    <t>34.324034</t>
-  </si>
-  <si>
-    <t>134.079616</t>
-  </si>
-  <si>
-    <t>香川県高松市木太町３６０２番地１</t>
-  </si>
-  <si>
-    <t>医療法人社団光樹会水谷内科クリニック</t>
-  </si>
-  <si>
-    <t>理事長　コルビン真梨子</t>
-  </si>
-  <si>
-    <t>医療法人社団光樹会</t>
-  </si>
-  <si>
-    <t>2001/7/1</t>
-  </si>
-  <si>
-    <t>087-835-5037</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.328</t>
-  </si>
-  <si>
-    <t>34.326577</t>
-  </si>
-  <si>
-    <t>134.046233</t>
-  </si>
-  <si>
-    <t>香川県高松市花ノ宮町一丁目１２番３６号</t>
-  </si>
-  <si>
-    <t>医療法人社団宮本耳鼻咽喉科医院</t>
-  </si>
-  <si>
-    <t>理事長　宮本　永祥</t>
-  </si>
-  <si>
-    <t>087-834-0666</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.329</t>
-  </si>
-  <si>
-    <t>医療法人社団みやもとレディースクリニック</t>
-  </si>
-  <si>
-    <t>理事長　宮本　誠一郎</t>
-  </si>
-  <si>
-    <t>2013/4/1</t>
-  </si>
-  <si>
-    <t>087-806-1177</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.330</t>
-  </si>
-  <si>
-    <t>34.295053</t>
-  </si>
-  <si>
-    <t>134.05255</t>
-  </si>
-  <si>
-    <t>香川県高松市多肥上町１１１１番地１　多肥メディカル・イーア３Ｆ</t>
-  </si>
-  <si>
-    <t>みぞて眼科クリニック</t>
-  </si>
-  <si>
-    <t>溝手　雅宣</t>
-  </si>
-  <si>
-    <t>2016/5/20</t>
-  </si>
-  <si>
-    <t>087-806-1103</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.331</t>
-  </si>
-  <si>
-    <t>34.277813</t>
-  </si>
-  <si>
-    <t>134.068952</t>
-  </si>
-  <si>
-    <t>香川県高松市三谷町１１６１番地１</t>
-  </si>
-  <si>
-    <t>水尾医院</t>
-  </si>
-  <si>
-    <t>水尾　純</t>
-  </si>
-  <si>
-    <t>2016/4/21</t>
-  </si>
-  <si>
-    <t>087-899-8620</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.332</t>
-  </si>
-  <si>
-    <t>34.292493</t>
-  </si>
-  <si>
-    <t>134.074574</t>
-  </si>
-  <si>
-    <t>香川県高松市林町４７８番地１</t>
-  </si>
-  <si>
-    <t>みやべ耳鼻咽喉科クリニック</t>
-  </si>
-  <si>
-    <t>理事長　宮部　和德</t>
-  </si>
-  <si>
-    <t>医療法人社団M.J.C.晃成会</t>
-  </si>
-  <si>
-    <t>087-889-1133</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.333</t>
-  </si>
-  <si>
-    <t>34.322917</t>
-  </si>
-  <si>
-    <t>134.028797</t>
-  </si>
-  <si>
-    <t>香川県高松市西春日町１１１１番地１　峰山くらし広場１階</t>
-  </si>
-  <si>
-    <t>医療法人ブルームみねやまクリニック</t>
-  </si>
-  <si>
-    <t>理事長　藤澤　成人</t>
-  </si>
-  <si>
-    <t>087-865-3387</t>
-  </si>
-  <si>
-    <t>内科、耳鼻咽喉科、皮膚科</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.334</t>
-  </si>
-  <si>
-    <t>香川県高松市多肥上町１１１１番地１　多肥メディカルビル・イーア２階</t>
-  </si>
-  <si>
-    <t>医療法人社団光心会みつ内科・ハートクリニック</t>
-  </si>
-  <si>
-    <t>理事長　藤村　光則</t>
-  </si>
-  <si>
-    <t>医療法人社団光心会</t>
-  </si>
-  <si>
-    <t>2022/7/1</t>
-  </si>
-  <si>
-    <t>087-888-3810</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.335</t>
-  </si>
-  <si>
-    <t>34.346861</t>
-  </si>
-  <si>
-    <t>134.052608</t>
-  </si>
-  <si>
-    <t>香川県高松市内町３番２号</t>
-  </si>
-  <si>
-    <t>みき内科外科医院</t>
-  </si>
-  <si>
-    <t>三木　明寛</t>
-  </si>
-  <si>
-    <t>087-823-1127</t>
-  </si>
-  <si>
-    <t>内科、外科、肛門外科、耳鼻咽喉科</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.336</t>
-  </si>
-  <si>
-    <t>34.351377</t>
-  </si>
-  <si>
-    <t>134.039878</t>
-  </si>
-  <si>
-    <t>香川県高松市浜ノ町６０番６５号</t>
-  </si>
-  <si>
-    <t>むらせ内科クリニック</t>
-  </si>
-  <si>
-    <t>村瀨　知也</t>
-  </si>
-  <si>
-    <t>087-813-7333</t>
-  </si>
-  <si>
-    <t>内科、放射線科</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.337</t>
-  </si>
-  <si>
-    <t>34.348449</t>
-  </si>
-  <si>
-    <t>134.064046</t>
-  </si>
-  <si>
-    <t>むらかわクリニック</t>
-  </si>
-  <si>
-    <t>村川　直道</t>
-  </si>
-  <si>
-    <t>2024/4/26</t>
-  </si>
-  <si>
-    <t>087-823-2525</t>
-  </si>
-  <si>
-    <t>児童精神科、小児科、リハビリテーション科</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.338</t>
-  </si>
-  <si>
-    <t>34.341284</t>
-  </si>
-  <si>
-    <t>134.048846</t>
-  </si>
-  <si>
-    <t>香川県高松市番町三丁目３番１７号　プレシャス番町ビル４Ｆ</t>
-  </si>
-  <si>
-    <t>メディカルカウンセリングルームたなかクリニック</t>
-  </si>
-  <si>
-    <t>田中　和孝</t>
-  </si>
-  <si>
-    <t>2023/3/1</t>
-  </si>
-  <si>
-    <t>087-812-5556</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.339</t>
-  </si>
-  <si>
-    <t>34.338438</t>
-  </si>
-  <si>
-    <t>134.045319</t>
-  </si>
-  <si>
-    <t>香川県高松市天神前８番１４号</t>
-  </si>
-  <si>
-    <t>医療法人社団森岡皮膚科医院</t>
-  </si>
-  <si>
-    <t>理事長　森岡　眞治</t>
-  </si>
-  <si>
-    <t>087-834-1011</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.340</t>
-  </si>
-  <si>
-    <t>34.339925</t>
-  </si>
-  <si>
-    <t>134.05217</t>
-  </si>
-  <si>
-    <t>香川県高松市瓦町二丁目６番地１</t>
-  </si>
-  <si>
-    <t>森下内科医院</t>
-  </si>
-  <si>
-    <t>森下　直也</t>
-  </si>
-  <si>
-    <t>087-831-5557</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.341</t>
-  </si>
-  <si>
-    <t>34.311298</t>
-  </si>
-  <si>
-    <t>134.061665</t>
-  </si>
-  <si>
-    <t>香川県高松市松縄町１１４０番地９</t>
-  </si>
-  <si>
-    <t>もりした眼科クリニック</t>
-  </si>
-  <si>
-    <t>森下　真実</t>
-  </si>
-  <si>
-    <t>2018/4/24</t>
-  </si>
-  <si>
-    <t>087-865-6633</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.342</t>
-  </si>
-  <si>
-    <t>34.316</t>
-  </si>
-  <si>
-    <t>134.04707</t>
-  </si>
-  <si>
-    <t>香川県高松市三条町３２１番地２</t>
-  </si>
-  <si>
-    <t>医療法人社団安原クリニック</t>
-  </si>
-  <si>
-    <t>理事長　松本　由佳</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>087-866-1111</t>
-  </si>
-  <si>
-    <t>産科、婦人科、糖尿病内科、代謝内科、腎臓内科、美容外科</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.343</t>
-  </si>
-  <si>
-    <t>34.314165</t>
-  </si>
-  <si>
-    <t>133.999881</t>
-  </si>
-  <si>
-    <t>香川県高松市飯田町１７番地５</t>
-  </si>
-  <si>
-    <t>矢野皮膚科クリニック</t>
-  </si>
-  <si>
-    <t>矢野　充範</t>
-  </si>
-  <si>
-    <t>1990/3/12</t>
-  </si>
-  <si>
-    <t>087-881-5885</t>
-  </si>
-  <si>
-    <t>アレルギー科、美容外科、皮膚科、美容皮膚科、泌尿器科</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.344</t>
-  </si>
-  <si>
-    <t>34.283403</t>
-  </si>
-  <si>
-    <t>134.026052</t>
-  </si>
-  <si>
-    <t>香川県高松市一宮町４０３番地１</t>
-  </si>
-  <si>
-    <t>医療法人社団清瞳会山内クリニック</t>
-  </si>
-  <si>
-    <t>理事長　山内　紀子</t>
-  </si>
-  <si>
-    <t>医療法人社団清瞳会</t>
-  </si>
-  <si>
-    <t>1993/5/1</t>
-  </si>
-  <si>
-    <t>087-886-7082</t>
-  </si>
-  <si>
-    <t>内科、消化器科、循環器科、胃腸科、放射線科</t>
-  </si>
-  <si>
-    <t>jp.takamatsu.smartcity.medical.Hospital.345</t>
-  </si>
-  <si>
-    <t>34.34033</t>
-  </si>
-  <si>
-    <t>134.10754</t>
-  </si>
-  <si>
-    <t>香川県高松市高松町２５５２番地２</t>
-  </si>
-  <si>
-    <t>医療法人社団英新会屋島みちクリニック</t>
-  </si>
-  <si>
-    <t>理事長　細江　浩文</t>
-  </si>
-  <si>
-    <t>医療法人社団英新会</t>
-  </si>
-  <si>
-    <t>2005/10/1</t>
-  </si>
-  <si>
-    <t>087-844-3933</t>
   </si>
   <si>
     <t>jp.takamatsu.smartcity.medical.Hospital.346</t>
@@ -15684,7 +15685,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -16068,20 +16069,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
-      <selection activeCell="E315" sqref="E315"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.796875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="66.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16131,7 +16132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -16181,7 +16182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -16231,7 +16232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -16281,7 +16282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -16300,7 +16301,7 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="H5" t="s">
@@ -16331,7 +16332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>64</v>
       </c>
@@ -16381,7 +16382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -16431,7 +16432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -16481,7 +16482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>97</v>
       </c>
@@ -16531,7 +16532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -16581,7 +16582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>119</v>
       </c>
@@ -16631,7 +16632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>130</v>
       </c>
@@ -16681,7 +16682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>141</v>
       </c>
@@ -16731,7 +16732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>152</v>
       </c>
@@ -16781,7 +16782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>162</v>
       </c>
@@ -16831,7 +16832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>173</v>
       </c>
@@ -16850,7 +16851,7 @@
       <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>177</v>
       </c>
       <c r="H16" t="s">
@@ -16881,7 +16882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>183</v>
       </c>
@@ -16931,7 +16932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -16981,7 +16982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>205</v>
       </c>
@@ -17031,7 +17032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>216</v>
       </c>
@@ -17081,7 +17082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>226</v>
       </c>
@@ -17131,7 +17132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>237</v>
       </c>
@@ -17181,7 +17182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>247</v>
       </c>
@@ -17231,7 +17232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>257</v>
       </c>
@@ -17281,7 +17282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>266</v>
       </c>
@@ -17331,7 +17332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>277</v>
       </c>
@@ -17381,7 +17382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>288</v>
       </c>
@@ -17431,7 +17432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>299</v>
       </c>
@@ -17481,7 +17482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>310</v>
       </c>
@@ -17531,7 +17532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>321</v>
       </c>
@@ -17581,7 +17582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>330</v>
       </c>
@@ -17631,7 +17632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>339</v>
       </c>
@@ -17650,7 +17651,7 @@
       <c r="F32" t="s">
         <v>21</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="1" t="s">
         <v>343</v>
       </c>
       <c r="H32" t="s">
@@ -17681,7 +17682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>350</v>
       </c>
@@ -17731,7 +17732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>359</v>
       </c>
@@ -17781,7 +17782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>369</v>
       </c>
@@ -17831,7 +17832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>380</v>
       </c>
@@ -17881,7 +17882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>390</v>
       </c>
@@ -17931,7 +17932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>400</v>
       </c>
@@ -17981,7 +17982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>411</v>
       </c>
@@ -18031,7 +18032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>421</v>
       </c>
@@ -18081,7 +18082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>431</v>
       </c>
@@ -18131,7 +18132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>439</v>
       </c>
@@ -18181,7 +18182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>449</v>
       </c>
@@ -18231,7 +18232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>457</v>
       </c>
@@ -18281,7 +18282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>466</v>
       </c>
@@ -18331,7 +18332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>475</v>
       </c>
@@ -18381,7 +18382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>485</v>
       </c>
@@ -18431,7 +18432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>494</v>
       </c>
@@ -18481,7 +18482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>504</v>
       </c>
@@ -18531,7 +18532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>513</v>
       </c>
@@ -18581,7 +18582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>522</v>
       </c>
@@ -18631,7 +18632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>530</v>
       </c>
@@ -18681,7 +18682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>539</v>
       </c>
@@ -18731,7 +18732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>548</v>
       </c>
@@ -18781,7 +18782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>557</v>
       </c>
@@ -18831,7 +18832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>566</v>
       </c>
@@ -18881,7 +18882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>577</v>
       </c>
@@ -18931,7 +18932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>586</v>
       </c>
@@ -18981,7 +18982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>594</v>
       </c>
@@ -19031,7 +19032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>603</v>
       </c>
@@ -19081,7 +19082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>613</v>
       </c>
@@ -19131,7 +19132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>623</v>
       </c>
@@ -19181,7 +19182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>633</v>
       </c>
@@ -19231,7 +19232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>643</v>
       </c>
@@ -19281,7 +19282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>652</v>
       </c>
@@ -19331,7 +19332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>662</v>
       </c>
@@ -19381,7 +19382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>672</v>
       </c>
@@ -19431,7 +19432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>680</v>
       </c>
@@ -19481,7 +19482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>690</v>
       </c>
@@ -19531,7 +19532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>699</v>
       </c>
@@ -19581,7 +19582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>707</v>
       </c>
@@ -19631,7 +19632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>718</v>
       </c>
@@ -19681,7 +19682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>727</v>
       </c>
@@ -19731,7 +19732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>737</v>
       </c>
@@ -19781,7 +19782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>746</v>
       </c>
@@ -19831,7 +19832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>756</v>
       </c>
@@ -19881,7 +19882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>764</v>
       </c>
@@ -19931,7 +19932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>773</v>
       </c>
@@ -19981,7 +19982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>783</v>
       </c>
@@ -20031,7 +20032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>792</v>
       </c>
@@ -20081,7 +20082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>800</v>
       </c>
@@ -20131,7 +20132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>809</v>
       </c>
@@ -20181,7 +20182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>818</v>
       </c>
@@ -20231,7 +20232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>828</v>
       </c>
@@ -20281,7 +20282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>837</v>
       </c>
@@ -20331,7 +20332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>847</v>
       </c>
@@ -20381,7 +20382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>856</v>
       </c>
@@ -20431,7 +20432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>865</v>
       </c>
@@ -20481,7 +20482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>875</v>
       </c>
@@ -20531,7 +20532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>884</v>
       </c>
@@ -20581,7 +20582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>894</v>
       </c>
@@ -20631,7 +20632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>903</v>
       </c>
@@ -20681,7 +20682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>913</v>
       </c>
@@ -20731,7 +20732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>922</v>
       </c>
@@ -20781,7 +20782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>931</v>
       </c>
@@ -20831,7 +20832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>939</v>
       </c>
@@ -20881,7 +20882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>947</v>
       </c>
@@ -20931,7 +20932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>956</v>
       </c>
@@ -20981,7 +20982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>965</v>
       </c>
@@ -21031,7 +21032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>975</v>
       </c>
@@ -21081,7 +21082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>984</v>
       </c>
@@ -21131,7 +21132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>993</v>
       </c>
@@ -21181,7 +21182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>1002</v>
       </c>
@@ -21231,7 +21232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>1010</v>
       </c>
@@ -21281,7 +21282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>1020</v>
       </c>
@@ -21331,7 +21332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>1028</v>
       </c>
@@ -21381,7 +21382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>1038</v>
       </c>
@@ -21431,7 +21432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>1047</v>
       </c>
@@ -21481,7 +21482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>1055</v>
       </c>
@@ -21531,7 +21532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>1064</v>
       </c>
@@ -21581,7 +21582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1072</v>
       </c>
@@ -21631,7 +21632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>1081</v>
       </c>
@@ -21681,7 +21682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>1089</v>
       </c>
@@ -21731,7 +21732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>1095</v>
       </c>
@@ -21781,7 +21782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>1103</v>
       </c>
@@ -21831,7 +21832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>1111</v>
       </c>
@@ -21881,7 +21882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>1120</v>
       </c>
@@ -21931,7 +21932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>1130</v>
       </c>
@@ -21981,7 +21982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>1139</v>
       </c>
@@ -22031,7 +22032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>1147</v>
       </c>
@@ -22081,7 +22082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>1155</v>
       </c>
@@ -22131,7 +22132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>1164</v>
       </c>
@@ -22181,7 +22182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>1174</v>
       </c>
@@ -22231,7 +22232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>1183</v>
       </c>
@@ -22281,7 +22282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>1192</v>
       </c>
@@ -22331,7 +22332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>1201</v>
       </c>
@@ -22381,7 +22382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>1211</v>
       </c>
@@ -22431,7 +22432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1220</v>
       </c>
@@ -22481,7 +22482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1229</v>
       </c>
@@ -22531,7 +22532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1237</v>
       </c>
@@ -22581,7 +22582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1245</v>
       </c>
@@ -22631,7 +22632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1253</v>
       </c>
@@ -22681,7 +22682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1261</v>
       </c>
@@ -22731,7 +22732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1269</v>
       </c>
@@ -22781,7 +22782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1278</v>
       </c>
@@ -22831,7 +22832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1287</v>
       </c>
@@ -22881,7 +22882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1294</v>
       </c>
@@ -22931,7 +22932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1304</v>
       </c>
@@ -22981,7 +22982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1312</v>
       </c>
@@ -23031,7 +23032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1320</v>
       </c>
@@ -23081,7 +23082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1328</v>
       </c>
@@ -23131,7 +23132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1338</v>
       </c>
@@ -23181,7 +23182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1347</v>
       </c>
@@ -23231,7 +23232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1356</v>
       </c>
@@ -23281,7 +23282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1364</v>
       </c>
@@ -23331,7 +23332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1371</v>
       </c>
@@ -23381,7 +23382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1379</v>
       </c>
@@ -23431,7 +23432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1388</v>
       </c>
@@ -23481,7 +23482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1396</v>
       </c>
@@ -23531,7 +23532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1405</v>
       </c>
@@ -23581,7 +23582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1412</v>
       </c>
@@ -23631,7 +23632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1421</v>
       </c>
@@ -23681,7 +23682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1430</v>
       </c>
@@ -23731,7 +23732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1439</v>
       </c>
@@ -23781,7 +23782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1444</v>
       </c>
@@ -23831,7 +23832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1452</v>
       </c>
@@ -23881,7 +23882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1461</v>
       </c>
@@ -23931,7 +23932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1471</v>
       </c>
@@ -23981,7 +23982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1480</v>
       </c>
@@ -24031,7 +24032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1490</v>
       </c>
@@ -24081,7 +24082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1497</v>
       </c>
@@ -24131,7 +24132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1507</v>
       </c>
@@ -24181,7 +24182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1516</v>
       </c>
@@ -24231,7 +24232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1525</v>
       </c>
@@ -24281,7 +24282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1533</v>
       </c>
@@ -24331,7 +24332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1542</v>
       </c>
@@ -24381,7 +24382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1550</v>
       </c>
@@ -24431,7 +24432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1559</v>
       </c>
@@ -24481,7 +24482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1569</v>
       </c>
@@ -24531,7 +24532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1575</v>
       </c>
@@ -24581,7 +24582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1584</v>
       </c>
@@ -24631,7 +24632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1594</v>
       </c>
@@ -24681,7 +24682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1602</v>
       </c>
@@ -24731,7 +24732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1610</v>
       </c>
@@ -24781,7 +24782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1619</v>
       </c>
@@ -24831,7 +24832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1627</v>
       </c>
@@ -24881,7 +24882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1636</v>
       </c>
@@ -24931,7 +24932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1645</v>
       </c>
@@ -24981,7 +24982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1654</v>
       </c>
@@ -25031,7 +25032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1658</v>
       </c>
@@ -25081,7 +25082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1668</v>
       </c>
@@ -25131,7 +25132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1677</v>
       </c>
@@ -25181,7 +25182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1686</v>
       </c>
@@ -25231,7 +25232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1695</v>
       </c>
@@ -25281,7 +25282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1704</v>
       </c>
@@ -25331,7 +25332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1712</v>
       </c>
@@ -25381,7 +25382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1721</v>
       </c>
@@ -25431,7 +25432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1730</v>
       </c>
@@ -25481,7 +25482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1739</v>
       </c>
@@ -25531,7 +25532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1747</v>
       </c>
@@ -25581,7 +25582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1755</v>
       </c>
@@ -25631,7 +25632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1765</v>
       </c>
@@ -25681,7 +25682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1774</v>
       </c>
@@ -25731,7 +25732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1782</v>
       </c>
@@ -25781,7 +25782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1790</v>
       </c>
@@ -25831,7 +25832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1799</v>
       </c>
@@ -25881,7 +25882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>1808</v>
       </c>
@@ -25931,7 +25932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>1816</v>
       </c>
@@ -25981,7 +25982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>1826</v>
       </c>
@@ -26031,7 +26032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>1834</v>
       </c>
@@ -26081,7 +26082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>1842</v>
       </c>
@@ -26131,7 +26132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>1851</v>
       </c>
@@ -26181,7 +26182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>1859</v>
       </c>
@@ -26231,7 +26232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>1867</v>
       </c>
@@ -26281,7 +26282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>1875</v>
       </c>
@@ -26331,7 +26332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>1883</v>
       </c>
@@ -26381,7 +26382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>1892</v>
       </c>
@@ -26431,7 +26432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>1901</v>
       </c>
@@ -26481,7 +26482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>1909</v>
       </c>
@@ -26531,7 +26532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>1917</v>
       </c>
@@ -26581,7 +26582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1924</v>
       </c>
@@ -26631,7 +26632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>1933</v>
       </c>
@@ -26681,7 +26682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>1943</v>
       </c>
@@ -26731,7 +26732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>1951</v>
       </c>
@@ -26781,7 +26782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>1960</v>
       </c>
@@ -26831,7 +26832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>1969</v>
       </c>
@@ -26881,7 +26882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>1976</v>
       </c>
@@ -26931,7 +26932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>1985</v>
       </c>
@@ -26981,7 +26982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>1995</v>
       </c>
@@ -27031,7 +27032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>2003</v>
       </c>
@@ -27081,7 +27082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>2011</v>
       </c>
@@ -27131,7 +27132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>2018</v>
       </c>
@@ -27181,7 +27182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>2027</v>
       </c>
@@ -27231,7 +27232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>2035</v>
       </c>
@@ -27281,7 +27282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>2044</v>
       </c>
@@ -27331,7 +27332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>2052</v>
       </c>
@@ -27381,7 +27382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>2062</v>
       </c>
@@ -27431,7 +27432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>2071</v>
       </c>
@@ -27481,7 +27482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>2079</v>
       </c>
@@ -27531,7 +27532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>2087</v>
       </c>
@@ -27581,7 +27582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>2096</v>
       </c>
@@ -27631,7 +27632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>2103</v>
       </c>
@@ -27681,7 +27682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>2111</v>
       </c>
@@ -27731,7 +27732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>2120</v>
       </c>
@@ -27781,7 +27782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>2130</v>
       </c>
@@ -27800,7 +27801,7 @@
       <c r="F235" t="s">
         <v>21</v>
       </c>
-      <c r="G235" t="s">
+      <c r="G235" s="1" t="s">
         <v>2134</v>
       </c>
       <c r="H235" t="s">
@@ -27810,13 +27811,13 @@
         <v>2126</v>
       </c>
       <c r="J235" t="s">
-        <v>658</v>
+        <v>2136</v>
       </c>
       <c r="K235" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="L235" t="s">
-        <v>2137</v>
+        <v>763</v>
       </c>
       <c r="M235" t="s">
         <v>28</v>
@@ -27831,7 +27832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>2138</v>
       </c>
@@ -27881,7 +27882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>2147</v>
       </c>
@@ -27931,7 +27932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>2156</v>
       </c>
@@ -27981,7 +27982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>2165</v>
       </c>
@@ -28031,7 +28032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>2173</v>
       </c>
@@ -28081,7 +28082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>2182</v>
       </c>
@@ -28131,7 +28132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>2189</v>
       </c>
@@ -28181,7 +28182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>2196</v>
       </c>
@@ -28231,7 +28232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>2205</v>
       </c>
@@ -28281,7 +28282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>2215</v>
       </c>
@@ -28331,7 +28332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>2224</v>
       </c>
@@ -28381,7 +28382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>2232</v>
       </c>
@@ -28431,7 +28432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>2240</v>
       </c>
@@ -28481,7 +28482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>2248</v>
       </c>
@@ -28531,7 +28532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>2257</v>
       </c>
@@ -28581,7 +28582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>2266</v>
       </c>
@@ -28631,7 +28632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>2275</v>
       </c>
@@ -28681,7 +28682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>2284</v>
       </c>
@@ -28731,7 +28732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>2292</v>
       </c>
@@ -28781,7 +28782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>2302</v>
       </c>
@@ -28831,7 +28832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>2309</v>
       </c>
@@ -28881,7 +28882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>2318</v>
       </c>
@@ -28931,7 +28932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>2325</v>
       </c>
@@ -28981,7 +28982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>2334</v>
       </c>
@@ -29031,7 +29032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>2342</v>
       </c>
@@ -29081,7 +29082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>2351</v>
       </c>
@@ -29131,7 +29132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>2359</v>
       </c>
@@ -29181,7 +29182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>2367</v>
       </c>
@@ -29231,7 +29232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>2375</v>
       </c>
@@ -29281,7 +29282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>2385</v>
       </c>
@@ -29331,7 +29332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>2392</v>
       </c>
@@ -29381,7 +29382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>2401</v>
       </c>
@@ -29431,7 +29432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>2406</v>
       </c>
@@ -29481,7 +29482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>2414</v>
       </c>
@@ -29531,7 +29532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>2422</v>
       </c>
@@ -29581,7 +29582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>2430</v>
       </c>
@@ -29631,7 +29632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>2438</v>
       </c>
@@ -29681,7 +29682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>2447</v>
       </c>
@@ -29731,7 +29732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>2455</v>
       </c>
@@ -29781,7 +29782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>2464</v>
       </c>
@@ -29831,7 +29832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>2472</v>
       </c>
@@ -29881,7 +29882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>2481</v>
       </c>
@@ -29931,7 +29932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>2489</v>
       </c>
@@ -29981,7 +29982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>2495</v>
       </c>
@@ -30031,7 +30032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>2503</v>
       </c>
@@ -30081,7 +30082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>2511</v>
       </c>
@@ -30131,7 +30132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>2519</v>
       </c>
@@ -30181,7 +30182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>2527</v>
       </c>
@@ -30231,7 +30232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>2534</v>
       </c>
@@ -30281,7 +30282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>2542</v>
       </c>
@@ -30331,7 +30332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>2549</v>
       </c>
@@ -30381,7 +30382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>2558</v>
       </c>
@@ -30431,7 +30432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>2567</v>
       </c>
@@ -30481,7 +30482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>2575</v>
       </c>
@@ -30531,7 +30532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>2582</v>
       </c>
@@ -30581,7 +30582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>2591</v>
       </c>
@@ -30631,7 +30632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>2598</v>
       </c>
@@ -30681,7 +30682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>2607</v>
       </c>
@@ -30731,7 +30732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>2615</v>
       </c>
@@ -30781,7 +30782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>2622</v>
       </c>
@@ -30831,7 +30832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>2632</v>
       </c>
@@ -30881,7 +30882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>2636</v>
       </c>
@@ -30931,7 +30932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>2643</v>
       </c>
@@ -30981,7 +30982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>2651</v>
       </c>
@@ -31031,7 +31032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>2660</v>
       </c>
@@ -31081,7 +31082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>2668</v>
       </c>
@@ -31131,7 +31132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>2677</v>
       </c>
@@ -31181,7 +31182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>2685</v>
       </c>
@@ -31231,7 +31232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>2692</v>
       </c>
@@ -31281,7 +31282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>2699</v>
       </c>
@@ -31331,7 +31332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>2708</v>
       </c>
@@ -31381,7 +31382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>2716</v>
       </c>
@@ -31431,7 +31432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>2723</v>
       </c>
@@ -31481,7 +31482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>2731</v>
       </c>
@@ -31531,7 +31532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>2738</v>
       </c>
@@ -31581,7 +31582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>2747</v>
       </c>
@@ -31631,7 +31632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>2756</v>
       </c>
@@ -31681,7 +31682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>2765</v>
       </c>
@@ -31731,7 +31732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>2771</v>
       </c>
@@ -31781,7 +31782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>2775</v>
       </c>
@@ -31831,7 +31832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>2782</v>
       </c>
@@ -31881,7 +31882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>2790</v>
       </c>
@@ -31931,7 +31932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>2799</v>
       </c>
@@ -31981,7 +31982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>2809</v>
       </c>
@@ -32031,7 +32032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>2818</v>
       </c>
@@ -32081,7 +32082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>2826</v>
       </c>
@@ -32131,7 +32132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>2834</v>
       </c>
@@ -32181,18 +32182,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B323" t="s">
         <v>2842</v>
       </c>
-      <c r="B323" t="s">
+      <c r="C323" t="s">
         <v>2843</v>
       </c>
-      <c r="C323" t="s">
+      <c r="D323" t="s">
         <v>2844</v>
-      </c>
-      <c r="D323" t="s">
-        <v>2845</v>
       </c>
       <c r="E323" t="s">
         <v>711</v>
@@ -32200,20 +32201,20 @@
       <c r="F323" t="s">
         <v>21</v>
       </c>
-      <c r="G323" s="1" t="s">
+      <c r="G323" t="s">
+        <v>2845</v>
+      </c>
+      <c r="H323" t="s">
         <v>2846</v>
       </c>
-      <c r="H323" t="s">
+      <c r="I323" t="s">
         <v>2847</v>
       </c>
-      <c r="I323" t="s">
+      <c r="J323" t="s">
         <v>2848</v>
       </c>
-      <c r="J323" t="s">
+      <c r="K323" t="s">
         <v>2849</v>
-      </c>
-      <c r="K323" t="s">
-        <v>2850</v>
       </c>
       <c r="L323" t="s">
         <v>817</v>
@@ -32231,18 +32232,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
+        <v>2850</v>
+      </c>
+      <c r="B324" t="s">
         <v>2851</v>
       </c>
-      <c r="B324" t="s">
+      <c r="C324" t="s">
         <v>2852</v>
       </c>
-      <c r="C324" t="s">
+      <c r="D324" t="s">
         <v>2853</v>
-      </c>
-      <c r="D324" t="s">
-        <v>2854</v>
       </c>
       <c r="E324" t="s">
         <v>711</v>
@@ -32251,19 +32252,19 @@
         <v>21</v>
       </c>
       <c r="G324" t="s">
+        <v>2854</v>
+      </c>
+      <c r="H324" t="s">
         <v>2855</v>
       </c>
-      <c r="H324" t="s">
-        <v>2856</v>
-      </c>
       <c r="I324" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="J324" t="s">
         <v>126</v>
       </c>
       <c r="K324" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="L324" t="s">
         <v>808</v>
@@ -32281,9 +32282,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="B325" t="s">
         <v>1003</v>
@@ -32301,19 +32302,19 @@
         <v>21</v>
       </c>
       <c r="G325" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H325" t="s">
         <v>2859</v>
       </c>
-      <c r="H325" t="s">
+      <c r="I325" t="s">
+        <v>2858</v>
+      </c>
+      <c r="J325" t="s">
         <v>2860</v>
       </c>
-      <c r="I325" t="s">
-        <v>2859</v>
-      </c>
-      <c r="J325" t="s">
+      <c r="K325" t="s">
         <v>2861</v>
-      </c>
-      <c r="K325" t="s">
-        <v>2862</v>
       </c>
       <c r="L325" t="s">
         <v>493</v>
@@ -32331,18 +32332,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
+        <v>2862</v>
+      </c>
+      <c r="B326" t="s">
         <v>2863</v>
       </c>
-      <c r="B326" t="s">
+      <c r="C326" t="s">
         <v>2864</v>
       </c>
-      <c r="C326" t="s">
+      <c r="D326" t="s">
         <v>2865</v>
-      </c>
-      <c r="D326" t="s">
-        <v>2866</v>
       </c>
       <c r="E326" t="s">
         <v>711</v>
@@ -32351,19 +32352,19 @@
         <v>21</v>
       </c>
       <c r="G326" t="s">
+        <v>2866</v>
+      </c>
+      <c r="H326" t="s">
+        <v>28</v>
+      </c>
+      <c r="I326" t="s">
         <v>2867</v>
       </c>
-      <c r="H326" t="s">
-        <v>28</v>
-      </c>
-      <c r="I326" t="s">
+      <c r="J326" t="s">
         <v>2868</v>
       </c>
-      <c r="J326" t="s">
+      <c r="K326" t="s">
         <v>2869</v>
-      </c>
-      <c r="K326" t="s">
-        <v>2870</v>
       </c>
       <c r="L326" t="s">
         <v>547</v>
@@ -32381,18 +32382,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>2870</v>
+      </c>
+      <c r="B327" t="s">
         <v>2871</v>
       </c>
-      <c r="B327" t="s">
+      <c r="C327" t="s">
         <v>2872</v>
       </c>
-      <c r="C327" t="s">
+      <c r="D327" t="s">
         <v>2873</v>
-      </c>
-      <c r="D327" t="s">
-        <v>2874</v>
       </c>
       <c r="E327" t="s">
         <v>711</v>
@@ -32401,19 +32402,19 @@
         <v>21</v>
       </c>
       <c r="G327" t="s">
+        <v>2874</v>
+      </c>
+      <c r="H327" t="s">
+        <v>28</v>
+      </c>
+      <c r="I327" t="s">
         <v>2875</v>
       </c>
-      <c r="H327" t="s">
-        <v>28</v>
-      </c>
-      <c r="I327" t="s">
+      <c r="J327" t="s">
         <v>2876</v>
       </c>
-      <c r="J327" t="s">
+      <c r="K327" t="s">
         <v>2877</v>
-      </c>
-      <c r="K327" t="s">
-        <v>2878</v>
       </c>
       <c r="L327" t="s">
         <v>611</v>
@@ -32431,18 +32432,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B328" t="s">
         <v>2879</v>
       </c>
-      <c r="B328" t="s">
+      <c r="C328" t="s">
         <v>2880</v>
       </c>
-      <c r="C328" t="s">
+      <c r="D328" t="s">
         <v>2881</v>
-      </c>
-      <c r="D328" t="s">
-        <v>2882</v>
       </c>
       <c r="E328" t="s">
         <v>711</v>
@@ -32451,19 +32452,19 @@
         <v>21</v>
       </c>
       <c r="G328" t="s">
+        <v>2882</v>
+      </c>
+      <c r="H328" t="s">
         <v>2883</v>
       </c>
-      <c r="H328" t="s">
+      <c r="I328" t="s">
         <v>2884</v>
-      </c>
-      <c r="I328" t="s">
-        <v>2885</v>
       </c>
       <c r="J328" t="s">
         <v>2154</v>
       </c>
       <c r="K328" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="L328" t="s">
         <v>1277</v>
@@ -32481,18 +32482,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
+        <v>2886</v>
+      </c>
+      <c r="B329" t="s">
         <v>2887</v>
       </c>
-      <c r="B329" t="s">
+      <c r="C329" t="s">
         <v>2888</v>
       </c>
-      <c r="C329" t="s">
+      <c r="D329" t="s">
         <v>2889</v>
-      </c>
-      <c r="D329" t="s">
-        <v>2890</v>
       </c>
       <c r="E329" t="s">
         <v>711</v>
@@ -32501,48 +32502,48 @@
         <v>21</v>
       </c>
       <c r="G329" t="s">
+        <v>2890</v>
+      </c>
+      <c r="H329" t="s">
         <v>2891</v>
       </c>
-      <c r="H329" t="s">
-        <v>2892</v>
-      </c>
       <c r="I329" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="J329" t="s">
         <v>2816</v>
       </c>
       <c r="K329" t="s">
+        <v>2892</v>
+      </c>
+      <c r="L329" t="s">
         <v>2893</v>
       </c>
-      <c r="L329" t="s">
+      <c r="M329" t="s">
+        <v>28</v>
+      </c>
+      <c r="N329" t="s">
+        <v>28</v>
+      </c>
+      <c r="O329" t="s">
+        <v>30</v>
+      </c>
+      <c r="P329" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
         <v>2894</v>
       </c>
-      <c r="M329" t="s">
-        <v>28</v>
-      </c>
-      <c r="N329" t="s">
-        <v>28</v>
-      </c>
-      <c r="O329" t="s">
-        <v>30</v>
-      </c>
-      <c r="P329" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
+      <c r="B330" t="s">
+        <v>2863</v>
+      </c>
+      <c r="C330" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D330" t="s">
         <v>2895</v>
-      </c>
-      <c r="B330" t="s">
-        <v>2864</v>
-      </c>
-      <c r="C330" t="s">
-        <v>2865</v>
-      </c>
-      <c r="D330" t="s">
-        <v>2896</v>
       </c>
       <c r="E330" t="s">
         <v>711</v>
@@ -32551,19 +32552,19 @@
         <v>21</v>
       </c>
       <c r="G330" t="s">
+        <v>2896</v>
+      </c>
+      <c r="H330" t="s">
         <v>2897</v>
       </c>
-      <c r="H330" t="s">
+      <c r="I330" t="s">
         <v>2898</v>
       </c>
-      <c r="I330" t="s">
+      <c r="J330" t="s">
         <v>2899</v>
       </c>
-      <c r="J330" t="s">
+      <c r="K330" t="s">
         <v>2900</v>
-      </c>
-      <c r="K330" t="s">
-        <v>2901</v>
       </c>
       <c r="L330" t="s">
         <v>611</v>
@@ -32581,18 +32582,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
+        <v>2901</v>
+      </c>
+      <c r="B331" t="s">
         <v>2902</v>
       </c>
-      <c r="B331" t="s">
+      <c r="C331" t="s">
         <v>2903</v>
       </c>
-      <c r="C331" t="s">
+      <c r="D331" t="s">
         <v>2904</v>
-      </c>
-      <c r="D331" t="s">
-        <v>2905</v>
       </c>
       <c r="E331" t="s">
         <v>711</v>
@@ -32601,48 +32602,48 @@
         <v>21</v>
       </c>
       <c r="G331" t="s">
+        <v>2905</v>
+      </c>
+      <c r="H331" t="s">
+        <v>28</v>
+      </c>
+      <c r="I331" t="s">
         <v>2906</v>
-      </c>
-      <c r="H331" t="s">
-        <v>28</v>
-      </c>
-      <c r="I331" t="s">
-        <v>2907</v>
       </c>
       <c r="J331" t="s">
         <v>900</v>
       </c>
       <c r="K331" t="s">
+        <v>2907</v>
+      </c>
+      <c r="L331" t="s">
         <v>2908</v>
       </c>
-      <c r="L331" t="s">
+      <c r="M331" t="s">
+        <v>28</v>
+      </c>
+      <c r="N331" t="s">
+        <v>28</v>
+      </c>
+      <c r="O331" t="s">
+        <v>30</v>
+      </c>
+      <c r="P331" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
         <v>2909</v>
       </c>
-      <c r="M331" t="s">
-        <v>28</v>
-      </c>
-      <c r="N331" t="s">
-        <v>28</v>
-      </c>
-      <c r="O331" t="s">
-        <v>30</v>
-      </c>
-      <c r="P331" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
+      <c r="B332" t="s">
         <v>2910</v>
       </c>
-      <c r="B332" t="s">
+      <c r="C332" t="s">
         <v>2911</v>
       </c>
-      <c r="C332" t="s">
+      <c r="D332" t="s">
         <v>2912</v>
-      </c>
-      <c r="D332" t="s">
-        <v>2913</v>
       </c>
       <c r="E332" t="s">
         <v>711</v>
@@ -32651,45 +32652,45 @@
         <v>21</v>
       </c>
       <c r="G332" t="s">
+        <v>2913</v>
+      </c>
+      <c r="H332" t="s">
+        <v>28</v>
+      </c>
+      <c r="I332" t="s">
         <v>2914</v>
-      </c>
-      <c r="H332" t="s">
-        <v>28</v>
-      </c>
-      <c r="I332" t="s">
-        <v>2915</v>
       </c>
       <c r="J332" t="s">
         <v>1591</v>
       </c>
       <c r="K332" t="s">
+        <v>2915</v>
+      </c>
+      <c r="L332" t="s">
         <v>2916</v>
       </c>
-      <c r="L332" t="s">
+      <c r="M332" t="s">
+        <v>28</v>
+      </c>
+      <c r="N332" t="s">
+        <v>28</v>
+      </c>
+      <c r="O332" t="s">
+        <v>30</v>
+      </c>
+      <c r="P332" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
         <v>2917</v>
       </c>
-      <c r="M332" t="s">
-        <v>28</v>
-      </c>
-      <c r="N332" t="s">
-        <v>28</v>
-      </c>
-      <c r="O332" t="s">
-        <v>30</v>
-      </c>
-      <c r="P332" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
+      <c r="B333" t="s">
         <v>2918</v>
       </c>
-      <c r="B333" t="s">
+      <c r="C333" t="s">
         <v>2919</v>
-      </c>
-      <c r="C333" t="s">
-        <v>2920</v>
       </c>
       <c r="D333" t="s">
         <v>2812</v>
@@ -32701,48 +32702,48 @@
         <v>21</v>
       </c>
       <c r="G333" t="s">
+        <v>2920</v>
+      </c>
+      <c r="H333" t="s">
+        <v>28</v>
+      </c>
+      <c r="I333" t="s">
         <v>2921</v>
       </c>
-      <c r="H333" t="s">
-        <v>28</v>
-      </c>
-      <c r="I333" t="s">
+      <c r="J333" t="s">
         <v>2922</v>
       </c>
-      <c r="J333" t="s">
+      <c r="K333" t="s">
         <v>2923</v>
       </c>
-      <c r="K333" t="s">
+      <c r="L333" t="s">
         <v>2924</v>
       </c>
-      <c r="L333" t="s">
+      <c r="M333" t="s">
+        <v>28</v>
+      </c>
+      <c r="N333" t="s">
+        <v>28</v>
+      </c>
+      <c r="O333" t="s">
+        <v>30</v>
+      </c>
+      <c r="P333" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
         <v>2925</v>
       </c>
-      <c r="M333" t="s">
-        <v>28</v>
-      </c>
-      <c r="N333" t="s">
-        <v>28</v>
-      </c>
-      <c r="O333" t="s">
-        <v>30</v>
-      </c>
-      <c r="P333" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
+      <c r="B334" t="s">
         <v>2926</v>
       </c>
-      <c r="B334" t="s">
+      <c r="C334" t="s">
         <v>2927</v>
       </c>
-      <c r="C334" t="s">
+      <c r="D334" t="s">
         <v>2928</v>
-      </c>
-      <c r="D334" t="s">
-        <v>2929</v>
       </c>
       <c r="E334" t="s">
         <v>711</v>
@@ -32751,19 +32752,19 @@
         <v>21</v>
       </c>
       <c r="G334" t="s">
+        <v>2929</v>
+      </c>
+      <c r="H334" t="s">
+        <v>28</v>
+      </c>
+      <c r="I334" t="s">
         <v>2930</v>
       </c>
-      <c r="H334" t="s">
-        <v>28</v>
-      </c>
-      <c r="I334" t="s">
+      <c r="J334" t="s">
         <v>2931</v>
       </c>
-      <c r="J334" t="s">
+      <c r="K334" t="s">
         <v>2932</v>
-      </c>
-      <c r="K334" t="s">
-        <v>2933</v>
       </c>
       <c r="L334" t="s">
         <v>1119</v>
@@ -32781,18 +32782,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B335" t="s">
         <v>2934</v>
       </c>
-      <c r="B335" t="s">
+      <c r="C335" t="s">
         <v>2935</v>
       </c>
-      <c r="C335" t="s">
+      <c r="D335" t="s">
         <v>2936</v>
-      </c>
-      <c r="D335" t="s">
-        <v>2937</v>
       </c>
       <c r="E335" t="s">
         <v>711</v>
@@ -32801,19 +32802,19 @@
         <v>21</v>
       </c>
       <c r="G335" t="s">
+        <v>2937</v>
+      </c>
+      <c r="H335" t="s">
         <v>2938</v>
       </c>
-      <c r="H335" t="s">
-        <v>2939</v>
-      </c>
       <c r="I335" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="J335" t="s">
         <v>1301</v>
       </c>
       <c r="K335" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="L335" t="s">
         <v>2214</v>
@@ -32831,18 +32832,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
+        <v>2940</v>
+      </c>
+      <c r="B336" t="s">
         <v>2941</v>
       </c>
-      <c r="B336" t="s">
+      <c r="C336" t="s">
         <v>2942</v>
       </c>
-      <c r="C336" t="s">
+      <c r="D336" t="s">
         <v>2943</v>
-      </c>
-      <c r="D336" t="s">
-        <v>2944</v>
       </c>
       <c r="E336" t="s">
         <v>711</v>
@@ -32851,19 +32852,19 @@
         <v>21</v>
       </c>
       <c r="G336" t="s">
+        <v>2944</v>
+      </c>
+      <c r="H336" t="s">
+        <v>28</v>
+      </c>
+      <c r="I336" t="s">
         <v>2945</v>
-      </c>
-      <c r="H336" t="s">
-        <v>28</v>
-      </c>
-      <c r="I336" t="s">
-        <v>2946</v>
       </c>
       <c r="J336" t="s">
         <v>417</v>
       </c>
       <c r="K336" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="L336" t="s">
         <v>611</v>
@@ -32881,18 +32882,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
+        <v>2947</v>
+      </c>
+      <c r="B337" t="s">
         <v>2948</v>
       </c>
-      <c r="B337" t="s">
+      <c r="C337" t="s">
         <v>2949</v>
       </c>
-      <c r="C337" t="s">
+      <c r="D337" t="s">
         <v>2950</v>
-      </c>
-      <c r="D337" t="s">
-        <v>2951</v>
       </c>
       <c r="E337" t="s">
         <v>711</v>
@@ -32901,19 +32902,19 @@
         <v>21</v>
       </c>
       <c r="G337" t="s">
+        <v>2951</v>
+      </c>
+      <c r="H337" t="s">
+        <v>28</v>
+      </c>
+      <c r="I337" t="s">
         <v>2952</v>
       </c>
-      <c r="H337" t="s">
-        <v>28</v>
-      </c>
-      <c r="I337" t="s">
+      <c r="J337" t="s">
         <v>2953</v>
       </c>
-      <c r="J337" t="s">
+      <c r="K337" t="s">
         <v>2954</v>
-      </c>
-      <c r="K337" t="s">
-        <v>2955</v>
       </c>
       <c r="L337" t="s">
         <v>547</v>
@@ -32931,18 +32932,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B338" t="s">
         <v>2956</v>
       </c>
-      <c r="B338" t="s">
+      <c r="C338" t="s">
         <v>2957</v>
       </c>
-      <c r="C338" t="s">
+      <c r="D338" t="s">
         <v>2958</v>
-      </c>
-      <c r="D338" t="s">
-        <v>2959</v>
       </c>
       <c r="E338" t="s">
         <v>711</v>
@@ -32951,48 +32952,48 @@
         <v>21</v>
       </c>
       <c r="G338" t="s">
+        <v>2959</v>
+      </c>
+      <c r="H338" t="s">
         <v>2960</v>
       </c>
-      <c r="H338" t="s">
+      <c r="I338" t="s">
+        <v>2959</v>
+      </c>
+      <c r="J338" t="s">
         <v>2961</v>
       </c>
-      <c r="I338" t="s">
-        <v>2960</v>
-      </c>
-      <c r="J338" t="s">
+      <c r="K338" t="s">
         <v>2962</v>
       </c>
-      <c r="K338" t="s">
+      <c r="L338" t="s">
         <v>2963</v>
       </c>
-      <c r="L338" t="s">
+      <c r="M338" t="s">
+        <v>28</v>
+      </c>
+      <c r="N338" t="s">
+        <v>28</v>
+      </c>
+      <c r="O338" t="s">
+        <v>30</v>
+      </c>
+      <c r="P338" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
         <v>2964</v>
       </c>
-      <c r="M338" t="s">
-        <v>28</v>
-      </c>
-      <c r="N338" t="s">
-        <v>28</v>
-      </c>
-      <c r="O338" t="s">
-        <v>30</v>
-      </c>
-      <c r="P338" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
+      <c r="B339" t="s">
         <v>2965</v>
       </c>
-      <c r="B339" t="s">
+      <c r="C339" t="s">
         <v>2966</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" t="s">
         <v>2967</v>
-      </c>
-      <c r="D339" t="s">
-        <v>2968</v>
       </c>
       <c r="E339" t="s">
         <v>711</v>
@@ -33001,48 +33002,48 @@
         <v>21</v>
       </c>
       <c r="G339" t="s">
+        <v>2968</v>
+      </c>
+      <c r="H339" t="s">
+        <v>28</v>
+      </c>
+      <c r="I339" t="s">
         <v>2969</v>
       </c>
-      <c r="H339" t="s">
-        <v>28</v>
-      </c>
-      <c r="I339" t="s">
+      <c r="J339" t="s">
         <v>2970</v>
       </c>
-      <c r="J339" t="s">
+      <c r="K339" t="s">
         <v>2971</v>
       </c>
-      <c r="K339" t="s">
+      <c r="L339" t="s">
         <v>2972</v>
       </c>
-      <c r="L339" t="s">
+      <c r="M339" t="s">
+        <v>28</v>
+      </c>
+      <c r="N339" t="s">
+        <v>28</v>
+      </c>
+      <c r="O339" t="s">
+        <v>30</v>
+      </c>
+      <c r="P339" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
         <v>2973</v>
       </c>
-      <c r="M339" t="s">
-        <v>28</v>
-      </c>
-      <c r="N339" t="s">
-        <v>28</v>
-      </c>
-      <c r="O339" t="s">
-        <v>30</v>
-      </c>
-      <c r="P339" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
+      <c r="B340" t="s">
         <v>2974</v>
       </c>
-      <c r="B340" t="s">
+      <c r="C340" t="s">
         <v>2975</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" t="s">
         <v>2976</v>
-      </c>
-      <c r="D340" t="s">
-        <v>2977</v>
       </c>
       <c r="E340" t="s">
         <v>711</v>
@@ -33051,48 +33052,48 @@
         <v>21</v>
       </c>
       <c r="G340" t="s">
+        <v>2977</v>
+      </c>
+      <c r="H340" t="s">
         <v>2978</v>
       </c>
-      <c r="H340" t="s">
+      <c r="I340" t="s">
         <v>2979</v>
       </c>
-      <c r="I340" t="s">
+      <c r="J340" t="s">
         <v>2980</v>
       </c>
-      <c r="J340" t="s">
+      <c r="K340" t="s">
         <v>2981</v>
       </c>
-      <c r="K340" t="s">
+      <c r="L340" t="s">
         <v>2982</v>
       </c>
-      <c r="L340" t="s">
+      <c r="M340" t="s">
+        <v>28</v>
+      </c>
+      <c r="N340" t="s">
+        <v>28</v>
+      </c>
+      <c r="O340" t="s">
+        <v>30</v>
+      </c>
+      <c r="P340" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
         <v>2983</v>
       </c>
-      <c r="M340" t="s">
-        <v>28</v>
-      </c>
-      <c r="N340" t="s">
-        <v>28</v>
-      </c>
-      <c r="O340" t="s">
-        <v>30</v>
-      </c>
-      <c r="P340" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
+      <c r="B341" t="s">
         <v>2984</v>
       </c>
-      <c r="B341" t="s">
+      <c r="C341" t="s">
         <v>2985</v>
       </c>
-      <c r="C341" t="s">
+      <c r="D341" t="s">
         <v>2986</v>
-      </c>
-      <c r="D341" t="s">
-        <v>2987</v>
       </c>
       <c r="E341" t="s">
         <v>711</v>
@@ -33101,23 +33102,23 @@
         <v>21</v>
       </c>
       <c r="G341" t="s">
+        <v>2987</v>
+      </c>
+      <c r="H341" t="s">
         <v>2988</v>
       </c>
-      <c r="H341" t="s">
+      <c r="I341" t="s">
         <v>2989</v>
       </c>
-      <c r="I341" t="s">
+      <c r="J341" t="s">
         <v>2990</v>
       </c>
-      <c r="J341" t="s">
+      <c r="K341" t="s">
         <v>2991</v>
       </c>
-      <c r="K341" t="s">
+      <c r="L341" t="s">
         <v>2992</v>
       </c>
-      <c r="L341" t="s">
-        <v>2841</v>
-      </c>
       <c r="M341" t="s">
         <v>28</v>
       </c>
@@ -33131,7 +33132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>2993</v>
       </c>
@@ -33181,7 +33182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>3001</v>
       </c>
@@ -33231,7 +33232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>3009</v>
       </c>
@@ -33281,7 +33282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>3018</v>
       </c>
@@ -33331,7 +33332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>3025</v>
       </c>
@@ -33381,7 +33382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>3030</v>
       </c>
@@ -33431,7 +33432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>3037</v>
       </c>
@@ -33481,7 +33482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>3046</v>
       </c>
@@ -33531,7 +33532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>3054</v>
       </c>
@@ -33581,7 +33582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>3064</v>
       </c>
@@ -33631,7 +33632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>3073</v>
       </c>
@@ -33681,7 +33682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>3081</v>
       </c>
@@ -33731,7 +33732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>3089</v>
       </c>
@@ -33781,7 +33782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>3098</v>
       </c>
@@ -33831,7 +33832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>3106</v>
       </c>
@@ -33881,7 +33882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>3114</v>
       </c>
@@ -33931,7 +33932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>3124</v>
       </c>
@@ -33981,7 +33982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>3133</v>
       </c>
@@ -34016,7 +34017,7 @@
         <v>3140</v>
       </c>
       <c r="L359" t="s">
-        <v>2841</v>
+        <v>2992</v>
       </c>
       <c r="M359" t="s">
         <v>28</v>
@@ -34031,7 +34032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>3141</v>
       </c>
@@ -34081,7 +34082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>3149</v>
       </c>
@@ -34131,7 +34132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>3156</v>
       </c>
@@ -34181,7 +34182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>3164</v>
       </c>
@@ -34231,7 +34232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>3172</v>
       </c>
@@ -34281,7 +34282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>3180</v>
       </c>
@@ -34331,7 +34332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>3188</v>
       </c>
@@ -34381,7 +34382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>3197</v>
       </c>
@@ -34431,7 +34432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>3203</v>
       </c>
@@ -34481,7 +34482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>3210</v>
       </c>
@@ -34531,7 +34532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>3219</v>
       </c>
@@ -34581,7 +34582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>3227</v>
       </c>
@@ -34631,7 +34632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>3234</v>
       </c>
@@ -34681,7 +34682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>3242</v>
       </c>
@@ -34731,7 +34732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>3250</v>
       </c>
@@ -34781,7 +34782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>3259</v>
       </c>
@@ -34831,7 +34832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>3268</v>
       </c>
@@ -34881,7 +34882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>3277</v>
       </c>
@@ -34931,7 +34932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>3285</v>
       </c>
@@ -34950,7 +34951,7 @@
       <c r="F378" t="s">
         <v>21</v>
       </c>
-      <c r="G378" s="1" t="s">
+      <c r="G378" t="s">
         <v>3289</v>
       </c>
       <c r="H378" t="s">
@@ -34981,7 +34982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>3295</v>
       </c>
@@ -35031,7 +35032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>3305</v>
       </c>
@@ -35081,7 +35082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>3313</v>
       </c>
@@ -35131,7 +35132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>3323</v>
       </c>
@@ -35181,7 +35182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>3332</v>
       </c>
@@ -35231,7 +35232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>3341</v>
       </c>
@@ -35281,7 +35282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>3351</v>
       </c>
@@ -35331,7 +35332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>3359</v>
       </c>
@@ -35381,7 +35382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>3369</v>
       </c>
@@ -35431,7 +35432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>3377</v>
       </c>
@@ -35481,7 +35482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>3385</v>
       </c>
@@ -35531,7 +35532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>3393</v>
       </c>
@@ -35581,7 +35582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>3400</v>
       </c>
@@ -35631,7 +35632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>3409</v>
       </c>
@@ -35681,7 +35682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>3417</v>
       </c>
@@ -35731,7 +35732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>3425</v>
       </c>
@@ -35781,7 +35782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>3433</v>
       </c>
@@ -35831,7 +35832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>3441</v>
       </c>
@@ -35881,7 +35882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>3449</v>
       </c>
@@ -35931,7 +35932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>3457</v>
       </c>
@@ -35981,7 +35982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>3466</v>
       </c>
@@ -36031,7 +36032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>3473</v>
       </c>
@@ -36081,7 +36082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>3481</v>
       </c>
@@ -36131,7 +36132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>3489</v>
       </c>
@@ -36181,7 +36182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>3497</v>
       </c>
@@ -36231,7 +36232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>3506</v>
       </c>
@@ -36281,7 +36282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>3513</v>
       </c>
@@ -36331,7 +36332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>3521</v>
       </c>
@@ -36381,7 +36382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>3529</v>
       </c>
@@ -36431,7 +36432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>3537</v>
       </c>
@@ -36481,7 +36482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>3544</v>
       </c>
@@ -36531,7 +36532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>3551</v>
       </c>
@@ -36560,7 +36561,7 @@
         <v>3557</v>
       </c>
       <c r="J410" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="K410" t="s">
         <v>3558</v>
@@ -36581,7 +36582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>3559</v>
       </c>
@@ -36631,7 +36632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>3566</v>
       </c>
@@ -36681,7 +36682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>3574</v>
       </c>
@@ -36710,7 +36711,7 @@
         <v>3579</v>
       </c>
       <c r="J413" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="K413" t="s">
         <v>3580</v>
@@ -36731,7 +36732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>3582</v>
       </c>
@@ -36781,7 +36782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>3589</v>
       </c>
@@ -36831,7 +36832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>3597</v>
       </c>
@@ -36881,7 +36882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>3606</v>
       </c>
@@ -36931,7 +36932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>3614</v>
       </c>
@@ -36981,7 +36982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>3620</v>
       </c>
@@ -37031,7 +37032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>3627</v>
       </c>
@@ -37081,7 +37082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>3634</v>
       </c>
@@ -37131,7 +37132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>3643</v>
       </c>
@@ -37181,7 +37182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>3651</v>
       </c>
@@ -37231,7 +37232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>3659</v>
       </c>
@@ -37281,7 +37282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>3667</v>
       </c>
@@ -37331,7 +37332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>3676</v>
       </c>
@@ -37381,7 +37382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>3683</v>
       </c>
@@ -37431,7 +37432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>3692</v>
       </c>
@@ -37481,7 +37482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>3700</v>
       </c>
@@ -37531,7 +37532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>3708</v>
       </c>
@@ -37581,7 +37582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>3717</v>
       </c>
@@ -37631,7 +37632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>3725</v>
       </c>
@@ -37681,7 +37682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>3733</v>
       </c>
@@ -37731,7 +37732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>3741</v>
       </c>
@@ -37781,7 +37782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>3749</v>
       </c>
@@ -37831,7 +37832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>3758</v>
       </c>
@@ -37881,7 +37882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>3765</v>
       </c>
@@ -37931,7 +37932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>3773</v>
       </c>
@@ -37981,7 +37982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>3780</v>
       </c>
@@ -38031,7 +38032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>3787</v>
       </c>
@@ -38081,7 +38082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>3795</v>
       </c>
@@ -38131,7 +38132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>3803</v>
       </c>
@@ -38181,7 +38182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>3811</v>
       </c>
@@ -38231,7 +38232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>3819</v>
       </c>
@@ -38281,7 +38282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>3827</v>
       </c>
@@ -38331,7 +38332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>3835</v>
       </c>
@@ -38381,7 +38382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>3844</v>
       </c>
@@ -38431,7 +38432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>3852</v>
       </c>
@@ -38481,7 +38482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>3860</v>
       </c>
@@ -38531,7 +38532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>3868</v>
       </c>
@@ -38581,7 +38582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>3876</v>
       </c>
@@ -38631,7 +38632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>3884</v>
       </c>
@@ -38681,7 +38682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>3892</v>
       </c>
@@ -38731,7 +38732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>3899</v>
       </c>
@@ -38781,7 +38782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>3908</v>
       </c>
@@ -38831,7 +38832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>3916</v>
       </c>
@@ -38881,7 +38882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>3923</v>
       </c>
@@ -38931,7 +38932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>3930</v>
       </c>
@@ -38981,7 +38982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>3939</v>
       </c>
@@ -39031,7 +39032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>3945</v>
       </c>
@@ -39081,7 +39082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>3948</v>
       </c>
@@ -39131,7 +39132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>3956</v>
       </c>
@@ -39181,7 +39182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>3963</v>
       </c>
@@ -39231,7 +39232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>3971</v>
       </c>
@@ -39281,7 +39282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>3978</v>
       </c>
@@ -39331,7 +39332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>3986</v>
       </c>
@@ -39381,7 +39382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>3993</v>
       </c>
@@ -39431,7 +39432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>4001</v>
       </c>
@@ -39481,7 +39482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>4009</v>
       </c>
@@ -39531,7 +39532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>4017</v>
       </c>
@@ -39581,7 +39582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>4024</v>
       </c>
@@ -39631,7 +39632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>4032</v>
       </c>
@@ -39681,7 +39682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>4038</v>
       </c>
@@ -39710,7 +39711,7 @@
         <v>4044</v>
       </c>
       <c r="J473" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="K473" t="s">
         <v>4045</v>
@@ -39731,7 +39732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>4046</v>
       </c>
@@ -39781,7 +39782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>4055</v>
       </c>
@@ -39831,7 +39832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>4063</v>
       </c>
@@ -39881,7 +39882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>4071</v>
       </c>
@@ -39931,7 +39932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>4078</v>
       </c>
@@ -39981,7 +39982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>4085</v>
       </c>
@@ -40031,7 +40032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>4093</v>
       </c>
@@ -40081,7 +40082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>4101</v>
       </c>
@@ -40131,7 +40132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>4108</v>
       </c>
@@ -40181,7 +40182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>4116</v>
       </c>
@@ -40231,7 +40232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="484" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>4124</v>
       </c>
@@ -40281,7 +40282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="485" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>4132</v>
       </c>
@@ -40331,7 +40332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>4140</v>
       </c>
@@ -40381,7 +40382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="487" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>4147</v>
       </c>
@@ -40431,7 +40432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="488" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>4156</v>
       </c>
@@ -40450,7 +40451,7 @@
       <c r="F488" t="s">
         <v>21</v>
       </c>
-      <c r="G488" s="1" t="s">
+      <c r="G488" t="s">
         <v>4160</v>
       </c>
       <c r="H488" t="s">
@@ -40481,7 +40482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="489" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>4164</v>
       </c>
@@ -40531,7 +40532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>4172</v>
       </c>
@@ -40581,7 +40582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="491" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>4179</v>
       </c>
@@ -40631,7 +40632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="492" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>4187</v>
       </c>
@@ -40681,7 +40682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="493" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>4195</v>
       </c>
@@ -40731,7 +40732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="494" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>4203</v>
       </c>
@@ -40781,7 +40782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>4211</v>
       </c>
@@ -40831,7 +40832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="496" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>4220</v>
       </c>
@@ -40881,7 +40882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="497" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>4228</v>
       </c>
@@ -40931,7 +40932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="498" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>4235</v>
       </c>
@@ -40981,7 +40982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="499" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>4243</v>
       </c>
@@ -41031,7 +41032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>4251</v>
       </c>
@@ -41081,7 +41082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="501" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>4256</v>
       </c>
@@ -41131,7 +41132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="502" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>4264</v>
       </c>
@@ -41181,7 +41182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>4272</v>
       </c>
@@ -41231,7 +41232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="504" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>4280</v>
       </c>
@@ -41281,7 +41282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="505" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>4289</v>
       </c>
@@ -41331,7 +41332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="506" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>4296</v>
       </c>
@@ -41381,7 +41382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>4304</v>
       </c>
@@ -41431,7 +41432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="508" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>4313</v>
       </c>
@@ -41481,7 +41482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="509" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>4319</v>
       </c>
@@ -41531,7 +41532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="510" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>4327</v>
       </c>
@@ -41581,7 +41582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="511" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>4332</v>
       </c>
@@ -41631,7 +41632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="512" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>4341</v>
       </c>
@@ -41681,7 +41682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="513" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>4349</v>
       </c>
@@ -41731,7 +41732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="514" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>4357</v>
       </c>
@@ -41781,7 +41782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="515" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>4364</v>
       </c>
@@ -41831,7 +41832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="516" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>4371</v>
       </c>
@@ -41881,7 +41882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="517" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>4378</v>
       </c>
@@ -41931,7 +41932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="518" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>4386</v>
       </c>
@@ -41981,7 +41982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="519" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>4394</v>
       </c>
@@ -42031,7 +42032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="520" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>4402</v>
       </c>
@@ -42081,7 +42082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="521" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>4410</v>
       </c>
@@ -42131,7 +42132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="522" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>4418</v>
       </c>
@@ -42181,7 +42182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="523" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>4425</v>
       </c>
@@ -42231,7 +42232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="524" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>4433</v>
       </c>
@@ -42281,7 +42282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="525" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>4442</v>
       </c>
@@ -42331,7 +42332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="526" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>4449</v>
       </c>
@@ -42381,7 +42382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="527" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>4457</v>
       </c>
@@ -42431,7 +42432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="528" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>4465</v>
       </c>
@@ -42481,7 +42482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="529" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>4473</v>
       </c>
@@ -42531,7 +42532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="530" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>4481</v>
       </c>
@@ -42581,7 +42582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="531" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>4489</v>
       </c>
@@ -42631,7 +42632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="532" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>4497</v>
       </c>
@@ -42681,7 +42682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="533" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>4505</v>
       </c>
@@ -42731,7 +42732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="534" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>4512</v>
       </c>
@@ -42781,7 +42782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="535" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>4519</v>
       </c>
@@ -42831,7 +42832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="536" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>4527</v>
       </c>
@@ -42860,7 +42861,7 @@
         <v>4531</v>
       </c>
       <c r="J536" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="K536" t="s">
         <v>4533</v>
@@ -42881,7 +42882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="537" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>4534</v>
       </c>
@@ -42931,7 +42932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="538" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>4541</v>
       </c>
@@ -42981,7 +42982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="539" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>4549</v>
       </c>
@@ -43031,7 +43032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="540" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>4557</v>
       </c>
@@ -43081,7 +43082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="541" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>4565</v>
       </c>
@@ -43131,7 +43132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="542" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>4573</v>
       </c>
@@ -43181,7 +43182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="543" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>4581</v>
       </c>
@@ -43231,7 +43232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="544" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>4589</v>
       </c>
@@ -43281,7 +43282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="545" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>4597</v>
       </c>
@@ -43310,7 +43311,7 @@
         <v>4602</v>
       </c>
       <c r="J545" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="K545" t="s">
         <v>4603</v>
@@ -43331,7 +43332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="546" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>4604</v>
       </c>
@@ -43381,7 +43382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="547" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>4612</v>
       </c>
@@ -43431,7 +43432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="548" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>4620</v>
       </c>
@@ -43481,7 +43482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="549" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>4627</v>
       </c>
@@ -43531,7 +43532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="550" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>4634</v>
       </c>
@@ -43581,7 +43582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="551" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>4643</v>
       </c>
@@ -43631,7 +43632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="552" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>4651</v>
       </c>
@@ -43681,7 +43682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="553" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>4659</v>
       </c>
@@ -43731,7 +43732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="554" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>4667</v>
       </c>
@@ -43781,7 +43782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="555" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>4675</v>
       </c>
@@ -43831,7 +43832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="556" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>4682</v>
       </c>
@@ -43881,7 +43882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="557" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>4690</v>
       </c>
@@ -43931,7 +43932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="558" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>4699</v>
       </c>
@@ -43981,7 +43982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="559" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>4707</v>
       </c>
@@ -44031,7 +44032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="560" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>4715</v>
       </c>
@@ -44081,7 +44082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="561" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>4723</v>
       </c>
@@ -44131,7 +44132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="562" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>4731</v>
       </c>
@@ -44181,7 +44182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="563" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>4739</v>
       </c>
@@ -44231,7 +44232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="564" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>4745</v>
       </c>
@@ -44281,7 +44282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="565" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>4753</v>
       </c>
@@ -44331,7 +44332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="566" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>4760</v>
       </c>
@@ -44381,7 +44382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="567" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>4769</v>
       </c>
@@ -44431,7 +44432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="568" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>4777</v>
       </c>
@@ -44481,7 +44482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="569" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>4786</v>
       </c>
@@ -44531,7 +44532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="570" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>4793</v>
       </c>
@@ -44581,7 +44582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="571" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>4801</v>
       </c>
@@ -44631,7 +44632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="572" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>4809</v>
       </c>
@@ -44681,7 +44682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="573" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>4816</v>
       </c>
@@ -44731,7 +44732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="574" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>4823</v>
       </c>
@@ -44781,7 +44782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="575" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>4831</v>
       </c>
@@ -44831,7 +44832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="576" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>4839</v>
       </c>
@@ -44881,7 +44882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="577" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>4846</v>
       </c>
@@ -44931,7 +44932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="578" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>4853</v>
       </c>
@@ -44981,7 +44982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="579" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>4861</v>
       </c>
@@ -45031,7 +45032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="580" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>4869</v>
       </c>
@@ -45081,7 +45082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="581" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>4876</v>
       </c>
@@ -45110,7 +45111,7 @@
         <v>4881</v>
       </c>
       <c r="J581" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="K581" t="s">
         <v>4882</v>
@@ -45131,7 +45132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="582" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>4883</v>
       </c>
@@ -45181,7 +45182,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="583" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>4891</v>
       </c>
@@ -45231,7 +45232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="584" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>4898</v>
       </c>
@@ -45281,7 +45282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="585" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>4905</v>
       </c>
@@ -45331,7 +45332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="586" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>4912</v>
       </c>
@@ -45381,7 +45382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="587" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>4920</v>
       </c>
@@ -45431,7 +45432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="588" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>4928</v>
       </c>
@@ -45481,7 +45482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="589" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>4935</v>
       </c>
@@ -45531,7 +45532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="590" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>4943</v>
       </c>
@@ -45581,7 +45582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="591" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>4950</v>
       </c>
@@ -45631,7 +45632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="592" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>4958</v>
       </c>
@@ -45681,7 +45682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="593" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>4966</v>
       </c>
@@ -45731,7 +45732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="594" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>4973</v>
       </c>
@@ -45781,7 +45782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="595" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>4981</v>
       </c>
@@ -45831,7 +45832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="596" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>4988</v>
       </c>
@@ -45881,7 +45882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="597" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>4996</v>
       </c>
@@ -45931,7 +45932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="598" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>5003</v>
       </c>
@@ -45981,7 +45982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="599" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>5011</v>
       </c>
@@ -46031,7 +46032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="600" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>5019</v>
       </c>
@@ -46081,7 +46082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="601" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>5027</v>
       </c>
@@ -46131,7 +46132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="602" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>5034</v>
       </c>
@@ -46181,7 +46182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="603" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>5041</v>
       </c>
@@ -46231,7 +46232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="604" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>5049</v>
       </c>
@@ -46281,7 +46282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="605" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>5058</v>
       </c>
@@ -46331,7 +46332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="606" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>5066</v>
       </c>
@@ -46381,7 +46382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="607" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>5073</v>
       </c>
@@ -46431,7 +46432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="608" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>5081</v>
       </c>
@@ -46481,7 +46482,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="609" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>5089</v>
       </c>
@@ -46531,7 +46532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="610" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>5097</v>
       </c>
@@ -46581,7 +46582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="611" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>5104</v>
       </c>
@@ -46631,7 +46632,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="612" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>5112</v>
       </c>
@@ -46681,7 +46682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="613" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>5121</v>
       </c>
@@ -46731,7 +46732,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="614" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>5129</v>
       </c>
@@ -46781,7 +46782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="615" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>5138</v>
       </c>
@@ -46831,7 +46832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="616" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>5144</v>
       </c>
@@ -46881,7 +46882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="617" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>5153</v>
       </c>
@@ -46931,7 +46932,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="618" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>5162</v>
       </c>
@@ -46981,7 +46982,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="619" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>5169</v>
       </c>
@@ -47031,7 +47032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="620" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>5176</v>
       </c>
@@ -47081,7 +47082,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="621" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>5185</v>
       </c>
@@ -47131,7 +47132,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="622" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>5194</v>
       </c>
@@ -47181,7 +47182,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="623" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>5202</v>
       </c>
@@ -47231,7 +47232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="624" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:16" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>5211</v>
       </c>
@@ -47285,7 +47286,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:P322 A323:P624" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:P624" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>